--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A36AD92-93E1-4FE9-9F97-B1D422CD0035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE1C9DB-3032-4186-AAB9-108DA247DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,28 @@
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
     <sheet name="day3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>STT</t>
   </si>
@@ -182,6 +193,34 @@
   </si>
   <si>
     <t>Với chương trình trên thì ta thấy được khi 1 "Bank Account" được nhiều ngườidùng cùng "withdraw" or "deposit" cùng 1 thời điểm nhờ có  "method synchronized" đã không còn sự bất đồng bộ (tránh tình trạng nhiều người cùng rút tại 1 thời điểm dẫn tới sai lệch số tiền)</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>mutilthread</t>
+  </si>
+  <si>
+    <t>là một đối tượng trong Java được sử dụng để thực hiện nhiều tác vụ cùng một lúc. 
+Mỗi thread đại diện cho một luồng thực thi độc lập trong chương trình. Khi một chương trình Java được thực thi, nó sẽ tạo ra ít nhất một thread - thread chính, còn được gọi là main thread. Các thread khác có thể được tạo ra từ main thread hoặc từ một thread khác để thực hiện các tác vụ cụ thể, giúp chương trình có thể thực hiện nhiều tác vụ đồng thời và nhanh chóng hơn.</t>
+  </si>
+  <si>
+    <t>là kỹ thuật lập trình cho phép chương trình có thể thực hiện đồng thời nhiều tác vụ khác nhau trong một thời điểm. 
+Nó cho phép một chương trình được phân chia thành các phần nhỏ và chạy đồng thời trên nhiều luồng (threads) khác nhau để cải thiện hiệu năng và tăng khả năng đáp ứng của chương trình. Khi sử dụng multithreading, một chương trình có thể thực hiện nhiều tác vụ cùng lúc, giúp tăng tốc độ xử lý và giảm thời gian phản hồi của chương trình.</t>
+  </si>
+  <si>
+    <t>là một biến đồng bộ hóa trong Java, được sử dụng để đảm bảo rằng chỉ có một luồng có thể truy cập vào biến đó cùng một lúc. 
+Nếu một luồng đang sử dụng biến synchronized, các luồng khác phải chờ đợi cho đến khi luồng đang sử dụng kết thúc và giải phóng biến synchronized trước khi truy cập vào nó. Việc sử dụng biến synchronized giúp đảm bảo tính đúng đắn và tránh được các tình huống đua nhau (race condition) trong quá trình thực thi đa luồng.</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/java-synchronized#4-reentrancy</t>
+  </si>
+  <si>
+    <t>Sự kiểm chứng cho biến synchronized</t>
+  </si>
+  <si>
+    <t>Như có thể thấy thì khi thay đối tượng đại diện cho 2 phương thức thì có kết quả khác nhau. 
+Vậy khi 2 phương thức có đối tượng đại diện khác nhau sẽ dẫn tới hiện tượng bất đồng bộ</t>
   </si>
 </sst>
 </file>
@@ -253,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -285,21 +324,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -325,6 +355,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,38 +389,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -524,8 +578,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="20266" y="3658005"/>
-          <a:ext cx="7557986" cy="5369263"/>
+          <a:off x="20266" y="3462476"/>
+          <a:ext cx="7568494" cy="5411296"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -648,6 +702,128 @@
         <a:xfrm>
           <a:off x="81642" y="10736035"/>
           <a:ext cx="7866289" cy="3924300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6164036</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12246</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2792186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC6DC59-7923-68A4-D695-EBC49F584EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8477250" y="1020536"/>
+          <a:ext cx="7713889" cy="5105400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5729968</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2694215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D4A44F-C5E2-485F-A563-BE344F2CE2B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="367393" y="993322"/>
+          <a:ext cx="7675789" cy="5034643"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -950,27 +1126,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
     </row>
     <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
     </row>
     <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
     </row>
     <row r="4" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P4" s="7" t="s">
@@ -979,11 +1155,11 @@
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
       <c r="U4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1157,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25977106-C04A-4BDF-83D6-AA6BE76B6728}">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,285 +1345,300 @@
     <col min="3" max="3" width="127.140625" customWidth="1"/>
     <col min="4" max="4" width="71.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" customWidth="1"/>
+    <col min="12" max="12" width="72.140625" customWidth="1"/>
+    <col min="13" max="13" width="74.7109375" customWidth="1"/>
+    <col min="14" max="14" width="82.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    </row>
+    <row r="3" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="K3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="N3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="18"/>
+      <c r="K4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="N4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    </row>
+    <row r="5" spans="1:14" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="K5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="N5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    </row>
+    <row r="6" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="K6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="3">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="3">
+        <v>7</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
     </row>
     <row r="70" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A68:C70"/>
     <mergeCell ref="A39:C42"/>
     <mergeCell ref="A7:C8"/>
@@ -1456,13 +1647,14 @@
     <mergeCell ref="A43:C44"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://stackoverflow.com/questions/15070513/how-to-test-a-non-thread-safe-class" xr:uid="{099E06CC-9B91-4197-87D0-C20037FCDD31}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://www.baeldung.com/java-thread-safety" xr:uid="{38025520-86A2-467A-A1B7-7A2F5813FD38}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{67109424-1466-4B6B-9C24-42F7B661600F}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{5D163F4B-4A2A-427E-8ABC-EBDDEB47C63C}"/>
+    <hyperlink ref="N2" r:id="rId1" display="https://stackoverflow.com/questions/15070513/how-to-test-a-non-thread-safe-class" xr:uid="{AF80577A-A125-48C9-AA50-5BBE662AA378}"/>
+    <hyperlink ref="N3" r:id="rId2" display="https://www.baeldung.com/java-thread-safety" xr:uid="{C1945518-65A5-43C4-A7C3-0AB5B0EA6DE6}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{F6BBD934-A547-4D3A-A18E-DBB296712BB7}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{AB87879D-41CA-4D0A-BC91-EEAA9A792E8B}"/>
+    <hyperlink ref="N6" r:id="rId5" location="4-reentrancy" xr:uid="{F4526B1D-3B6D-4BBD-A91D-7781541ECE62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE1C9DB-3032-4186-AAB9-108DA247DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733DFC98-D52E-49DD-B545-873A8CDDAE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
     <sheet name="day3" sheetId="2" r:id="rId2"/>
+    <sheet name="day4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -222,12 +223,76 @@
     <t>Như có thể thấy thì khi thay đối tượng đại diện cho 2 phương thức thì có kết quả khác nhau. 
 Vậy khi 2 phương thức có đối tượng đại diện khác nhau sẽ dẫn tới hiện tượng bất đồng bộ</t>
   </si>
+  <si>
+    <t>Nội dụng</t>
+  </si>
+  <si>
+    <t>Thread Pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là một nhóm các thread được sử dụng để thực hiện các tác vụ trong ứng dụng đa luồng. 
+Thay vì tạo ra một thread mới cho mỗi tác vụ, thread pool sử dụng một nhóm thread đã có sẵn để xử lý các tác vụ. Khi một tác vụ được gửi đến thread pool, nó sẽ được đưa vào một hàng đợi. Một thread từ nhóm thread sẽ được chọn để xử lý tác vụ đầu tiên trong hàng đợi. Khi tác vụ đó hoàn thành, thread đó sẽ được trả lại cho pool và sẵn sàng để xử lý các tác vụ tiếp theo. Thread pool giúp giảm tải cho hệ thống và tăng hiệu suất bằng cách sử dụng lại các thread đã có sẵn thay vì tạo ra các thread mới mỗi khi có một tác vụ được yêu cầu.</t>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/tim-hieu-ve-thread-pool-trong-java-OeVKBDQMlkW</t>
+  </si>
+  <si>
+    <t>Connection pool</t>
+  </si>
+  <si>
+    <t>là một kỹ thuật để tối ưu hóa việc kết nối và sử dụng cơ sở dữ liệu trong các ứng dụng web hoặc các ứng dụng sử dụng cơ sở dữ liệu. 
+Connection pool sử dụng một bộ sưu tập các kết nối được tạo trước với cơ sở dữ liệu và sẵn sàng để sử dụng bất cứ lúc nào một yêu cầu kết nối được gửi đến. Khi ứng dụng cần thực hiện một truy vấn, nó yêu cầu một kết nối từ pool, sử dụng nó và sau đó trả lại kết nối đó vào pool khi nó hoàn thành tác vụ. Việc sử dụng connection pool giúp tối ưu hóa hiệu suất của ứng dụng và giảm thiểu số lượng tài nguyên cần thiết để kết nối và sử dụng cơ sở dữ liệu.</t>
+  </si>
+  <si>
+    <t>String pool</t>
+  </si>
+  <si>
+    <t>là một kỹ thuật được sử dụng để giảm thiểu việc tạo ra các đối tượng String mới trong chương trình. 
+Khi tạo ra một đối tượng String, nó sẽ được đặt trong một vùng nhớ đặc biệt được gọi là String pool. Khi một đối tượng String mới được tạo ra với cùng một giá trị với một đối tượng String đã tồn tại trong String pool, thì thay vì tạo ra một đối tượng String mới, JVM sẽ trả về tham chiếu của đối tượng String đã có trong String pool.</t>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/string-pool-la-gi-
+https://levunguyen.com/laptrinhjava/2020/01/16/bo-nho-heap-va-stack-trong-lap-trinh-java/#:~:text=B%E1%BB%99%20nh%E1%BB%9B%20Heap%20l%C3%A0%20b%E1%BB%99,th%E1%BB%B1c%20thi%20to%C3%A1n%20t%E1%BB%AD%20new).</t>
+  </si>
+  <si>
+    <t>Biến tham chiếu</t>
+  </si>
+  <si>
+    <t>tham trị (pass-by-value) được sử dụng để truyền đối số vào các phương thức. 
+Khi đối số được truyền vào một phương thức, một bản sao của giá trị đó sẽ được tạo ra và truyền vào. Các thay đổi được thực hiện trong phương thức sẽ không ảnh hưởng đến giá trị của biến ban đầu.</t>
+  </si>
+  <si>
+    <t>Biến tham trị</t>
+  </si>
+  <si>
+    <t>tham chiếu (pass-by-reference) được sử dụng cho các đối tượng. Khi một đối tượng được truyền vào một phương thức, 
+một tham chiếu đến đối tượng đó sẽ được tạo ra và truyền vào phương thức. Các thay đổi được thực hiện trên đối tượng đó trong phương thức sẽ ảnh hưởng đến đối tượng ban đầu</t>
+  </si>
+  <si>
+    <t>Kiểm chứng biến tham chiếu</t>
+  </si>
+  <si>
+    <t>Kiểm chứng biến tham trị</t>
+  </si>
+  <si>
+    <t>Kiểm chứng bộ nhớ, performance "String" và "StringBuilder"</t>
+  </si>
+  <si>
+    <t>Như có thể thấy thì về cả performance và bộ nhớ của String Builder hơn hẳn</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/java-connection-pooling
+https://codelearn.io/sharing/connection-pool-ket-noi-database</t>
+  </si>
+  <si>
+    <t>Thời gian đo performance của các collection với các action</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +336,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +369,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -324,12 +408,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -377,6 +470,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,6 +489,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -404,25 +516,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -490,16 +603,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>502227</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>952499</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>2199047</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>68787</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2043183</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>86105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -522,7 +635,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9594272" y="5420590"/>
+          <a:off x="11880272" y="6199908"/>
           <a:ext cx="3532548" cy="8935697"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -731,7 +844,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>12246</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2792186</xdr:rowOff>
+      <xdr:rowOff>1485901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -784,22 +897,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>367393</xdr:colOff>
+      <xdr:colOff>54429</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5729968</xdr:colOff>
+      <xdr:colOff>5359854</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2694215</xdr:rowOff>
+      <xdr:rowOff>1450521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D4A44F-C5E2-485F-A563-BE344F2CE2B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DF58DD-D311-AE9E-8A5D-CEF88AB3ED77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -822,8 +935,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="367393" y="993322"/>
-          <a:ext cx="7675789" cy="5034643"/>
+          <a:off x="54429" y="802821"/>
+          <a:ext cx="7618639" cy="4974771"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -838,6 +951,177 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>525518</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>89339</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1125702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2920738E-093E-43D0-36CF-9E30AE0AF704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14900604" y="1707931"/>
+          <a:ext cx="7534166" cy="2406650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>394138</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>488841</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889DFBD5-9EE0-35BC-4666-DA48E8CCAF22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14769224" y="5309914"/>
+          <a:ext cx="6838841" cy="2654300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>580258</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152806</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>136899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93C5651-8182-51F6-7FC4-8BC0C1303C15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15568448" y="8681983"/>
+          <a:ext cx="4477375" cy="2676899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1108,45 +1392,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="P1:V11"/>
+  <dimension ref="P1:V16"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+    <sheetView topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
     <col min="16" max="16" width="27.5703125" customWidth="1"/>
     <col min="17" max="17" width="36.7109375" customWidth="1"/>
     <col min="18" max="18" width="32.85546875" customWidth="1"/>
     <col min="19" max="19" width="38.140625" customWidth="1"/>
-    <col min="20" max="20" width="37.28515625" customWidth="1"/>
+    <col min="20" max="20" width="61.42578125" customWidth="1"/>
     <col min="21" max="21" width="60.28515625" customWidth="1"/>
     <col min="22" max="22" width="124.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
     </row>
     <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
     </row>
     <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
     </row>
     <row r="4" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P4" s="7" t="s">
@@ -1155,11 +1440,11 @@
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
       <c r="U4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1312,10 +1597,31 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P14" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+    </row>
+    <row r="15" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+    </row>
+    <row r="16" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="R4:T4"/>
     <mergeCell ref="P1:T3"/>
+    <mergeCell ref="P14:S16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V6" r:id="rId1" display="https://stackoverflow.com/questions/24462513/time-complexity-for-java-arraylist-removeelement" xr:uid="{0196440D-03A1-4EF2-AF51-34FA0CFA4E15}"/>
@@ -1335,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25977106-C04A-4BDF-83D6-AA6BE76B6728}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="I5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,18 +1657,18 @@
     <col min="14" max="14" width="82.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="13"/>
       <c r="K1" s="7" t="s">
         <v>0</v>
@@ -1377,13 +1683,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+    <row r="2" spans="1:14" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="K2" s="3">
         <v>1</v>
       </c>
@@ -1451,8 +1757,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:14" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="29"/>
@@ -1472,21 +1778,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="3">
         <v>6</v>
       </c>
@@ -1498,17 +1804,17 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+    <row r="8" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="3">
         <v>7</v>
       </c>
@@ -1521,119 +1827,85 @@
       <c r="N8" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
     </row>
     <row r="70" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1657,4 +1929,438 @@
   <pageSetup orientation="portrait" r:id="rId6"/>
   <drawing r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C39CBF-243C-46B8-A97D-C9A6BCF6006E}">
+  <dimension ref="A1:Q41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="115.140625" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+    </row>
+    <row r="2" spans="1:17" ht="110.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+    </row>
+    <row r="3" spans="1:17" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+    </row>
+    <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+    </row>
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+    </row>
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E40" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F2:Q2"/>
+    <mergeCell ref="E5:Q6"/>
+    <mergeCell ref="E22:P24"/>
+    <mergeCell ref="E40:P41"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3D14D563-A18C-4362-B2CD-8D8339C1C427}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www.baeldung.com/java-connection-pooling" xr:uid="{C6D19347-A59D-426C-9D1E-C2B07B6CDCC2}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://viblo.asia/p/string-pool-la-gi-_x000a_" xr:uid="{6F55EEC8-830E-42C3-9431-2030A8B28A12}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+</worksheet>
 </file>
--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733DFC98-D52E-49DD-B545-873A8CDDAE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A537FE1-C107-4C40-A4F9-7924A8BE8778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
     <sheet name="day3" sheetId="2" r:id="rId2"/>
     <sheet name="day4" sheetId="3" r:id="rId3"/>
+    <sheet name="day5" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="118">
   <si>
     <t>STT</t>
   </si>
@@ -287,12 +291,144 @@
   <si>
     <t>Thời gian đo performance của các collection với các action</t>
   </si>
+  <si>
+    <t>Ý nghĩa của việc coding covention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dễ đọc và hiểu: Khi tuân thủ các quy tắc định dạng và kiểu code, các dev khác có thể dễ đọc, hiểu và bảo trì mã nguồn </t>
+  </si>
+  <si>
+    <t>Dễ chia sẽ và tái sử dụng: khi các đoạn mã được viết theo tiêu chuẩn chung có thể dễ dàng chia sẽ và tái sử dụng bởi các dev khác, từ đó giúp tăng tính sử dụng và hiệu quả của mã nguồn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đảm bảo tính thống nhất khi viết code </t>
+  </si>
+  <si>
+    <t>Dễ bảo trì giúp giám chi phí và thời gian sửa</t>
+  </si>
+  <si>
+    <t>Bảng phím tắt trên Eclipse</t>
+  </si>
+  <si>
+    <t>Phím tắt</t>
+  </si>
+  <si>
+    <t>Ý nghĩa sử dụng</t>
+  </si>
+  <si>
+    <t>Ctrl + Space</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách đề xuất code</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + O</t>
+  </si>
+  <si>
+    <t>Tự động nhập các import cần thiết cho mã nguồn.</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + F</t>
+  </si>
+  <si>
+    <t>Định dạng mã nguồn cho phù hợp với code style.</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + T</t>
+  </si>
+  <si>
+    <t>Tìm kiếm một lớp (class) hoặc một file.</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + R</t>
+  </si>
+  <si>
+    <t>Tìm kiếm một tệp trong toàn bộ workspace.</t>
+  </si>
+  <si>
+    <t>Ctrl + D</t>
+  </si>
+  <si>
+    <t>Xóa dòng hiện tại hoặc dòng được chọn.</t>
+  </si>
+  <si>
+    <t>Ctrl + /</t>
+  </si>
+  <si>
+    <t>Thêm hoặc xóa dấu comment cho dòng được chọn.</t>
+  </si>
+  <si>
+    <t>Ctrl + O</t>
+  </si>
+  <si>
+    <t>Hiển thị các trường và method trong class</t>
+  </si>
+  <si>
+    <t>Ctrl + F11</t>
+  </si>
+  <si>
+    <t>Chạy class java đang mở nếu có hàm main tồn tại hoặc nếu không thì chạy class java được khởi chạy lần cuối</t>
+  </si>
+  <si>
+    <t>Ctrl + E</t>
+  </si>
+  <si>
+    <t>Hiển thị các option các file hiện tại đang mở và select để đến file đó</t>
+  </si>
+  <si>
+    <t>Ctrl + Left Mouse</t>
+  </si>
+  <si>
+    <t>Ctrl + .</t>
+  </si>
+  <si>
+    <t>Di chuyển tới lỗi tiếp theo</t>
+  </si>
+  <si>
+    <t>Ctrl + ,</t>
+  </si>
+  <si>
+    <t>Di chuyển tới lỗi trước</t>
+  </si>
+  <si>
+    <t>Di chuyển con trỏ đến phần khai báo biến hoặc mở file "declared type" hoặc file "implement"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl + K	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm văn bản được bôi đen tiếp theo </t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + G</t>
+  </si>
+  <si>
+    <t>Search for references in the workspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift + F2	</t>
+  </si>
+  <si>
+    <t>Shows the javadoc of the method, class</t>
+  </si>
+  <si>
+    <t>Alt + Shift + R</t>
+  </si>
+  <si>
+    <t>Rename of package, class etc</t>
+  </si>
+  <si>
+    <t>Alt + Shift + T</t>
+  </si>
+  <si>
+    <t>Opens the quick refactoring menu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +485,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +515,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +629,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,6 +649,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,36 +670,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -844,7 +993,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>12246</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1485901</xdr:rowOff>
+      <xdr:rowOff>900793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -905,7 +1054,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>5359854</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1450521</xdr:rowOff>
+      <xdr:rowOff>865413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1127,6 +1276,89 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4099" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E39113-A1A1-FC7A-73A5-816B0B1281BE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Word.Document.12">
+    <oleItems>
+      <oleItem name="'" icon="1" preferPic="1"/>
+    </oleItems>
+  </oleLink>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1411,27 +1643,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
     </row>
     <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
     </row>
     <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P4" s="7" t="s">
@@ -1440,11 +1672,11 @@
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
       <c r="U4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1598,24 +1830,24 @@
       </c>
     </row>
     <row r="14" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
     </row>
     <row r="15" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
     </row>
     <row r="16" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1641,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25977106-C04A-4BDF-83D6-AA6BE76B6728}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="I5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,17 +1890,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="13"/>
       <c r="K1" s="7" t="s">
         <v>0</v>
@@ -1721,7 +1953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
@@ -1758,13 +1990,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="K6" s="3">
         <v>5</v>
       </c>
@@ -1779,20 +2011,20 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="3">
         <v>6</v>
       </c>
@@ -1805,16 +2037,16 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="3">
         <v>7</v>
       </c>
@@ -1827,85 +2059,85 @@
       <c r="N8" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
     </row>
     <row r="70" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1935,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C39CBF-243C-46B8-A97D-C9A6BCF6006E}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1948,25 +2180,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="13"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:17" ht="110.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
@@ -1981,21 +2213,20 @@
       <c r="D2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2010,14 +2241,7 @@
       <c r="D3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2032,14 +2256,6 @@
       <c r="D4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -2052,21 +2268,21 @@
         <v>65</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -2079,273 +2295,154 @@
         <v>67</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="38"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-    </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-    </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2363,4 +2460,265 @@
   <pageSetup orientation="portrait" r:id="rId4"/>
   <drawing r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341EEE2D-1F16-40EE-ACD5-5E90DCDB2717}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="164.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="31"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="4099">
+          <objectPr defaultSize="0" dde="1" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="4099"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
 </file>
--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A537FE1-C107-4C40-A4F9-7924A8BE8778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959C88B3-B9DB-4E67-B6F4-F326752B5A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
     <sheet name="day3" sheetId="2" r:id="rId2"/>
     <sheet name="day4" sheetId="3" r:id="rId3"/>
     <sheet name="day5" sheetId="4" r:id="rId4"/>
+    <sheet name="day6" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="155">
   <si>
     <t>STT</t>
   </si>
@@ -422,6 +423,157 @@
   </si>
   <si>
     <t>Opens the quick refactoring menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là một tính năng mới được thêm vào trong Java 8. Nó cho phép bạn tạo các hàm ẩn danh (anonymous function) và truyền chúng như một tham số cho các phương thức khác hoặc lưu chúng vào biến. Điều này giúp cho việc viết mã Java trở nên ngắn gọn hơn và dễ hiểu hơn.
+Các Lambda Expression thường được sử dụng để triển khai các interface có một phương thức trừu tượng duy nhất (functional interface), nhưng cũng có thể được sử dụng trong nhiều trường hợp khác như tạo các bộ lọc, sắp xếp dữ liệu, xử lý sự kiện, và nhiều thứ khác.</t>
+  </si>
+  <si>
+    <t>Lambda Expression</t>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/gioi-thieu-lambda-expression-trong-java-8-EyORkbklGqB</t>
+  </si>
+  <si>
+    <t>Java Version</t>
+  </si>
+  <si>
+    <t>Stream API</t>
+  </si>
+  <si>
+    <t>là một tính năng mới trong Java 8, cung cấp một cách để xử lý các bộ dữ liệu lớn một cách hiệu quả và dễ dàng. Stream API cho phép bạn thực hiện các thao tác xử lý dữ liệu trên một tập hợp các phần tử theo một cách linh hoạt và thuận tiện.
+Có 2 loại Stream:
+1. Sequential Stream: là một chuỗi các phần tử được xử lý một cách tuần tự, từ trái sang phải
+2. Parallel Stream: là một chuỗi các phần tử được xử lý song song trên nhiều luồng (thread) đồng thời. Stream API sẽ tự động chia các phần tử của danh sách thành các phần nhỏ hơn và thực hiện xử lý trên chúng bằng cách sử dụng các luồng riêng biệt. 
+Việc sử dụng parallelStream() giúp tăng tốc độ tính toán đáng kể nếu danh sách có số lượng phần tử lớn và phần tử đóng góp vào kết quả là độc lập với nhau. Tuy nhiên, việc sử dụng parallelStream() cũng có thể gây ra các vấn đề về đồng bộ hóa và hiệu suất nếu không được sử dụng đúng cách. Vì vậy, việc sử dụng parallelStream() cần phải được cân nhắc kỹ lưỡng trước khi thực hiện.</t>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/tong-quan-ve-stream-api-trong-java-8-E375zBwd5GW
+https://viblo.asia/p/streams-in-java-8-dWrvwd5gRw38#_parallel-stream-4</t>
+  </si>
+  <si>
+    <t>Method References</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/tutorial/java/javaOO/methodreferences.html</t>
+  </si>
+  <si>
+    <t>là một cú pháp ngắn gọn được sử dụng để tham chiếu tới một phương thức (method) đã tồn tại và được định nghĩa trước đó, để sử dụng lại trong một biểu thức lambda hoặc trong Stream API.
+Có 4 loại reference:
+1. Reference to a static method (Tham chiếu tới phương thức tĩnh): Đây là loại tham chiếu tới phương thức được định nghĩa trong một lớp, thông qua tên của lớp đó.
+2. Reference to an instance method of a particular object (Tham chiếu tới phương thức của một đối tượng cụ thể): Đây là loại tham chiếu tới phương thức của một đối tượng cụ thể, thông qua tên của đối tượng đó.
+3.Reference to an instance method of an arbitrary object of a particular type (Tham chiếu tới phương thức của một đối tượng bất kỳ của một loại cụ thể): Đây là loại tham chiếu tới phương thức của một đối tượng bất kỳ của một loại cụ thể, thông qua tên của đối tượng đó.
+4. Reference to a Constructor (Tham chiếu tới constructor) là một cú pháp trong Java 8, cho phép tham chiếu tới một constructor của một lớp cụ thể để tạo ra một đối tượng từ constructor đó, giống như sử dụng một phương thức bình thường. Cú pháp của Reference to a Constructor là Class::new, trong đó Class là tên của lớp cần tạo đối tượng, và new là từ khóa để khởi tạo đối tượng.</t>
+  </si>
+  <si>
+    <t>Default Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là một tính năng được giới thiệu trong Java 8, cho phép các phương thức có thể được triển khai trong các interface.
+Trước khi Java 8, các interface chỉ có thể khai báo các phương thức trừu tượng (abstract method) mà không thể cung cấp bất kỳ triển khai nào cho chúng. Khi một lớp triển khai một interface, nó phải cung cấp triển khai cho tất cả các phương thức được khai báo trong interface đó. Điều này đôi khi gây ra rắc rối khi muốn thêm chức năng mới cho một interface đã được sử dụng trong nhiều lớp.
+Với phương thức mặc định, một interface có thể cung cấp một triển khai mặc định cho một hoặc nhiều phương thức, cho phép các lớp triển khai chỉ triển khai các phương thức cần thiết. Các phương thức mặc định được khai báo bằng từ khóa default và cung cấp một thân phương thức, giống như các phương thức thông thường trong lớp.</t>
+  </si>
+  <si>
+    <t>Java Module System</t>
+  </si>
+  <si>
+    <t>là một tính năng được giới thiệu trong Java 9, cho phép chia các ứng dụng Java thành các module để quản lý phạm vi và phụ thuộc giữa các thành phần trong ứng dụng.
+Một module trong Java là một tập hợp các lớp, gói, tài nguyên và các tệp mô tả các yêu cầu phụ thuộc của nó. Module cung cấp một phạm vi truy cập rõ ràng đến các thành phần của nó, giúp giảm thiểu sự xung đột giữa các thư viện và hạn chế sự truy cập không cần thiết vào các thành phần của ứng dụng.
+Một số đặc điểm của Java Module System bao gồm:
+. Các module được định nghĩa bằng cách sử dụng tệp module-info.java.
+. Mỗi module có thể chỉ định các yêu cầu phụ thuộc của nó, bao gồm tên module và phiên bản tối thiểu yêu cầu.
+. Module cung cấp các gói và lớp của nó cho các module khác bằng cách chỉ định gói cung cấp của mình.
+. Module có thể sử dụng các gói của các module khác bằng cách chỉ định các module phụ thuộc của nó.
+. Một số gói trong module có thể được đánh dấu là bên ngoài (exported) hoặc chỉ dành cho bên trong (internal) để quản lý quyền truy cập.
+Java Module System cung cấp các lợi ích như giảm thiểu sự xung đột giữa các thư viện, hỗ trợ tạo ra các ứng dụng nhỏ hơn và nhanh hơn, cải thiện bảo mật và tăng tính độc lập của các module trong ứng dụng. Tuy nhiên, cần có sự hiểu biết về các khái niệm mới và sử dụng công cụ hỗ trợ để phát triển và quản lý các module.</t>
+  </si>
+  <si>
+    <t>Try-with-resources</t>
+  </si>
+  <si>
+    <t>là một cú pháp trong Java được sử dụng để tự động giải phóng các tài nguyên đã được mở trong khối try-catch-finally. 
+Thay vì phải viết các khối finally để đóng các tài nguyên một cách rõ ràng, "try-with-resources" cho phép chúng ta chỉ cần khai báo các tài nguyên trong khối try và chúng sẽ tự động được đóng khi kết thúc khối try-catch-finally.
+Các tài nguyên này phải implement interface java.lang.AutoCloseable hoặc java.io.Closeable. Khi khối try kết thúc, các tài nguyên được khai báo sẽ được tự động đóng, ngay cả khi ngoại lệ xảy ra.</t>
+  </si>
+  <si>
+    <t>Diamond syntax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là một tính năng của Java được giới thiệu trong Java 7. Nó cho phép chúng ta khai báo đối tượng generics mà không cần chỉ định kiểu generics trong ngoặc đơn &lt;&gt;, nó được gọi là "diamond operator" bởi vì kí hiệu &lt;&gt; giống như hình kim cương.
+Với sử dụng "diamond operator", chúng ta có thể loại bỏ việc lặp lại tên kiểu generics ở cả hai phía của toán tử gán trong khai báo đối tượng, điều này làm cho mã nguồn trở nên ngắn gọn và dễ đọc hơn.</t>
+  </si>
+  <si>
+    <t>Inner anonymous class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">là một lớp nặc danh được khai báo bên trong một phương thức hoặc một khối lệnh của một lớp khác. 
+Nó thường được sử dụng để triển khai các giao diện hoặc các lớp trừu tượng một cách trực tiếp mà không cần định nghĩa lớp mới. </t>
+  </si>
+  <si>
+    <t>Diamond operator for Anonymous Inner Class</t>
+  </si>
+  <si>
+    <t>Private Interface Methods</t>
+  </si>
+  <si>
+    <t>Trong Java 9, chúng ta có thể khai báo các phương thức riêng tư (private methods) cho các interface. Trước đây, các phương thức của interface chỉ có thể là public.
+Các phương thức riêng tư trong interface được sử dụng để giảm sự phức tạp của code và để đảm bảo tính đóng gói. Chúng ta có thể sử dụng các phương thức riêng tư để triển khai các phương thức chung (shared methods) cho các phương thức public trong interface.</t>
+  </si>
+  <si>
+    <t>Local Variable Type Inference</t>
+  </si>
+  <si>
+    <t>là tính năng mới trong Java 10, cho phép khai báo biến mà không cần chỉ định kiểu dữ liệu của biến đó. 
+Thay vì sử dụng cú pháp thông thường để khai báo biến, chúng ta có thể sử dụng từ khóa var để chỉ định rằng kiểu dữ liệu của biến sẽ được suy ra tự động bởi trình biên dịch.</t>
+  </si>
+  <si>
+    <t>Switch Expressions</t>
+  </si>
+  <si>
+    <t>là một tính năng mới được giới thiệu trong Java 12, cho phép sử dụng switch case như một biểu thức trả về một giá trị</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yield Keyword</t>
+  </si>
+  <si>
+    <t>là một keyword được giới thiệu từ phiên bản Java 13 và được sử dụng trong switch expressions. 
+Nó cho phép trả về một giá trị từ một switch expression và kết thúc toàn bộ expression đó. Yield có thể được sử dụng để thay thế break hoặc return.</t>
+  </si>
+  <si>
+    <t>Text Blocks</t>
+  </si>
+  <si>
+    <t>là một tính năng mới được giới thiệu từ Java 15, giúp dễ dàng hơn trong việc khai báo chuỗi dài trong Java. Trước khi có Text Blocks, để khai báo một chuỗi đa dòng trong Java, chúng ta thường phải sử dụng escape sequences như \n, \r, \t và kết hợp với các toán tử + để nối chuỗi.
+Với Text Blocks, chúng ta có thể khai báo chuỗi dài một cách đơn giản và dễ đọc hơn, mà không cần phải sử dụng escape sequences hay toán tử + để nối chuỗi.
+Để khai báo một Text Block, chúng ta sử dụng dấu ba nháy kép """ ở đầu và cuối chuỗi, và có thể thêm các dòng văn bản trong chuỗi một cách tự nhiên mà không cần phải sử dụng escape sequences hay các toán tử nối chuỗi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là một tính năng mới được giới thiệu trong Java 16. Nó cho phép kiểm tra một đối tượng có phù hợp với một kiểu nhất định hay không và trích xuất thông tin từ đối tượng đó trong một bước.
+Cụ thể, pattern matching cho phép kiểm tra kiểu của một đối tượng và sử dụng các biến tạm thời để truy cập các thành phần của đối tượng một cách thuận tiện và rõ ràng hơn.</t>
+  </si>
+  <si>
+    <t>Pattern matching</t>
+  </si>
+  <si>
+    <t>Records</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là một tính năng mới được giới thiệu trong Java 16. Nó cho phép định nghĩa các lớp đơn giản để chứa dữ liệu, với cú pháp rút gọn và hỗ trợ một số tính năng tiện ích.
+Một record được định nghĩa bằng từ khóa record, theo sau là tên của lớp và danh sách các trường dữ liệu
+Một số tính năng của records bao gồm:
+. Tự động tạo các phương thức getter cho các trường dữ liệu.
+. Hỗ trợ các phương thức tạo và so sánh mặc định.
+. Có thể thừa kế từ lớp khác hoặc triển khai các giao diện.
+. Có thể định nghĩa phương thức khác, tuy nhiên không thể định nghĩa các trường dữ liệu khác.</t>
+  </si>
+  <si>
+    <t>Sealed classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là một tính năng mới trong Java 15, nó giới hạn các lớp con của một lớp cụ thể chỉ có thể được định nghĩa bởi lớp cha hoặc trong cùng một module. Điều này cung cấp một cách để xác định và giới hạn các lớp được kế thừa từ một lớp cơ sở nhất định.
+Một lớp được đánh dấu là sealed bằng cách sử dụng từ khóa sealed trước khai báo lớp và sau đó liệt kê các lớp con được phép kế thừa nó. Các lớp được liệt kê phải được định nghĩa trong cùng một file hoặc package.
+Một lớp con không được liệt kê trong danh sách permits sẽ không thể kế thừa lớp cha sealed. Khi ta cố gắng định nghĩa một lớp con không được phép, chương trình sẽ bị lỗi biên dịch.
+</t>
   </si>
 </sst>
 </file>
@@ -525,7 +677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -566,12 +718,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -637,6 +800,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,7 +849,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1303,7 +1476,7 @@
                   <a14:compatExt spid="_x0000_s4099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E39113-A1A1-FC7A-73A5-816B0B1281BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1324,23 +1497,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1643,27 +1803,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
     </row>
     <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
     </row>
     <row r="4" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P4" s="7" t="s">
@@ -1672,11 +1832,11 @@
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
       <c r="U4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1830,24 +1990,24 @@
       </c>
     </row>
     <row r="14" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P14" s="33" t="s">
+      <c r="P14" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
     </row>
     <row r="15" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
     </row>
     <row r="16" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1890,17 +2050,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="13"/>
       <c r="K1" s="7" t="s">
         <v>0</v>
@@ -1990,13 +2150,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="K6" s="3">
         <v>5</v>
       </c>
@@ -2011,20 +2171,20 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="3">
         <v>6</v>
       </c>
@@ -2037,16 +2197,16 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="3">
         <v>7</v>
       </c>
@@ -2059,85 +2219,85 @@
       <c r="N8" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
     </row>
     <row r="70" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2213,20 +2373,20 @@
       <c r="D2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="1:17" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2268,21 +2428,21 @@
         <v>65</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -2295,19 +2455,19 @@
         <v>67</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -2371,78 +2531,78 @@
       <c r="D16" s="14"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2466,7 +2626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341EEE2D-1F16-40EE-ACD5-5E90DCDB2717}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2520,14 +2680,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="32"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -2538,7 +2698,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2546,7 +2706,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2554,7 +2714,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2562,7 +2722,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2570,7 +2730,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="29" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2578,7 +2738,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="29" t="s">
         <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2586,7 +2746,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="29" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2602,7 +2762,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="29" t="s">
         <v>98</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2658,7 +2818,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="29" t="s">
         <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2666,7 +2826,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="29" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2721,4 +2881,439 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5CC180-ABEC-4096-BF7B-D59D7E76A5ED}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="108.28515625" customWidth="1"/>
+    <col min="4" max="4" width="70" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+    </row>
+    <row r="2" spans="1:13" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="47">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="47">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="48">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="47">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="48">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+      <c r="A6" s="48">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="48">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="48">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="48">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="48">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="48">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="48">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="49">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{BD266EE8-9EE9-410E-A73B-7BCBE7209954}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{61BCAF91-187D-4E55-9A08-AC7DFBC537EF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959C88B3-B9DB-4E67-B6F4-F326752B5A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1556FF22-67F1-4963-B038-6C5F299C253F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="172">
   <si>
     <t>STT</t>
   </si>
@@ -570,10 +570,66 @@
     <t>Sealed classes</t>
   </si>
   <si>
-    <t xml:space="preserve"> là một tính năng mới trong Java 15, nó giới hạn các lớp con của một lớp cụ thể chỉ có thể được định nghĩa bởi lớp cha hoặc trong cùng một module. Điều này cung cấp một cách để xác định và giới hạn các lớp được kế thừa từ một lớp cơ sở nhất định.
+    <t>Từ Java 9 trở đi thì cho phép "diamon operator" có thể sử dụng "anonymous inner class"</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/tutorial/java/IandI/defaultmethods.html</t>
+  </si>
+  <si>
+    <t>https://reflectoring.io/java-release-notes/#java-module-system</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/tutorial/essential/exceptions/tryResourceClose.html</t>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/java-anonymous-class-n157G5J3vAje</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/diamond-operator-for-anonymous-inner-class-with-examples-in-java/</t>
+  </si>
+  <si>
+    <t>https://reflectoring.io/java-release-notes/#private-interface-methods</t>
+  </si>
+  <si>
+    <t>https://reflectoring.io/java-release-notes/#local-variable-type-inference</t>
+  </si>
+  <si>
+    <t>https://reflectoring.io/java-release-notes/#switch-expressions</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/en/java/javase/14/language/switch-expressions.html</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/en/java/javase/15/text-blocks/index.html#using-text-blocks</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/en/java/javase/16/language/pattern-matching-instanceof-operator.html</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/en/java/javase/16/language/records.html</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/en/java/javase/16/language/sealed-classes-and-interfaces.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là một tính năng mới trong Java 16, nó giới hạn các lớp con của một lớp cụ thể chỉ có thể được định nghĩa bởi lớp cha hoặc trong cùng một module. Điều này cung cấp một cách để xác định và giới hạn các lớp được kế thừa từ một lớp cơ sở nhất định.
 Một lớp được đánh dấu là sealed bằng cách sử dụng từ khóa sealed trước khai báo lớp và sau đó liệt kê các lớp con được phép kế thừa nó. Các lớp được liệt kê phải được định nghĩa trong cùng một file hoặc package.
 Một lớp con không được liệt kê trong danh sách permits sẽ không thể kế thừa lớp cha sealed. Khi ta cố gắng định nghĩa một lớp con không được phép, chương trình sẽ bị lỗi biên dịch.
+Permitted subclasses phải có các từ khóa sau:
+final
+sealed
+non-sealed
 </t>
+  </si>
+  <si>
+    <t>Repeating Annotation</t>
+  </si>
+  <si>
+    <t>là một tính năng mới được giới thiệu trong Java 8, cho phép chúng ta sử dụng nhiều annotation cùng một loại trên một phần tử. 
+Trước khi tính năng này được giới thiệu, ta chỉ có thể sử dụng một annotation cùng một loại cho một phần tử. Để sử dụng repeating annotations, ta cần đánh dấu annotation bằng @Repeatable và định nghĩa một annotation container.</t>
+  </si>
+  <si>
+    <t>https://reflectoring.io/java-release-notes/#repeating-annotations</t>
   </si>
 </sst>
 </file>
@@ -734,7 +790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -801,6 +857,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -849,15 +912,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -897,7 +956,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5F04C2-D3A7-F489-C193-480B74E20109}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,7 +1000,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BCA204-DD3E-45CF-95EC-B0CF7DF3594B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -990,7 +1049,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E90FB0-7484-0B1E-E402-D4AB3E4924F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1051,7 +1110,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB8C5B5-D205-4333-A452-468DF7719274}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1112,7 +1171,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2188C6C2-B02B-BEF2-8FD3-203FC631A871}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,7 +1232,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC6DC59-7923-68A4-D695-EBC49F584EC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,7 +1293,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DF58DD-D311-AE9E-8A5D-CEF88AB3ED77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1359,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2920738E-093E-43D0-36CF-9E30AE0AF704}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1420,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889DFBD5-9EE0-35BC-4666-DA48E8CCAF22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1481,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93C5651-8182-51F6-7FC4-8BC0C1303C15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,27 +1862,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
     </row>
     <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
     </row>
     <row r="4" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P4" s="7" t="s">
@@ -1832,11 +1891,11 @@
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
       <c r="U4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1990,24 +2049,24 @@
       </c>
     </row>
     <row r="14" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P14" s="34" t="s">
+      <c r="P14" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
     </row>
     <row r="15" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2050,17 +2109,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="13"/>
       <c r="K1" s="7" t="s">
         <v>0</v>
@@ -2150,13 +2209,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="K6" s="3">
         <v>5</v>
       </c>
@@ -2171,20 +2230,20 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
       <c r="K7" s="3">
         <v>6</v>
       </c>
@@ -2197,16 +2256,16 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
       <c r="K8" s="3">
         <v>7</v>
       </c>
@@ -2219,85 +2278,85 @@
       <c r="N8" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
     </row>
     <row r="70" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2373,20 +2432,20 @@
       <c r="D2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2428,21 +2487,21 @@
         <v>65</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
     </row>
     <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -2455,19 +2514,19 @@
         <v>67</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -2531,78 +2590,78 @@
       <c r="D16" s="14"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2680,14 +2739,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="35"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -2856,7 +2915,7 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="4099">
+        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="4099">
           <objectPr defaultSize="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -2876,7 +2935,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="4099"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="4099"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2887,8 +2946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5CC180-ABEC-4096-BF7B-D59D7E76A5ED}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2900,29 +2959,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -2937,7 +2996,7 @@
       <c r="D2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="3">
         <v>8</v>
       </c>
       <c r="F2" s="1"/>
@@ -2962,7 +3021,7 @@
       <c r="D3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="3">
         <v>8</v>
       </c>
       <c r="F3" s="1"/>
@@ -2975,7 +3034,7 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4" s="48">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2987,7 +3046,7 @@
       <c r="D4" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="3">
         <v>8</v>
       </c>
       <c r="F4" s="1"/>
@@ -3000,7 +3059,7 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3009,8 +3068,10 @@
       <c r="C5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="D5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="31">
         <v>8</v>
       </c>
       <c r="F5" s="1"/>
@@ -3023,7 +3084,7 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="270" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3032,8 +3093,12 @@
       <c r="C6" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="31">
+        <v>9</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3044,7 +3109,7 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3053,8 +3118,12 @@
       <c r="C7" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="31">
+        <v>8</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3075,7 +3144,9 @@
         <v>135</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="31">
+        <v>7</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3095,8 +3166,12 @@
       <c r="C9" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="31">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3107,15 +3182,21 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="31">
+        <v>9</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3126,7 +3207,7 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3135,8 +3216,12 @@
       <c r="C11" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="50">
+        <v>9</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3147,7 +3232,7 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3156,8 +3241,12 @@
       <c r="C12" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="31">
+        <v>10</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3168,7 +3257,7 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3177,8 +3266,12 @@
       <c r="C13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="31">
+        <v>12</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3189,7 +3282,7 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3198,8 +3291,12 @@
       <c r="C14" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="31">
+        <v>14</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3210,7 +3307,7 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3219,8 +3316,12 @@
       <c r="C15" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="31">
+        <v>15</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3231,7 +3332,7 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3240,8 +3341,12 @@
       <c r="C16" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="31">
+        <v>16</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3252,7 +3357,7 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
+      <c r="A17" s="32">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3261,8 +3366,12 @@
       <c r="C17" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="31">
+        <v>16</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3272,7 +3381,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3280,10 +3389,14 @@
         <v>153</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="31">
+        <v>16</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -3293,12 +3406,22 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="31">
+        <v>8</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -3312,8 +3435,22 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{BD266EE8-9EE9-410E-A73B-7BCBE7209954}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{61BCAF91-187D-4E55-9A08-AC7DFBC537EF}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{265D7779-3692-4D46-8D2F-36DDAC43DD3A}"/>
+    <hyperlink ref="D6" r:id="rId4" location="java-module-system" xr:uid="{7CF071A5-697F-456A-857B-6B68A89A54E2}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{5E418898-2A4E-495A-A104-C7A030278692}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{CB359587-5F3C-4D3B-B2F0-2FB99D3A9967}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{BDB8C26B-4ABE-45A2-B5D1-4544AD7FA68B}"/>
+    <hyperlink ref="D11" r:id="rId8" location="private-interface-methods" xr:uid="{03D7CE78-B00A-40EC-B5F3-2AA3BD25A3F8}"/>
+    <hyperlink ref="D12" r:id="rId9" location="local-variable-type-inference" xr:uid="{ABC6A97A-A492-4F1E-B376-6B08FCF1FF79}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{C5C0004D-306F-4C4E-8BB7-B950CCF159EA}"/>
+    <hyperlink ref="D14" r:id="rId11" location="switch-expressions" xr:uid="{9C27DA53-F783-4DE8-BF63-0D5BC42DFF78}"/>
+    <hyperlink ref="D15" r:id="rId12" location="using-text-blocks" xr:uid="{AF940015-A731-45B2-AF55-D061E7728FA6}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{B62A518E-DC89-418B-A066-017A0CDEEBDB}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{1673A8AC-A268-453A-A526-36C81C723CFF}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{24EB30BC-5EF8-4524-9F31-9D4139905188}"/>
+    <hyperlink ref="D19" r:id="rId16" location="repeating-annotations" xr:uid="{056F707C-428B-48F4-87B1-E2564C8A4EC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1556FF22-67F1-4963-B038-6C5F299C253F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A25DC41-6157-41CA-9665-E909046E3F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
@@ -18,9 +18,11 @@
     <sheet name="day4" sheetId="3" r:id="rId3"/>
     <sheet name="day5" sheetId="4" r:id="rId4"/>
     <sheet name="day6" sheetId="5" r:id="rId5"/>
+    <sheet name="day7" sheetId="6" r:id="rId6"/>
+    <sheet name="day8" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="186">
   <si>
     <t>STT</t>
   </si>
@@ -631,12 +633,527 @@
   <si>
     <t>https://reflectoring.io/java-release-notes/#repeating-annotations</t>
   </si>
+  <si>
+    <t>Mô hình MVC</t>
+  </si>
+  <si>
+    <t>Mô hình three tier</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đây là mô hình tổ chức source code rất phổ biến trong Spring Boot. Cụ thể, ứng dụng được chia làm 3 tầng (tier hoặc layer) như sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Presentation laye</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">r: tầng này tương tác với người dùng, bằng View, Controller (trong MVC) hoặc API (nếu có).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Business logic layer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Chứa toàn bộ logic của chương trình, các đa số code nằm ở đây
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data access layer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tương tác với database, trả về kết quả cho tầng business logic
+Trong Spring Boot, thì có một số thành phần đại diện cho từng lớp:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MVC (Model-View-Controller)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là một mô hình kiến trúc phần mềm được sử dụng để phát triển các ứng dụng. Mô hình này tách các thành phần của ứng dụng thành ba phần chính, bao gồm:
+. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: chứa dữ liệu và các logic liên quan đến dữ liệu. Model có thể được xem như là một lớp đại diện cho dữ liệu hoặc tập hợp các lớp liên quan đến dữ liệu.
+. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: là thành phần hiển thị dữ liệu cho người dùng. View có thể được xem như là giao diện người dùng hoặc các thành phần giao diện người dùng như nút bấm, trường nhập liệu, v.v.
+. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: điều khiển luồng xử lý của ứng dụng bằng cách tương tác với Model và View. Controller nhận lệnh từ View, thay đổi Model và cập nhật lại View.
+Tuy nhiên, MVC chỉ mô tả luồng đi của dữ liệu, nó không nói rõ như code đặt ở đâu (ở Model, View hay Controller), rồi lưu trữ Model vào database kiểu gì,... Do đó, đối với ứng dụng hoàn chỉnh như Spring Boot thì cần kết hợp cả mô hình MVC và 3-tier lại với nhau.</t>
+    </r>
+  </si>
+  <si>
+    <t>Luồng đi trong Spring Boot (viblo.asia)</t>
+  </si>
+  <si>
+    <t>inversion of control (IOC)</t>
+  </si>
+  <si>
+    <t>dependency injection</t>
+  </si>
+  <si>
+    <t>Cách thức hoạt động của một project springboot</t>
+  </si>
+  <si>
+    <t>là một nguyên tắc lập trình trong đó việc điều khiển luồng thực thi được chuyển sang một đối tượng bên ngoài. Thay vì một đối tượng tự tạo các đối tượng phụ thuộc của nó, IoC đảo ngược luồng điều khiển, cho phép các đối tượng phụ thuộc được cung cấp từ bên ngoài, do đó giảm sự phụ thuộc trong mã nguồn và tăng tính tái sử dụng của mã.</t>
+  </si>
+  <si>
+    <t>là việc các Object nên phụ thuộc vào các Abstract Class và thể hiện chi tiết của nó sẽ được Inject vào đối tượng lúc runtime.</t>
+  </si>
+  <si>
+    <r>
+      <t>Một project Spring Boot sử dụng mô hình</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inversion of control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (IOC) và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dependency injection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (DI) để quản lý các thành phần của nó. Khi bạn tạo một project Spring Boot, nó cung cấp cho bạn một số thành phần khởi động sẵn như các cấu hình mặc định, các bean, các dependency và một web server như Tomcat hoặc Jetty để triển khai ứng dụng.
+Các thành phần chính của một project Spring Boot bao gồm:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring Boot Starter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: là một tập hợp các dependencies mà bạn có thể sử dụng để triển khai các ứng dụng Spring Boot. Ví dụ, spring-boot-starter-web sẽ cung cấp cho bạn tất cả các dependencies cần thiết để triển khai một ứng dụng web.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring Boot Autoconfiguration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: cung cấp cho bạn cấu hình mặc định để triển khai các ứng dụng Spring Boot. Nó sẽ tự động cấu hình các thành phần của ứng dụng của bạn như cơ sở dữ liệu, email, security, logging, và nhiều hơn nữa.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Các bước hoạt động của một project Spring Boot:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+. Tạo một project Spring Boot và thêm các dependencies và cấu hình cần thiết.
+. Định nghĩa các thành phần của ứng dụng như các model, controller và service.
+. Sử dụng IOC và DI để quản lý các thành phần của ứng dụng.
+. Sử dụng Spring Boot Autoconfiguration để tự động cấu hình các thành phần của ứng dụng.
+. Triển khai ứng dụng bằng cách sử dụng một web server như Tomcat hoặc Jetty.
+Tóm lại, Spring Boot giúp cho việc phát triển ứng dụng trở nên đơn giản hơn bằng cách cung cấp cho bạn các cấu hình và dependencies mặc định</t>
+    </r>
+  </si>
+  <si>
+    <t>Cấu trúc thư mục của project springboot</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cấu trúc thư mục của một project Spring Boot thông thường bao gồm các phần sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/main/java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Chứa mã nguồn Java của ứng dụng.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/main/resources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Chứa các tài nguyên của ứng dụng như các file cấu hình, file template, các file ảnh, video, ...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">src/main/resources/static: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">được sử dụng để lưu trữ các tài nguyên tĩnh, chẳng hạn như các file CSS, JavaScript, hình ảnh, font chữ, v.v. Các tài nguyên trong thư mục này được truy cập trực tiếp từ phía client thông qua đường dẫn URL và được giao cho client mà không cần thông qua một controller nào
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/main/resources/templates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Thường được sử dụng chưa các file html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/test/java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Chứa các unit test của ứng dụng.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/test/resources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Chứa các tài nguyên được sử dụng trong unit test.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>build.gradle.kts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Là file cấu hình Gradle cho ứng dụng.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/main/resources/application.properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Là file cấu hình ứng dụng Spring Boot, chứa các thông tin như cấu hình cơ sở dữ liệu, cấu hình kết nối với các dịch vụ khác, ...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/main/java/com/beetech/trainningJava/TrainningJavaApplication.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Là file khởi động ứng dụng, chứa hàm main() để chạy ứng dụng.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://loda.me/articles/core-gii-thch-dependency-injection-di-v-ioc-bng-ngc-trinh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,6 +1217,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -733,7 +1258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -785,12 +1310,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -864,6 +1402,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -912,11 +1456,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1570,6 +2122,121 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63313</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601756</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1038225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD318EB-61A8-3468-4E4B-556ED769A68E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9296960" y="0"/>
+          <a:ext cx="7799855" cy="5038725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238980</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2248214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13470A3-C425-8F4A-B305-80B4BC24EB15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19126200" y="7658100"/>
+          <a:ext cx="6125430" cy="2248214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Word.Document.12">
@@ -1862,27 +2529,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
     </row>
     <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
     </row>
     <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
     </row>
     <row r="4" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P4" s="7" t="s">
@@ -1891,11 +2558,11 @@
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
       <c r="U4" s="7" t="s">
         <v>18</v>
       </c>
@@ -2049,24 +2716,24 @@
       </c>
     </row>
     <row r="14" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P14" s="37" t="s">
+      <c r="P14" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
     </row>
     <row r="15" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
     </row>
     <row r="16" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2109,17 +2776,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="13"/>
       <c r="K1" s="7" t="s">
         <v>0</v>
@@ -2209,13 +2876,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="K6" s="3">
         <v>5</v>
       </c>
@@ -2230,20 +2897,20 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="3">
         <v>6</v>
       </c>
@@ -2256,16 +2923,16 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
       <c r="K8" s="3">
         <v>7</v>
       </c>
@@ -2278,85 +2945,85 @@
       <c r="N8" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
     </row>
     <row r="70" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2432,20 +3099,20 @@
       <c r="D2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2487,21 +3154,21 @@
         <v>65</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -2514,19 +3181,19 @@
         <v>67</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -2590,78 +3257,78 @@
       <c r="D16" s="14"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2739,14 +3406,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="37"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -2946,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5CC180-ABEC-4096-BF7B-D59D7E76A5ED}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2959,7 +3626,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -2971,7 +3638,7 @@
       <c r="D1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="33" t="s">
         <v>121</v>
       </c>
       <c r="F1" s="30"/>
@@ -3219,7 +3886,7 @@
       <c r="D11" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="34">
         <v>9</v>
       </c>
       <c r="F11" s="1"/>
@@ -3453,4 +4120,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3AF180-2B8D-4C19-A7E4-B0AE9B7543FC}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+    </row>
+    <row r="2" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A2" s="51">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+    </row>
+    <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://viblo.asia/p/luong-di-trong-spring-boot-ORNZqdELK0n" xr:uid="{022C9F46-597D-48BC-9FEE-EC89080B02C7}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://viblo.asia/p/luong-di-trong-spring-boot-ORNZqdELK0n" xr:uid="{10918DA7-3F65-441A-AB20-B7BE2FCCEE97}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DFAC0-397F-4C98-B2DF-6497ADE191DD}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="232.85546875" customWidth="1"/>
+    <col min="4" max="4" width="88.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="51">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="366" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{13A3C599-44B0-4941-815A-A93D6B7EA26F}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{4B7B34BE-7C63-4C5D-BE59-2036CDDEC66F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A25DC41-6157-41CA-9665-E909046E3F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5611C39C-F047-4CD6-B25F-1FA058087735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="187">
   <si>
     <t>STT</t>
   </si>
@@ -820,6 +820,215 @@
     <t>là việc các Object nên phụ thuộc vào các Abstract Class và thể hiện chi tiết của nó sẽ được Inject vào đối tượng lúc runtime.</t>
   </si>
   <si>
+    <t>Cấu trúc thư mục của project springboot</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cấu trúc thư mục của một project Spring Boot thông thường bao gồm các phần sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/main/java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Chứa mã nguồn Java của ứng dụng.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/main/resources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Chứa các tài nguyên của ứng dụng như các file cấu hình, file template, các file ảnh, video, ...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">src/main/resources/static: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">được sử dụng để lưu trữ các tài nguyên tĩnh, chẳng hạn như các file CSS, JavaScript, hình ảnh, font chữ, v.v. Các tài nguyên trong thư mục này được truy cập trực tiếp từ phía client thông qua đường dẫn URL và được giao cho client mà không cần thông qua một controller nào
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/main/resources/templates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Thường được sử dụng chưa các file html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/test/java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Chứa các unit test của ứng dụng.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/test/resources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Chứa các tài nguyên được sử dụng trong unit test.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>build.gradle.kts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Là file cấu hình Gradle cho ứng dụng.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/main/resources/application.properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Là file cấu hình ứng dụng Spring Boot, chứa các thông tin như cấu hình cơ sở dữ liệu, cấu hình kết nối với các dịch vụ khác, ...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/main/java/com/beetech/trainningJava/TrainningJavaApplication.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Là file khởi động ứng dụng, chứa hàm main() để chạy ứng dụng.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://loda.me/articles/core-gii-thch-dependency-injection-di-v-ioc-bng-ngc-trinh</t>
+  </si>
+  <si>
     <r>
       <t>Một project Spring Boot sử dụng mô hình</t>
     </r>
@@ -908,7 +1117,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: cung cấp cho bạn cấu hình mặc định để triển khai các ứng dụng Spring Boot. Nó sẽ tự động cấu hình các thành phần của ứng dụng của bạn như cơ sở dữ liệu, email, security, logging, và nhiều hơn nữa.
+      <t xml:space="preserve">: sẽ tự động cấu hình applicaiton dựa trên các JAR dependences đã được thêm vào project
 </t>
     </r>
     <r>
@@ -920,6 +1129,219 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">Spring Boot Application:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Điểm khởi động của ứng dụng là class có chứa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@SpringBootApplication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  annotation và là class có </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để chạy application. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@SpringBootApplication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation có chứa cả  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto-Configuration, Component Scan và Spring Boot Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Nếu đã thêm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@SpringBootApplication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation vào class thì ta không cần thêm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@EnableAutoConfiguration, @ComponentScan và @SpringBootConfiguration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Component Scan: Spring boot appication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sẽ quét hết tất cả các </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dependencies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khi application được khởi tạo 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Các bước hoạt động của một project Spring Boot:</t>
     </r>
     <r>
@@ -931,20 +1353,177 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-. Tạo một project Spring Boot và thêm các dependencies và cấu hình cần thiết.
-. Định nghĩa các thành phần của ứng dụng như các model, controller và service.
-. Sử dụng IOC và DI để quản lý các thành phần của ứng dụng.
-. Sử dụng Spring Boot Autoconfiguration để tự động cấu hình các thành phần của ứng dụng.
-. Triển khai ứng dụng bằng cách sử dụng một web server như Tomcat hoặc Jetty.
-Tóm lại, Spring Boot giúp cho việc phát triển ứng dụng trở nên đơn giản hơn bằng cách cung cấp cho bạn các cấu hình và dependencies mặc định</t>
-    </r>
-  </si>
-  <si>
-    <t>Cấu trúc thư mục của project springboot</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cấu trúc thư mục của một project Spring Boot thông thường bao gồm các phần sau:
+. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring boot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sẽ tự động cấu hình application dựa trên các dependencies mà ta đã thêm vào project bằng cách sử dụng</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @EnableAutoConfiguration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  annotation
+. Điểm khởi động application là class có chứa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@SpringBootApplication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation và là  main method
+. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Springboot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sẽ tự động tìm kiếm các components đã được thêm vào project cái mà được đánh dấu</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @Componen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t hoặc tìm kiếm các bean ở  các class có </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation và thêm các bean có </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation vào trong </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bằng cách sử dụng 
 </t>
     </r>
     <r>
@@ -956,18 +1535,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>src/main/java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Chứa mã nguồn Java của ứng dụng.
-</t>
+      <t xml:space="preserve">@ComponentScan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">annotation
+. Sau khi thêm các </t>
     </r>
     <r>
       <rPr>
@@ -978,18 +1557,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>src/main/resources</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Chứa các tài nguyên của ứng dụng như các file cấu hình, file template, các file ảnh, video, ...
-</t>
+      <t>beans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
     </r>
     <r>
       <rPr>
@@ -1000,18 +1578,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">src/main/resources/static: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">được sử dụng để lưu trữ các tài nguyên tĩnh, chẳng hạn như các file CSS, JavaScript, hình ảnh, font chữ, v.v. Các tài nguyên trong thư mục này được truy cập trực tiếp từ phía client thông qua đường dẫn URL và được giao cho client mà không cần thông qua một controller nào
-</t>
+      <t>components</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vào trong </t>
     </r>
     <r>
       <rPr>
@@ -1022,18 +1599,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>src/main/resources/templates</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Thường được sử dụng chưa các file html
-</t>
+      <t>Context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thì applications sẽ tìm các nơi có đánh dấu là </t>
     </r>
     <r>
       <rPr>
@@ -1044,18 +1620,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>src/test/java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Chứa các unit test của ứng dụng.
-</t>
+      <t>@Autowired</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation và inject </t>
     </r>
     <r>
       <rPr>
@@ -1066,18 +1641,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>src/test/resources</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Chứa các tài nguyên được sử dụng trong unit test.
-</t>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hoặc </t>
     </r>
     <r>
       <rPr>
@@ -1088,65 +1662,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>build.gradle.kts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Là file cấu hình Gradle cho ứng dụng.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>src/main/resources/application.properties</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Là file cấu hình ứng dụng Spring Boot, chứa các thông tin như cấu hình cơ sở dữ liệu, cấu hình kết nối với các dịch vụ khác, ...
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>src/main/java/com/beetech/trainningJava/TrainningJavaApplication.java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Là file khởi động ứng dụng, chứa hàm main() để chạy ứng dụng.</t>
-    </r>
-  </si>
-  <si>
-    <t>https://loda.me/articles/core-gii-thch-dependency-injection-di-v-ioc-bng-ngc-trinh</t>
+      <t>component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vào đó</t>
+    </r>
+  </si>
+  <si>
+    <t>https://loda.me/articles/sb1-huong-dn-component-va-autowired
+https://loda.me/articles/sb6-configuration-va-bean
+https://www.tutorialspoint.com/spring_boot/spring_boot_introduction.htm</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1408,6 +1940,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1455,20 +1996,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2142,7 +2669,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD318EB-61A8-3468-4E4B-556ED769A68E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2735,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13470A3-C425-8F4A-B305-80B4BC24EB15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,27 +3056,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
     </row>
     <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
     </row>
     <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
     </row>
     <row r="4" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P4" s="7" t="s">
@@ -2558,11 +3085,11 @@
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
       <c r="U4" s="7" t="s">
         <v>18</v>
       </c>
@@ -2716,24 +3243,24 @@
       </c>
     </row>
     <row r="14" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
     </row>
     <row r="15" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
     </row>
     <row r="16" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2776,17 +3303,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="13"/>
       <c r="K1" s="7" t="s">
         <v>0</v>
@@ -2876,13 +3403,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="K6" s="3">
         <v>5</v>
       </c>
@@ -2897,20 +3424,20 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="3">
         <v>6</v>
       </c>
@@ -2923,16 +3450,16 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="3">
         <v>7</v>
       </c>
@@ -2945,85 +3472,85 @@
       <c r="N8" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
     </row>
     <row r="70" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3099,20 +3626,20 @@
       <c r="D2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="1:17" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -3154,21 +3681,21 @@
         <v>65</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -3181,19 +3708,19 @@
         <v>67</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -3257,78 +3784,78 @@
       <c r="D16" s="14"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3406,14 +3933,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="40"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -4150,32 +4677,26 @@
       <c r="D1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="300" x14ac:dyDescent="0.25">
-      <c r="A2" s="51">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="36" t="s">
         <v>175</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -4190,132 +4711,66 @@
       <c r="D3" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
@@ -4336,7 +4791,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4361,17 +4816,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="51">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="56" t="s">
-        <v>185</v>
+      <c r="D2" s="37" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="147" customHeight="1" x14ac:dyDescent="0.25">
@@ -4384,8 +4839,8 @@
       <c r="C3" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>185</v>
+      <c r="D3" s="37" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="366" customHeight="1" x14ac:dyDescent="0.25">
@@ -4396,51 +4851,53 @@
         <v>179</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4448,6 +4905,7 @@
     <hyperlink ref="D3" r:id="rId2" xr:uid="{4B7B34BE-7C63-4C5D-BE59-2036CDDEC66F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5611C39C-F047-4CD6-B25F-1FA058087735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822770F4-1078-48BE-8ADE-30AAE786DF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="day6" sheetId="5" r:id="rId5"/>
     <sheet name="day7" sheetId="6" r:id="rId6"/>
     <sheet name="day8" sheetId="7" r:id="rId7"/>
+    <sheet name="day10" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="215">
   <si>
     <t>STT</t>
   </si>
@@ -1679,6 +1680,585 @@
     <t>https://loda.me/articles/sb1-huong-dn-component-va-autowired
 https://loda.me/articles/sb6-configuration-va-bean
 https://www.tutorialspoint.com/spring_boot/spring_boot_introduction.htm</t>
+  </si>
+  <si>
+    <t>MỤC</t>
+  </si>
+  <si>
+    <t>NỘI DUNG</t>
+  </si>
+  <si>
+    <t>NGUỒN</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transaction quản lý những thay đổi mà bạn thực hiện trong một hoặc nhiều hệ thống,
+ nó có thể database, message brokers, hoặc bất kỳ loại hệ thống phần mềm nào khác. Mục tiêu chính của giao dịch là cung cấp các đặc điểm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để đảm bảo tính nhất quán và hợp lệ của dữ liệu của bạn.</t>
+    </r>
+  </si>
+  <si>
+    <t>ACID transactions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vốn dĩ một transaction được đặc trưng bởi 4 yếu tố (thường được gọi là ACID):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Atomicity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quy định rằng tất cả các hoạt động của transaction hoặc là thực thi thành công hết hoặc là không có bất cứ hành động nào được thực khi có bất kỳ một hoạt động thực thi không thành công.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consistency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là tính nhất quán trong hệ thống, nghĩa là đảm bảo dữ liệu trên các node hoặc bản sao của dữ liệu luôn được đồng bộ và giống nhau. Điều này đảm bảo rằng khi có nhiều node hoặc bản sao, tất cả chúng đều phải chứa cùng một phiên bản của dữ liệu và trả về kết quả như nhau khi được truy vấn
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isolation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là khả năng đồng thời thực hiện nhiều giao dịch mà không ảnh hưởng đến sự nhất quán của cơ sở dữ liệu. Trong quá trình thực hiện các giao dịch song song, sự cô lập giữa các giao dịch có thể được kiểm soát bằng cách sử dụng các mức độ cô lập khác nhau.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Có 5 mức độ cô lập trong cơ sở dữ liệu:
+Read uncommitted
+Read committed
+Repeatable read
+Serializable
+Snapshot </t>
+    </r>
+  </si>
+  <si>
+    <t>Dirty read</t>
+  </si>
+  <si>
+    <t>Nonrepeatable read</t>
+  </si>
+  <si>
+    <t>Phantom read</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là một khái niệm trong hệ quản trị cơ sở dữ liệu (DBMS), 
+xảy ra khi một transaction đọc dữ liệu từ một bản ghi mà chưa được commit bởi transaction khác. Tức là transaction đó đọc dữ liệu từ một bản ghi có thể bị thay đổi hoặc rollback bởi transaction khác.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> là một khái niệm trong hệ quản trị cơ sở dữ liệu (DBMS), xảy ra khi một transaction đọc dữ liệu từ một tập hợp các bản ghi, 
+sau đó trong quá trình transaction đó thực hiện một transaction khác </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chèn hoặc xóa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thêm các bản ghi mới vào tập hợp đó và commit thay đổi đó. Khi transaction đầu tiên đọc lại tập hợp các bản ghi đó, nó thấy các bản ghi mới được chèn vào và có thể làm thay đổi kết quả của truy vấn ban đầu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>là một khái niệm trong hệ quản trị cơ sở dữ liệu (DBMS), xảy ra khi một transaction đọc dữ liệu từ một bản ghi,
+ sau đó trong quá trình transaction đó thực hiện một transaction khác</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cập nhật</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bản ghi đó và commit thay đổi đó. Khi transaction đầu tiên đọc lại dữ liệu từ bản ghi đó, nó nhận được giá trị khác với giá trị ban đầu. Tức là dữ liệu không nhất quán với bản ghi ban đầu mà transaction đầu tiên đã đọc. </t>
+    </r>
+  </si>
+  <si>
+    <t>Snapshot</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mức độ này cũng đảm bảo độ cô lập tương đương với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Serializable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 
+nhưng nó hơi khác ở phương thức hoạt động. Khi transaction đang select các bản ghi, nó không khóa các bản ghi này lại mà tạo một bản sao (snapshot) và select trên đó. Vì vậy các transaction khác insert/update lên các bản ghi đó không gây ảnh hưởng đến transaction ban đầu. Tác dụng của nó là giảm blocking giữa các transaction mà vẫn đảm bảo tính toàn vẹn dữ liệu. Tuy nhiên cái giá kèm theo là cần thêm bộ nhớ để lưu bản sao của các bản ghi, và phần bộ nhớ này là cần cho mỗi transaction do đó có thể tăng lên rất lớn</t>
+    </r>
+  </si>
+  <si>
+    <t>Transaction Propagation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> là một thuộc tính quan trọng của Transaction để xác định cách thức các Transaction nội tuyến và các Transaction liên quan tương tác với nhau.
+Có thể có nhiều Transaction trong một ứng dụng Spring. Khi một phương thức được gọi trong một Transaction đã tồn tại, các phương thức này có thể sử dụng cùng một Transaction đã tồn tại hoặc tạo một Transaction mới.
+Propagation có thể được đặt trực tiếp trên annotation @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transactional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Các giá trị Propagation có thể được đặt trong @Transactional như sau:
+REQUIRED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Nếu một Transaction đang tồn tại, các phương thức được gọi sẽ tham gia vào Transaction đó. Nếu không có Transaction nào tồn tại, một Transaction mới sẽ được tạo ra.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUPPORTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  là sử dụng lại transaction hiện đang hoạt động. Nếu không thì method được gọi sẽ thực thi mà không được đặt trong một transactional context nào
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MANDATORY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Chỉ có thể được sử dụng trong một Transaction đang tồn tại. Nếu không có Transaction nào tồn tại, một ngoại lệ sẽ được ném ra.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REQUIRES_NEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Luôn tạo ra một Transaction mới, bất kể Transaction nào đang tồn tại. Nếu có Transaction đang tồn tại, nó sẽ tạm thời được tạm dừng cho đến khi Transaction mới hoàn tất. Và dữ liệu của Transaction mới sẽ được đồng bộ xuống database kể cả Transaction hiện tại có xảy ra Exception. Và cả 2 Transaction này độc lập với nhau
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT_SUPPORTED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Transaction sẽ không được tạo ra cho phương thức được gọi. Nếu Transaction nào đang tồn tại, nó sẽ tạm thời bị treo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NEVER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Transaction không được tạo ra. Nếu một Transaction đang tồn tại, một ngoại lệ sẽ được ném ra.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NESTED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Method được gọi sẽ tạo một transaction mới nếu không có transaction nào đang hoạt động. Nếu method được gọi với một transaction đang hoạt động Spring sẽ tạo một savepoint và rollback tại đây nếu có Exception xảy ra</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/spring-transactional-propagation-isolation
+https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/
+https://stackoverflow.com/questions/12390888/differences-between-requires-new-and-nested-propagation-in-spring-transactions
+https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/</t>
+  </si>
+  <si>
+    <t>ReadOnly</t>
+  </si>
+  <si>
+    <t>là một thuộc tính trong transaction của hệ quản trị cơ sở dữ liệu (DBMS), cho phép chỉ định rằng transaction đó chỉ có thể đọc dữ liệu từ cơ sở dữ liệu mà không thể cập nhật hay chèn thêm dữ liệu mới vào.
+Khi readOnly được thiết lập trong một transaction, hệ quản trị cơ sở dữ liệu sẽ đảm bảo rằng transaction đó không thể thực hiện bất kỳ thao tác nào thay đổi dữ liệu trong cơ sở dữ liệu. Nếu transaction cố gắng thực hiện các thao tác này, hệ thống sẽ phát sinh lỗi và transaction sẽ bị rollback.
+Việc sử dụng readOnly trong transaction có thể cải thiện hiệu suất của hệ thống khi transaction chỉ cần đọc dữ liệu và không cần thực hiện các thao tác cập nhật hoặc chèn thêm dữ liệu mới. Điều này giúp giảm thiểu tài nguyên hệ thống được sử dụng và cải thiện khả năng mở rộng của hệ thống.</t>
+  </si>
+  <si>
+    <t>https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/</t>
+  </si>
+  <si>
+    <t>https://www.studocu.com/vn/document/hoc-vien-cong-nghe-buu-chinh-vien-thong/he-quan-tri-co-so-du-lieu/cac-muc-isolation-level/35387077</t>
+  </si>
+  <si>
+    <t>https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/
+https://www.studocu.com/vn/document/hoc-vien-cong-nghe-buu-chinh-vien-thong/he-quan-tri-co-so-du-lieu/cac-muc-isolation-level/35387077</t>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/transaction-o-muc-do-co-lap-isolation-level-1ZnbRlWNv2Xo</t>
+  </si>
+  <si>
+    <t>Handling Exceptions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spring proxy sẽ tự động rollback transaction nếu có một </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RuntimeException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xảy ra. 
+Bạn có thể tùy biến bằng cách sử dụng thuộc tính </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rollbackFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>noRollbackFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Transactional annotation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rollbackFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cho phép bạn cung cấp một mảng các Exception class mà transaction sẽ bị rollback nếu chúng xảy ra.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>noRollbackFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> được dùng để chỉ định một mảng các Exception class mà transaction sẽ không rollback khi chúng xảy ra.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1790,7 +2370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1855,12 +2435,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1996,6 +2589,43 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2764,6 +3394,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6239732</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2981732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A43684-D9FB-C2FA-528B-CC77DBC1FD76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="4981575"/>
+          <a:ext cx="6144482" cy="2915057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Word.Document.12">
@@ -4790,7 +5469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DFAC0-397F-4C98-B2DF-6497ADE191DD}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -4908,4 +5587,293 @@
   <pageSetup orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D713CF-1264-4070-BA73-824C7A1D0A05}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="104.42578125" customWidth="1"/>
+    <col min="4" max="4" width="73.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+    </row>
+    <row r="3" spans="1:9" ht="297" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56">
+        <v>2</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+    </row>
+    <row r="4" spans="1:9" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+    </row>
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+    </row>
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+    </row>
+    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+    </row>
+    <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+    </row>
+    <row r="10" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="65">
+        <v>5</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D11:D13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" display="https://www.baeldung.com/spring-transactional-propagation-isolation" xr:uid="{48BFAE5D-1145-4E0D-A5BD-44A48408A956}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{BDE5B890-C6DE-499D-8CFD-DCBF3669B6BB}"/>
+    <hyperlink ref="D3" r:id="rId3" display="https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/" xr:uid="{D5D24CEC-80AA-4E15-9222-E6C9E51F4D53}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{05FC6EF7-E8DD-4F1B-B86A-EC3763FC38DE}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{B1043CF8-D092-48DB-9FA2-F71043D8E546}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{DBC4E0B4-77BF-45E8-9B75-C94DA7483168}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{4E7CE3EF-9683-4B06-AAE2-53CCF60CB7E8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
+</worksheet>
 </file>
--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822770F4-1078-48BE-8ADE-30AAE786DF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E458E459-9F28-4323-9B24-69E9706C2653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="268">
   <si>
     <t>STT</t>
   </si>
@@ -2260,12 +2260,171 @@
       <t xml:space="preserve"> được dùng để chỉ định một mảng các Exception class mà transaction sẽ không rollback khi chúng xảy ra.</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Ưu điểm: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhược điểm: </t>
+  </si>
+  <si>
+    <t>vì được sử dụng bởi nhiều luồng nên có thể bị xung đột dẫn tới kết quả không chính xác</t>
+  </si>
+  <si>
+    <t>Ưu điểm:</t>
+  </si>
+  <si>
+    <t>không cần quan tâm tới việc đồng bộ giữa các thread khác</t>
+  </si>
+  <si>
+    <t>có hiệu suất cao hơn vì đỡ chi phí đồng bộ giữa các thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biến thread safe: </t>
+  </si>
+  <si>
+    <t>là biến được thiết kế đảm bảo an toàn khi thao tác trên nhiều thread mà không cần đồng bộ hóa</t>
+  </si>
+  <si>
+    <t>Dễ tồn memory vì phải tạo ra bản sao như là CopyOnWriteArrayList</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện được các phép toán đơn giản như AtomicInteger</t>
+  </si>
+  <si>
+    <t>đảm bảo tính đúng đắn mà không cần phải đồng bộ giữa các luồng</t>
+  </si>
+  <si>
+    <t>Method synchronize:</t>
+  </si>
+  <si>
+    <t>Là phương thức được đánh dấu bởi keyword synchronize để đảm bảo rằng chỉ có một thread được vào cùng một thời điểm</t>
+  </si>
+  <si>
+    <t>Tránh các tình trạng xung đột giữa các thread</t>
+  </si>
+  <si>
+    <t>DĐảm bảo nhất quán dữ liệu khi một thread đang sửa thread còn lại đang đọc</t>
+  </si>
+  <si>
+    <t>Giảm hiệu suất vì phải đồng bộ các thread với nhau</t>
+  </si>
+  <si>
+    <t>Block synchronize:</t>
+  </si>
+  <si>
+    <t>Cô lập được phần cần phải đồng bộ</t>
+  </si>
+  <si>
+    <t>Là một khối đồng bộ mà ở đó sự dụng một đối tượng để đại diên cho block đó</t>
+  </si>
+  <si>
+    <t>biến synchronized:</t>
+  </si>
+  <si>
+    <t>Là một biến được dùng để đại diện cho một khối hoặc trên chính thực thể đó khi đồng bộ giữa các thread</t>
+  </si>
+  <si>
+    <t>Thread:</t>
+  </si>
+  <si>
+    <t>Là một đối tượng trong Java đại diện cho một luồng thực thi độc lập</t>
+  </si>
+  <si>
+    <t>có thể tạo ra nhiều luồng con từ một luồng chính gia tăng hiệu suất</t>
+  </si>
+  <si>
+    <t>Dễ gây bất đồng bộ khi sử dụng nhiều luồng</t>
+  </si>
+  <si>
+    <t>mutilthread:</t>
+  </si>
+  <si>
+    <t>Là một kỹ thuật lập trình thực hiện nhiều tác vụ trong một thời điểm</t>
+  </si>
+  <si>
+    <t>Tăng hiệu suất khi thực nhiều nhiều tác vụ cùng một lúc</t>
+  </si>
+  <si>
+    <t>Dễ bị bất đồng bộ giữa các thread với nhau</t>
+  </si>
+  <si>
+    <t>Biến non-thread safe:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là một biến được sử dụng bởi nhiều luồng cùng một lúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread pool: </t>
+  </si>
+  <si>
+    <t>là một pool chứa các thread thực hiện các tác vụ trong ứng dụng đa luồng</t>
+  </si>
+  <si>
+    <t>Thay vì phải tạo 1 thread cho 1 tác vụ thì có thể tái sử dụng lại thread đang rảnh giảm bớt được memory và tăng hiệu suất</t>
+  </si>
+  <si>
+    <t>Nhược điểm:</t>
+  </si>
+  <si>
+    <t>phải tốn một lượng memory nhất định để duy trì các thread trong pool</t>
+  </si>
+  <si>
+    <t>Dễ bị trì trệ vì các thead phải chờ đợi nhau</t>
+  </si>
+  <si>
+    <t>Connection pool:</t>
+  </si>
+  <si>
+    <t>Là một kỹ thuật để tối ưu hóa việc kết nối và sử dụng cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>Có thể tái sử dụng giúp tôi ưu hiệu suất và tài nguyên</t>
+  </si>
+  <si>
+    <t>Giảm thời gian chờ cho việc tạo các kết nối</t>
+  </si>
+  <si>
+    <t>Khó khăn trong việc cấu hình các tham số</t>
+  </si>
+  <si>
+    <t>String pool:</t>
+  </si>
+  <si>
+    <t>là một kỹ thuật được sử dụng để giảm thiểu tạo các String giống nhau</t>
+  </si>
+  <si>
+    <t>Tránh tình trạng tạo các String trùng lặp</t>
+  </si>
+  <si>
+    <t>viêc sử dụng các String khác nhau sẽ không tối ưu</t>
+  </si>
+  <si>
+    <t>Biến tham trị:</t>
+  </si>
+  <si>
+    <t>được sử dụng để truyền giá trị vào phương thức</t>
+  </si>
+  <si>
+    <t>sử dụng khi chỉ muốn truyền giá trị và không ảnh hưởng đến biến ban đầu</t>
+  </si>
+  <si>
+    <t>Không thể thay đổi trên biến được truyền vào</t>
+  </si>
+  <si>
+    <t>được sử dụng khi muốn truyền một đối tượng vào phương thức</t>
+  </si>
+  <si>
+    <t>Có thể thay đổi trực tiếp đối tượng được truyền vào</t>
+  </si>
+  <si>
+    <t>Dễ bị trỏ đến đối tượng chưa được khởi tạo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2333,6 +2492,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2453,7 +2619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2542,6 +2708,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2575,9 +2756,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2590,42 +2768,89 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2744,14 +2969,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>20266</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>40532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5278066</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2805,13 +3030,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>40532</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>91197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>27592</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>155440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2866,13 +3091,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>81642</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5634717</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>182335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2933,8 +3158,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>12246</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>900793</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2994,8 +3219,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5359854</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>865413</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3052,16 +3277,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>525518</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>120431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>89339</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1125702</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>151305</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3113,15 +3338,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>394138</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>43793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>488841</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>92404</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3174,15 +3399,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>580258</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>65690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>152806</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>136899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3414,7 +3639,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A43684-D9FB-C2FA-528B-CC77DBC1FD76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3719,7 +3944,7 @@
   <dimension ref="P1:V16"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3735,27 +3960,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
     </row>
     <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
     </row>
     <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
     </row>
     <row r="4" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P4" s="7" t="s">
@@ -3764,11 +3989,11 @@
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
       <c r="U4" s="7" t="s">
         <v>18</v>
       </c>
@@ -3922,24 +4147,24 @@
       </c>
     </row>
     <row r="14" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
     </row>
     <row r="15" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
     </row>
     <row r="16" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3963,10 +4188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25977106-C04A-4BDF-83D6-AA6BE76B6728}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:AD89"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3974,280 +4199,759 @@
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="127.140625" customWidth="1"/>
     <col min="4" max="4" width="71.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" customWidth="1"/>
-    <col min="11" max="11" width="39.140625" customWidth="1"/>
-    <col min="12" max="12" width="72.140625" customWidth="1"/>
-    <col min="13" max="13" width="74.7109375" customWidth="1"/>
-    <col min="14" max="14" width="82.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="26" max="26" width="24.85546875" customWidth="1"/>
+    <col min="27" max="27" width="39.140625" customWidth="1"/>
+    <col min="28" max="28" width="72.140625" customWidth="1"/>
+    <col min="29" max="29" width="74.7109375" customWidth="1"/>
+    <col min="30" max="30" width="82.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:30" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="7" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
-      <c r="K2" s="3">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="P2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="AB2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
-      <c r="K3" s="3">
+      <c r="O3" t="s">
+        <v>216</v>
+      </c>
+      <c r="P3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA3" s="3">
         <v>2</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="AB3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
       <c r="D4" s="18"/>
-      <c r="K4" s="3">
+      <c r="O4" t="s">
+        <v>218</v>
+      </c>
+      <c r="P4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA4" s="64">
         <v>3</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="AB4" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="AC4" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="AD4" s="76" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="18"/>
-      <c r="K5" s="3">
+      <c r="P5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="77"/>
+    </row>
+    <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="18"/>
+      <c r="N6" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="P6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="78"/>
+    </row>
+    <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="O7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA7" s="64">
         <v>4</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="AB7" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="AC7" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="AD7" s="76" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+    <row r="8" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="P8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="77"/>
+    </row>
+    <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="O9" t="s">
+        <v>215</v>
+      </c>
+      <c r="P9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="78"/>
+    </row>
+    <row r="10" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="K6" s="3">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="N10" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="P10" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA10" s="63">
         <v>5</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="AB10" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="AC10" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="AD10" s="72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>218</v>
+      </c>
+      <c r="P11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="72"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="72"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="72"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="N14" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="P14" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="72"/>
+    </row>
+    <row r="15" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="O15" t="s">
+        <v>218</v>
+      </c>
+      <c r="P15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="72"/>
+    </row>
+    <row r="16" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="P16" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="72"/>
+    </row>
+    <row r="17" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="P17" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="72"/>
+    </row>
+    <row r="18" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="O18" t="s">
+        <v>216</v>
+      </c>
+      <c r="P18" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="72"/>
+    </row>
+    <row r="19" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="N19" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="P19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="72"/>
+    </row>
+    <row r="20" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="N20" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="O20" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="72"/>
+    </row>
+    <row r="21" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="O21" t="s">
+        <v>218</v>
+      </c>
+      <c r="P21" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="72"/>
+    </row>
+    <row r="22" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="O22" t="s">
+        <v>216</v>
+      </c>
+      <c r="P22" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="72"/>
+    </row>
+    <row r="23" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="N23" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="O23" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="72"/>
+    </row>
+    <row r="24" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="O24" t="s">
+        <v>218</v>
+      </c>
+      <c r="P24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="72"/>
+    </row>
+    <row r="25" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="O25" t="s">
+        <v>216</v>
+      </c>
+      <c r="P25" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="72"/>
+    </row>
+    <row r="26" spans="1:30" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="3">
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="3">
         <v>6</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="AB26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="AC26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="3">
+      <c r="AD26" s="1"/>
+    </row>
+    <row r="27" spans="1:30" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="3">
         <v>7</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="AB27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="AC27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="50" t="s">
+      <c r="AD27" s="1"/>
+    </row>
+    <row r="54" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D54" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="48" t="s">
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="69"/>
+      <c r="Q54" s="69"/>
+      <c r="R54" s="69"/>
+      <c r="S54" s="69"/>
+      <c r="T54" s="69"/>
+      <c r="U54" s="69"/>
+      <c r="V54" s="69"/>
+      <c r="W54" s="69"/>
+      <c r="X54" s="69"/>
+      <c r="Y54" s="69"/>
+      <c r="Z54" s="69"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="69"/>
+      <c r="Q55" s="69"/>
+      <c r="R55" s="69"/>
+      <c r="S55" s="69"/>
+      <c r="T55" s="69"/>
+      <c r="U55" s="69"/>
+      <c r="V55" s="69"/>
+      <c r="W55" s="69"/>
+      <c r="X55" s="69"/>
+      <c r="Y55" s="69"/>
+      <c r="Z55" s="69"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="69"/>
+      <c r="P56" s="69"/>
+      <c r="Q56" s="69"/>
+      <c r="R56" s="69"/>
+      <c r="S56" s="69"/>
+      <c r="T56" s="69"/>
+      <c r="U56" s="69"/>
+      <c r="V56" s="69"/>
+      <c r="W56" s="69"/>
+      <c r="X56" s="69"/>
+      <c r="Y56" s="69"/>
+      <c r="Z56" s="69"/>
+    </row>
+    <row r="58" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-    </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="20"/>
+    </row>
+    <row r="59" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+    </row>
+    <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+    </row>
+    <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="53"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+    </row>
+    <row r="62" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="47" t="s">
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+    </row>
+    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-    </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-    </row>
-    <row r="70" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+    </row>
+    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="52"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+    </row>
+    <row r="89" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="52"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A68:C70"/>
-    <mergeCell ref="A39:C42"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:J8"/>
-    <mergeCell ref="D35:J37"/>
-    <mergeCell ref="A43:C44"/>
+  <mergeCells count="20">
+    <mergeCell ref="AA10:AA25"/>
+    <mergeCell ref="AB10:AB25"/>
+    <mergeCell ref="AC10:AC25"/>
+    <mergeCell ref="AD10:AD25"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="AD7:AD9"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A87:C89"/>
+    <mergeCell ref="A58:C61"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="A62:C63"/>
+    <mergeCell ref="D26:I27"/>
+    <mergeCell ref="D54:J54"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" display="https://stackoverflow.com/questions/15070513/how-to-test-a-non-thread-safe-class" xr:uid="{AF80577A-A125-48C9-AA50-5BBE662AA378}"/>
-    <hyperlink ref="N3" r:id="rId2" display="https://www.baeldung.com/java-thread-safety" xr:uid="{C1945518-65A5-43C4-A7C3-0AB5B0EA6DE6}"/>
-    <hyperlink ref="N4" r:id="rId3" xr:uid="{F6BBD934-A547-4D3A-A18E-DBB296712BB7}"/>
-    <hyperlink ref="N5" r:id="rId4" xr:uid="{AB87879D-41CA-4D0A-BC91-EEAA9A792E8B}"/>
-    <hyperlink ref="N6" r:id="rId5" location="4-reentrancy" xr:uid="{F4526B1D-3B6D-4BBD-A91D-7781541ECE62}"/>
+    <hyperlink ref="AD2" r:id="rId1" display="https://stackoverflow.com/questions/15070513/how-to-test-a-non-thread-safe-class" xr:uid="{AF80577A-A125-48C9-AA50-5BBE662AA378}"/>
+    <hyperlink ref="AD3" r:id="rId2" display="https://www.baeldung.com/java-thread-safety" xr:uid="{C1945518-65A5-43C4-A7C3-0AB5B0EA6DE6}"/>
+    <hyperlink ref="AD4" r:id="rId3" xr:uid="{F6BBD934-A547-4D3A-A18E-DBB296712BB7}"/>
+    <hyperlink ref="AD7" r:id="rId4" xr:uid="{AB87879D-41CA-4D0A-BC91-EEAA9A792E8B}"/>
+    <hyperlink ref="AD10" r:id="rId5" location="4-reentrancy" xr:uid="{F4526B1D-3B6D-4BBD-A91D-7781541ECE62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -4257,296 +4961,555 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C39CBF-243C-46B8-A97D-C9A6BCF6006E}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="115.140625" customWidth="1"/>
-    <col min="4" max="4" width="68.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="88.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="115.140625" customWidth="1"/>
+    <col min="10" max="10" width="68.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-    </row>
-    <row r="2" spans="1:17" ht="110.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
+      <c r="K1" s="13"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+    </row>
+    <row r="2" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="58">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="I2" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="J2" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="L2" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-    </row>
-    <row r="3" spans="1:17" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+    </row>
+    <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="81"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+    </row>
+    <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="81"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+    </row>
+    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="82"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+    </row>
+    <row r="6" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" s="58">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="H6" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="I6" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="J6" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="84"/>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="84"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="85"/>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="58">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="H10" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="I10" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="J10" s="83" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="84"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="84"/>
+    </row>
+    <row r="13" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="58">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="H13" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="I13" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="51" t="s">
+      <c r="J13" s="58"/>
+      <c r="K13" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-    </row>
-    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+    </row>
+    <row r="16" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="42" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="Q22" s="27"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="33" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K33" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-    </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-    </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-    </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="50" t="s">
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+    </row>
+    <row r="34" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+    </row>
+    <row r="35" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+    </row>
+    <row r="51" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K51" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-    </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+    </row>
+    <row r="52" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F2:Q2"/>
-    <mergeCell ref="E5:Q6"/>
-    <mergeCell ref="E22:P24"/>
-    <mergeCell ref="E40:P41"/>
+  <mergeCells count="20">
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="K13:W16"/>
+    <mergeCell ref="K33:V35"/>
+    <mergeCell ref="K51:V52"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{3D14D563-A18C-4362-B2CD-8D8339C1C427}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://www.baeldung.com/java-connection-pooling" xr:uid="{C6D19347-A59D-426C-9D1E-C2B07B6CDCC2}"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://viblo.asia/p/string-pool-la-gi-_x000a_" xr:uid="{6F55EEC8-830E-42C3-9431-2030A8B28A12}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{3D14D563-A18C-4362-B2CD-8D8339C1C427}"/>
+    <hyperlink ref="J6" r:id="rId2" display="https://www.baeldung.com/java-connection-pooling" xr:uid="{C6D19347-A59D-426C-9D1E-C2B07B6CDCC2}"/>
+    <hyperlink ref="J10" r:id="rId3" display="https://viblo.asia/p/string-pool-la-gi-_x000a_" xr:uid="{6F55EEC8-830E-42C3-9431-2030A8B28A12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -4612,14 +5575,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="45"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -4819,7 +5782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5CC180-ABEC-4096-BF7B-D59D7E76A5ED}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -5332,7 +6295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3AF180-2B8D-4C19-A7E4-B0AE9B7543FC}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
@@ -5469,7 +6432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DFAC0-397F-4C98-B2DF-6497ADE191DD}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -5593,7 +6556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D713CF-1264-4070-BA73-824C7A1D0A05}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -5617,11 +6580,11 @@
       <c r="D1" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -5636,43 +6599,43 @@
       <c r="D2" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="297" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
+      <c r="A3" s="58">
         <v>2</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="57"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="3"/>
       <c r="D4" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
@@ -5682,14 +6645,14 @@
       <c r="C5" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
@@ -5699,12 +6662,12 @@
       <c r="C6" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="60"/>
@@ -5714,15 +6677,15 @@
       <c r="C7" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="3" t="s">
         <v>200</v>
       </c>
@@ -5732,11 +6695,11 @@
       <c r="D8" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -5748,14 +6711,14 @@
       <c r="C9" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -5770,89 +6733,89 @@
       <c r="D10" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="65">
+      <c r="A11" s="63">
         <v>5</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="63" t="s">
         <v>211</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E458E459-9F28-4323-9B24-69E9706C2653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28260E91-77BE-40AD-8934-45B6D5B06D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="340">
   <si>
     <t>STT</t>
   </si>
@@ -2418,6 +2418,222 @@
   </si>
   <si>
     <t>Dễ bị trỏ đến đối tượng chưa được khởi tạo</t>
+  </si>
+  <si>
+    <t>Lambda Expression:</t>
+  </si>
+  <si>
+    <t>là hàm ẩn danh</t>
+  </si>
+  <si>
+    <t>tiện lợi và gọn gàng phù hợp với những phương thức sử dụng 1 lần</t>
+  </si>
+  <si>
+    <t>phù hợp làm tham số của phương thức</t>
+  </si>
+  <si>
+    <t>Khó hiểu đối với người mới</t>
+  </si>
+  <si>
+    <t>Stream API:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">là một tính năng cho phép thao tác xử lý dữ liệu trên một tập hợp các phần </t>
+  </si>
+  <si>
+    <t>Gọn và dễ đọc</t>
+  </si>
+  <si>
+    <t>Hiệu suất cao với xử lý đa luồng</t>
+  </si>
+  <si>
+    <t>Việc xử lý trên nhiều luồng có thể gây bất đồng bộ nên các phần tử phải độc lập</t>
+  </si>
+  <si>
+    <t>là cú pháp để tham chiếu đến phương thức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giảm sự lặp lại </t>
+  </si>
+  <si>
+    <t>Có thể tái sử dụng</t>
+  </si>
+  <si>
+    <t>là một tính năng cho phép định nghĩa phương thức ở interface</t>
+  </si>
+  <si>
+    <t>Tránh định nghĩa lại ở các class implement</t>
+  </si>
+  <si>
+    <t>là một tính năng cho phép ứng dụng triển khai module hóa</t>
+  </si>
+  <si>
+    <t>cho phép ứng dụng chia thành các module riêng biệt</t>
+  </si>
+  <si>
+    <t>có thể tái sử dụng lại module</t>
+  </si>
+  <si>
+    <t>kiểm soát sự tương thích giữa các module</t>
+  </si>
+  <si>
+    <t>giúp quản lý các phiên bản của module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiểm soát truy cập vào module </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Làm giảm hiệu suất của ứng dụng khi sử dụng quá nhiều module </t>
+  </si>
+  <si>
+    <t>Khó triển khai</t>
+  </si>
+  <si>
+    <t>là cú pháp được sử dụng để tự động giải phóng các tài nguyên trong khối try-catch-finally</t>
+  </si>
+  <si>
+    <t>tự động giải phóng các tài nguyên</t>
+  </si>
+  <si>
+    <t>giảm thiếu viết thêm code giải phóng tài nguyên</t>
+  </si>
+  <si>
+    <t>các tài nguyên đó phải implement interface java.lang.AutoCloseable hoặc java.io.Closeable</t>
+  </si>
+  <si>
+    <t>là một tính năng cho phép khai báo đối tượng generic mà không cần định kiểu generics</t>
+  </si>
+  <si>
+    <t>loại bỏ việc lặp lại kiểu generics ở cả 2 phía của toán tử gán trong khai báo đối tượng</t>
+  </si>
+  <si>
+    <t>Tự động xác định kiểu</t>
+  </si>
+  <si>
+    <t>Không hỗ trợ trước Java 7</t>
+  </si>
+  <si>
+    <t>là một lớp nặc danh được khai báo bên trong một phương thức hoặc một khối lệnh của một lớp khác</t>
+  </si>
+  <si>
+    <t>giúp rút ngắn đoạn mã khi cần định nghĩa một lớp mới để sử dụng một phương thức hoặc ghi đè một phương thức.</t>
+  </si>
+  <si>
+    <t>tiện lợi cho việc sử dụng các class chỉ dùng 1 lần</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> làm cho mã nguồn trở nên phức tạp hơn và khó bảo trì hơn do không có tên lớp, khó để tìm kiếm khi có lỗi.</t>
+  </si>
+  <si>
+    <t>Không thể tái sử dụng lại</t>
+  </si>
+  <si>
+    <t>Các class khác không thể kế thừa</t>
+  </si>
+  <si>
+    <t>Không hỗ trợ trước Java 9</t>
+  </si>
+  <si>
+    <t>là cú pháp sử dụng cho việc khởi tạo một đối tượng anonymous inner class mà không cần chỉ định kiểu generic của lớp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giúp rút ngắn đoạn mã </t>
+  </si>
+  <si>
+    <t>là tính năng cho phép định nghĩa phương thức riêng tư trong các interface.</t>
+  </si>
+  <si>
+    <t>đảm bảo tính đóng gói</t>
+  </si>
+  <si>
+    <t>có thể triển khai trên các Default method</t>
+  </si>
+  <si>
+    <t>Chỉ được sử dụng trong cùng 1 interface</t>
+  </si>
+  <si>
+    <t>là tính năng cho phép khai báo biến mà không cần chỉ định kiểu dữ liệu một cách rõ ràng. Thay vào đó, kiểu dữ liệu của biến sẽ được suy ra từ giá trị khởi tạo.</t>
+  </si>
+  <si>
+    <t>Giúp rút ngắn mã nguồn</t>
+  </si>
+  <si>
+    <t>thay đổi kiểu dữ liệu của biến một cách dễ dàng và linh hoạt hơn, mà không cần phải sửa đổi code nhiều</t>
+  </si>
+  <si>
+    <t>Khi kiểu dữ liệu của biến không được chỉ định rõ ràng, điều này có thể làm cho code trở nên khó hiểu hơn đối với những người mới học hoặc những người không quen với tính năng này</t>
+  </si>
+  <si>
+    <t>là một tính năng cho phép sử dụng switch case như một biểu thức trả về một giá trị</t>
+  </si>
+  <si>
+    <t>giảm thiểu mã code</t>
+  </si>
+  <si>
+    <t>gán giá trị cho một biến hoặc làm giá trị trả về</t>
+  </si>
+  <si>
+    <t>Không hỗ trợ các trường hợp default</t>
+  </si>
+  <si>
+    <t>Không hỗ trợ trước Java 12</t>
+  </si>
+  <si>
+    <t>là một keyword được sử dụng trong Switch Expressions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">là một tính năng giúp dễ dàng trong việc khai báo chuỗi dài </t>
+  </si>
+  <si>
+    <t>có thể viết các chuỗi dài hoặc các chuỗi chứa các ký tự đặc biệt một cách dễ dàng và tự nhiên hơn mà không cần sử dụng escape sequences như \n, \r, \t và kết hợp với các toán tử + để nối chuỗi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hỗ trợ các trường hợp thực tế như viết HTML, JSON hoặc SQL </t>
+  </si>
+  <si>
+    <t>Không hỗ trợ trước Java 15</t>
+  </si>
+  <si>
+    <t>là một tính năng cho phép kiểm tra một đối tượng có phù hợp với một kiểu nhất định hay không</t>
+  </si>
+  <si>
+    <t>giúp cho code trở nên dễ đọc và dễ hiểu hơn bằng cách cho phép kiểm tra kiểu của một đối tượng một cách dễ dàng và tự nhiên hơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> giúp cho code trở nên gọn hơn bằng cách loại bỏ các phép ép kiểu (type casting) không cần thiết.</t>
+  </si>
+  <si>
+    <t>Không hỗ trợ trước Java 16</t>
+  </si>
+  <si>
+    <t>là một tính năng cho phép định nghĩa các lớp đơn giản để chứa dữ liệu, với cú pháp rút gọn và hỗ trợ một số tính năng tiện ích.</t>
+  </si>
+  <si>
+    <t>Định nghĩa nhanh các class chỉ có các field và getter</t>
+  </si>
+  <si>
+    <t>vì bất biến nên không thể sửa đổi các thuộc tính</t>
+  </si>
+  <si>
+    <t>Không cho phép kế thừa</t>
+  </si>
+  <si>
+    <t>là tính năng mà nó giới hạn các lớp con của một lớp cụ thể chỉ có thể được định nghĩa bởi lớp cha và phải trong cùng một module</t>
+  </si>
+  <si>
+    <t>Giới hạn các lớp con có thể được kế thừa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là tính năng cho phép sử dụng nhiều anonation cùng loại trên cùng </t>
+  </si>
+  <si>
+    <t>Các lớp con được đánh dấu final không được kế thừa</t>
+  </si>
+  <si>
+    <t>Giảm thiểu viết nhiều code lặp đi lặp lại</t>
+  </si>
+  <si>
+    <t>Không hỗ trợ trước Java 8</t>
   </si>
 </sst>
 </file>
@@ -2619,7 +2835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2723,6 +2939,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2759,32 +2983,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2794,18 +3003,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2825,8 +3022,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2846,11 +3049,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3960,27 +4181,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
     </row>
     <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
     </row>
     <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
     </row>
     <row r="4" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P4" s="7" t="s">
@@ -3989,11 +4210,11 @@
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
       <c r="U4" s="7" t="s">
         <v>18</v>
       </c>
@@ -4147,24 +4368,24 @@
       </c>
     </row>
     <row r="14" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P14" s="47" t="s">
+      <c r="P14" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
     </row>
     <row r="15" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
     </row>
     <row r="16" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4190,7 +4411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25977106-C04A-4BDF-83D6-AA6BE76B6728}">
   <dimension ref="A1:AD89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -4209,24 +4430,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
       <c r="Q1" s="39"/>
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
@@ -4264,7 +4485,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="44" t="s">
         <v>244</v>
       </c>
       <c r="P2" t="s">
@@ -4318,16 +4539,16 @@
       <c r="P4" t="s">
         <v>219</v>
       </c>
-      <c r="AA4" s="64">
+      <c r="AA4" s="63">
         <v>3</v>
       </c>
-      <c r="AB4" s="64" t="s">
+      <c r="AB4" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="73" t="s">
+      <c r="AC4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="76" t="s">
+      <c r="AD4" s="69" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4339,26 +4560,26 @@
       <c r="P5" t="s">
         <v>220</v>
       </c>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="77"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="70"/>
     </row>
     <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
-      <c r="N6" s="70" t="s">
+      <c r="N6" s="44" t="s">
         <v>221</v>
       </c>
       <c r="P6" t="s">
         <v>222</v>
       </c>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="78"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="71"/>
     </row>
     <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -4371,16 +4592,16 @@
       <c r="P7" t="s">
         <v>223</v>
       </c>
-      <c r="AA7" s="64">
+      <c r="AA7" s="63">
         <v>4</v>
       </c>
-      <c r="AB7" s="64" t="s">
+      <c r="AB7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="73" t="s">
+      <c r="AC7" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="76" t="s">
+      <c r="AD7" s="69" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4392,10 +4613,10 @@
       <c r="P8" t="s">
         <v>224</v>
       </c>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="77"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="70"/>
     </row>
     <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -4408,39 +4629,39 @@
       <c r="P9" t="s">
         <v>225</v>
       </c>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="78"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="71"/>
     </row>
     <row r="10" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="N10" s="70" t="s">
+      <c r="N10" s="44" t="s">
         <v>226</v>
       </c>
       <c r="P10" t="s">
         <v>227</v>
       </c>
-      <c r="AA10" s="63">
+      <c r="AA10" s="59">
         <v>5</v>
       </c>
-      <c r="AB10" s="79" t="s">
+      <c r="AB10" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="AC10" s="71" t="s">
+      <c r="AC10" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="72" t="s">
+      <c r="AD10" s="62" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4451,19 +4672,19 @@
       <c r="P11" t="s">
         <v>228</v>
       </c>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="72"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="62"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
         <v>229</v>
       </c>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="72"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="62"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O13" t="s">
@@ -4472,22 +4693,22 @@
       <c r="P13" t="s">
         <v>230</v>
       </c>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="72"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="62"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N14" s="70" t="s">
+      <c r="N14" s="44" t="s">
         <v>231</v>
       </c>
       <c r="P14" t="s">
         <v>233</v>
       </c>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="72"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="62"/>
     </row>
     <row r="15" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
@@ -4505,10 +4726,10 @@
       <c r="P15" t="s">
         <v>232</v>
       </c>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="72"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="62"/>
     </row>
     <row r="16" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
@@ -4523,10 +4744,10 @@
       <c r="P16" t="s">
         <v>228</v>
       </c>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="72"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="62"/>
     </row>
     <row r="17" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
@@ -4541,10 +4762,10 @@
       <c r="P17" t="s">
         <v>229</v>
       </c>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="72"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="62"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
@@ -4562,10 +4783,10 @@
       <c r="P18" t="s">
         <v>230</v>
       </c>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="72"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="62"/>
     </row>
     <row r="19" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
@@ -4577,16 +4798,16 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-      <c r="N19" s="70" t="s">
+      <c r="N19" s="44" t="s">
         <v>234</v>
       </c>
       <c r="P19" t="s">
         <v>235</v>
       </c>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="71"/>
-      <c r="AD19" s="72"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="62"/>
     </row>
     <row r="20" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
@@ -4598,16 +4819,16 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
-      <c r="N20" s="70" t="s">
+      <c r="N20" s="44" t="s">
         <v>236</v>
       </c>
       <c r="O20" t="s">
         <v>237</v>
       </c>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="72"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="62"/>
     </row>
     <row r="21" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
@@ -4625,10 +4846,10 @@
       <c r="P21" t="s">
         <v>238</v>
       </c>
-      <c r="AA21" s="63"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="72"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="62"/>
     </row>
     <row r="22" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -4646,10 +4867,10 @@
       <c r="P22" t="s">
         <v>239</v>
       </c>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="72"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="62"/>
     </row>
     <row r="23" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
@@ -4661,16 +4882,16 @@
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-      <c r="N23" s="70" t="s">
+      <c r="N23" s="44" t="s">
         <v>240</v>
       </c>
       <c r="O23" t="s">
         <v>241</v>
       </c>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="72"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="62"/>
     </row>
     <row r="24" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
@@ -4688,10 +4909,10 @@
       <c r="P24" t="s">
         <v>242</v>
       </c>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="72"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="62"/>
     </row>
     <row r="25" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
@@ -4709,42 +4930,42 @@
       <c r="P25" t="s">
         <v>243</v>
       </c>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="72"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="62"/>
     </row>
     <row r="26" spans="1:30" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
       <c r="AA26" s="3">
         <v>6</v>
       </c>
@@ -4757,32 +4978,32 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
       <c r="AA27" s="3">
         <v>7</v>
       </c>
@@ -4794,134 +5015,68 @@
       </c>
       <c r="AD27" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="54" t="s">
+    <row r="54" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D54" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="69"/>
-      <c r="O54" s="69"/>
-      <c r="P54" s="69"/>
-      <c r="Q54" s="69"/>
-      <c r="R54" s="69"/>
-      <c r="S54" s="69"/>
-      <c r="T54" s="69"/>
-      <c r="U54" s="69"/>
-      <c r="V54" s="69"/>
-      <c r="W54" s="69"/>
-      <c r="X54" s="69"/>
-      <c r="Y54" s="69"/>
-      <c r="Z54" s="69"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="69"/>
-      <c r="P55" s="69"/>
-      <c r="Q55" s="69"/>
-      <c r="R55" s="69"/>
-      <c r="S55" s="69"/>
-      <c r="T55" s="69"/>
-      <c r="U55" s="69"/>
-      <c r="V55" s="69"/>
-      <c r="W55" s="69"/>
-      <c r="X55" s="69"/>
-      <c r="Y55" s="69"/>
-      <c r="Z55" s="69"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="69"/>
-      <c r="O56" s="69"/>
-      <c r="P56" s="69"/>
-      <c r="Q56" s="69"/>
-      <c r="R56" s="69"/>
-      <c r="S56" s="69"/>
-      <c r="T56" s="69"/>
-      <c r="U56" s="69"/>
-      <c r="V56" s="69"/>
-      <c r="W56" s="69"/>
-      <c r="X56" s="69"/>
-      <c r="Y56" s="69"/>
-      <c r="Z56" s="69"/>
-    </row>
-    <row r="58" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="53" t="s">
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+    </row>
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-    </row>
-    <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-    </row>
-    <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-    </row>
-    <row r="62" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="47" t="s">
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="52" t="s">
+      <c r="A87" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="56"/>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="52"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="52"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="56"/>
     </row>
     <row r="89" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="52"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5000,38 +5155,38 @@
       <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="44" t="s">
         <v>246</v>
       </c>
       <c r="B2" t="s">
         <v>247</v>
       </c>
-      <c r="G2" s="58">
+      <c r="G2" s="72">
         <v>1</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
@@ -5040,10 +5195,10 @@
       <c r="C3" t="s">
         <v>248</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="81"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="76"/>
       <c r="L3" s="38"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
@@ -5064,10 +5219,10 @@
       <c r="C4" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="81"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="76"/>
       <c r="L4" s="38"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
@@ -5085,10 +5240,10 @@
       <c r="C5" t="s">
         <v>251</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="82"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="77"/>
       <c r="L5" s="38"/>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
@@ -5103,22 +5258,22 @@
       <c r="W5" s="23"/>
     </row>
     <row r="6" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="44" t="s">
         <v>252</v>
       </c>
       <c r="B6" t="s">
         <v>253</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="72">
         <v>2</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="83" t="s">
+      <c r="J6" s="78" t="s">
         <v>72</v>
       </c>
       <c r="M6" s="26"/>
@@ -5130,20 +5285,20 @@
       <c r="C7" t="s">
         <v>254</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="84"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="79"/>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>255</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="84"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="79"/>
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5153,29 +5308,29 @@
       <c r="C9" t="s">
         <v>256</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="85"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="80"/>
       <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="44" t="s">
         <v>257</v>
       </c>
       <c r="B10" t="s">
         <v>258</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="72">
         <v>3</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="78" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5186,10 +5341,10 @@
       <c r="C11" t="s">
         <v>259</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="84"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -5198,43 +5353,43 @@
       <c r="C12" t="s">
         <v>260</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="84"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="44" t="s">
         <v>261</v>
       </c>
       <c r="B13" t="s">
         <v>262</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="72">
         <v>4</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="58"/>
-      <c r="K13" s="55" t="s">
+      <c r="J13" s="72"/>
+      <c r="K13" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -5243,23 +5398,23 @@
       <c r="C14" t="s">
         <v>263</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -5268,26 +5423,26 @@
       <c r="C15" t="s">
         <v>264</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
     </row>
     <row r="16" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="44" t="s">
         <v>64</v>
       </c>
       <c r="B16" t="s">
@@ -5303,19 +5458,19 @@
         <v>67</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -5324,11 +5479,11 @@
       <c r="C17" t="s">
         <v>266</v>
       </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="87"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
@@ -5410,83 +5565,81 @@
       <c r="J27" s="14"/>
     </row>
     <row r="33" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
     </row>
     <row r="34" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
     </row>
     <row r="35" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
     </row>
     <row r="51" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K51" s="54" t="s">
+      <c r="K51" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="45"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="49"/>
+      <c r="U51" s="49"/>
+      <c r="V51" s="49"/>
     </row>
     <row r="52" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="45"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
+      <c r="U52" s="49"/>
+      <c r="V52" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J13:J15"/>
     <mergeCell ref="L2:W2"/>
@@ -5505,6 +5658,8 @@
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="J10:J12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{3D14D563-A18C-4362-B2CD-8D8339C1C427}"/>
@@ -5575,14 +5730,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="49"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -5780,511 +5935,1771 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5CC180-ABEC-4096-BF7B-D59D7E76A5ED}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
-    <col min="3" max="3" width="108.28515625" customWidth="1"/>
-    <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="175.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="108.28515625" customWidth="1"/>
+    <col min="7" max="7" width="70" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+    </row>
+    <row r="2" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="72">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="3">
+      <c r="H2" s="3">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="3">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="3">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="31">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="270" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="31">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="72">
+        <v>2</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="31">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="31">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="31">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="31">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="84">
+        <v>3</v>
+      </c>
+      <c r="E10" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="34">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="31">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="31">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="31">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="84">
+        <v>4</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="31">
+        <v>8</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="31">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="85"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="31">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="85"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="31">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="86"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="195" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="31">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="270" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="84">
+        <v>5</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="31">
+        <v>9</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" s="31">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="85"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="85"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="85"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="85"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" s="85"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" s="85"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="86"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="84">
+        <v>6</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="31">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" t="s">
+        <v>292</v>
+      </c>
+      <c r="D27" s="85"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28" s="85"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="86"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="72">
+        <v>7</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="31">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="72">
+        <v>8</v>
+      </c>
+      <c r="E34" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" t="s">
+        <v>300</v>
+      </c>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>301</v>
+      </c>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>303</v>
+      </c>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" t="s">
+        <v>306</v>
+      </c>
+      <c r="D40" s="84">
+        <v>9</v>
+      </c>
+      <c r="E40" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H40" s="31">
+        <v>9</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" t="s">
+        <v>305</v>
+      </c>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" s="84">
+        <v>10</v>
+      </c>
+      <c r="E43" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="34">
+        <v>9</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" t="s">
+        <v>309</v>
+      </c>
+      <c r="D44" s="85"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>310</v>
+      </c>
+      <c r="D45" s="85"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" t="s">
+        <v>311</v>
+      </c>
+      <c r="D46" s="85"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>305</v>
+      </c>
+      <c r="D47" s="86"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>312</v>
+      </c>
+      <c r="D48" s="84">
+        <v>11</v>
+      </c>
+      <c r="E48" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H48" s="31">
+        <v>10</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" t="s">
+        <v>313</v>
+      </c>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>314</v>
+      </c>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" t="s">
+        <v>315</v>
+      </c>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" s="84">
+        <v>12</v>
+      </c>
+      <c r="E52" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H52" s="31">
+        <v>12</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" t="s">
+        <v>317</v>
+      </c>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>318</v>
+      </c>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" t="s">
+        <v>319</v>
+      </c>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>320</v>
+      </c>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" t="s">
+        <v>321</v>
+      </c>
+      <c r="D57" s="84">
+        <v>13</v>
+      </c>
+      <c r="E57" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H57" s="31">
+        <v>14</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="85"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="86"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s">
+        <v>322</v>
+      </c>
+      <c r="D60" s="84">
+        <v>14</v>
+      </c>
+      <c r="E60" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H60" s="31">
+        <v>15</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" t="s">
+        <v>323</v>
+      </c>
+      <c r="D61" s="85"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>324</v>
+      </c>
+      <c r="D62" s="85"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" t="s">
+        <v>325</v>
+      </c>
+      <c r="D63" s="86"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" t="s">
+        <v>326</v>
+      </c>
+      <c r="D64" s="84">
+        <v>15</v>
+      </c>
+      <c r="E64" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H64" s="31">
+        <v>16</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" t="s">
+        <v>327</v>
+      </c>
+      <c r="D65" s="85"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>328</v>
+      </c>
+      <c r="D66" s="85"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" t="s">
+        <v>329</v>
+      </c>
+      <c r="D67" s="85"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" t="s">
+        <v>330</v>
+      </c>
+      <c r="D68" s="32">
+        <v>16</v>
+      </c>
+      <c r="E68" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H68" s="31">
+        <v>16</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" t="s">
+        <v>331</v>
+      </c>
+      <c r="D69" s="32"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" t="s">
+        <v>332</v>
+      </c>
+      <c r="D70" s="32"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>333</v>
+      </c>
+      <c r="D71" s="32"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" t="s">
+        <v>334</v>
+      </c>
+      <c r="D72" s="72">
+        <v>17</v>
+      </c>
+      <c r="E72" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H72" s="31">
+        <v>16</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" t="s">
+        <v>335</v>
+      </c>
+      <c r="D73" s="73"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>249</v>
+      </c>
+      <c r="C74" t="s">
+        <v>337</v>
+      </c>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" t="s">
+        <v>336</v>
+      </c>
+      <c r="D75" s="31">
+        <v>18</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H75" s="31">
+        <v>8</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>249</v>
+      </c>
+      <c r="C77" t="s">
+        <v>339</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{BD266EE8-9EE9-410E-A73B-7BCBE7209954}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{61BCAF91-187D-4E55-9A08-AC7DFBC537EF}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{265D7779-3692-4D46-8D2F-36DDAC43DD3A}"/>
-    <hyperlink ref="D6" r:id="rId4" location="java-module-system" xr:uid="{7CF071A5-697F-456A-857B-6B68A89A54E2}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{5E418898-2A4E-495A-A104-C7A030278692}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{CB359587-5F3C-4D3B-B2F0-2FB99D3A9967}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{BDB8C26B-4ABE-45A2-B5D1-4544AD7FA68B}"/>
-    <hyperlink ref="D11" r:id="rId8" location="private-interface-methods" xr:uid="{03D7CE78-B00A-40EC-B5F3-2AA3BD25A3F8}"/>
-    <hyperlink ref="D12" r:id="rId9" location="local-variable-type-inference" xr:uid="{ABC6A97A-A492-4F1E-B376-6B08FCF1FF79}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{C5C0004D-306F-4C4E-8BB7-B950CCF159EA}"/>
-    <hyperlink ref="D14" r:id="rId11" location="switch-expressions" xr:uid="{9C27DA53-F783-4DE8-BF63-0D5BC42DFF78}"/>
-    <hyperlink ref="D15" r:id="rId12" location="using-text-blocks" xr:uid="{AF940015-A731-45B2-AF55-D061E7728FA6}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{B62A518E-DC89-418B-A066-017A0CDEEBDB}"/>
-    <hyperlink ref="D17" r:id="rId14" xr:uid="{1673A8AC-A268-453A-A526-36C81C723CFF}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{24EB30BC-5EF8-4524-9F31-9D4139905188}"/>
-    <hyperlink ref="D19" r:id="rId16" location="repeating-annotations" xr:uid="{056F707C-428B-48F4-87B1-E2564C8A4EC9}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{BD266EE8-9EE9-410E-A73B-7BCBE7209954}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{61BCAF91-187D-4E55-9A08-AC7DFBC537EF}"/>
+    <hyperlink ref="G14" r:id="rId3" xr:uid="{265D7779-3692-4D46-8D2F-36DDAC43DD3A}"/>
+    <hyperlink ref="G18" r:id="rId4" location="java-module-system" xr:uid="{7CF071A5-697F-456A-857B-6B68A89A54E2}"/>
+    <hyperlink ref="G26" r:id="rId5" xr:uid="{5E418898-2A4E-495A-A104-C7A030278692}"/>
+    <hyperlink ref="G34" r:id="rId6" xr:uid="{CB359587-5F3C-4D3B-B2F0-2FB99D3A9967}"/>
+    <hyperlink ref="G40" r:id="rId7" xr:uid="{BDB8C26B-4ABE-45A2-B5D1-4544AD7FA68B}"/>
+    <hyperlink ref="G43" r:id="rId8" location="private-interface-methods" xr:uid="{03D7CE78-B00A-40EC-B5F3-2AA3BD25A3F8}"/>
+    <hyperlink ref="G48" r:id="rId9" location="local-variable-type-inference" xr:uid="{ABC6A97A-A492-4F1E-B376-6B08FCF1FF79}"/>
+    <hyperlink ref="G52" r:id="rId10" xr:uid="{C5C0004D-306F-4C4E-8BB7-B950CCF159EA}"/>
+    <hyperlink ref="G57" r:id="rId11" location="switch-expressions" xr:uid="{9C27DA53-F783-4DE8-BF63-0D5BC42DFF78}"/>
+    <hyperlink ref="G60" r:id="rId12" location="using-text-blocks" xr:uid="{AF940015-A731-45B2-AF55-D061E7728FA6}"/>
+    <hyperlink ref="G64" r:id="rId13" xr:uid="{B62A518E-DC89-418B-A066-017A0CDEEBDB}"/>
+    <hyperlink ref="G68" r:id="rId14" xr:uid="{1673A8AC-A268-453A-A526-36C81C723CFF}"/>
+    <hyperlink ref="G72" r:id="rId15" xr:uid="{24EB30BC-5EF8-4524-9F31-9D4139905188}"/>
+    <hyperlink ref="G75" r:id="rId16" location="repeating-annotations" xr:uid="{056F707C-428B-48F4-87B1-E2564C8A4EC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -6556,7 +7971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D713CF-1264-4070-BA73-824C7A1D0A05}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -6606,10 +8021,10 @@
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="297" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58">
+      <c r="A3" s="72">
         <v>2</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="72" t="s">
         <v>192</v>
       </c>
       <c r="C3" s="41" t="s">
@@ -6625,8 +8040,8 @@
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="3"/>
       <c r="D4" s="37" t="s">
         <v>208</v>
@@ -6638,14 +8053,14 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="87" t="s">
         <v>210</v>
       </c>
       <c r="E5" s="14"/>
@@ -6655,14 +8070,14 @@
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="62"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -6670,14 +8085,14 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="62"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -6685,7 +8100,7 @@
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="3" t="s">
         <v>200</v>
       </c>
@@ -6740,16 +8155,16 @@
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="63">
+      <c r="A11" s="59">
         <v>5</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="59" t="s">
         <v>211</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="63" t="s">
         <v>207</v>
       </c>
       <c r="E11" s="14"/>
@@ -6759,12 +8174,12 @@
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -6772,12 +8187,12 @@
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="66"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>

--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28260E91-77BE-40AD-8934-45B6D5B06D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9521D07D-0859-4308-8D22-5D2A630674BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="339">
   <si>
     <t>STT</t>
   </si>
@@ -539,10 +539,6 @@
     <t xml:space="preserve"> yield Keyword</t>
   </si>
   <si>
-    <t>là một keyword được giới thiệu từ phiên bản Java 13 và được sử dụng trong switch expressions. 
-Nó cho phép trả về một giá trị từ một switch expression và kết thúc toàn bộ expression đó. Yield có thể được sử dụng để thay thế break hoặc return.</t>
-  </si>
-  <si>
     <t>Text Blocks</t>
   </si>
   <si>
@@ -2513,15 +2509,9 @@
     <t>Không hỗ trợ trước Java 7</t>
   </si>
   <si>
-    <t>là một lớp nặc danh được khai báo bên trong một phương thức hoặc một khối lệnh của một lớp khác</t>
-  </si>
-  <si>
     <t>giúp rút ngắn đoạn mã khi cần định nghĩa một lớp mới để sử dụng một phương thức hoặc ghi đè một phương thức.</t>
   </si>
   <si>
-    <t>tiện lợi cho việc sử dụng các class chỉ dùng 1 lần</t>
-  </si>
-  <si>
     <t xml:space="preserve"> làm cho mã nguồn trở nên phức tạp hơn và khó bảo trì hơn do không có tên lớp, khó để tìm kiếm khi có lỗi.</t>
   </si>
   <si>
@@ -2573,15 +2563,9 @@
     <t>gán giá trị cho một biến hoặc làm giá trị trả về</t>
   </si>
   <si>
-    <t>Không hỗ trợ các trường hợp default</t>
-  </si>
-  <si>
     <t>Không hỗ trợ trước Java 12</t>
   </si>
   <si>
-    <t>là một keyword được sử dụng trong Switch Expressions</t>
-  </si>
-  <si>
     <t xml:space="preserve">là một tính năng giúp dễ dàng trong việc khai báo chuỗi dài </t>
   </si>
   <si>
@@ -2618,9 +2602,6 @@
     <t>Không cho phép kế thừa</t>
   </si>
   <si>
-    <t>là tính năng mà nó giới hạn các lớp con của một lớp cụ thể chỉ có thể được định nghĩa bởi lớp cha và phải trong cùng một module</t>
-  </si>
-  <si>
     <t>Giới hạn các lớp con có thể được kế thừa</t>
   </si>
   <si>
@@ -2634,6 +2615,22 @@
   </si>
   <si>
     <t>Không hỗ trợ trước Java 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiện lợi cho việc sử dụng các class chỉ dùng 1 lần </t>
+  </si>
+  <si>
+    <t>là một lớp nặc danh được khai báo bên trong một phương thức hoặc một khối lệnh của một lớp khác, thường được dùng để triển khai abstract class hoặc interface</t>
+  </si>
+  <si>
+    <t>là một keyword được sử dụng trong Switch Expressions được sử dụng để trả về và kết thúc expression</t>
+  </si>
+  <si>
+    <t>là một keyword được giới thiệu từ phiên bản Java 13 và được sử dụng trong switch expressions. 
+Nó cho phép trả về một giá trị từ một switch expression và kết thúc toàn bộ expression đó.</t>
+  </si>
+  <si>
+    <t>là tính năng mà nó giới hạn các lớp con chỉ có thể được định nghĩa bởi lớp cha và phải trong cùng một module</t>
   </si>
 </sst>
 </file>
@@ -2835,7 +2832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2962,27 +2959,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3022,6 +2998,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3030,6 +3027,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3049,12 +3052,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3072,6 +3069,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4430,24 +4436,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
       <c r="Q1" s="39"/>
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
@@ -4486,10 +4492,10 @@
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="P2" t="s">
         <v>244</v>
-      </c>
-      <c r="P2" t="s">
-        <v>245</v>
       </c>
       <c r="AA2" s="3">
         <v>1</v>
@@ -4510,10 +4516,10 @@
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="O3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P3" t="s">
         <v>216</v>
-      </c>
-      <c r="P3" t="s">
-        <v>217</v>
       </c>
       <c r="AA3" s="3">
         <v>2</v>
@@ -4534,21 +4540,21 @@
       <c r="C4" s="16"/>
       <c r="D4" s="18"/>
       <c r="O4" t="s">
+        <v>217</v>
+      </c>
+      <c r="P4" t="s">
         <v>218</v>
       </c>
-      <c r="P4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA4" s="63">
+      <c r="AA4" s="56">
         <v>3</v>
       </c>
-      <c r="AB4" s="63" t="s">
+      <c r="AB4" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="66" t="s">
+      <c r="AC4" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="69" t="s">
+      <c r="AD4" s="62" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4558,12 +4564,12 @@
       <c r="C5" s="16"/>
       <c r="D5" s="18"/>
       <c r="P5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="70"/>
+        <v>219</v>
+      </c>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="63"/>
     </row>
     <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
@@ -4571,15 +4577,15 @@
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="N6" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="P6" t="s">
         <v>221</v>
       </c>
-      <c r="P6" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="71"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="64"/>
     </row>
     <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -4587,21 +4593,21 @@
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="O7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P7" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA7" s="63">
+        <v>222</v>
+      </c>
+      <c r="AA7" s="56">
         <v>4</v>
       </c>
-      <c r="AB7" s="63" t="s">
+      <c r="AB7" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="66" t="s">
+      <c r="AC7" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="69" t="s">
+      <c r="AD7" s="62" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4611,12 +4617,12 @@
       <c r="C8" s="16"/>
       <c r="D8" s="18"/>
       <c r="P8" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="70"/>
+        <v>223</v>
+      </c>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="63"/>
     </row>
     <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -4624,91 +4630,91 @@
       <c r="C9" s="16"/>
       <c r="D9" s="18"/>
       <c r="O9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P9" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="71"/>
+        <v>224</v>
+      </c>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="64"/>
     </row>
     <row r="10" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="N10" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" t="s">
         <v>226</v>
       </c>
-      <c r="P10" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA10" s="59">
+      <c r="AA10" s="52">
         <v>5</v>
       </c>
-      <c r="AB10" s="60" t="s">
+      <c r="AB10" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="AC10" s="61" t="s">
+      <c r="AC10" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="62" t="s">
+      <c r="AD10" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P11" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="62"/>
+        <v>227</v>
+      </c>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="55"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="62"/>
+        <v>228</v>
+      </c>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="55"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P13" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="62"/>
+        <v>229</v>
+      </c>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="55"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N14" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P14" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="62"/>
+        <v>232</v>
+      </c>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="55"/>
     </row>
     <row r="15" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
@@ -4721,15 +4727,15 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="O15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P15" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="62"/>
+        <v>231</v>
+      </c>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="55"/>
     </row>
     <row r="16" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
@@ -4742,12 +4748,12 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="P16" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="62"/>
+        <v>227</v>
+      </c>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="55"/>
     </row>
     <row r="17" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
@@ -4760,12 +4766,12 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="P17" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="62"/>
+        <v>228</v>
+      </c>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="55"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
@@ -4778,15 +4784,15 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="O18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P18" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="62"/>
+        <v>229</v>
+      </c>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="55"/>
     </row>
     <row r="19" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
@@ -4799,15 +4805,15 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="N19" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="P19" t="s">
         <v>234</v>
       </c>
-      <c r="P19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="62"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="55"/>
     </row>
     <row r="20" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
@@ -4820,15 +4826,15 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="N20" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="O20" t="s">
         <v>236</v>
       </c>
-      <c r="O20" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="62"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="55"/>
     </row>
     <row r="21" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
@@ -4841,15 +4847,15 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="O21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="62"/>
+        <v>237</v>
+      </c>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="55"/>
     </row>
     <row r="22" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -4862,15 +4868,15 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="O22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P22" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="62"/>
+        <v>238</v>
+      </c>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="55"/>
     </row>
     <row r="23" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
@@ -4883,15 +4889,15 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="N23" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="O23" t="s">
         <v>240</v>
       </c>
-      <c r="O23" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="62"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="55"/>
     </row>
     <row r="24" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
@@ -4904,15 +4910,15 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="O24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P24" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="60"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="62"/>
+        <v>241</v>
+      </c>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="54"/>
+      <c r="AD24" s="55"/>
     </row>
     <row r="25" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
@@ -4925,15 +4931,15 @@
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="O25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P25" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="62"/>
+        <v>242</v>
+      </c>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="55"/>
     </row>
     <row r="26" spans="1:30" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
@@ -5016,38 +5022,38 @@
       <c r="AD27" s="1"/>
     </row>
     <row r="54" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="57" t="s">
+      <c r="A58" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
       <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="57"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="51" t="s">
@@ -5062,24 +5068,32 @@
       <c r="C63" s="51"/>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="56" t="s">
+      <c r="A87" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B87" s="56"/>
-      <c r="C87" s="56"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="69"/>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
-      <c r="B88" s="56"/>
-      <c r="C88" s="56"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
     </row>
     <row r="89" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
-      <c r="B89" s="56"/>
-      <c r="C89" s="56"/>
+      <c r="A89" s="69"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A87:C89"/>
+    <mergeCell ref="A58:C61"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="A62:C63"/>
+    <mergeCell ref="D26:I27"/>
+    <mergeCell ref="D54:J54"/>
     <mergeCell ref="AA10:AA25"/>
     <mergeCell ref="AB10:AB25"/>
     <mergeCell ref="AC10:AC25"/>
@@ -5092,14 +5106,6 @@
     <mergeCell ref="AB7:AB9"/>
     <mergeCell ref="AC7:AC9"/>
     <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A87:C89"/>
-    <mergeCell ref="A58:C61"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="A62:C63"/>
-    <mergeCell ref="D26:I27"/>
-    <mergeCell ref="D54:J54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AD2" r:id="rId1" display="https://stackoverflow.com/questions/15070513/how-to-test-a-non-thread-safe-class" xr:uid="{AF80577A-A125-48C9-AA50-5BBE662AA378}"/>
@@ -5156,10 +5162,10 @@
     </row>
     <row r="2" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
         <v>246</v>
-      </c>
-      <c r="B2" t="s">
-        <v>247</v>
       </c>
       <c r="G2" s="72">
         <v>1</v>
@@ -5167,10 +5173,10 @@
       <c r="H2" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="77" t="s">
         <v>58</v>
       </c>
       <c r="L2" s="51" t="s">
@@ -5190,15 +5196,15 @@
     </row>
     <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G3" s="73"/>
       <c r="H3" s="73"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="76"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="78"/>
       <c r="L3" s="38"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
@@ -5214,15 +5220,15 @@
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
         <v>249</v>
-      </c>
-      <c r="C4" t="s">
-        <v>250</v>
       </c>
       <c r="G4" s="73"/>
       <c r="H4" s="73"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="76"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="78"/>
       <c r="L4" s="38"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
@@ -5238,12 +5244,12 @@
     </row>
     <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G5" s="74"/>
       <c r="H5" s="74"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="77"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="79"/>
       <c r="L5" s="38"/>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
@@ -5259,10 +5265,10 @@
     </row>
     <row r="6" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
         <v>252</v>
-      </c>
-      <c r="B6" t="s">
-        <v>253</v>
       </c>
       <c r="G6" s="72">
         <v>2</v>
@@ -5270,56 +5276,56 @@
       <c r="H6" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="80" t="s">
         <v>72</v>
       </c>
       <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G7" s="73"/>
       <c r="H7" s="73"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="79"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="81"/>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G8" s="73"/>
       <c r="H8" s="73"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="79"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="81"/>
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G9" s="74"/>
       <c r="H9" s="74"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="80"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="82"/>
       <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s">
         <v>257</v>
-      </c>
-      <c r="B10" t="s">
-        <v>258</v>
       </c>
       <c r="G10" s="72">
         <v>3</v>
@@ -5327,43 +5333,43 @@
       <c r="H10" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="80" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G11" s="73"/>
       <c r="H11" s="73"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="79"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G12" s="73"/>
       <c r="H12" s="73"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="79"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" t="s">
         <v>261</v>
-      </c>
-      <c r="B13" t="s">
-        <v>262</v>
       </c>
       <c r="G13" s="72">
         <v>4</v>
@@ -5371,11 +5377,11 @@
       <c r="H13" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="66" t="s">
+      <c r="I13" s="59" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="72"/>
-      <c r="K13" s="81" t="s">
+      <c r="K13" s="75" t="s">
         <v>69</v>
       </c>
       <c r="L13" s="49"/>
@@ -5393,16 +5399,16 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G14" s="73"/>
       <c r="H14" s="73"/>
-      <c r="I14" s="67"/>
+      <c r="I14" s="60"/>
       <c r="J14" s="73"/>
-      <c r="K14" s="81"/>
+      <c r="K14" s="75"/>
       <c r="L14" s="49"/>
       <c r="M14" s="49"/>
       <c r="N14" s="49"/>
@@ -5418,16 +5424,16 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G15" s="74"/>
       <c r="H15" s="74"/>
-      <c r="I15" s="68"/>
+      <c r="I15" s="61"/>
       <c r="J15" s="74"/>
-      <c r="K15" s="81"/>
+      <c r="K15" s="75"/>
       <c r="L15" s="49"/>
       <c r="M15" s="49"/>
       <c r="N15" s="49"/>
@@ -5446,7 +5452,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
@@ -5458,7 +5464,7 @@
         <v>67</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="82"/>
+      <c r="K16" s="76"/>
       <c r="L16" s="49"/>
       <c r="M16" s="49"/>
       <c r="N16" s="49"/>
@@ -5474,10 +5480,10 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -5499,10 +5505,10 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -5609,7 +5615,7 @@
       <c r="V35" s="49"/>
     </row>
     <row r="51" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K51" s="58" t="s">
+      <c r="K51" s="71" t="s">
         <v>71</v>
       </c>
       <c r="L51" s="49"/>
@@ -5640,11 +5646,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="L2:W2"/>
-    <mergeCell ref="K13:W16"/>
-    <mergeCell ref="K33:V35"/>
     <mergeCell ref="K51:V52"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="H2:H5"/>
@@ -5660,6 +5661,11 @@
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="K13:W16"/>
+    <mergeCell ref="K33:V35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{3D14D563-A18C-4362-B2CD-8D8339C1C427}"/>
@@ -5935,10 +5941,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5CC180-ABEC-4096-BF7B-D59D7E76A5ED}">
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A67" zoomScale="95" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5979,10 +5985,10 @@
     </row>
     <row r="2" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" t="s">
         <v>268</v>
-      </c>
-      <c r="B2" t="s">
-        <v>269</v>
       </c>
       <c r="D2" s="72">
         <v>1</v>
@@ -6010,10 +6016,10 @@
     </row>
     <row r="3" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
@@ -6031,7 +6037,7 @@
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D4" s="73"/>
       <c r="E4" s="73"/>
@@ -6049,10 +6055,10 @@
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
@@ -6070,10 +6076,10 @@
     </row>
     <row r="6" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" t="s">
         <v>273</v>
-      </c>
-      <c r="B6" t="s">
-        <v>274</v>
       </c>
       <c r="D6" s="72">
         <v>2</v>
@@ -6101,10 +6107,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
@@ -6122,7 +6128,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
@@ -6140,10 +6146,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
@@ -6159,12 +6165,12 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="359.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D10" s="84">
         <v>3</v>
@@ -6172,7 +6178,7 @@
       <c r="E10" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="89" t="s">
         <v>127</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -6192,14 +6198,14 @@
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="9"/>
       <c r="H11" s="3"/>
       <c r="I11" s="1"/>
@@ -6213,11 +6219,11 @@
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" s="85"/>
       <c r="E12" s="85"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="9"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
@@ -6231,14 +6237,14 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D13" s="86"/>
       <c r="E13" s="86"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="9"/>
       <c r="H13" s="3"/>
       <c r="I13" s="1"/>
@@ -6255,7 +6261,7 @@
         <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D14" s="84">
         <v>4</v>
@@ -6267,7 +6273,7 @@
         <v>129</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H14" s="31">
         <v>8</v>
@@ -6283,10 +6289,10 @@
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D15" s="85"/>
       <c r="E15" s="73"/>
@@ -6304,7 +6310,7 @@
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D16" s="85"/>
       <c r="E16" s="73"/>
@@ -6340,7 +6346,7 @@
         <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" s="84">
         <v>5</v>
@@ -6352,7 +6358,7 @@
         <v>131</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H18" s="31">
         <v>9</v>
@@ -6368,10 +6374,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D19" s="85"/>
       <c r="E19" s="73"/>
@@ -6389,7 +6395,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D20" s="85"/>
       <c r="E20" s="73"/>
@@ -6407,7 +6413,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D21" s="85"/>
       <c r="E21" s="73"/>
@@ -6425,7 +6431,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D22" s="85"/>
       <c r="E22" s="73"/>
@@ -6443,7 +6449,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D23" s="85"/>
       <c r="E23" s="73"/>
@@ -6461,10 +6467,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D24" s="85"/>
       <c r="E24" s="73"/>
@@ -6482,7 +6488,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D25" s="86"/>
       <c r="E25" s="74"/>
@@ -6503,7 +6509,7 @@
         <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D26" s="84">
         <v>6</v>
@@ -6515,7 +6521,7 @@
         <v>133</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H26" s="31">
         <v>8</v>
@@ -6531,10 +6537,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D27" s="85"/>
       <c r="E27" s="73"/>
@@ -6552,7 +6558,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" s="85"/>
       <c r="E28" s="73"/>
@@ -6570,10 +6576,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D29" s="86"/>
       <c r="E29" s="74"/>
@@ -6594,7 +6600,7 @@
         <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D30" s="72">
         <v>7</v>
@@ -6620,10 +6626,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D31" s="73"/>
       <c r="E31" s="73"/>
@@ -6641,7 +6647,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D32" s="73"/>
       <c r="E32" s="73"/>
@@ -6659,10 +6665,10 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D33" s="74"/>
       <c r="E33" s="74"/>
@@ -6683,7 +6689,7 @@
         <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="D34" s="72">
         <v>8</v>
@@ -6695,7 +6701,7 @@
         <v>137</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H34" s="31">
         <v>1.1000000000000001</v>
@@ -6711,10 +6717,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C35" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D35" s="73"/>
       <c r="E35" s="73"/>
@@ -6732,7 +6738,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="D36" s="73"/>
       <c r="E36" s="73"/>
@@ -6750,10 +6756,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C37" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D37" s="73"/>
       <c r="E37" s="73"/>
@@ -6771,7 +6777,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D38" s="73"/>
       <c r="E38" s="73"/>
@@ -6789,7 +6795,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D39" s="74"/>
       <c r="E39" s="74"/>
@@ -6810,7 +6816,7 @@
         <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D40" s="84">
         <v>9</v>
@@ -6819,10 +6825,10 @@
         <v>138</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H40" s="31">
         <v>9</v>
@@ -6838,10 +6844,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D41" s="85"/>
       <c r="E41" s="85"/>
@@ -6859,10 +6865,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C42" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D42" s="86"/>
       <c r="E42" s="86"/>
@@ -6883,7 +6889,7 @@
         <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D43" s="84">
         <v>10</v>
@@ -6895,7 +6901,7 @@
         <v>140</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H43" s="34">
         <v>9</v>
@@ -6911,10 +6917,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D44" s="85"/>
       <c r="E44" s="73"/>
@@ -6932,7 +6938,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D45" s="85"/>
       <c r="E45" s="73"/>
@@ -6950,10 +6956,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C46" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D46" s="85"/>
       <c r="E46" s="73"/>
@@ -6971,7 +6977,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D47" s="86"/>
       <c r="E47" s="74"/>
@@ -6992,7 +6998,7 @@
         <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D48" s="84">
         <v>11</v>
@@ -7004,7 +7010,7 @@
         <v>142</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H48" s="31">
         <v>10</v>
@@ -7020,10 +7026,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D49" s="85"/>
       <c r="E49" s="85"/>
@@ -7041,7 +7047,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D50" s="85"/>
       <c r="E50" s="85"/>
@@ -7059,10 +7065,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D51" s="86"/>
       <c r="E51" s="86"/>
@@ -7083,7 +7089,7 @@
         <v>143</v>
       </c>
       <c r="B52" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D52" s="84">
         <v>12</v>
@@ -7095,7 +7101,7 @@
         <v>144</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H52" s="31">
         <v>12</v>
@@ -7111,10 +7117,10 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C53" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D53" s="85"/>
       <c r="E53" s="85"/>
@@ -7132,7 +7138,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D54" s="85"/>
       <c r="E54" s="85"/>
@@ -7150,10 +7156,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C55" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D55" s="85"/>
       <c r="E55" s="85"/>
@@ -7169,15 +7175,28 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>320</v>
-      </c>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="31"/>
+    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56" s="84">
+        <v>13</v>
+      </c>
+      <c r="E56" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H56" s="31">
+        <v>14</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -7187,28 +7206,15 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>145</v>
-      </c>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>321</v>
-      </c>
-      <c r="D57" s="84">
-        <v>13</v>
-      </c>
-      <c r="E57" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H57" s="31">
-        <v>14</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D57" s="85"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="31"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -7220,10 +7226,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>218</v>
-      </c>
-      <c r="D58" s="85"/>
-      <c r="E58" s="73"/>
+        <v>248</v>
+      </c>
+      <c r="D58" s="86"/>
+      <c r="E58" s="74"/>
       <c r="F58" s="5"/>
       <c r="G58" s="9"/>
       <c r="H58" s="31"/>
@@ -7236,15 +7242,28 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="B59" t="s">
-        <v>249</v>
-      </c>
-      <c r="D59" s="86"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="31"/>
+        <v>317</v>
+      </c>
+      <c r="D59" s="84">
+        <v>14</v>
+      </c>
+      <c r="E59" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H59" s="31">
+        <v>15</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -7254,28 +7273,18 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>147</v>
-      </c>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>322</v>
-      </c>
-      <c r="D60" s="84">
-        <v>14</v>
-      </c>
-      <c r="E60" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H60" s="31">
-        <v>15</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C60" t="s">
+        <v>318</v>
+      </c>
+      <c r="D60" s="85"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="31"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -7286,11 +7295,8 @@
       <c r="P60" s="1"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>218</v>
-      </c>
       <c r="C61" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D61" s="85"/>
       <c r="E61" s="73"/>
@@ -7307,11 +7313,14 @@
       <c r="P61" s="1"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>248</v>
+      </c>
       <c r="C62" t="s">
-        <v>324</v>
-      </c>
-      <c r="D62" s="85"/>
-      <c r="E62" s="73"/>
+        <v>320</v>
+      </c>
+      <c r="D62" s="86"/>
+      <c r="E62" s="74"/>
       <c r="F62" s="6"/>
       <c r="G62" s="9"/>
       <c r="H62" s="31"/>
@@ -7324,18 +7333,28 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="B63" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63" t="s">
-        <v>325</v>
-      </c>
-      <c r="D63" s="86"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="31"/>
+        <v>321</v>
+      </c>
+      <c r="D63" s="84">
+        <v>15</v>
+      </c>
+      <c r="E63" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H63" s="31">
+        <v>16</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -7345,28 +7364,18 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>150</v>
-      </c>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>326</v>
-      </c>
-      <c r="D64" s="84">
-        <v>15</v>
-      </c>
-      <c r="E64" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H64" s="31">
-        <v>16</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C64" t="s">
+        <v>322</v>
+      </c>
+      <c r="D64" s="85"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="31"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -7377,11 +7386,8 @@
       <c r="P64" s="1"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>218</v>
-      </c>
       <c r="C65" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D65" s="85"/>
       <c r="E65" s="73"/>
@@ -7398,11 +7404,14 @@
       <c r="P65" s="1"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>248</v>
+      </c>
       <c r="C66" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D66" s="85"/>
-      <c r="E66" s="73"/>
+      <c r="E66" s="74"/>
       <c r="F66" s="5"/>
       <c r="G66" s="9"/>
       <c r="H66" s="31"/>
@@ -7415,18 +7424,28 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>150</v>
+      </c>
       <c r="B67" t="s">
-        <v>249</v>
-      </c>
-      <c r="C67" t="s">
-        <v>329</v>
-      </c>
-      <c r="D67" s="85"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="31"/>
+        <v>325</v>
+      </c>
+      <c r="D67" s="32">
+        <v>16</v>
+      </c>
+      <c r="E67" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H67" s="31">
+        <v>16</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -7436,28 +7455,18 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16" ht="150" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>151</v>
-      </c>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>330</v>
-      </c>
-      <c r="D68" s="32">
-        <v>16</v>
-      </c>
-      <c r="E68" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="H68" s="31">
-        <v>16</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C68" t="s">
+        <v>326</v>
+      </c>
+      <c r="D68" s="32"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="31"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -7469,10 +7478,10 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="C69" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D69" s="32"/>
       <c r="E69" s="73"/>
@@ -7489,14 +7498,11 @@
       <c r="P69" s="1"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>249</v>
-      </c>
       <c r="C70" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D70" s="32"/>
-      <c r="E70" s="73"/>
+      <c r="E70" s="74"/>
       <c r="F70" s="6"/>
       <c r="G70" s="9"/>
       <c r="H70" s="31"/>
@@ -7509,15 +7515,28 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>333</v>
-      </c>
-      <c r="D71" s="32"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="31"/>
+    <row r="71" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A71" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" t="s">
+        <v>338</v>
+      </c>
+      <c r="D71" s="72">
+        <v>17</v>
+      </c>
+      <c r="E71" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H71" s="31">
+        <v>16</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -7527,28 +7546,18 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16" ht="195" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>153</v>
-      </c>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>334</v>
-      </c>
-      <c r="D72" s="72">
-        <v>17</v>
-      </c>
-      <c r="E72" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H72" s="31">
-        <v>16</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C72" t="s">
+        <v>329</v>
+      </c>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="31"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -7560,13 +7569,13 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="C73" t="s">
-        <v>335</v>
-      </c>
-      <c r="D73" s="73"/>
-      <c r="E73" s="73"/>
+        <v>331</v>
+      </c>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
       <c r="F73" s="5"/>
       <c r="G73" s="9"/>
       <c r="H73" s="31"/>
@@ -7579,18 +7588,28 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>168</v>
+      </c>
       <c r="B74" t="s">
-        <v>249</v>
-      </c>
-      <c r="C74" t="s">
-        <v>337</v>
-      </c>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="31"/>
+        <v>330</v>
+      </c>
+      <c r="D74" s="31">
+        <v>18</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H74" s="31">
+        <v>8</v>
+      </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -7600,80 +7619,25 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>169</v>
-      </c>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>336</v>
-      </c>
-      <c r="D75" s="31">
-        <v>18</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H75" s="31">
-        <v>8</v>
-      </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="C75" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="C76" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>249</v>
-      </c>
-      <c r="C77" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
+  <mergeCells count="34">
+    <mergeCell ref="F10:F13"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="D14:D17"/>
@@ -7682,6 +7646,31 @@
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="E67:E70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{BD266EE8-9EE9-410E-A73B-7BCBE7209954}"/>
@@ -7694,12 +7683,12 @@
     <hyperlink ref="G43" r:id="rId8" location="private-interface-methods" xr:uid="{03D7CE78-B00A-40EC-B5F3-2AA3BD25A3F8}"/>
     <hyperlink ref="G48" r:id="rId9" location="local-variable-type-inference" xr:uid="{ABC6A97A-A492-4F1E-B376-6B08FCF1FF79}"/>
     <hyperlink ref="G52" r:id="rId10" xr:uid="{C5C0004D-306F-4C4E-8BB7-B950CCF159EA}"/>
-    <hyperlink ref="G57" r:id="rId11" location="switch-expressions" xr:uid="{9C27DA53-F783-4DE8-BF63-0D5BC42DFF78}"/>
-    <hyperlink ref="G60" r:id="rId12" location="using-text-blocks" xr:uid="{AF940015-A731-45B2-AF55-D061E7728FA6}"/>
-    <hyperlink ref="G64" r:id="rId13" xr:uid="{B62A518E-DC89-418B-A066-017A0CDEEBDB}"/>
-    <hyperlink ref="G68" r:id="rId14" xr:uid="{1673A8AC-A268-453A-A526-36C81C723CFF}"/>
-    <hyperlink ref="G72" r:id="rId15" xr:uid="{24EB30BC-5EF8-4524-9F31-9D4139905188}"/>
-    <hyperlink ref="G75" r:id="rId16" location="repeating-annotations" xr:uid="{056F707C-428B-48F4-87B1-E2564C8A4EC9}"/>
+    <hyperlink ref="G56" r:id="rId11" location="switch-expressions" xr:uid="{9C27DA53-F783-4DE8-BF63-0D5BC42DFF78}"/>
+    <hyperlink ref="G59" r:id="rId12" location="using-text-blocks" xr:uid="{AF940015-A731-45B2-AF55-D061E7728FA6}"/>
+    <hyperlink ref="G63" r:id="rId13" xr:uid="{B62A518E-DC89-418B-A066-017A0CDEEBDB}"/>
+    <hyperlink ref="G67" r:id="rId14" xr:uid="{1673A8AC-A268-453A-A526-36C81C723CFF}"/>
+    <hyperlink ref="G71" r:id="rId15" xr:uid="{24EB30BC-5EF8-4524-9F31-9D4139905188}"/>
+    <hyperlink ref="G74" r:id="rId16" location="repeating-annotations" xr:uid="{056F707C-428B-48F4-87B1-E2564C8A4EC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -7710,7 +7699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3AF180-2B8D-4C19-A7E4-B0AE9B7543FC}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
@@ -7746,13 +7735,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
@@ -7760,13 +7749,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -7877,13 +7866,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="147" customHeight="1" x14ac:dyDescent="0.25">
@@ -7891,13 +7880,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="366" customHeight="1" x14ac:dyDescent="0.25">
@@ -7905,13 +7894,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -7919,10 +7908,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -7987,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>188</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>189</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -8006,13 +7995,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="D2" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -8025,13 +8014,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>193</v>
-      </c>
       <c r="D3" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -8044,7 +8033,7 @@
       <c r="B4" s="74"/>
       <c r="C4" s="3"/>
       <c r="D4" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -8055,13 +8044,13 @@
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="73"/>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -8072,10 +8061,10 @@
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="73"/>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="88"/>
       <c r="E6" s="14"/>
@@ -8087,10 +8076,10 @@
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="73"/>
       <c r="B7" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="88"/>
       <c r="E7" s="14"/>
@@ -8102,13 +8091,13 @@
     <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="74"/>
       <c r="B8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="D8" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -8121,13 +8110,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="42" t="s">
         <v>203</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>204</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -8140,13 +8129,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="37" t="s">
         <v>206</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>207</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -8155,17 +8144,17 @@
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>207</v>
+      <c r="D11" s="56" t="s">
+        <v>206</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -8174,12 +8163,12 @@
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="64"/>
+        <v>212</v>
+      </c>
+      <c r="D12" s="57"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -8187,12 +8176,12 @@
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="65"/>
+        <v>213</v>
+      </c>
+      <c r="D13" s="58"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>

--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9521D07D-0859-4308-8D22-5D2A630674BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A99C37-DD67-4AE7-A85C-D0F6B18F9F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="428">
   <si>
     <t>STT</t>
   </si>
@@ -1720,6 +1720,741 @@
     <t>ACID transactions</t>
   </si>
   <si>
+    <t>Dirty read</t>
+  </si>
+  <si>
+    <t>Nonrepeatable read</t>
+  </si>
+  <si>
+    <t>Phantom read</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là một khái niệm trong hệ quản trị cơ sở dữ liệu (DBMS), 
+xảy ra khi một transaction đọc dữ liệu từ một bản ghi mà chưa được commit bởi transaction khác. Tức là transaction đó đọc dữ liệu từ một bản ghi có thể bị thay đổi hoặc rollback bởi transaction khác.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> là một khái niệm trong hệ quản trị cơ sở dữ liệu (DBMS), xảy ra khi một transaction đọc dữ liệu từ một tập hợp các bản ghi, 
+sau đó trong quá trình transaction đó thực hiện một transaction khác </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chèn hoặc xóa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thêm các bản ghi mới vào tập hợp đó và commit thay đổi đó. Khi transaction đầu tiên đọc lại tập hợp các bản ghi đó, nó thấy các bản ghi mới được chèn vào và có thể làm thay đổi kết quả của truy vấn ban đầu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>là một khái niệm trong hệ quản trị cơ sở dữ liệu (DBMS), xảy ra khi một transaction đọc dữ liệu từ một bản ghi,
+ sau đó trong quá trình transaction đó thực hiện một transaction khác</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cập nhật</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bản ghi đó và commit thay đổi đó. Khi transaction đầu tiên đọc lại dữ liệu từ bản ghi đó, nó nhận được giá trị khác với giá trị ban đầu. Tức là dữ liệu không nhất quán với bản ghi ban đầu mà transaction đầu tiên đã đọc. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mức độ này cũng đảm bảo độ cô lập tương đương với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Serializable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 
+nhưng nó hơi khác ở phương thức hoạt động. Khi transaction đang select các bản ghi, nó không khóa các bản ghi này lại mà tạo một bản sao (snapshot) và select trên đó. Vì vậy các transaction khác insert/update lên các bản ghi đó không gây ảnh hưởng đến transaction ban đầu. Tác dụng của nó là giảm blocking giữa các transaction mà vẫn đảm bảo tính toàn vẹn dữ liệu. Tuy nhiên cái giá kèm theo là cần thêm bộ nhớ để lưu bản sao của các bản ghi, và phần bộ nhớ này là cần cho mỗi transaction do đó có thể tăng lên rất lớn</t>
+    </r>
+  </si>
+  <si>
+    <t>Transaction Propagation</t>
+  </si>
+  <si>
+    <t>ReadOnly</t>
+  </si>
+  <si>
+    <t>là một thuộc tính trong transaction của hệ quản trị cơ sở dữ liệu (DBMS), cho phép chỉ định rằng transaction đó chỉ có thể đọc dữ liệu từ cơ sở dữ liệu mà không thể cập nhật hay chèn thêm dữ liệu mới vào.
+Khi readOnly được thiết lập trong một transaction, hệ quản trị cơ sở dữ liệu sẽ đảm bảo rằng transaction đó không thể thực hiện bất kỳ thao tác nào thay đổi dữ liệu trong cơ sở dữ liệu. Nếu transaction cố gắng thực hiện các thao tác này, hệ thống sẽ phát sinh lỗi và transaction sẽ bị rollback.
+Việc sử dụng readOnly trong transaction có thể cải thiện hiệu suất của hệ thống khi transaction chỉ cần đọc dữ liệu và không cần thực hiện các thao tác cập nhật hoặc chèn thêm dữ liệu mới. Điều này giúp giảm thiểu tài nguyên hệ thống được sử dụng và cải thiện khả năng mở rộng của hệ thống.</t>
+  </si>
+  <si>
+    <t>https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/</t>
+  </si>
+  <si>
+    <t>https://www.studocu.com/vn/document/hoc-vien-cong-nghe-buu-chinh-vien-thong/he-quan-tri-co-so-du-lieu/cac-muc-isolation-level/35387077</t>
+  </si>
+  <si>
+    <t>https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/
+https://www.studocu.com/vn/document/hoc-vien-cong-nghe-buu-chinh-vien-thong/he-quan-tri-co-so-du-lieu/cac-muc-isolation-level/35387077</t>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/transaction-o-muc-do-co-lap-isolation-level-1ZnbRlWNv2Xo</t>
+  </si>
+  <si>
+    <t>Handling Exceptions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spring proxy sẽ tự động rollback transaction nếu có một </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RuntimeException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xảy ra. 
+Bạn có thể tùy biến bằng cách sử dụng thuộc tính </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rollbackFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>noRollbackFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Transactional annotation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rollbackFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cho phép bạn cung cấp một mảng các Exception class mà transaction sẽ bị rollback nếu chúng xảy ra.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>noRollbackFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> được dùng để chỉ định một mảng các Exception class mà transaction sẽ không rollback khi chúng xảy ra.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ưu điểm: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhược điểm: </t>
+  </si>
+  <si>
+    <t>vì được sử dụng bởi nhiều luồng nên có thể bị xung đột dẫn tới kết quả không chính xác</t>
+  </si>
+  <si>
+    <t>Ưu điểm:</t>
+  </si>
+  <si>
+    <t>không cần quan tâm tới việc đồng bộ giữa các thread khác</t>
+  </si>
+  <si>
+    <t>có hiệu suất cao hơn vì đỡ chi phí đồng bộ giữa các thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biến thread safe: </t>
+  </si>
+  <si>
+    <t>là biến được thiết kế đảm bảo an toàn khi thao tác trên nhiều thread mà không cần đồng bộ hóa</t>
+  </si>
+  <si>
+    <t>Dễ tồn memory vì phải tạo ra bản sao như là CopyOnWriteArrayList</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện được các phép toán đơn giản như AtomicInteger</t>
+  </si>
+  <si>
+    <t>đảm bảo tính đúng đắn mà không cần phải đồng bộ giữa các luồng</t>
+  </si>
+  <si>
+    <t>Method synchronize:</t>
+  </si>
+  <si>
+    <t>Là phương thức được đánh dấu bởi keyword synchronize để đảm bảo rằng chỉ có một thread được vào cùng một thời điểm</t>
+  </si>
+  <si>
+    <t>Tránh các tình trạng xung đột giữa các thread</t>
+  </si>
+  <si>
+    <t>DĐảm bảo nhất quán dữ liệu khi một thread đang sửa thread còn lại đang đọc</t>
+  </si>
+  <si>
+    <t>Giảm hiệu suất vì phải đồng bộ các thread với nhau</t>
+  </si>
+  <si>
+    <t>Block synchronize:</t>
+  </si>
+  <si>
+    <t>Cô lập được phần cần phải đồng bộ</t>
+  </si>
+  <si>
+    <t>Là một khối đồng bộ mà ở đó sự dụng một đối tượng để đại diên cho block đó</t>
+  </si>
+  <si>
+    <t>biến synchronized:</t>
+  </si>
+  <si>
+    <t>Là một biến được dùng để đại diện cho một khối hoặc trên chính thực thể đó khi đồng bộ giữa các thread</t>
+  </si>
+  <si>
+    <t>Thread:</t>
+  </si>
+  <si>
+    <t>Là một đối tượng trong Java đại diện cho một luồng thực thi độc lập</t>
+  </si>
+  <si>
+    <t>có thể tạo ra nhiều luồng con từ một luồng chính gia tăng hiệu suất</t>
+  </si>
+  <si>
+    <t>Dễ gây bất đồng bộ khi sử dụng nhiều luồng</t>
+  </si>
+  <si>
+    <t>mutilthread:</t>
+  </si>
+  <si>
+    <t>Là một kỹ thuật lập trình thực hiện nhiều tác vụ trong một thời điểm</t>
+  </si>
+  <si>
+    <t>Tăng hiệu suất khi thực nhiều nhiều tác vụ cùng một lúc</t>
+  </si>
+  <si>
+    <t>Dễ bị bất đồng bộ giữa các thread với nhau</t>
+  </si>
+  <si>
+    <t>Biến non-thread safe:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là một biến được sử dụng bởi nhiều luồng cùng một lúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread pool: </t>
+  </si>
+  <si>
+    <t>là một pool chứa các thread thực hiện các tác vụ trong ứng dụng đa luồng</t>
+  </si>
+  <si>
+    <t>Thay vì phải tạo 1 thread cho 1 tác vụ thì có thể tái sử dụng lại thread đang rảnh giảm bớt được memory và tăng hiệu suất</t>
+  </si>
+  <si>
+    <t>Nhược điểm:</t>
+  </si>
+  <si>
+    <t>phải tốn một lượng memory nhất định để duy trì các thread trong pool</t>
+  </si>
+  <si>
+    <t>Dễ bị trì trệ vì các thead phải chờ đợi nhau</t>
+  </si>
+  <si>
+    <t>Connection pool:</t>
+  </si>
+  <si>
+    <t>Là một kỹ thuật để tối ưu hóa việc kết nối và sử dụng cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>Có thể tái sử dụng giúp tôi ưu hiệu suất và tài nguyên</t>
+  </si>
+  <si>
+    <t>Giảm thời gian chờ cho việc tạo các kết nối</t>
+  </si>
+  <si>
+    <t>Khó khăn trong việc cấu hình các tham số</t>
+  </si>
+  <si>
+    <t>String pool:</t>
+  </si>
+  <si>
+    <t>là một kỹ thuật được sử dụng để giảm thiểu tạo các String giống nhau</t>
+  </si>
+  <si>
+    <t>Tránh tình trạng tạo các String trùng lặp</t>
+  </si>
+  <si>
+    <t>viêc sử dụng các String khác nhau sẽ không tối ưu</t>
+  </si>
+  <si>
+    <t>Biến tham trị:</t>
+  </si>
+  <si>
+    <t>được sử dụng để truyền giá trị vào phương thức</t>
+  </si>
+  <si>
+    <t>sử dụng khi chỉ muốn truyền giá trị và không ảnh hưởng đến biến ban đầu</t>
+  </si>
+  <si>
+    <t>Không thể thay đổi trên biến được truyền vào</t>
+  </si>
+  <si>
+    <t>được sử dụng khi muốn truyền một đối tượng vào phương thức</t>
+  </si>
+  <si>
+    <t>Có thể thay đổi trực tiếp đối tượng được truyền vào</t>
+  </si>
+  <si>
+    <t>Dễ bị trỏ đến đối tượng chưa được khởi tạo</t>
+  </si>
+  <si>
+    <t>Lambda Expression:</t>
+  </si>
+  <si>
+    <t>là hàm ẩn danh</t>
+  </si>
+  <si>
+    <t>tiện lợi và gọn gàng phù hợp với những phương thức sử dụng 1 lần</t>
+  </si>
+  <si>
+    <t>phù hợp làm tham số của phương thức</t>
+  </si>
+  <si>
+    <t>Khó hiểu đối với người mới</t>
+  </si>
+  <si>
+    <t>Stream API:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">là một tính năng cho phép thao tác xử lý dữ liệu trên một tập hợp các phần </t>
+  </si>
+  <si>
+    <t>Gọn và dễ đọc</t>
+  </si>
+  <si>
+    <t>Hiệu suất cao với xử lý đa luồng</t>
+  </si>
+  <si>
+    <t>Việc xử lý trên nhiều luồng có thể gây bất đồng bộ nên các phần tử phải độc lập</t>
+  </si>
+  <si>
+    <t>là cú pháp để tham chiếu đến phương thức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giảm sự lặp lại </t>
+  </si>
+  <si>
+    <t>Có thể tái sử dụng</t>
+  </si>
+  <si>
+    <t>là một tính năng cho phép định nghĩa phương thức ở interface</t>
+  </si>
+  <si>
+    <t>Tránh định nghĩa lại ở các class implement</t>
+  </si>
+  <si>
+    <t>là một tính năng cho phép ứng dụng triển khai module hóa</t>
+  </si>
+  <si>
+    <t>cho phép ứng dụng chia thành các module riêng biệt</t>
+  </si>
+  <si>
+    <t>có thể tái sử dụng lại module</t>
+  </si>
+  <si>
+    <t>kiểm soát sự tương thích giữa các module</t>
+  </si>
+  <si>
+    <t>giúp quản lý các phiên bản của module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiểm soát truy cập vào module </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Làm giảm hiệu suất của ứng dụng khi sử dụng quá nhiều module </t>
+  </si>
+  <si>
+    <t>Khó triển khai</t>
+  </si>
+  <si>
+    <t>là cú pháp được sử dụng để tự động giải phóng các tài nguyên trong khối try-catch-finally</t>
+  </si>
+  <si>
+    <t>tự động giải phóng các tài nguyên</t>
+  </si>
+  <si>
+    <t>giảm thiếu viết thêm code giải phóng tài nguyên</t>
+  </si>
+  <si>
+    <t>các tài nguyên đó phải implement interface java.lang.AutoCloseable hoặc java.io.Closeable</t>
+  </si>
+  <si>
+    <t>là một tính năng cho phép khai báo đối tượng generic mà không cần định kiểu generics</t>
+  </si>
+  <si>
+    <t>loại bỏ việc lặp lại kiểu generics ở cả 2 phía của toán tử gán trong khai báo đối tượng</t>
+  </si>
+  <si>
+    <t>Tự động xác định kiểu</t>
+  </si>
+  <si>
+    <t>Không hỗ trợ trước Java 7</t>
+  </si>
+  <si>
+    <t>giúp rút ngắn đoạn mã khi cần định nghĩa một lớp mới để sử dụng một phương thức hoặc ghi đè một phương thức.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> làm cho mã nguồn trở nên phức tạp hơn và khó bảo trì hơn do không có tên lớp, khó để tìm kiếm khi có lỗi.</t>
+  </si>
+  <si>
+    <t>Không thể tái sử dụng lại</t>
+  </si>
+  <si>
+    <t>Các class khác không thể kế thừa</t>
+  </si>
+  <si>
+    <t>Không hỗ trợ trước Java 9</t>
+  </si>
+  <si>
+    <t>là cú pháp sử dụng cho việc khởi tạo một đối tượng anonymous inner class mà không cần chỉ định kiểu generic của lớp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giúp rút ngắn đoạn mã </t>
+  </si>
+  <si>
+    <t>là tính năng cho phép định nghĩa phương thức riêng tư trong các interface.</t>
+  </si>
+  <si>
+    <t>đảm bảo tính đóng gói</t>
+  </si>
+  <si>
+    <t>có thể triển khai trên các Default method</t>
+  </si>
+  <si>
+    <t>Chỉ được sử dụng trong cùng 1 interface</t>
+  </si>
+  <si>
+    <t>là tính năng cho phép khai báo biến mà không cần chỉ định kiểu dữ liệu một cách rõ ràng. Thay vào đó, kiểu dữ liệu của biến sẽ được suy ra từ giá trị khởi tạo.</t>
+  </si>
+  <si>
+    <t>Giúp rút ngắn mã nguồn</t>
+  </si>
+  <si>
+    <t>thay đổi kiểu dữ liệu của biến một cách dễ dàng và linh hoạt hơn, mà không cần phải sửa đổi code nhiều</t>
+  </si>
+  <si>
+    <t>Khi kiểu dữ liệu của biến không được chỉ định rõ ràng, điều này có thể làm cho code trở nên khó hiểu hơn đối với những người mới học hoặc những người không quen với tính năng này</t>
+  </si>
+  <si>
+    <t>là một tính năng cho phép sử dụng switch case như một biểu thức trả về một giá trị</t>
+  </si>
+  <si>
+    <t>giảm thiểu mã code</t>
+  </si>
+  <si>
+    <t>gán giá trị cho một biến hoặc làm giá trị trả về</t>
+  </si>
+  <si>
+    <t>Không hỗ trợ trước Java 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">là một tính năng giúp dễ dàng trong việc khai báo chuỗi dài </t>
+  </si>
+  <si>
+    <t>có thể viết các chuỗi dài hoặc các chuỗi chứa các ký tự đặc biệt một cách dễ dàng và tự nhiên hơn mà không cần sử dụng escape sequences như \n, \r, \t và kết hợp với các toán tử + để nối chuỗi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hỗ trợ các trường hợp thực tế như viết HTML, JSON hoặc SQL </t>
+  </si>
+  <si>
+    <t>Không hỗ trợ trước Java 15</t>
+  </si>
+  <si>
+    <t>là một tính năng cho phép kiểm tra một đối tượng có phù hợp với một kiểu nhất định hay không</t>
+  </si>
+  <si>
+    <t>giúp cho code trở nên dễ đọc và dễ hiểu hơn bằng cách cho phép kiểm tra kiểu của một đối tượng một cách dễ dàng và tự nhiên hơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> giúp cho code trở nên gọn hơn bằng cách loại bỏ các phép ép kiểu (type casting) không cần thiết.</t>
+  </si>
+  <si>
+    <t>Không hỗ trợ trước Java 16</t>
+  </si>
+  <si>
+    <t>là một tính năng cho phép định nghĩa các lớp đơn giản để chứa dữ liệu, với cú pháp rút gọn và hỗ trợ một số tính năng tiện ích.</t>
+  </si>
+  <si>
+    <t>Định nghĩa nhanh các class chỉ có các field và getter</t>
+  </si>
+  <si>
+    <t>vì bất biến nên không thể sửa đổi các thuộc tính</t>
+  </si>
+  <si>
+    <t>Không cho phép kế thừa</t>
+  </si>
+  <si>
+    <t>Giới hạn các lớp con có thể được kế thừa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là tính năng cho phép sử dụng nhiều anonation cùng loại trên cùng </t>
+  </si>
+  <si>
+    <t>Các lớp con được đánh dấu final không được kế thừa</t>
+  </si>
+  <si>
+    <t>Giảm thiểu viết nhiều code lặp đi lặp lại</t>
+  </si>
+  <si>
+    <t>Không hỗ trợ trước Java 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiện lợi cho việc sử dụng các class chỉ dùng 1 lần </t>
+  </si>
+  <si>
+    <t>là một lớp nặc danh được khai báo bên trong một phương thức hoặc một khối lệnh của một lớp khác, thường được dùng để triển khai abstract class hoặc interface</t>
+  </si>
+  <si>
+    <t>là một keyword được sử dụng trong Switch Expressions được sử dụng để trả về và kết thúc expression</t>
+  </si>
+  <si>
+    <t>là một keyword được giới thiệu từ phiên bản Java 13 và được sử dụng trong switch expressions. 
+Nó cho phép trả về một giá trị từ một switch expression và kết thúc toàn bộ expression đó.</t>
+  </si>
+  <si>
+    <t>là tính năng mà nó giới hạn các lớp con chỉ có thể được định nghĩa bởi lớp cha và phải trong cùng một module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mô hình Mvc </t>
+  </si>
+  <si>
+    <t>là một mẫu kiến ​​trúc phân tách một ứng dụng thành ba thành phần logic chính Model, View và Controller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong đó: </t>
+  </si>
+  <si>
+    <t>Mô hình Three Tier</t>
+  </si>
+  <si>
+    <t>là mô hình ba tầng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data access layer: </t>
+  </si>
+  <si>
+    <t>Model:</t>
+  </si>
+  <si>
+    <t>View:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller: </t>
+  </si>
+  <si>
+    <t>điểu khiển luồng bằng cách tương tác với Model và View</t>
+  </si>
+  <si>
+    <t>giao diện người dùng dùng để tương tác với người dùng</t>
+  </si>
+  <si>
+    <t>tập hợp các class đại diện cho dữ liệu</t>
+  </si>
+  <si>
+    <t>Tương tác với database, trả về kết quả cho tầng business logic</t>
+  </si>
+  <si>
+    <t>Dùng để xử lý logic tương tác với data layer và presentation layer</t>
+  </si>
+  <si>
+    <t>Business logic layer:</t>
+  </si>
+  <si>
+    <t>Presentation layer:</t>
+  </si>
+  <si>
+    <t>Tầng này tương tác với người dùng bằng View, Controller (Trong MVC) hoặc API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inversion of control </t>
+  </si>
+  <si>
+    <t>là việc tự động inject các dependency mà class đó cần ở trong context mà được khởi tạo từ trước</t>
+  </si>
+  <si>
+    <t>là việc inject các dependency của class vào lúc runtime</t>
+  </si>
+  <si>
+    <t>là một chuỗi các hoạt động trên database</t>
+  </si>
+  <si>
+    <t>Mục đích</t>
+  </si>
+  <si>
+    <t>đảm bảo tính toàn vẹn của dữ liệu</t>
+  </si>
+  <si>
+    <t>Trường hợp lỗi</t>
+  </si>
+  <si>
+    <t>sẽ tự động roll back về trạng thái trước khi thực hiện transaction</t>
+  </si>
+  <si>
+    <t>Có 4 yêú tố đặc trưng cho Transaction</t>
+  </si>
+  <si>
+    <t>Atomicity</t>
+  </si>
+  <si>
+    <t>Tất cả hoạt động của transaction được thi thành công hoặc không có hành động nào được thực thi</t>
+  </si>
+  <si>
+    <t>Consistency (tính nhất quán)</t>
+  </si>
+  <si>
+    <t>Là việc đảm bảo rằng csdl luôn ở trạng thái đồng bộ</t>
+  </si>
+  <si>
+    <t>isolation (Tính cô lập)</t>
+  </si>
+  <si>
+    <t>Khả năng thực hiện đồng thời nhiều transaction mà không bị ảnh hưởng tới sự nhất quá dữ liệu</t>
+  </si>
+  <si>
+    <t>Durability (Tính bền vững)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sau khi một transaction được thực hiện, kết quả của nó sẽ được lưu trữ vĩnh viễn và không bị mất đi do sự cố hệ thống hoặc thiết bị.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Vốn dĩ một transaction được đặc trưng bởi 4 yếu tố (thường được gọi là ACID):
 </t>
@@ -1766,6 +2501,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> là tính nhất quán trong hệ thống, nghĩa là đảm bảo dữ liệu trên các node hoặc bản sao của dữ liệu luôn được đồng bộ và giống nhau. Điều này đảm bảo rằng khi có nhiều node hoặc bản sao, tất cả chúng đều phải chứa cùng một phiên bản của dữ liệu và trả về kết quả như nhau khi được truy vấn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Durability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đảm bảo một transaction thực thi thành công thì tất cả những thay đổi trong transaction phải được đồng bộ xuống database kể cả khi hệ thống xảy ra lỗi hoặc bị mất điện. 
  </t>
     </r>
     <r>
@@ -1808,22 +2565,30 @@
     </r>
   </si>
   <si>
-    <t>Dirty read</t>
-  </si>
-  <si>
-    <t>Nonrepeatable read</t>
-  </si>
-  <si>
-    <t>Phantom read</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> là một khái niệm trong hệ quản trị cơ sở dữ liệu (DBMS), 
-xảy ra khi một transaction đọc dữ liệu từ một bản ghi mà chưa được commit bởi transaction khác. Tức là transaction đó đọc dữ liệu từ một bản ghi có thể bị thay đổi hoặc rollback bởi transaction khác.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> là một khái niệm trong hệ quản trị cơ sở dữ liệu (DBMS), xảy ra khi một transaction đọc dữ liệu từ một tập hợp các bản ghi, 
-sau đó trong quá trình transaction đó thực hiện một transaction khác </t>
+    <t>Coó 5 mức độ Isolation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read uncommitted
+Read committed
+Repeatable read
+Serializable
+Snapshot </t>
+  </si>
+  <si>
+    <t>xảy ra khi 1 transaction đọc dữ liệu từ một bản ghi chưa được commit bởi transaction khác</t>
+  </si>
+  <si>
+    <t>bản ghi đó có thể bị thay đổi hoặc roll back bởi transaction khác</t>
+  </si>
+  <si>
+    <t>NonRepeatable read</t>
+  </si>
+  <si>
+    <t>Snapshot và Serializable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xảy ra khi 1 transaction khác </t>
     </r>
     <r>
       <rPr>
@@ -1834,23 +2599,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>chèn hoặc xóa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> thêm các bản ghi mới vào tập hợp đó và commit thay đổi đó. Khi transaction đầu tiên đọc lại tập hợp các bản ghi đó, nó thấy các bản ghi mới được chèn vào và có thể làm thay đổi kết quả của truy vấn ban đầu.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>là một khái niệm trong hệ quản trị cơ sở dữ liệu (DBMS), xảy ra khi một transaction đọc dữ liệu từ một bản ghi,
- sau đó trong quá trình transaction đó thực hiện một transaction khác</t>
+      <t>update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bản ghi, trong khi transaction ban đầu </t>
     </r>
     <r>
       <rPr>
@@ -1861,25 +2620,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> cập nhật</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> bản ghi đó và commit thay đổi đó. Khi transaction đầu tiên đọc lại dữ liệu từ bản ghi đó, nó nhận được giá trị khác với giá trị ban đầu. Tức là dữ liệu không nhất quán với bản ghi ban đầu mà transaction đầu tiên đã đọc. </t>
-    </r>
-  </si>
-  <si>
-    <t>Snapshot</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mức độ này cũng đảm bảo độ cô lập tương đương với </t>
+      <t>đọc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lại dữ liệu từ bản ghi đó, nó nhận được giá trị khác với giá trị ban đầu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xảy ra khi 1 transaction khác </t>
     </r>
     <r>
       <rPr>
@@ -1890,6 +2646,306 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>insert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hoặc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bản ghi, trong khi transaction ban đầu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đọc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lại dữ liệu từ bản ghi đó, nó nhận được giá trị khác với giá trị ban đầu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Có nghĩa là dữ liệu không nhất quán với so với dữ liệu đọc từ trước đó trong 1 transaction, sau khi bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bởi transaction khác</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Có nghĩa là dữ liệu không nhất quán với so với dữ liệu đọc từ trước đó trong 1 transaction, sau khi bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>insert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hoặc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bởi transaction khác</t>
+    </r>
+  </si>
+  <si>
+    <t>So sánh giữa Snapshot và Serializable</t>
+  </si>
+  <si>
+    <t>Giống nhau</t>
+  </si>
+  <si>
+    <t>Khác nhau</t>
+  </si>
+  <si>
+    <t>Mức độ cô lập là giống nhau</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thay vì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> các transaction khác như Serializable thì Snapshot tạo ra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 bản sao </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trên đó</t>
+    </r>
+  </si>
+  <si>
+    <t>Nhược điểm của Snapshot</t>
+  </si>
+  <si>
+    <t>Vì phải tạo ra 1 bản sao nên phải cần thêm bộ nhớ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Được </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read committed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khắc phục</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Được </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repeatable read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khắc phục</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Được </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Snapshot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Serializable</t>
     </r>
     <r>
@@ -1900,12 +2956,106 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, 
-nhưng nó hơi khác ở phương thức hoạt động. Khi transaction đang select các bản ghi, nó không khóa các bản ghi này lại mà tạo một bản sao (snapshot) và select trên đó. Vì vậy các transaction khác insert/update lên các bản ghi đó không gây ảnh hưởng đến transaction ban đầu. Tác dụng của nó là giảm blocking giữa các transaction mà vẫn đảm bảo tính toàn vẹn dữ liệu. Tuy nhiên cái giá kèm theo là cần thêm bộ nhớ để lưu bản sao của các bản ghi, và phần bộ nhớ này là cần cho mỗi transaction do đó có thể tăng lên rất lớn</t>
-    </r>
-  </si>
-  <si>
-    <t>Transaction Propagation</t>
+      <t xml:space="preserve"> khắc phục</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">là một thuộc tính dùng để xác định cách thức các </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transaction nội tuyến</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và các </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transaction liên quan tương tác với nhau</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ReadOnly </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">là một thuộc tính dùng để chỉ định transaction </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chỉ đọc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mà </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>không có bất kỳ update, insert, delete</t>
+    </r>
+  </si>
+  <si>
+    <t>Handling Exception</t>
+  </si>
+  <si>
+    <t>là việc roll back hoặc không khi exception chỉ định xảy ra</t>
+  </si>
+  <si>
+    <t>Có 2 tùy biến với handling exception</t>
+  </si>
+  <si>
+    <t>NoRollBack</t>
+  </si>
+  <si>
+    <t>RollBack</t>
+  </si>
+  <si>
+    <t>Sẽ tư động rollback khi exception trong danh sách liệt kê xảy ra</t>
+  </si>
+  <si>
+    <t>Sẽ tư động không rollback khi exception trong danh sách liệt kê xảy ra</t>
   </si>
   <si>
     <r>
@@ -2021,7 +3171,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Luôn tạo ra một Transaction mới, bất kể Transaction nào đang tồn tại. Nếu có Transaction đang tồn tại, nó sẽ tạm thời được tạm dừng cho đến khi Transaction mới hoàn tất. Và dữ liệu của Transaction mới sẽ được đồng bộ xuống database kể cả Transaction hiện tại có xảy ra Exception. Và cả 2 Transaction này độc lập với nhau
+      <t xml:space="preserve">: Luôn tạo ra một Transaction mới, bất kể Transaction nào đang tồn tại. Nếu có Transaction đang tồn tại, nó sẽ tạm thời được tạm dừng cho đến khi Transaction mới hoàn tất. Và cả 2 Transaction này độc lập với nhau
 </t>
     </r>
     <r>
@@ -2091,553 +3241,277 @@
     </r>
   </si>
   <si>
+    <t>REQUIRES_NEW</t>
+  </si>
+  <si>
+    <t>REQUIRED</t>
+  </si>
+  <si>
+    <t>là propagation mặc định</t>
+  </si>
+  <si>
+    <t>nếu không có transaction thì sẽ tự động tạo mới</t>
+  </si>
+  <si>
+    <t>nếu có 2 transaction lồng nhau và 1 trong 2 xảy ra exception sẽ rollback cả 2</t>
+  </si>
+  <si>
+    <t>là propagation luôn tạo mới 1 transaction</t>
+  </si>
+  <si>
+    <t>nếu có 2 transaction lồng nhau</t>
+  </si>
+  <si>
+    <t>nếu Inner Transaction xảy ra lỗi</t>
+  </si>
+  <si>
+    <t>có thể rollback cả 2 transaction hoặc không (không nếu catch lại exception đó)</t>
+  </si>
+  <si>
+    <t>Nếu Outer Transaction xảy ra lỗi</t>
+  </si>
+  <si>
+    <t>cả 2 transaction sẽ rollback</t>
+  </si>
+  <si>
+    <t>MANDATORY</t>
+  </si>
+  <si>
+    <t>nhưng sẽ ném exception nếu không có transaction nào tồn tại</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> là một thuộc tính quan trọng của Transaction để xác định cách thức các Transaction nội tuyến và các Transaction liên quan tương tác với nhau.
+Có thể có nhiều Transaction trong một ứng dụng Spring. Khi một phương thức được gọi trong một Transaction đã tồn tại, các phương thức này có thể sử dụng cùng một Transaction đã tồn tại hoặc tạo một Transaction mới.
+Propagation có thể E45được đặt trực tiếp trên annotation @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transactional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Các giá trị Propagation có thể được đặt trong @Transactional như sau:
+REQUIRED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Nếu một Transaction đang tồn tại, các phương thức được gọi sẽ tham gia vào Transaction đó. Nếu không có Transaction nào tồn tại, một Transaction mới sẽ được tạo ra.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUPPORTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  là sử dụng lại transaction hiện đang hoạt động. Nếu không thì method được gọi sẽ thực thi mà không được đặt trong một transactional context nào
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MANDATORY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Chỉ có thể được sử dụng trong một Transaction đang tồn tại. Nếu không có Transaction nào tồn tại, một ngoại lệ sẽ được ném ra.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REQUIRES_NEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Luôn tạo ra một Transaction mới, bất kể Transaction nào đang tồn tại. Nếu có Transaction đang tồn tại, nó sẽ tạm thời được tạm dừng cho đến khi Transaction mới hoàn tất. Và cả 2 Transaction này độc lập với nhau
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT_SUPPORTED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Transaction sẽ không được tạo ra cho phương thức được gọi. Nếu Transaction nào đang tồn tại, nó sẽ tạm thời bị treo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NEVER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Transaction không được tạo ra. Nếu một Transaction đang tồn tại, một ngoại lệ sẽ được ném ra.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NESTED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Method được gọi sẽ tạo một transaction mới nếu không có transaction nào đang hoạt động. Nếu method được gọi với một transaction đang hoạt động Spring sẽ tạo một savepoint và rollback tại đây nếu có Exception xảy ra</t>
+    </r>
+  </si>
+  <si>
+    <t>SUPPORTS</t>
+  </si>
+  <si>
+    <t>là propagation sử dụng lại transaction hiện có</t>
+  </si>
+  <si>
+    <t>NOT_SUPPORTED</t>
+  </si>
+  <si>
+    <t>là propagation mà không thực hiện trong bất kỳ transaction nào cả</t>
+  </si>
+  <si>
+    <t>nếu có transaction nào đang thực hiện sẽ bị treo cho tới khi method có đính kèm not_supported hoàn thành</t>
+  </si>
+  <si>
+    <t>NEVER</t>
+  </si>
+  <si>
+    <t>là propagation sẽ ném exception nếu có transaction tồn tại</t>
+  </si>
+  <si>
+    <t>nếu không có transaction nào thì nó sẽ thực thi mà không được đặt trong transaction context nào cả</t>
+  </si>
+  <si>
+    <t>NESTED</t>
+  </si>
+  <si>
+    <t>là propagation sẽ tạo transaction mới nếu không có transaction nào</t>
+  </si>
+  <si>
+    <t>là propagation chỉ sử dụng lại transaction hiện có</t>
+  </si>
+  <si>
+    <t>tạo savepoint để rollback nếu có exception xảy ra</t>
+  </si>
+  <si>
     <t>https://www.baeldung.com/spring-transactional-propagation-isolation
+https://www.techgeeknext.com/spring-boot/spring-boot-transaction-propagation
+https://dzone.com/articles/spring-transaction-propagation
 https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/
 https://stackoverflow.com/questions/12390888/differences-between-requires-new-and-nested-propagation-in-spring-transactions
 https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/</t>
-  </si>
-  <si>
-    <t>ReadOnly</t>
-  </si>
-  <si>
-    <t>là một thuộc tính trong transaction của hệ quản trị cơ sở dữ liệu (DBMS), cho phép chỉ định rằng transaction đó chỉ có thể đọc dữ liệu từ cơ sở dữ liệu mà không thể cập nhật hay chèn thêm dữ liệu mới vào.
-Khi readOnly được thiết lập trong một transaction, hệ quản trị cơ sở dữ liệu sẽ đảm bảo rằng transaction đó không thể thực hiện bất kỳ thao tác nào thay đổi dữ liệu trong cơ sở dữ liệu. Nếu transaction cố gắng thực hiện các thao tác này, hệ thống sẽ phát sinh lỗi và transaction sẽ bị rollback.
-Việc sử dụng readOnly trong transaction có thể cải thiện hiệu suất của hệ thống khi transaction chỉ cần đọc dữ liệu và không cần thực hiện các thao tác cập nhật hoặc chèn thêm dữ liệu mới. Điều này giúp giảm thiểu tài nguyên hệ thống được sử dụng và cải thiện khả năng mở rộng của hệ thống.</t>
-  </si>
-  <si>
-    <t>https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/</t>
-  </si>
-  <si>
-    <t>https://www.studocu.com/vn/document/hoc-vien-cong-nghe-buu-chinh-vien-thong/he-quan-tri-co-so-du-lieu/cac-muc-isolation-level/35387077</t>
-  </si>
-  <si>
-    <t>https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/
-https://www.studocu.com/vn/document/hoc-vien-cong-nghe-buu-chinh-vien-thong/he-quan-tri-co-so-du-lieu/cac-muc-isolation-level/35387077</t>
-  </si>
-  <si>
-    <t>https://viblo.asia/p/transaction-o-muc-do-co-lap-isolation-level-1ZnbRlWNv2Xo</t>
-  </si>
-  <si>
-    <t>Handling Exceptions</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Spring proxy sẽ tự động rollback transaction nếu có một </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RuntimeException</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> xảy ra. 
-Bạn có thể tùy biến bằng cách sử dụng thuộc tính </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rollbackFor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> và </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>noRollbackFor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> của </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Transactional annotation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rollbackFor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> cho phép bạn cung cấp một mảng các Exception class mà transaction sẽ bị rollback nếu chúng xảy ra.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>noRollbackFor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> được dùng để chỉ định một mảng các Exception class mà transaction sẽ không rollback khi chúng xảy ra.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ưu điểm: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhược điểm: </t>
-  </si>
-  <si>
-    <t>vì được sử dụng bởi nhiều luồng nên có thể bị xung đột dẫn tới kết quả không chính xác</t>
-  </si>
-  <si>
-    <t>Ưu điểm:</t>
-  </si>
-  <si>
-    <t>không cần quan tâm tới việc đồng bộ giữa các thread khác</t>
-  </si>
-  <si>
-    <t>có hiệu suất cao hơn vì đỡ chi phí đồng bộ giữa các thread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biến thread safe: </t>
-  </si>
-  <si>
-    <t>là biến được thiết kế đảm bảo an toàn khi thao tác trên nhiều thread mà không cần đồng bộ hóa</t>
-  </si>
-  <si>
-    <t>Dễ tồn memory vì phải tạo ra bản sao như là CopyOnWriteArrayList</t>
-  </si>
-  <si>
-    <t>Chỉ thực hiện được các phép toán đơn giản như AtomicInteger</t>
-  </si>
-  <si>
-    <t>đảm bảo tính đúng đắn mà không cần phải đồng bộ giữa các luồng</t>
-  </si>
-  <si>
-    <t>Method synchronize:</t>
-  </si>
-  <si>
-    <t>Là phương thức được đánh dấu bởi keyword synchronize để đảm bảo rằng chỉ có một thread được vào cùng một thời điểm</t>
-  </si>
-  <si>
-    <t>Tránh các tình trạng xung đột giữa các thread</t>
-  </si>
-  <si>
-    <t>DĐảm bảo nhất quán dữ liệu khi một thread đang sửa thread còn lại đang đọc</t>
-  </si>
-  <si>
-    <t>Giảm hiệu suất vì phải đồng bộ các thread với nhau</t>
-  </si>
-  <si>
-    <t>Block synchronize:</t>
-  </si>
-  <si>
-    <t>Cô lập được phần cần phải đồng bộ</t>
-  </si>
-  <si>
-    <t>Là một khối đồng bộ mà ở đó sự dụng một đối tượng để đại diên cho block đó</t>
-  </si>
-  <si>
-    <t>biến synchronized:</t>
-  </si>
-  <si>
-    <t>Là một biến được dùng để đại diện cho một khối hoặc trên chính thực thể đó khi đồng bộ giữa các thread</t>
-  </si>
-  <si>
-    <t>Thread:</t>
-  </si>
-  <si>
-    <t>Là một đối tượng trong Java đại diện cho một luồng thực thi độc lập</t>
-  </si>
-  <si>
-    <t>có thể tạo ra nhiều luồng con từ một luồng chính gia tăng hiệu suất</t>
-  </si>
-  <si>
-    <t>Dễ gây bất đồng bộ khi sử dụng nhiều luồng</t>
-  </si>
-  <si>
-    <t>mutilthread:</t>
-  </si>
-  <si>
-    <t>Là một kỹ thuật lập trình thực hiện nhiều tác vụ trong một thời điểm</t>
-  </si>
-  <si>
-    <t>Tăng hiệu suất khi thực nhiều nhiều tác vụ cùng một lúc</t>
-  </si>
-  <si>
-    <t>Dễ bị bất đồng bộ giữa các thread với nhau</t>
-  </si>
-  <si>
-    <t>Biến non-thread safe:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> là một biến được sử dụng bởi nhiều luồng cùng một lúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thread pool: </t>
-  </si>
-  <si>
-    <t>là một pool chứa các thread thực hiện các tác vụ trong ứng dụng đa luồng</t>
-  </si>
-  <si>
-    <t>Thay vì phải tạo 1 thread cho 1 tác vụ thì có thể tái sử dụng lại thread đang rảnh giảm bớt được memory và tăng hiệu suất</t>
-  </si>
-  <si>
-    <t>Nhược điểm:</t>
-  </si>
-  <si>
-    <t>phải tốn một lượng memory nhất định để duy trì các thread trong pool</t>
-  </si>
-  <si>
-    <t>Dễ bị trì trệ vì các thead phải chờ đợi nhau</t>
-  </si>
-  <si>
-    <t>Connection pool:</t>
-  </si>
-  <si>
-    <t>Là một kỹ thuật để tối ưu hóa việc kết nối và sử dụng cơ sở dữ liệu</t>
-  </si>
-  <si>
-    <t>Có thể tái sử dụng giúp tôi ưu hiệu suất và tài nguyên</t>
-  </si>
-  <si>
-    <t>Giảm thời gian chờ cho việc tạo các kết nối</t>
-  </si>
-  <si>
-    <t>Khó khăn trong việc cấu hình các tham số</t>
-  </si>
-  <si>
-    <t>String pool:</t>
-  </si>
-  <si>
-    <t>là một kỹ thuật được sử dụng để giảm thiểu tạo các String giống nhau</t>
-  </si>
-  <si>
-    <t>Tránh tình trạng tạo các String trùng lặp</t>
-  </si>
-  <si>
-    <t>viêc sử dụng các String khác nhau sẽ không tối ưu</t>
-  </si>
-  <si>
-    <t>Biến tham trị:</t>
-  </si>
-  <si>
-    <t>được sử dụng để truyền giá trị vào phương thức</t>
-  </si>
-  <si>
-    <t>sử dụng khi chỉ muốn truyền giá trị và không ảnh hưởng đến biến ban đầu</t>
-  </si>
-  <si>
-    <t>Không thể thay đổi trên biến được truyền vào</t>
-  </si>
-  <si>
-    <t>được sử dụng khi muốn truyền một đối tượng vào phương thức</t>
-  </si>
-  <si>
-    <t>Có thể thay đổi trực tiếp đối tượng được truyền vào</t>
-  </si>
-  <si>
-    <t>Dễ bị trỏ đến đối tượng chưa được khởi tạo</t>
-  </si>
-  <si>
-    <t>Lambda Expression:</t>
-  </si>
-  <si>
-    <t>là hàm ẩn danh</t>
-  </si>
-  <si>
-    <t>tiện lợi và gọn gàng phù hợp với những phương thức sử dụng 1 lần</t>
-  </si>
-  <si>
-    <t>phù hợp làm tham số của phương thức</t>
-  </si>
-  <si>
-    <t>Khó hiểu đối với người mới</t>
-  </si>
-  <si>
-    <t>Stream API:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">là một tính năng cho phép thao tác xử lý dữ liệu trên một tập hợp các phần </t>
-  </si>
-  <si>
-    <t>Gọn và dễ đọc</t>
-  </si>
-  <si>
-    <t>Hiệu suất cao với xử lý đa luồng</t>
-  </si>
-  <si>
-    <t>Việc xử lý trên nhiều luồng có thể gây bất đồng bộ nên các phần tử phải độc lập</t>
-  </si>
-  <si>
-    <t>là cú pháp để tham chiếu đến phương thức</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giảm sự lặp lại </t>
-  </si>
-  <si>
-    <t>Có thể tái sử dụng</t>
-  </si>
-  <si>
-    <t>là một tính năng cho phép định nghĩa phương thức ở interface</t>
-  </si>
-  <si>
-    <t>Tránh định nghĩa lại ở các class implement</t>
-  </si>
-  <si>
-    <t>là một tính năng cho phép ứng dụng triển khai module hóa</t>
-  </si>
-  <si>
-    <t>cho phép ứng dụng chia thành các module riêng biệt</t>
-  </si>
-  <si>
-    <t>có thể tái sử dụng lại module</t>
-  </si>
-  <si>
-    <t>kiểm soát sự tương thích giữa các module</t>
-  </si>
-  <si>
-    <t>giúp quản lý các phiên bản của module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kiểm soát truy cập vào module </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Làm giảm hiệu suất của ứng dụng khi sử dụng quá nhiều module </t>
-  </si>
-  <si>
-    <t>Khó triển khai</t>
-  </si>
-  <si>
-    <t>là cú pháp được sử dụng để tự động giải phóng các tài nguyên trong khối try-catch-finally</t>
-  </si>
-  <si>
-    <t>tự động giải phóng các tài nguyên</t>
-  </si>
-  <si>
-    <t>giảm thiếu viết thêm code giải phóng tài nguyên</t>
-  </si>
-  <si>
-    <t>các tài nguyên đó phải implement interface java.lang.AutoCloseable hoặc java.io.Closeable</t>
-  </si>
-  <si>
-    <t>là một tính năng cho phép khai báo đối tượng generic mà không cần định kiểu generics</t>
-  </si>
-  <si>
-    <t>loại bỏ việc lặp lại kiểu generics ở cả 2 phía của toán tử gán trong khai báo đối tượng</t>
-  </si>
-  <si>
-    <t>Tự động xác định kiểu</t>
-  </si>
-  <si>
-    <t>Không hỗ trợ trước Java 7</t>
-  </si>
-  <si>
-    <t>giúp rút ngắn đoạn mã khi cần định nghĩa một lớp mới để sử dụng một phương thức hoặc ghi đè một phương thức.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> làm cho mã nguồn trở nên phức tạp hơn và khó bảo trì hơn do không có tên lớp, khó để tìm kiếm khi có lỗi.</t>
-  </si>
-  <si>
-    <t>Không thể tái sử dụng lại</t>
-  </si>
-  <si>
-    <t>Các class khác không thể kế thừa</t>
-  </si>
-  <si>
-    <t>Không hỗ trợ trước Java 9</t>
-  </si>
-  <si>
-    <t>là cú pháp sử dụng cho việc khởi tạo một đối tượng anonymous inner class mà không cần chỉ định kiểu generic của lớp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giúp rút ngắn đoạn mã </t>
-  </si>
-  <si>
-    <t>là tính năng cho phép định nghĩa phương thức riêng tư trong các interface.</t>
-  </si>
-  <si>
-    <t>đảm bảo tính đóng gói</t>
-  </si>
-  <si>
-    <t>có thể triển khai trên các Default method</t>
-  </si>
-  <si>
-    <t>Chỉ được sử dụng trong cùng 1 interface</t>
-  </si>
-  <si>
-    <t>là tính năng cho phép khai báo biến mà không cần chỉ định kiểu dữ liệu một cách rõ ràng. Thay vào đó, kiểu dữ liệu của biến sẽ được suy ra từ giá trị khởi tạo.</t>
-  </si>
-  <si>
-    <t>Giúp rút ngắn mã nguồn</t>
-  </si>
-  <si>
-    <t>thay đổi kiểu dữ liệu của biến một cách dễ dàng và linh hoạt hơn, mà không cần phải sửa đổi code nhiều</t>
-  </si>
-  <si>
-    <t>Khi kiểu dữ liệu của biến không được chỉ định rõ ràng, điều này có thể làm cho code trở nên khó hiểu hơn đối với những người mới học hoặc những người không quen với tính năng này</t>
-  </si>
-  <si>
-    <t>là một tính năng cho phép sử dụng switch case như một biểu thức trả về một giá trị</t>
-  </si>
-  <si>
-    <t>giảm thiểu mã code</t>
-  </si>
-  <si>
-    <t>gán giá trị cho một biến hoặc làm giá trị trả về</t>
-  </si>
-  <si>
-    <t>Không hỗ trợ trước Java 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">là một tính năng giúp dễ dàng trong việc khai báo chuỗi dài </t>
-  </si>
-  <si>
-    <t>có thể viết các chuỗi dài hoặc các chuỗi chứa các ký tự đặc biệt một cách dễ dàng và tự nhiên hơn mà không cần sử dụng escape sequences như \n, \r, \t và kết hợp với các toán tử + để nối chuỗi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hỗ trợ các trường hợp thực tế như viết HTML, JSON hoặc SQL </t>
-  </si>
-  <si>
-    <t>Không hỗ trợ trước Java 15</t>
-  </si>
-  <si>
-    <t>là một tính năng cho phép kiểm tra một đối tượng có phù hợp với một kiểu nhất định hay không</t>
-  </si>
-  <si>
-    <t>giúp cho code trở nên dễ đọc và dễ hiểu hơn bằng cách cho phép kiểm tra kiểu của một đối tượng một cách dễ dàng và tự nhiên hơn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> giúp cho code trở nên gọn hơn bằng cách loại bỏ các phép ép kiểu (type casting) không cần thiết.</t>
-  </si>
-  <si>
-    <t>Không hỗ trợ trước Java 16</t>
-  </si>
-  <si>
-    <t>là một tính năng cho phép định nghĩa các lớp đơn giản để chứa dữ liệu, với cú pháp rút gọn và hỗ trợ một số tính năng tiện ích.</t>
-  </si>
-  <si>
-    <t>Định nghĩa nhanh các class chỉ có các field và getter</t>
-  </si>
-  <si>
-    <t>vì bất biến nên không thể sửa đổi các thuộc tính</t>
-  </si>
-  <si>
-    <t>Không cho phép kế thừa</t>
-  </si>
-  <si>
-    <t>Giới hạn các lớp con có thể được kế thừa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Là tính năng cho phép sử dụng nhiều anonation cùng loại trên cùng </t>
-  </si>
-  <si>
-    <t>Các lớp con được đánh dấu final không được kế thừa</t>
-  </si>
-  <si>
-    <t>Giảm thiểu viết nhiều code lặp đi lặp lại</t>
-  </si>
-  <si>
-    <t>Không hỗ trợ trước Java 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tiện lợi cho việc sử dụng các class chỉ dùng 1 lần </t>
-  </si>
-  <si>
-    <t>là một lớp nặc danh được khai báo bên trong một phương thức hoặc một khối lệnh của một lớp khác, thường được dùng để triển khai abstract class hoặc interface</t>
-  </si>
-  <si>
-    <t>là một keyword được sử dụng trong Switch Expressions được sử dụng để trả về và kết thúc expression</t>
-  </si>
-  <si>
-    <t>là một keyword được giới thiệu từ phiên bản Java 13 và được sử dụng trong switch expressions. 
-Nó cho phép trả về một giá trị từ một switch expression và kết thúc toàn bộ expression đó.</t>
-  </si>
-  <si>
-    <t>là tính năng mà nó giới hạn các lớp con chỉ có thể được định nghĩa bởi lớp cha và phải trong cùng một module</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2712,6 +3586,13 @@
     <font>
       <sz val="11"/>
       <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2832,7 +3713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2930,9 +3811,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2943,6 +3821,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3064,12 +3948,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3079,6 +3957,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3735,16 +4629,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>63313</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>601756</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1038225</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3801,13 +4695,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>238980</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>2248214</xdr:rowOff>
@@ -3850,15 +4744,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>6239732</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>2981732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4187,27 +5081,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
     </row>
     <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
     </row>
     <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
     </row>
     <row r="4" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P4" s="7" t="s">
@@ -4216,11 +5110,11 @@
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="R4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
       <c r="U4" s="7" t="s">
         <v>18</v>
       </c>
@@ -4374,24 +5268,24 @@
       </c>
     </row>
     <row r="14" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P14" s="51" t="s">
+      <c r="P14" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
     </row>
     <row r="15" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
     </row>
     <row r="16" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4436,24 +5330,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
       <c r="Q1" s="39"/>
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
@@ -4491,11 +5385,11 @@
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
-      <c r="N2" s="44" t="s">
-        <v>243</v>
+      <c r="N2" s="43" t="s">
+        <v>239</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AA2" s="3">
         <v>1</v>
@@ -4516,10 +5410,10 @@
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="O3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AA3" s="3">
         <v>2</v>
@@ -4540,21 +5434,21 @@
       <c r="C4" s="16"/>
       <c r="D4" s="18"/>
       <c r="O4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA4" s="56">
+        <v>214</v>
+      </c>
+      <c r="AA4" s="57">
         <v>3</v>
       </c>
-      <c r="AB4" s="56" t="s">
+      <c r="AB4" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="59" t="s">
+      <c r="AC4" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="62" t="s">
+      <c r="AD4" s="63" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4564,28 +5458,28 @@
       <c r="C5" s="16"/>
       <c r="D5" s="18"/>
       <c r="P5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="63"/>
+        <v>215</v>
+      </c>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="64"/>
     </row>
     <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
-      <c r="N6" s="44" t="s">
-        <v>220</v>
+      <c r="N6" s="43" t="s">
+        <v>216</v>
       </c>
       <c r="P6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="64"/>
+        <v>217</v>
+      </c>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="65"/>
     </row>
     <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -4593,21 +5487,21 @@
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="O7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA7" s="56">
+        <v>218</v>
+      </c>
+      <c r="AA7" s="57">
         <v>4</v>
       </c>
-      <c r="AB7" s="56" t="s">
+      <c r="AB7" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="59" t="s">
+      <c r="AC7" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="62" t="s">
+      <c r="AD7" s="63" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4617,12 +5511,12 @@
       <c r="C8" s="16"/>
       <c r="D8" s="18"/>
       <c r="P8" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="63"/>
+        <v>219</v>
+      </c>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="64"/>
     </row>
     <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -4630,91 +5524,91 @@
       <c r="C9" s="16"/>
       <c r="D9" s="18"/>
       <c r="O9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="64"/>
+        <v>220</v>
+      </c>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="65"/>
     </row>
     <row r="10" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="N10" s="44" t="s">
-        <v>225</v>
+      <c r="N10" s="43" t="s">
+        <v>221</v>
       </c>
       <c r="P10" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA10" s="52">
+        <v>222</v>
+      </c>
+      <c r="AA10" s="53">
         <v>5</v>
       </c>
-      <c r="AB10" s="53" t="s">
+      <c r="AB10" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="AC10" s="54" t="s">
+      <c r="AC10" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="55" t="s">
+      <c r="AD10" s="56" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P11" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="55"/>
+        <v>223</v>
+      </c>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="56"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="55"/>
+        <v>224</v>
+      </c>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="56"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P13" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="55"/>
+        <v>225</v>
+      </c>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="56"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N14" s="44" t="s">
-        <v>230</v>
+      <c r="N14" s="43" t="s">
+        <v>226</v>
       </c>
       <c r="P14" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="55"/>
+        <v>228</v>
+      </c>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="56"/>
     </row>
     <row r="15" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
@@ -4727,15 +5621,15 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="O15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P15" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="55"/>
+        <v>227</v>
+      </c>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="56"/>
     </row>
     <row r="16" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
@@ -4748,12 +5642,12 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="P16" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="55"/>
+        <v>223</v>
+      </c>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="56"/>
     </row>
     <row r="17" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
@@ -4766,12 +5660,12 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="P17" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="55"/>
+        <v>224</v>
+      </c>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="56"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
@@ -4784,15 +5678,15 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="O18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P18" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="55"/>
+        <v>225</v>
+      </c>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="56"/>
     </row>
     <row r="19" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
@@ -4804,16 +5698,16 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-      <c r="N19" s="44" t="s">
-        <v>233</v>
+      <c r="N19" s="43" t="s">
+        <v>229</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="55"/>
+        <v>230</v>
+      </c>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="56"/>
     </row>
     <row r="20" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
@@ -4825,16 +5719,16 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
-      <c r="N20" s="44" t="s">
-        <v>235</v>
+      <c r="N20" s="43" t="s">
+        <v>231</v>
       </c>
       <c r="O20" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="55"/>
+        <v>232</v>
+      </c>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="56"/>
     </row>
     <row r="21" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
@@ -4847,15 +5741,15 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="O21" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P21" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="55"/>
+        <v>233</v>
+      </c>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="56"/>
     </row>
     <row r="22" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -4868,15 +5762,15 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="O22" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P22" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="55"/>
+        <v>234</v>
+      </c>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="56"/>
     </row>
     <row r="23" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
@@ -4888,16 +5782,16 @@
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-      <c r="N23" s="44" t="s">
-        <v>239</v>
+      <c r="N23" s="43" t="s">
+        <v>235</v>
       </c>
       <c r="O23" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="55"/>
+        <v>236</v>
+      </c>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="56"/>
     </row>
     <row r="24" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
@@ -4910,15 +5804,15 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="O24" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P24" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="55"/>
+        <v>237</v>
+      </c>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="56"/>
     </row>
     <row r="25" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
@@ -4931,47 +5825,47 @@
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="O25" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P25" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="55"/>
+        <v>238</v>
+      </c>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="56"/>
     </row>
     <row r="26" spans="1:30" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
       <c r="AA26" s="3">
         <v>6</v>
       </c>
@@ -4984,32 +5878,32 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
       <c r="AA27" s="3">
         <v>7</v>
       </c>
@@ -5022,67 +5916,67 @@
       <c r="AD27" s="1"/>
     </row>
     <row r="54" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="71" t="s">
+      <c r="D54" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="69" t="s">
+      <c r="A87" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B87" s="69"/>
-      <c r="C87" s="69"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="69"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
+      <c r="A88" s="70"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="70"/>
     </row>
     <row r="89" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="69"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="69"/>
+      <c r="A89" s="70"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5161,50 +6055,50 @@
       <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
-        <v>245</v>
+      <c r="A2" s="43" t="s">
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="72">
+        <v>242</v>
+      </c>
+      <c r="G2" s="73">
         <v>1</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="78"/>
+        <v>243</v>
+      </c>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="79"/>
       <c r="L3" s="38"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
@@ -5220,15 +6114,15 @@
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="78"/>
+        <v>245</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="79"/>
       <c r="L4" s="38"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
@@ -5244,12 +6138,12 @@
     </row>
     <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="79"/>
+        <v>246</v>
+      </c>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="80"/>
       <c r="L5" s="38"/>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
@@ -5264,195 +6158,195 @@
       <c r="W5" s="23"/>
     </row>
     <row r="6" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>251</v>
+      <c r="A6" s="43" t="s">
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G6" s="72">
+        <v>248</v>
+      </c>
+      <c r="G6" s="73">
         <v>2</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="80" t="s">
+      <c r="J6" s="81" t="s">
         <v>72</v>
       </c>
       <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="81"/>
+        <v>249</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="82"/>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>254</v>
-      </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="81"/>
+        <v>250</v>
+      </c>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="82"/>
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="82"/>
+        <v>251</v>
+      </c>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="83"/>
       <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>256</v>
+      <c r="A10" s="43" t="s">
+        <v>252</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G10" s="72">
+        <v>253</v>
+      </c>
+      <c r="G10" s="73">
         <v>3</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="80" t="s">
+      <c r="J10" s="81" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="81"/>
+        <v>254</v>
+      </c>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
-      </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="81"/>
+        <v>255</v>
+      </c>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>260</v>
+      <c r="A13" s="43" t="s">
+        <v>256</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" s="72">
+        <v>257</v>
+      </c>
+      <c r="G13" s="73">
         <v>4</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="72"/>
-      <c r="K13" s="75" t="s">
+      <c r="J13" s="73"/>
+      <c r="K13" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
-      </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
+        <v>258</v>
+      </c>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
-      </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
+        <v>259</v>
+      </c>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
     </row>
     <row r="16" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
@@ -5464,30 +6358,30 @@
         <v>67</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="45"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="14"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
@@ -5505,10 +6399,10 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -5571,82 +6465,88 @@
       <c r="J27" s="14"/>
     </row>
     <row r="33" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K33" s="51" t="s">
+      <c r="K33" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
     </row>
     <row r="34" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
     </row>
     <row r="35" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
     </row>
     <row r="51" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K51" s="71" t="s">
+      <c r="K51" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="49"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="49"/>
-      <c r="U51" s="49"/>
-      <c r="V51" s="49"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="50"/>
     </row>
     <row r="52" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="49"/>
-      <c r="Q52" s="49"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
-      <c r="U52" s="49"/>
-      <c r="V52" s="49"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K51:V52"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="I2:I5"/>
@@ -5655,17 +6555,11 @@
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="I6:I9"/>
     <mergeCell ref="J6:J9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
     <mergeCell ref="J13:J15"/>
     <mergeCell ref="L2:W2"/>
     <mergeCell ref="K13:W16"/>
     <mergeCell ref="K33:V35"/>
+    <mergeCell ref="K51:V52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{3D14D563-A18C-4362-B2CD-8D8339C1C427}"/>
@@ -5736,14 +6630,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="50"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -5943,8 +6837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5CC180-ABEC-4096-BF7B-D59D7E76A5ED}">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="95" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView topLeftCell="A61" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5985,15 +6879,15 @@
     </row>
     <row r="2" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" s="72">
+        <v>264</v>
+      </c>
+      <c r="D2" s="73">
         <v>1</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="73" t="s">
         <v>119</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -6016,13 +6910,13 @@
     </row>
     <row r="3" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
+        <v>265</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
@@ -6037,10 +6931,10 @@
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+        <v>266</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="6"/>
       <c r="G4" s="11"/>
       <c r="H4" s="3"/>
@@ -6055,13 +6949,13 @@
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+        <v>267</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="6"/>
       <c r="G5" s="11"/>
       <c r="H5" s="3"/>
@@ -6076,15 +6970,15 @@
     </row>
     <row r="6" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="72">
+        <v>269</v>
+      </c>
+      <c r="D6" s="73">
         <v>2</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="73" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -6107,13 +7001,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
+        <v>270</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -6128,10 +7022,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
+        <v>271</v>
+      </c>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
@@ -6146,13 +7040,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+        <v>272</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -6170,15 +7064,15 @@
         <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="84">
+        <v>273</v>
+      </c>
+      <c r="D10" s="85">
         <v>3</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="88" t="s">
         <v>127</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -6198,14 +7092,14 @@
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="90"/>
+        <v>274</v>
+      </c>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="9"/>
       <c r="H11" s="3"/>
       <c r="I11" s="1"/>
@@ -6219,11 +7113,11 @@
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="90"/>
+        <v>275</v>
+      </c>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="89"/>
       <c r="G12" s="9"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
@@ -6237,14 +7131,14 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="91"/>
+        <v>267</v>
+      </c>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="9"/>
       <c r="H13" s="3"/>
       <c r="I13" s="1"/>
@@ -6261,12 +7155,12 @@
         <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D14" s="84">
+        <v>276</v>
+      </c>
+      <c r="D14" s="85">
         <v>4</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="73" t="s">
         <v>128</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -6289,13 +7183,13 @@
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="73"/>
+        <v>277</v>
+      </c>
+      <c r="D15" s="86"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
       <c r="H15" s="31"/>
@@ -6310,10 +7204,10 @@
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="73"/>
+        <v>244</v>
+      </c>
+      <c r="D16" s="86"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
       <c r="H16" s="31"/>
@@ -6327,8 +7221,8 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="86"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
       <c r="H17" s="31"/>
@@ -6346,12 +7240,12 @@
         <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" s="84">
+        <v>278</v>
+      </c>
+      <c r="D18" s="85">
         <v>5</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="73" t="s">
         <v>130</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -6374,13 +7268,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="73"/>
+        <v>279</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="6"/>
       <c r="G19" s="9"/>
       <c r="H19" s="31"/>
@@ -6395,10 +7289,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="73"/>
+        <v>280</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
       <c r="H20" s="31"/>
@@ -6413,10 +7307,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>286</v>
-      </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="73"/>
+        <v>282</v>
+      </c>
+      <c r="D21" s="86"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="6"/>
       <c r="G21" s="9"/>
       <c r="H21" s="31"/>
@@ -6431,10 +7325,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>287</v>
-      </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="73"/>
+        <v>283</v>
+      </c>
+      <c r="D22" s="86"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="6"/>
       <c r="G22" s="9"/>
       <c r="H22" s="31"/>
@@ -6449,10 +7343,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>285</v>
-      </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="73"/>
+        <v>281</v>
+      </c>
+      <c r="D23" s="86"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="6"/>
       <c r="G23" s="9"/>
       <c r="H23" s="31"/>
@@ -6467,13 +7361,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C24" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="73"/>
+        <v>284</v>
+      </c>
+      <c r="D24" s="86"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="6"/>
       <c r="G24" s="9"/>
       <c r="H24" s="31"/>
@@ -6488,10 +7382,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>289</v>
-      </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="74"/>
+        <v>285</v>
+      </c>
+      <c r="D25" s="87"/>
+      <c r="E25" s="75"/>
       <c r="F25" s="6"/>
       <c r="G25" s="9"/>
       <c r="H25" s="31"/>
@@ -6509,12 +7403,12 @@
         <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>290</v>
-      </c>
-      <c r="D26" s="84">
+        <v>286</v>
+      </c>
+      <c r="D26" s="85">
         <v>6</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="73" t="s">
         <v>132</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -6537,13 +7431,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s">
-        <v>291</v>
-      </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="73"/>
+        <v>287</v>
+      </c>
+      <c r="D27" s="86"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="6"/>
       <c r="G27" s="9"/>
       <c r="H27" s="31"/>
@@ -6558,10 +7452,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>292</v>
-      </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="73"/>
+        <v>288</v>
+      </c>
+      <c r="D28" s="86"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="6"/>
       <c r="G28" s="9"/>
       <c r="H28" s="31"/>
@@ -6576,13 +7470,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C29" t="s">
-        <v>293</v>
-      </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="74"/>
+        <v>289</v>
+      </c>
+      <c r="D29" s="87"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="6"/>
       <c r="G29" s="9"/>
       <c r="H29" s="31"/>
@@ -6596,16 +7490,16 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="45" t="s">
         <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
-      </c>
-      <c r="D30" s="72">
+        <v>290</v>
+      </c>
+      <c r="D30" s="73">
         <v>7</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="73" t="s">
         <v>134</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -6626,13 +7520,13 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C31" t="s">
-        <v>295</v>
-      </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
+        <v>291</v>
+      </c>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
       <c r="F31" s="5"/>
       <c r="G31" s="1"/>
       <c r="H31" s="31"/>
@@ -6647,10 +7541,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
+        <v>292</v>
+      </c>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="5"/>
       <c r="G32" s="1"/>
       <c r="H32" s="31"/>
@@ -6665,13 +7559,13 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C33" t="s">
-        <v>297</v>
-      </c>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
+        <v>293</v>
+      </c>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
       <c r="F33" s="5"/>
       <c r="G33" s="1"/>
       <c r="H33" s="31"/>
@@ -6685,16 +7579,16 @@
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="45" t="s">
         <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>335</v>
-      </c>
-      <c r="D34" s="72">
+        <v>331</v>
+      </c>
+      <c r="D34" s="73">
         <v>8</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E34" s="73" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -6717,13 +7611,13 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s">
-        <v>298</v>
-      </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
+        <v>294</v>
+      </c>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="5"/>
       <c r="G35" s="9"/>
       <c r="H35" s="31"/>
@@ -6738,10 +7632,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>334</v>
-      </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
+        <v>330</v>
+      </c>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="5"/>
       <c r="G36" s="9"/>
       <c r="H36" s="31"/>
@@ -6756,13 +7650,13 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C37" t="s">
-        <v>299</v>
-      </c>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
+        <v>295</v>
+      </c>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
       <c r="F37" s="5"/>
       <c r="G37" s="9"/>
       <c r="H37" s="31"/>
@@ -6777,10 +7671,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>301</v>
-      </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
+        <v>297</v>
+      </c>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="5"/>
       <c r="G38" s="9"/>
       <c r="H38" s="31"/>
@@ -6795,10 +7689,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>300</v>
-      </c>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
+        <v>296</v>
+      </c>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
       <c r="F39" s="5"/>
       <c r="G39" s="9"/>
       <c r="H39" s="31"/>
@@ -6816,12 +7710,12 @@
         <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>303</v>
-      </c>
-      <c r="D40" s="84">
+        <v>299</v>
+      </c>
+      <c r="D40" s="85">
         <v>9</v>
       </c>
-      <c r="E40" s="84" t="s">
+      <c r="E40" s="85" t="s">
         <v>138</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -6844,13 +7738,13 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C41" t="s">
-        <v>304</v>
-      </c>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
+        <v>300</v>
+      </c>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9"/>
       <c r="H41" s="34"/>
@@ -6865,13 +7759,13 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C42" t="s">
-        <v>302</v>
-      </c>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
+        <v>298</v>
+      </c>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9"/>
       <c r="H42" s="34"/>
@@ -6889,12 +7783,12 @@
         <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>305</v>
-      </c>
-      <c r="D43" s="84">
+        <v>301</v>
+      </c>
+      <c r="D43" s="85">
         <v>10</v>
       </c>
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="73" t="s">
         <v>139</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -6917,13 +7811,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C44" t="s">
-        <v>306</v>
-      </c>
-      <c r="D44" s="85"/>
-      <c r="E44" s="73"/>
+        <v>302</v>
+      </c>
+      <c r="D44" s="86"/>
+      <c r="E44" s="74"/>
       <c r="F44" s="6"/>
       <c r="G44" s="9"/>
       <c r="H44" s="34"/>
@@ -6938,10 +7832,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>307</v>
-      </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="73"/>
+        <v>303</v>
+      </c>
+      <c r="D45" s="86"/>
+      <c r="E45" s="74"/>
       <c r="F45" s="6"/>
       <c r="G45" s="9"/>
       <c r="H45" s="34"/>
@@ -6956,13 +7850,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
-        <v>308</v>
-      </c>
-      <c r="D46" s="85"/>
-      <c r="E46" s="73"/>
+        <v>304</v>
+      </c>
+      <c r="D46" s="86"/>
+      <c r="E46" s="74"/>
       <c r="F46" s="6"/>
       <c r="G46" s="9"/>
       <c r="H46" s="34"/>
@@ -6977,10 +7871,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>302</v>
-      </c>
-      <c r="D47" s="86"/>
-      <c r="E47" s="74"/>
+        <v>298</v>
+      </c>
+      <c r="D47" s="87"/>
+      <c r="E47" s="75"/>
       <c r="F47" s="6"/>
       <c r="G47" s="9"/>
       <c r="H47" s="34"/>
@@ -6998,12 +7892,12 @@
         <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>309</v>
-      </c>
-      <c r="D48" s="84">
+        <v>305</v>
+      </c>
+      <c r="D48" s="85">
         <v>11</v>
       </c>
-      <c r="E48" s="84" t="s">
+      <c r="E48" s="85" t="s">
         <v>141</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -7026,13 +7920,13 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C49" t="s">
-        <v>310</v>
-      </c>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
+        <v>306</v>
+      </c>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
       <c r="F49" s="4"/>
       <c r="G49" s="9"/>
       <c r="H49" s="31"/>
@@ -7047,10 +7941,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>311</v>
-      </c>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
+        <v>307</v>
+      </c>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
       <c r="F50" s="4"/>
       <c r="G50" s="9"/>
       <c r="H50" s="31"/>
@@ -7065,13 +7959,13 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C51" t="s">
-        <v>312</v>
-      </c>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
+        <v>308</v>
+      </c>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
       <c r="F51" s="4"/>
       <c r="G51" s="9"/>
       <c r="H51" s="31"/>
@@ -7089,12 +7983,12 @@
         <v>143</v>
       </c>
       <c r="B52" t="s">
-        <v>313</v>
-      </c>
-      <c r="D52" s="84">
+        <v>309</v>
+      </c>
+      <c r="D52" s="85">
         <v>12</v>
       </c>
-      <c r="E52" s="84" t="s">
+      <c r="E52" s="85" t="s">
         <v>143</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -7117,13 +8011,13 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>314</v>
-      </c>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
+        <v>310</v>
+      </c>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
       <c r="F53" s="1"/>
       <c r="G53" s="9"/>
       <c r="H53" s="31"/>
@@ -7138,10 +8032,10 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>315</v>
-      </c>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
+        <v>311</v>
+      </c>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
       <c r="F54" s="1"/>
       <c r="G54" s="9"/>
       <c r="H54" s="31"/>
@@ -7156,13 +8050,13 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C55" t="s">
-        <v>316</v>
-      </c>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
+        <v>312</v>
+      </c>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
       <c r="F55" s="1"/>
       <c r="G55" s="9"/>
       <c r="H55" s="31"/>
@@ -7180,16 +8074,16 @@
         <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>336</v>
-      </c>
-      <c r="D56" s="84">
+        <v>332</v>
+      </c>
+      <c r="D56" s="85">
         <v>13</v>
       </c>
-      <c r="E56" s="72" t="s">
+      <c r="E56" s="73" t="s">
         <v>145</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>161</v>
@@ -7208,10 +8102,10 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>217</v>
-      </c>
-      <c r="D57" s="85"/>
-      <c r="E57" s="73"/>
+        <v>213</v>
+      </c>
+      <c r="D57" s="86"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="5"/>
       <c r="G57" s="9"/>
       <c r="H57" s="31"/>
@@ -7226,10 +8120,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>248</v>
-      </c>
-      <c r="D58" s="86"/>
-      <c r="E58" s="74"/>
+        <v>244</v>
+      </c>
+      <c r="D58" s="87"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="5"/>
       <c r="G58" s="9"/>
       <c r="H58" s="31"/>
@@ -7247,12 +8141,12 @@
         <v>146</v>
       </c>
       <c r="B59" t="s">
-        <v>317</v>
-      </c>
-      <c r="D59" s="84">
+        <v>313</v>
+      </c>
+      <c r="D59" s="85">
         <v>14</v>
       </c>
-      <c r="E59" s="72" t="s">
+      <c r="E59" s="73" t="s">
         <v>146</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -7275,13 +8169,13 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C60" t="s">
-        <v>318</v>
-      </c>
-      <c r="D60" s="85"/>
-      <c r="E60" s="73"/>
+        <v>314</v>
+      </c>
+      <c r="D60" s="86"/>
+      <c r="E60" s="74"/>
       <c r="F60" s="6"/>
       <c r="G60" s="9"/>
       <c r="H60" s="31"/>
@@ -7296,10 +8190,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>319</v>
-      </c>
-      <c r="D61" s="85"/>
-      <c r="E61" s="73"/>
+        <v>315</v>
+      </c>
+      <c r="D61" s="86"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="6"/>
       <c r="G61" s="9"/>
       <c r="H61" s="31"/>
@@ -7314,13 +8208,13 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C62" t="s">
-        <v>320</v>
-      </c>
-      <c r="D62" s="86"/>
-      <c r="E62" s="74"/>
+        <v>316</v>
+      </c>
+      <c r="D62" s="87"/>
+      <c r="E62" s="75"/>
       <c r="F62" s="6"/>
       <c r="G62" s="9"/>
       <c r="H62" s="31"/>
@@ -7338,12 +8232,12 @@
         <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>321</v>
-      </c>
-      <c r="D63" s="84">
+        <v>317</v>
+      </c>
+      <c r="D63" s="85">
         <v>15</v>
       </c>
-      <c r="E63" s="72" t="s">
+      <c r="E63" s="73" t="s">
         <v>149</v>
       </c>
       <c r="F63" s="5" t="s">
@@ -7366,13 +8260,13 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>322</v>
-      </c>
-      <c r="D64" s="85"/>
-      <c r="E64" s="73"/>
+        <v>318</v>
+      </c>
+      <c r="D64" s="86"/>
+      <c r="E64" s="74"/>
       <c r="F64" s="5"/>
       <c r="G64" s="9"/>
       <c r="H64" s="31"/>
@@ -7387,10 +8281,10 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>323</v>
-      </c>
-      <c r="D65" s="85"/>
-      <c r="E65" s="73"/>
+        <v>319</v>
+      </c>
+      <c r="D65" s="86"/>
+      <c r="E65" s="74"/>
       <c r="F65" s="5"/>
       <c r="G65" s="9"/>
       <c r="H65" s="31"/>
@@ -7405,13 +8299,13 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C66" t="s">
-        <v>324</v>
-      </c>
-      <c r="D66" s="85"/>
-      <c r="E66" s="74"/>
+        <v>320</v>
+      </c>
+      <c r="D66" s="86"/>
+      <c r="E66" s="75"/>
       <c r="F66" s="5"/>
       <c r="G66" s="9"/>
       <c r="H66" s="31"/>
@@ -7429,12 +8323,12 @@
         <v>150</v>
       </c>
       <c r="B67" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D67" s="32">
         <v>16</v>
       </c>
-      <c r="E67" s="72" t="s">
+      <c r="E67" s="73" t="s">
         <v>150</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -7457,13 +8351,13 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C68" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D68" s="32"/>
-      <c r="E68" s="73"/>
+      <c r="E68" s="74"/>
       <c r="F68" s="6"/>
       <c r="G68" s="9"/>
       <c r="H68" s="31"/>
@@ -7478,13 +8372,13 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C69" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D69" s="32"/>
-      <c r="E69" s="73"/>
+      <c r="E69" s="74"/>
       <c r="F69" s="6"/>
       <c r="G69" s="9"/>
       <c r="H69" s="31"/>
@@ -7499,10 +8393,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D70" s="32"/>
-      <c r="E70" s="74"/>
+      <c r="E70" s="75"/>
       <c r="F70" s="6"/>
       <c r="G70" s="9"/>
       <c r="H70" s="31"/>
@@ -7516,16 +8410,16 @@
       <c r="P70" s="1"/>
     </row>
     <row r="71" spans="1:16" ht="195" x14ac:dyDescent="0.25">
-      <c r="A71" s="46" t="s">
+      <c r="A71" s="45" t="s">
         <v>152</v>
       </c>
       <c r="B71" t="s">
-        <v>338</v>
-      </c>
-      <c r="D71" s="72">
+        <v>334</v>
+      </c>
+      <c r="D71" s="73">
         <v>17</v>
       </c>
-      <c r="E71" s="72" t="s">
+      <c r="E71" s="73" t="s">
         <v>152</v>
       </c>
       <c r="F71" s="5" t="s">
@@ -7548,13 +8442,13 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C72" t="s">
-        <v>329</v>
-      </c>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
+        <v>325</v>
+      </c>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
       <c r="F72" s="5"/>
       <c r="G72" s="9"/>
       <c r="H72" s="31"/>
@@ -7569,13 +8463,13 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C73" t="s">
-        <v>331</v>
-      </c>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
+        <v>327</v>
+      </c>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
       <c r="F73" s="5"/>
       <c r="G73" s="9"/>
       <c r="H73" s="31"/>
@@ -7593,7 +8487,7 @@
         <v>168</v>
       </c>
       <c r="B74" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D74" s="31">
         <v>18</v>
@@ -7621,18 +8515,18 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C76" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -7697,134 +8591,221 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3AF180-2B8D-4C19-A7E4-B0AE9B7543FC}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+    <sheetView topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="88.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="52.7109375" customWidth="1"/>
+    <col min="8" max="8" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="300" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="73">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="F2" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="G2" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="H2" s="78" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="79"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="47"/>
+      <c r="C4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="79"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="47"/>
+      <c r="C5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="80"/>
+    </row>
+    <row r="6" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://viblo.asia/p/luong-di-trong-spring-boot-ORNZqdELK0n" xr:uid="{022C9F46-597D-48BC-9FEE-EC89080B02C7}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://viblo.asia/p/luong-di-trong-spring-boot-ORNZqdELK0n" xr:uid="{10918DA7-3F65-441A-AB20-B7BE2FCCEE97}"/>
+    <hyperlink ref="H2" r:id="rId1" display="https://viblo.asia/p/luong-di-trong-spring-boot-ORNZqdELK0n" xr:uid="{022C9F46-597D-48BC-9FEE-EC89080B02C7}"/>
+    <hyperlink ref="H6" r:id="rId2" display="https://viblo.asia/p/luong-di-trong-spring-boot-ORNZqdELK0n" xr:uid="{10918DA7-3F65-441A-AB20-B7BE2FCCEE97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -7834,121 +8815,136 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DFAC0-397F-4C98-B2DF-6497ADE191DD}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="3" max="3" width="232.85546875" customWidth="1"/>
-    <col min="4" max="4" width="88.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="232.85546875" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="E2" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:7" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="G3" s="37" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="366" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:7" ht="366" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{13A3C599-44B0-4941-815A-A93D6B7EA26F}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{4B7B34BE-7C63-4C5D-BE59-2036CDDEC66F}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{13A3C599-44B0-4941-815A-A93D6B7EA26F}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{4B7B34BE-7C63-4C5D-BE59-2036CDDEC66F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -7958,286 +8954,882 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D713CF-1264-4070-BA73-824C7A1D0A05}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="83" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="104.42578125" customWidth="1"/>
-    <col min="4" max="4" width="73.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="144.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="104.42578125" customWidth="1"/>
+    <col min="9" max="9" width="73.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" s="73">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="H2" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="I2" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5" s="73">
+        <v>2</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="91" t="s">
+        <v>369</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F11" s="74"/>
+      <c r="G11" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I11" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="50"/>
+      <c r="C12" t="s">
+        <v>373</v>
+      </c>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="74"/>
+      <c r="G14" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" s="95"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="50"/>
+      <c r="C15" t="s">
+        <v>378</v>
+      </c>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F16" s="74"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="2:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="B17" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" t="s">
+        <v>377</v>
+      </c>
+      <c r="F17" s="74"/>
+      <c r="G17" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="95"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="50"/>
+      <c r="C18" t="s">
+        <v>379</v>
+      </c>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" t="s">
+        <v>389</v>
+      </c>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="C20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D20" t="s">
+        <v>383</v>
+      </c>
+      <c r="F20" s="74"/>
+      <c r="G20" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" t="s">
+        <v>384</v>
+      </c>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="C22" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" t="s">
+        <v>386</v>
+      </c>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="2:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" t="s">
+        <v>390</v>
+      </c>
+      <c r="F23" s="73">
+        <v>3</v>
+      </c>
+      <c r="G23" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D24" t="s">
+        <v>403</v>
+      </c>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>404</v>
+      </c>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>405</v>
+      </c>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>408</v>
+      </c>
+      <c r="E29" t="s">
+        <v>409</v>
+      </c>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>410</v>
+      </c>
+      <c r="E30" t="s">
+        <v>411</v>
+      </c>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="D31" t="s">
+        <v>424</v>
+      </c>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="96"/>
+      <c r="D32" t="s">
+        <v>426</v>
+      </c>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>412</v>
+      </c>
+      <c r="D33" t="s">
+        <v>425</v>
+      </c>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>413</v>
+      </c>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>415</v>
+      </c>
+      <c r="D35" t="s">
+        <v>416</v>
+      </c>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>422</v>
+      </c>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>417</v>
+      </c>
+      <c r="D37" t="s">
+        <v>418</v>
+      </c>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>419</v>
+      </c>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>420</v>
+      </c>
+      <c r="D39" t="s">
+        <v>421</v>
+      </c>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>422</v>
+      </c>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+    </row>
+    <row r="41" spans="2:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>391</v>
+      </c>
+      <c r="C41" t="s">
+        <v>392</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+    </row>
+    <row r="42" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>393</v>
+      </c>
+      <c r="C42" t="s">
+        <v>394</v>
+      </c>
+      <c r="F42" s="53">
+        <v>5</v>
+      </c>
+      <c r="G42" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" ht="297" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72">
-        <v>2</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="42" t="s">
+      <c r="H42" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>395</v>
+      </c>
+      <c r="D43" t="s">
+        <v>397</v>
+      </c>
+      <c r="E43" t="s">
+        <v>398</v>
+      </c>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="87" t="s">
+      <c r="I43" s="58"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>396</v>
+      </c>
+      <c r="E44" t="s">
+        <v>399</v>
+      </c>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
-        <v>5</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+    </row>
+    <row r="53" spans="5:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="E53" s="47" t="s">
+        <v>414</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="D11:D13"/>
+  <mergeCells count="21">
+    <mergeCell ref="I11:I17"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="F23:F40"/>
+    <mergeCell ref="G23:G40"/>
+    <mergeCell ref="H23:H40"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F5:F22"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" display="https://www.baeldung.com/spring-transactional-propagation-isolation" xr:uid="{48BFAE5D-1145-4E0D-A5BD-44A48408A956}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{BDE5B890-C6DE-499D-8CFD-DCBF3669B6BB}"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/" xr:uid="{D5D24CEC-80AA-4E15-9222-E6C9E51F4D53}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{05FC6EF7-E8DD-4F1B-B86A-EC3763FC38DE}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{B1043CF8-D092-48DB-9FA2-F71043D8E546}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{DBC4E0B4-77BF-45E8-9B75-C94DA7483168}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{4E7CE3EF-9683-4B06-AAE2-53CCF60CB7E8}"/>
+    <hyperlink ref="I23" r:id="rId1" display="https://www.baeldung.com/spring-transactional-propagation-isolation" xr:uid="{48BFAE5D-1145-4E0D-A5BD-44A48408A956}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{BDE5B890-C6DE-499D-8CFD-DCBF3669B6BB}"/>
+    <hyperlink ref="I5" r:id="rId3" display="https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/" xr:uid="{D5D24CEC-80AA-4E15-9222-E6C9E51F4D53}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{05FC6EF7-E8DD-4F1B-B86A-EC3763FC38DE}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{B1043CF8-D092-48DB-9FA2-F71043D8E546}"/>
+    <hyperlink ref="I20" r:id="rId6" xr:uid="{DBC4E0B4-77BF-45E8-9B75-C94DA7483168}"/>
+    <hyperlink ref="I41" r:id="rId7" xr:uid="{4E7CE3EF-9683-4B06-AAE2-53CCF60CB7E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>

--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A99C37-DD67-4AE7-A85C-D0F6B18F9F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FC373F-E970-4092-A2BF-7911E735AFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="427">
   <si>
     <t>STT</t>
   </si>
@@ -3278,189 +3278,6 @@
   </si>
   <si>
     <t>nhưng sẽ ném exception nếu không có transaction nào tồn tại</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> là một thuộc tính quan trọng của Transaction để xác định cách thức các Transaction nội tuyến và các Transaction liên quan tương tác với nhau.
-Có thể có nhiều Transaction trong một ứng dụng Spring. Khi một phương thức được gọi trong một Transaction đã tồn tại, các phương thức này có thể sử dụng cùng một Transaction đã tồn tại hoặc tạo một Transaction mới.
-Propagation có thể E45được đặt trực tiếp trên annotation @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Transactional</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Các giá trị Propagation có thể được đặt trong @Transactional như sau:
-REQUIRED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Nếu một Transaction đang tồn tại, các phương thức được gọi sẽ tham gia vào Transaction đó. Nếu không có Transaction nào tồn tại, một Transaction mới sẽ được tạo ra.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SUPPORTS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:  là sử dụng lại transaction hiện đang hoạt động. Nếu không thì method được gọi sẽ thực thi mà không được đặt trong một transactional context nào
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MANDATORY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Chỉ có thể được sử dụng trong một Transaction đang tồn tại. Nếu không có Transaction nào tồn tại, một ngoại lệ sẽ được ném ra.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>REQUIRES_NEW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Luôn tạo ra một Transaction mới, bất kể Transaction nào đang tồn tại. Nếu có Transaction đang tồn tại, nó sẽ tạm thời được tạm dừng cho đến khi Transaction mới hoàn tất. Và cả 2 Transaction này độc lập với nhau
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NOT_SUPPORTED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Transaction sẽ không được tạo ra cho phương thức được gọi. Nếu Transaction nào đang tồn tại, nó sẽ tạm thời bị treo.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NEVER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Transaction không được tạo ra. Nếu một Transaction đang tồn tại, một ngoại lệ sẽ được ném ra.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NESTED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Method được gọi sẽ tạo một transaction mới nếu không có transaction nào đang hoạt động. Nếu method được gọi với một transaction đang hoạt động Spring sẽ tạo một savepoint và rollback tại đây nếu có Exception xảy ra</t>
-    </r>
   </si>
   <si>
     <t>SUPPORTS</t>
@@ -3828,6 +3645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3841,6 +3659,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3882,27 +3721,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3940,6 +3758,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3948,14 +3775,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3966,13 +3790,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4040,13 +3857,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>952499</xdr:colOff>
+      <xdr:colOff>952498</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>103908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>2043183</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1102177</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>86105</xdr:rowOff>
     </xdr:to>
@@ -4071,8 +3888,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11880272" y="6199908"/>
-          <a:ext cx="3532548" cy="8935697"/>
+          <a:off x="12015105" y="6199908"/>
+          <a:ext cx="4789715" cy="8935697"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5064,8 +4881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="P1:V16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView topLeftCell="F6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5081,27 +4898,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
     </row>
     <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
     </row>
     <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
     </row>
     <row r="4" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P4" s="7" t="s">
@@ -5110,11 +4927,11 @@
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
       <c r="U4" s="7" t="s">
         <v>18</v>
       </c>
@@ -5268,24 +5085,24 @@
       </c>
     </row>
     <row r="14" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P14" s="52" t="s">
+      <c r="P14" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
     </row>
     <row r="15" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
     </row>
     <row r="16" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5311,8 +5128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25977106-C04A-4BDF-83D6-AA6BE76B6728}">
   <dimension ref="A1:AD89"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="M11" zoomScale="154" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5330,24 +5147,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
       <c r="Q1" s="39"/>
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
@@ -5439,16 +5256,16 @@
       <c r="P4" t="s">
         <v>214</v>
       </c>
-      <c r="AA4" s="57">
+      <c r="AA4" s="65">
         <v>3</v>
       </c>
-      <c r="AB4" s="57" t="s">
+      <c r="AB4" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="60" t="s">
+      <c r="AC4" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="63" t="s">
+      <c r="AD4" s="71" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5460,10 +5277,10 @@
       <c r="P5" t="s">
         <v>215</v>
       </c>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="64"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="72"/>
     </row>
     <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
@@ -5476,10 +5293,10 @@
       <c r="P6" t="s">
         <v>217</v>
       </c>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="65"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="73"/>
     </row>
     <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -5492,16 +5309,16 @@
       <c r="P7" t="s">
         <v>218</v>
       </c>
-      <c r="AA7" s="57">
+      <c r="AA7" s="65">
         <v>4</v>
       </c>
-      <c r="AB7" s="57" t="s">
+      <c r="AB7" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="60" t="s">
+      <c r="AC7" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="63" t="s">
+      <c r="AD7" s="71" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5513,10 +5330,10 @@
       <c r="P8" t="s">
         <v>219</v>
       </c>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="64"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="72"/>
     </row>
     <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -5529,19 +5346,19 @@
       <c r="P9" t="s">
         <v>220</v>
       </c>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="65"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="73"/>
     </row>
     <row r="10" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -5552,16 +5369,16 @@
       <c r="P10" t="s">
         <v>222</v>
       </c>
-      <c r="AA10" s="53">
+      <c r="AA10" s="61">
         <v>5</v>
       </c>
-      <c r="AB10" s="54" t="s">
+      <c r="AB10" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="AC10" s="55" t="s">
+      <c r="AC10" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="56" t="s">
+      <c r="AD10" s="64" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5572,19 +5389,19 @@
       <c r="P11" t="s">
         <v>223</v>
       </c>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="56"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="64"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
         <v>224</v>
       </c>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="56"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="64"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O13" t="s">
@@ -5593,10 +5410,10 @@
       <c r="P13" t="s">
         <v>225</v>
       </c>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="56"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="64"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N14" s="43" t="s">
@@ -5605,10 +5422,10 @@
       <c r="P14" t="s">
         <v>228</v>
       </c>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="56"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="64"/>
     </row>
     <row r="15" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
@@ -5626,10 +5443,10 @@
       <c r="P15" t="s">
         <v>227</v>
       </c>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="56"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="64"/>
     </row>
     <row r="16" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
@@ -5644,10 +5461,10 @@
       <c r="P16" t="s">
         <v>223</v>
       </c>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="56"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="64"/>
     </row>
     <row r="17" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
@@ -5662,10 +5479,10 @@
       <c r="P17" t="s">
         <v>224</v>
       </c>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="56"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="64"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
@@ -5683,10 +5500,10 @@
       <c r="P18" t="s">
         <v>225</v>
       </c>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="56"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="64"/>
     </row>
     <row r="19" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
@@ -5704,10 +5521,10 @@
       <c r="P19" t="s">
         <v>230</v>
       </c>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="56"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="64"/>
     </row>
     <row r="20" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
@@ -5725,10 +5542,10 @@
       <c r="O20" t="s">
         <v>232</v>
       </c>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="56"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="64"/>
     </row>
     <row r="21" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
@@ -5746,10 +5563,10 @@
       <c r="P21" t="s">
         <v>233</v>
       </c>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="56"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="64"/>
     </row>
     <row r="22" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -5767,10 +5584,10 @@
       <c r="P22" t="s">
         <v>234</v>
       </c>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="56"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="64"/>
     </row>
     <row r="23" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
@@ -5788,10 +5605,10 @@
       <c r="O23" t="s">
         <v>236</v>
       </c>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="56"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="64"/>
     </row>
     <row r="24" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
@@ -5809,10 +5626,10 @@
       <c r="P24" t="s">
         <v>237</v>
       </c>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="56"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="64"/>
     </row>
     <row r="25" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
@@ -5830,25 +5647,25 @@
       <c r="P25" t="s">
         <v>238</v>
       </c>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="56"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="64"/>
     </row>
     <row r="26" spans="1:30" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
@@ -5878,15 +5695,15 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
       <c r="L27" s="42"/>
@@ -5916,78 +5733,70 @@
       <c r="AD27" s="1"/>
     </row>
     <row r="54" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="72" t="s">
+      <c r="D54" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
       <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="70" t="s">
+      <c r="A87" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="58"/>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="70"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="70"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
     </row>
     <row r="89" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="70"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
+      <c r="A89" s="58"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A87:C89"/>
-    <mergeCell ref="A58:C61"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="A62:C63"/>
-    <mergeCell ref="D26:I27"/>
-    <mergeCell ref="D54:J54"/>
     <mergeCell ref="AA10:AA25"/>
     <mergeCell ref="AB10:AB25"/>
     <mergeCell ref="AC10:AC25"/>
@@ -6000,6 +5809,14 @@
     <mergeCell ref="AB7:AB9"/>
     <mergeCell ref="AC7:AC9"/>
     <mergeCell ref="AD7:AD9"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A87:C89"/>
+    <mergeCell ref="A58:C61"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="A62:C63"/>
+    <mergeCell ref="D26:I27"/>
+    <mergeCell ref="D54:J54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AD2" r:id="rId1" display="https://stackoverflow.com/questions/15070513/how-to-test-a-non-thread-safe-class" xr:uid="{AF80577A-A125-48C9-AA50-5BBE662AA378}"/>
@@ -6061,32 +5878,32 @@
       <c r="B2" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="73">
+      <c r="G2" s="74">
         <v>1</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
@@ -6095,10 +5912,10 @@
       <c r="C3" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="79"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="80"/>
       <c r="L3" s="38"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
@@ -6119,10 +5936,10 @@
       <c r="C4" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="79"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="80"/>
       <c r="L4" s="38"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
@@ -6140,10 +5957,10 @@
       <c r="C5" t="s">
         <v>246</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="80"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="81"/>
       <c r="L5" s="38"/>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
@@ -6164,16 +5981,16 @@
       <c r="B6" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="74">
         <v>2</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="82" t="s">
         <v>72</v>
       </c>
       <c r="M6" s="26"/>
@@ -6185,20 +6002,20 @@
       <c r="C7" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="82"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="83"/>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="82"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="83"/>
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6208,10 +6025,10 @@
       <c r="C9" t="s">
         <v>251</v>
       </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="83"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="84"/>
       <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -6221,16 +6038,16 @@
       <c r="B10" t="s">
         <v>253</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="74">
         <v>3</v>
       </c>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="82" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6241,10 +6058,10 @@
       <c r="C11" t="s">
         <v>254</v>
       </c>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="82"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="83"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -6253,10 +6070,10 @@
       <c r="C12" t="s">
         <v>255</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="82"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="83"/>
     </row>
     <row r="13" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
@@ -6265,31 +6082,31 @@
       <c r="B13" t="s">
         <v>257</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="74">
         <v>4</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="76" t="s">
+      <c r="J13" s="74"/>
+      <c r="K13" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -6298,23 +6115,23 @@
       <c r="C14" t="s">
         <v>258</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -6323,23 +6140,23 @@
       <c r="C15" t="s">
         <v>259</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
     </row>
     <row r="16" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
@@ -6358,19 +6175,19 @@
         <v>67</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -6465,88 +6282,83 @@
       <c r="J27" s="14"/>
     </row>
     <row r="33" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
     </row>
     <row r="34" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
     </row>
     <row r="35" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
     </row>
     <row r="51" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K51" s="72" t="s">
+      <c r="K51" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="50"/>
-      <c r="Q51" s="50"/>
-      <c r="R51" s="50"/>
-      <c r="S51" s="50"/>
-      <c r="T51" s="50"/>
-      <c r="U51" s="50"/>
-      <c r="V51" s="50"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="51"/>
     </row>
     <row r="52" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="50"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="51"/>
+      <c r="V52" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="K33:V35"/>
+    <mergeCell ref="K51:V52"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="I2:I5"/>
@@ -6555,11 +6367,16 @@
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="I6:I9"/>
     <mergeCell ref="J6:J9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
     <mergeCell ref="J13:J15"/>
     <mergeCell ref="L2:W2"/>
     <mergeCell ref="K13:W16"/>
-    <mergeCell ref="K33:V35"/>
-    <mergeCell ref="K51:V52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{3D14D563-A18C-4362-B2CD-8D8339C1C427}"/>
@@ -6630,14 +6447,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="51"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -6884,10 +6701,10 @@
       <c r="B2" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="74">
         <v>1</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="74" t="s">
         <v>119</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -6915,8 +6732,8 @@
       <c r="C3" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
@@ -6933,8 +6750,8 @@
       <c r="C4" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="6"/>
       <c r="G4" s="11"/>
       <c r="H4" s="3"/>
@@ -6954,8 +6771,8 @@
       <c r="C5" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="6"/>
       <c r="G5" s="11"/>
       <c r="H5" s="3"/>
@@ -6975,10 +6792,10 @@
       <c r="B6" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="74">
         <v>2</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="74" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -7006,8 +6823,8 @@
       <c r="C7" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -7024,8 +6841,8 @@
       <c r="C8" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
@@ -7045,8 +6862,8 @@
       <c r="C9" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -7066,13 +6883,13 @@
       <c r="B10" t="s">
         <v>273</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="89">
         <v>3</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="86" t="s">
         <v>127</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -7097,9 +6914,9 @@
       <c r="C11" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="87"/>
       <c r="G11" s="9"/>
       <c r="H11" s="3"/>
       <c r="I11" s="1"/>
@@ -7115,9 +6932,9 @@
       <c r="C12" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="87"/>
       <c r="G12" s="9"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
@@ -7136,9 +6953,9 @@
       <c r="C13" t="s">
         <v>267</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="9"/>
       <c r="H13" s="3"/>
       <c r="I13" s="1"/>
@@ -7157,10 +6974,10 @@
       <c r="B14" t="s">
         <v>276</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="89">
         <v>4</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="74" t="s">
         <v>128</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -7188,8 +7005,8 @@
       <c r="C15" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="74"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
       <c r="H15" s="31"/>
@@ -7206,8 +7023,8 @@
       <c r="B16" t="s">
         <v>244</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="74"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
       <c r="H16" s="31"/>
@@ -7221,8 +7038,8 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="87"/>
-      <c r="E17" s="75"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
       <c r="H17" s="31"/>
@@ -7242,10 +7059,10 @@
       <c r="B18" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="89">
         <v>5</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="74" t="s">
         <v>130</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -7273,8 +7090,8 @@
       <c r="C19" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="74"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="75"/>
       <c r="F19" s="6"/>
       <c r="G19" s="9"/>
       <c r="H19" s="31"/>
@@ -7291,8 +7108,8 @@
       <c r="C20" t="s">
         <v>280</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="74"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="75"/>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
       <c r="H20" s="31"/>
@@ -7309,8 +7126,8 @@
       <c r="C21" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="74"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="75"/>
       <c r="F21" s="6"/>
       <c r="G21" s="9"/>
       <c r="H21" s="31"/>
@@ -7327,8 +7144,8 @@
       <c r="C22" t="s">
         <v>283</v>
       </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="74"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="6"/>
       <c r="G22" s="9"/>
       <c r="H22" s="31"/>
@@ -7345,8 +7162,8 @@
       <c r="C23" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="74"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="75"/>
       <c r="F23" s="6"/>
       <c r="G23" s="9"/>
       <c r="H23" s="31"/>
@@ -7366,8 +7183,8 @@
       <c r="C24" t="s">
         <v>284</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="74"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="75"/>
       <c r="F24" s="6"/>
       <c r="G24" s="9"/>
       <c r="H24" s="31"/>
@@ -7384,8 +7201,8 @@
       <c r="C25" t="s">
         <v>285</v>
       </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="75"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="76"/>
       <c r="F25" s="6"/>
       <c r="G25" s="9"/>
       <c r="H25" s="31"/>
@@ -7405,10 +7222,10 @@
       <c r="B26" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="89">
         <v>6</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="74" t="s">
         <v>132</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -7436,8 +7253,8 @@
       <c r="C27" t="s">
         <v>287</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="74"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="75"/>
       <c r="F27" s="6"/>
       <c r="G27" s="9"/>
       <c r="H27" s="31"/>
@@ -7454,8 +7271,8 @@
       <c r="C28" t="s">
         <v>288</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="74"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="75"/>
       <c r="F28" s="6"/>
       <c r="G28" s="9"/>
       <c r="H28" s="31"/>
@@ -7475,8 +7292,8 @@
       <c r="C29" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="75"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="76"/>
       <c r="F29" s="6"/>
       <c r="G29" s="9"/>
       <c r="H29" s="31"/>
@@ -7496,10 +7313,10 @@
       <c r="B30" t="s">
         <v>290</v>
       </c>
-      <c r="D30" s="73">
+      <c r="D30" s="74">
         <v>7</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="74" t="s">
         <v>134</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -7525,8 +7342,8 @@
       <c r="C31" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="5"/>
       <c r="G31" s="1"/>
       <c r="H31" s="31"/>
@@ -7543,8 +7360,8 @@
       <c r="C32" t="s">
         <v>292</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="5"/>
       <c r="G32" s="1"/>
       <c r="H32" s="31"/>
@@ -7564,8 +7381,8 @@
       <c r="C33" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
       <c r="F33" s="5"/>
       <c r="G33" s="1"/>
       <c r="H33" s="31"/>
@@ -7585,10 +7402,10 @@
       <c r="B34" t="s">
         <v>331</v>
       </c>
-      <c r="D34" s="73">
+      <c r="D34" s="74">
         <v>8</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="74" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -7616,8 +7433,8 @@
       <c r="C35" t="s">
         <v>294</v>
       </c>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
       <c r="F35" s="5"/>
       <c r="G35" s="9"/>
       <c r="H35" s="31"/>
@@ -7634,8 +7451,8 @@
       <c r="C36" t="s">
         <v>330</v>
       </c>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="5"/>
       <c r="G36" s="9"/>
       <c r="H36" s="31"/>
@@ -7655,8 +7472,8 @@
       <c r="C37" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="5"/>
       <c r="G37" s="9"/>
       <c r="H37" s="31"/>
@@ -7673,8 +7490,8 @@
       <c r="C38" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
       <c r="F38" s="5"/>
       <c r="G38" s="9"/>
       <c r="H38" s="31"/>
@@ -7691,8 +7508,8 @@
       <c r="C39" t="s">
         <v>296</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
       <c r="F39" s="5"/>
       <c r="G39" s="9"/>
       <c r="H39" s="31"/>
@@ -7712,10 +7529,10 @@
       <c r="B40" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="85">
+      <c r="D40" s="89">
         <v>9</v>
       </c>
-      <c r="E40" s="85" t="s">
+      <c r="E40" s="89" t="s">
         <v>138</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -7743,8 +7560,8 @@
       <c r="C41" t="s">
         <v>300</v>
       </c>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9"/>
       <c r="H41" s="34"/>
@@ -7764,8 +7581,8 @@
       <c r="C42" t="s">
         <v>298</v>
       </c>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9"/>
       <c r="H42" s="34"/>
@@ -7785,10 +7602,10 @@
       <c r="B43" t="s">
         <v>301</v>
       </c>
-      <c r="D43" s="85">
+      <c r="D43" s="89">
         <v>10</v>
       </c>
-      <c r="E43" s="73" t="s">
+      <c r="E43" s="74" t="s">
         <v>139</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -7816,8 +7633,8 @@
       <c r="C44" t="s">
         <v>302</v>
       </c>
-      <c r="D44" s="86"/>
-      <c r="E44" s="74"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="75"/>
       <c r="F44" s="6"/>
       <c r="G44" s="9"/>
       <c r="H44" s="34"/>
@@ -7834,8 +7651,8 @@
       <c r="C45" t="s">
         <v>303</v>
       </c>
-      <c r="D45" s="86"/>
-      <c r="E45" s="74"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="75"/>
       <c r="F45" s="6"/>
       <c r="G45" s="9"/>
       <c r="H45" s="34"/>
@@ -7855,8 +7672,8 @@
       <c r="C46" t="s">
         <v>304</v>
       </c>
-      <c r="D46" s="86"/>
-      <c r="E46" s="74"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="75"/>
       <c r="F46" s="6"/>
       <c r="G46" s="9"/>
       <c r="H46" s="34"/>
@@ -7873,8 +7690,8 @@
       <c r="C47" t="s">
         <v>298</v>
       </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="75"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="76"/>
       <c r="F47" s="6"/>
       <c r="G47" s="9"/>
       <c r="H47" s="34"/>
@@ -7894,10 +7711,10 @@
       <c r="B48" t="s">
         <v>305</v>
       </c>
-      <c r="D48" s="85">
+      <c r="D48" s="89">
         <v>11</v>
       </c>
-      <c r="E48" s="85" t="s">
+      <c r="E48" s="89" t="s">
         <v>141</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -7925,8 +7742,8 @@
       <c r="C49" t="s">
         <v>306</v>
       </c>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
       <c r="F49" s="4"/>
       <c r="G49" s="9"/>
       <c r="H49" s="31"/>
@@ -7943,8 +7760,8 @@
       <c r="C50" t="s">
         <v>307</v>
       </c>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
       <c r="F50" s="4"/>
       <c r="G50" s="9"/>
       <c r="H50" s="31"/>
@@ -7964,8 +7781,8 @@
       <c r="C51" t="s">
         <v>308</v>
       </c>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
       <c r="F51" s="4"/>
       <c r="G51" s="9"/>
       <c r="H51" s="31"/>
@@ -7985,10 +7802,10 @@
       <c r="B52" t="s">
         <v>309</v>
       </c>
-      <c r="D52" s="85">
+      <c r="D52" s="89">
         <v>12</v>
       </c>
-      <c r="E52" s="85" t="s">
+      <c r="E52" s="89" t="s">
         <v>143</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -8016,8 +7833,8 @@
       <c r="C53" t="s">
         <v>310</v>
       </c>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
       <c r="F53" s="1"/>
       <c r="G53" s="9"/>
       <c r="H53" s="31"/>
@@ -8034,8 +7851,8 @@
       <c r="C54" t="s">
         <v>311</v>
       </c>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
       <c r="F54" s="1"/>
       <c r="G54" s="9"/>
       <c r="H54" s="31"/>
@@ -8055,8 +7872,8 @@
       <c r="C55" t="s">
         <v>312</v>
       </c>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
       <c r="F55" s="1"/>
       <c r="G55" s="9"/>
       <c r="H55" s="31"/>
@@ -8076,10 +7893,10 @@
       <c r="B56" t="s">
         <v>332</v>
       </c>
-      <c r="D56" s="85">
+      <c r="D56" s="89">
         <v>13</v>
       </c>
-      <c r="E56" s="73" t="s">
+      <c r="E56" s="74" t="s">
         <v>145</v>
       </c>
       <c r="F56" s="5" t="s">
@@ -8104,8 +7921,8 @@
       <c r="B57" t="s">
         <v>213</v>
       </c>
-      <c r="D57" s="86"/>
-      <c r="E57" s="74"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="75"/>
       <c r="F57" s="5"/>
       <c r="G57" s="9"/>
       <c r="H57" s="31"/>
@@ -8122,8 +7939,8 @@
       <c r="B58" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="87"/>
-      <c r="E58" s="75"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="76"/>
       <c r="F58" s="5"/>
       <c r="G58" s="9"/>
       <c r="H58" s="31"/>
@@ -8143,10 +7960,10 @@
       <c r="B59" t="s">
         <v>313</v>
       </c>
-      <c r="D59" s="85">
+      <c r="D59" s="89">
         <v>14</v>
       </c>
-      <c r="E59" s="73" t="s">
+      <c r="E59" s="74" t="s">
         <v>146</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -8174,8 +7991,8 @@
       <c r="C60" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="86"/>
-      <c r="E60" s="74"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="75"/>
       <c r="F60" s="6"/>
       <c r="G60" s="9"/>
       <c r="H60" s="31"/>
@@ -8192,8 +8009,8 @@
       <c r="C61" t="s">
         <v>315</v>
       </c>
-      <c r="D61" s="86"/>
-      <c r="E61" s="74"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="75"/>
       <c r="F61" s="6"/>
       <c r="G61" s="9"/>
       <c r="H61" s="31"/>
@@ -8213,8 +8030,8 @@
       <c r="C62" t="s">
         <v>316</v>
       </c>
-      <c r="D62" s="87"/>
-      <c r="E62" s="75"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="76"/>
       <c r="F62" s="6"/>
       <c r="G62" s="9"/>
       <c r="H62" s="31"/>
@@ -8234,10 +8051,10 @@
       <c r="B63" t="s">
         <v>317</v>
       </c>
-      <c r="D63" s="85">
+      <c r="D63" s="89">
         <v>15</v>
       </c>
-      <c r="E63" s="73" t="s">
+      <c r="E63" s="74" t="s">
         <v>149</v>
       </c>
       <c r="F63" s="5" t="s">
@@ -8265,8 +8082,8 @@
       <c r="C64" t="s">
         <v>318</v>
       </c>
-      <c r="D64" s="86"/>
-      <c r="E64" s="74"/>
+      <c r="D64" s="90"/>
+      <c r="E64" s="75"/>
       <c r="F64" s="5"/>
       <c r="G64" s="9"/>
       <c r="H64" s="31"/>
@@ -8283,8 +8100,8 @@
       <c r="C65" t="s">
         <v>319</v>
       </c>
-      <c r="D65" s="86"/>
-      <c r="E65" s="74"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="75"/>
       <c r="F65" s="5"/>
       <c r="G65" s="9"/>
       <c r="H65" s="31"/>
@@ -8304,8 +8121,8 @@
       <c r="C66" t="s">
         <v>320</v>
       </c>
-      <c r="D66" s="86"/>
-      <c r="E66" s="75"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="76"/>
       <c r="F66" s="5"/>
       <c r="G66" s="9"/>
       <c r="H66" s="31"/>
@@ -8328,7 +8145,7 @@
       <c r="D67" s="32">
         <v>16</v>
       </c>
-      <c r="E67" s="73" t="s">
+      <c r="E67" s="74" t="s">
         <v>150</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -8357,7 +8174,7 @@
         <v>322</v>
       </c>
       <c r="D68" s="32"/>
-      <c r="E68" s="74"/>
+      <c r="E68" s="75"/>
       <c r="F68" s="6"/>
       <c r="G68" s="9"/>
       <c r="H68" s="31"/>
@@ -8378,7 +8195,7 @@
         <v>323</v>
       </c>
       <c r="D69" s="32"/>
-      <c r="E69" s="74"/>
+      <c r="E69" s="75"/>
       <c r="F69" s="6"/>
       <c r="G69" s="9"/>
       <c r="H69" s="31"/>
@@ -8396,7 +8213,7 @@
         <v>324</v>
       </c>
       <c r="D70" s="32"/>
-      <c r="E70" s="75"/>
+      <c r="E70" s="76"/>
       <c r="F70" s="6"/>
       <c r="G70" s="9"/>
       <c r="H70" s="31"/>
@@ -8416,10 +8233,10 @@
       <c r="B71" t="s">
         <v>334</v>
       </c>
-      <c r="D71" s="73">
+      <c r="D71" s="74">
         <v>17</v>
       </c>
-      <c r="E71" s="73" t="s">
+      <c r="E71" s="74" t="s">
         <v>152</v>
       </c>
       <c r="F71" s="5" t="s">
@@ -8447,8 +8264,8 @@
       <c r="C72" t="s">
         <v>325</v>
       </c>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
       <c r="F72" s="5"/>
       <c r="G72" s="9"/>
       <c r="H72" s="31"/>
@@ -8468,8 +8285,8 @@
       <c r="C73" t="s">
         <v>327</v>
       </c>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
       <c r="F73" s="5"/>
       <c r="G73" s="9"/>
       <c r="H73" s="31"/>
@@ -8531,6 +8348,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="E2:E5"/>
@@ -8540,31 +8382,6 @@
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="E67:E70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{BD266EE8-9EE9-410E-A73B-7BCBE7209954}"/>
@@ -8593,7 +8410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3AF180-2B8D-4C19-A7E4-B0AE9B7543FC}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -8635,16 +8452,16 @@
       <c r="B2" t="s">
         <v>336</v>
       </c>
-      <c r="E2" s="73">
+      <c r="E2" s="74">
         <v>1</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>175</v>
       </c>
     </row>
@@ -8659,10 +8476,10 @@
       <c r="D3" t="s">
         <v>346</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="79"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
@@ -8673,10 +8490,10 @@
       <c r="D4" t="s">
         <v>345</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="79"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
@@ -8687,10 +8504,10 @@
       <c r="D5" t="s">
         <v>344</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="80"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
@@ -8818,7 +8635,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8956,8 +8773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D713CF-1264-4070-BA73-824C7A1D0A05}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="83" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8998,13 +8815,13 @@
       <c r="B2" t="s">
         <v>355</v>
       </c>
-      <c r="F2" s="73">
+      <c r="F2" s="74">
         <v>1</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="68" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="37" t="s">
@@ -9023,9 +8840,9 @@
       <c r="C3" t="s">
         <v>357</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="61"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="37"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -9040,9 +8857,9 @@
       <c r="C4" t="s">
         <v>359</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="62"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="37"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -9054,13 +8871,13 @@
       <c r="B5" t="s">
         <v>360</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="74">
         <v>2</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="91" t="s">
+      <c r="H5" s="94" t="s">
         <v>369</v>
       </c>
       <c r="I5" s="41" t="s">
@@ -9079,9 +8896,9 @@
       <c r="C6" t="s">
         <v>362</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="92"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="95"/>
       <c r="I6" s="41"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -9096,9 +8913,9 @@
       <c r="C7" t="s">
         <v>364</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="92"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="95"/>
       <c r="I7" s="41"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -9113,9 +8930,9 @@
       <c r="C8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="92"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="95"/>
       <c r="I8" s="41"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -9130,9 +8947,9 @@
       <c r="C9" t="s">
         <v>366</v>
       </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="93"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="41"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -9149,8 +8966,8 @@
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="3"/>
       <c r="I10" s="37" t="s">
         <v>203</v>
@@ -9162,20 +8979,20 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="51" t="s">
         <v>192</v>
       </c>
       <c r="C11" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="73" t="s">
+      <c r="F11" s="75"/>
+      <c r="G11" s="74" t="s">
         <v>192</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="94" t="s">
+      <c r="I11" s="92" t="s">
         <v>205</v>
       </c>
       <c r="J11" s="14"/>
@@ -9185,14 +9002,14 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="51"/>
       <c r="C12" t="s">
         <v>373</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="94"/>
+      <c r="I12" s="92"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -9204,10 +9021,10 @@
       <c r="C13" t="s">
         <v>387</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="94"/>
+      <c r="I13" s="92"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -9215,20 +9032,20 @@
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="51" t="s">
         <v>374</v>
       </c>
       <c r="C14" t="s">
         <v>376</v>
       </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="73" t="s">
+      <c r="F14" s="75"/>
+      <c r="G14" s="74" t="s">
         <v>193</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I14" s="95"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -9236,14 +9053,14 @@
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="51"/>
       <c r="C15" t="s">
         <v>378</v>
       </c>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="95"/>
+      <c r="I15" s="93"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -9255,10 +9072,10 @@
       <c r="C16" t="s">
         <v>388</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="95"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -9266,20 +9083,20 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="2:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="51" t="s">
         <v>194</v>
       </c>
       <c r="C17" t="s">
         <v>377</v>
       </c>
-      <c r="F17" s="74"/>
-      <c r="G17" s="73" t="s">
+      <c r="F17" s="75"/>
+      <c r="G17" s="74" t="s">
         <v>194</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="95"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -9287,12 +9104,12 @@
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="51"/>
       <c r="C18" t="s">
         <v>379</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="5"/>
       <c r="I18" s="46"/>
       <c r="J18" s="14"/>
@@ -9306,8 +9123,8 @@
       <c r="C19" t="s">
         <v>389</v>
       </c>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
       <c r="H19" s="5"/>
       <c r="I19" s="46"/>
       <c r="J19" s="14"/>
@@ -9326,11 +9143,11 @@
       <c r="D20" t="s">
         <v>383</v>
       </c>
-      <c r="F20" s="74"/>
-      <c r="G20" s="73" t="s">
+      <c r="F20" s="75"/>
+      <c r="G20" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="68" t="s">
         <v>198</v>
       </c>
       <c r="I20" s="37" t="s">
@@ -9350,9 +9167,9 @@
       <c r="D21" t="s">
         <v>384</v>
       </c>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="61"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="37"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
@@ -9368,9 +9185,9 @@
       <c r="D22" t="s">
         <v>386</v>
       </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="62"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="70"/>
       <c r="I22" s="37"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
@@ -9385,17 +9202,17 @@
       <c r="C23" t="s">
         <v>390</v>
       </c>
-      <c r="F23" s="73">
+      <c r="F23" s="74">
         <v>3</v>
       </c>
-      <c r="G23" s="73" t="s">
+      <c r="G23" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="60" t="s">
+      <c r="H23" s="68" t="s">
         <v>400</v>
       </c>
       <c r="I23" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
@@ -9410,9 +9227,9 @@
       <c r="D24" t="s">
         <v>403</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="61"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="69"/>
       <c r="I24" s="41"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -9424,9 +9241,9 @@
       <c r="D25" t="s">
         <v>404</v>
       </c>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="61"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="41"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -9438,9 +9255,9 @@
       <c r="D26" t="s">
         <v>405</v>
       </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="61"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="69"/>
       <c r="I26" s="41"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -9455,9 +9272,9 @@
       <c r="D27" t="s">
         <v>406</v>
       </c>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="61"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="41"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
@@ -9469,9 +9286,9 @@
       <c r="D28" t="s">
         <v>407</v>
       </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="61"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="69"/>
       <c r="I28" s="41"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
@@ -9486,9 +9303,9 @@
       <c r="E29" t="s">
         <v>409</v>
       </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="61"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="41"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
@@ -9503,9 +9320,9 @@
       <c r="E30" t="s">
         <v>411</v>
       </c>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="61"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="69"/>
       <c r="I30" s="41"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
@@ -9514,15 +9331,15 @@
       <c r="N30" s="14"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="D31" t="s">
         <v>423</v>
       </c>
-      <c r="D31" t="s">
-        <v>424</v>
-      </c>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="61"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="69"/>
       <c r="I31" s="41"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
@@ -9531,13 +9348,13 @@
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="96"/>
+      <c r="C32" s="48"/>
       <c r="D32" t="s">
-        <v>426</v>
-      </c>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="61"/>
+        <v>425</v>
+      </c>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="69"/>
       <c r="I32" s="41"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
@@ -9550,11 +9367,11 @@
         <v>412</v>
       </c>
       <c r="D33" t="s">
-        <v>425</v>
-      </c>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="61"/>
+        <v>424</v>
+      </c>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="69"/>
       <c r="I33" s="41"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
@@ -9566,9 +9383,9 @@
       <c r="D34" t="s">
         <v>413</v>
       </c>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="61"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="69"/>
       <c r="I34" s="41"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
@@ -9578,14 +9395,14 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>414</v>
+      </c>
+      <c r="D35" t="s">
         <v>415</v>
       </c>
-      <c r="D35" t="s">
-        <v>416</v>
-      </c>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="61"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="69"/>
       <c r="I35" s="41"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -9595,11 +9412,11 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>422</v>
-      </c>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="61"/>
+        <v>421</v>
+      </c>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="69"/>
       <c r="I36" s="41"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
@@ -9609,14 +9426,14 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
+        <v>416</v>
+      </c>
+      <c r="D37" t="s">
         <v>417</v>
       </c>
-      <c r="D37" t="s">
-        <v>418</v>
-      </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="61"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="69"/>
       <c r="I37" s="41"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
@@ -9626,11 +9443,11 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>419</v>
-      </c>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="61"/>
+        <v>418</v>
+      </c>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="69"/>
       <c r="I38" s="41"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -9640,14 +9457,14 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
+        <v>419</v>
+      </c>
+      <c r="D39" t="s">
         <v>420</v>
       </c>
-      <c r="D39" t="s">
-        <v>421</v>
-      </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="61"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="69"/>
       <c r="I39" s="41"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
@@ -9657,11 +9474,11 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>422</v>
-      </c>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="62"/>
+        <v>421</v>
+      </c>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="70"/>
       <c r="I40" s="41"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
@@ -9701,16 +9518,16 @@
       <c r="C42" t="s">
         <v>394</v>
       </c>
-      <c r="F42" s="53">
+      <c r="F42" s="61">
         <v>5</v>
       </c>
-      <c r="G42" s="53" t="s">
+      <c r="G42" s="61" t="s">
         <v>206</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I42" s="57" t="s">
+      <c r="I42" s="65" t="s">
         <v>202</v>
       </c>
       <c r="J42" s="14"/>
@@ -9729,12 +9546,12 @@
       <c r="E43" t="s">
         <v>398</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
       <c r="H43" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I43" s="58"/>
+      <c r="I43" s="66"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
@@ -9748,12 +9565,12 @@
       <c r="E44" t="s">
         <v>399</v>
       </c>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
       <c r="H44" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I44" s="59"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
@@ -9793,13 +9610,24 @@
       <c r="M47" s="14"/>
       <c r="N47" s="14"/>
     </row>
-    <row r="53" spans="5:5" ht="330" x14ac:dyDescent="0.25">
-      <c r="E53" s="47" t="s">
-        <v>414</v>
-      </c>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F5:F22"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G5:G10"/>
     <mergeCell ref="I11:I17"/>
     <mergeCell ref="G42:G44"/>
     <mergeCell ref="F42:F44"/>
@@ -9808,19 +9636,6 @@
     <mergeCell ref="F23:F40"/>
     <mergeCell ref="G23:G40"/>
     <mergeCell ref="H23:H40"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G5:G10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F5:F22"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I23" r:id="rId1" display="https://www.baeldung.com/spring-transactional-propagation-isolation" xr:uid="{48BFAE5D-1145-4E0D-A5BD-44A48408A956}"/>

--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FC373F-E970-4092-A2BF-7911E735AFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE96A3C-B826-4BAF-BA4A-39FBDCFD8040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="day7" sheetId="6" r:id="rId6"/>
     <sheet name="day8" sheetId="7" r:id="rId7"/>
     <sheet name="day10" sheetId="8" r:id="rId8"/>
+    <sheet name="day15" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="483">
   <si>
     <t>STT</t>
   </si>
@@ -3322,6 +3323,230 @@
 https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/
 https://stackoverflow.com/questions/12390888/differences-between-requires-new-and-nested-propagation-in-spring-transactions
 https://shareprogramming.net/quan-ly-transaction-voi-spring-va-jpa/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời gian chờ trong Connection Pool: </t>
+  </si>
+  <si>
+    <t>là thời gian mà chờ 1 connection khi không có connection nào trong pool đang rãnh và không thể tạo connection mới</t>
+  </si>
+  <si>
+    <t>Khi request tới sẽ chờ bao lâu:</t>
+  </si>
+  <si>
+    <t>thời gian này thường được setting và khi quá thời gian chờ sẽ ném 1 ConnectionTimeOutException</t>
+  </si>
+  <si>
+    <t>dependency injection (DI)</t>
+  </si>
+  <si>
+    <t>Aspect Oriented Programming (AOP)</t>
+  </si>
+  <si>
+    <t>là một kỹ thuật lập trình cho phép phân tách chương trình thành cách module riêng rẽ, không phụ thuộc nhau</t>
+  </si>
+  <si>
+    <t>Một số thuật ngữ khác trong AOP</t>
+  </si>
+  <si>
+    <t>Join Point</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">là điểm mà các </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>advice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> được thực thi</t>
+    </r>
+  </si>
+  <si>
+    <t>Advice</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">là xử lý được thực hiện tại </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>join point</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>được thực hiện trước join poin</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Around</t>
+  </si>
+  <si>
+    <t>After returning</t>
+  </si>
+  <si>
+    <t>After throwing</t>
+  </si>
+  <si>
+    <t>được thực hiện sau khi join point được kết thúc bằng một Exception</t>
+  </si>
+  <si>
+    <t>Pointcut</t>
+  </si>
+  <si>
+    <r>
+      <t>là cách để xác định</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> join point </t>
+    </r>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>là một class bao gồm các advice và các join point</t>
+  </si>
+  <si>
+    <t>Target object</t>
+  </si>
+  <si>
+    <t>là những đối tượng mà advice được áp dụng</t>
+  </si>
+  <si>
+    <t>Có 5  loại Advice:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">được thực hiện sau join point </t>
+  </si>
+  <si>
+    <t>được thực hiện sau join point được kết thúc với return</t>
+  </si>
+  <si>
+    <t>bao gồm cả 4 advice trên</t>
+  </si>
+  <si>
+    <t>Supported Pointcut Designators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">within </t>
+  </si>
+  <si>
+    <t xml:space="preserve">this </t>
+  </si>
+  <si>
+    <t xml:space="preserve">target </t>
+  </si>
+  <si>
+    <t xml:space="preserve">args </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @args</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @within</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @annotation</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>Introductions</t>
+  </si>
+  <si>
+    <t>https://reflectoring.io/aop-spring/#deeper-look-into-spring-aops-annotations</t>
+  </si>
+  <si>
+    <t>Spring AOP Example Tutorial - Aspect, Advice, Pointcut, JoinPoint, Annotations, XML Configuration | DigitalOcean</t>
+  </si>
+  <si>
+    <t>Spring Core – Phần 5: Spring AOP là gì? code ví dụ với Spring AOP (techmaster.vn)</t>
+  </si>
+  <si>
+    <t>Sử dụng AOP trong Spring Boot và AspectJ (viblo.asia)</t>
+  </si>
+  <si>
+    <t>Giới thiệu Aspect Oriented Programming (AOP) - GP Coder (Lập trình Java)</t>
+  </si>
+  <si>
+    <t>Sử dụng Spring AOP Advise trong Spring | Lê Vũ Nguyên Dạy Học Lập Trình (levunguyen.com)</t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/spring-boot-aop</t>
+  </si>
+  <si>
+    <t>Spring AOP</t>
+  </si>
+  <si>
+    <t>AspectJ</t>
+  </si>
+  <si>
+    <t>Weaving</t>
+  </si>
+  <si>
+    <t>dùng để match với các joinPoint method’s signature</t>
+  </si>
+  <si>
+    <t>dùng để match với tất cả phương thức join point có trong class, package, sub-package</t>
+  </si>
+  <si>
+    <t>dùng để match với các tham số của phương thức join point</t>
+  </si>
+  <si>
+    <t>dùng để match với phương thức join point được đánh dấu bởi annotation đã được định nghĩa là pointcut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dùng để match với tất cả phương thức join point có trong class, package, sub-package bằng cách định nghĩa annotation bên trong nó và đính kèm annotation đó lên các class, package, sub-package </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @target</t>
   </si>
 </sst>
 </file>
@@ -3530,7 +3755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3646,6 +3871,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3659,27 +3894,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3721,6 +3935,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3729,12 +3964,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3754,7 +3983,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3767,21 +4011,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3789,6 +4018,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4224,7 +4459,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>89339</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>151305</xdr:rowOff>
+      <xdr:rowOff>1038115</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4278,13 +4513,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>394138</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>43793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>488841</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>92404</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4339,13 +4574,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>580258</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>65690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>152806</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:colOff>152805</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>136899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4879,6 +5114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="P1:V16"/>
   <sheetViews>
     <sheetView topLeftCell="F6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4898,27 +5134,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
     </row>
     <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
     </row>
     <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
     </row>
     <row r="4" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P4" s="7" t="s">
@@ -4927,11 +5163,11 @@
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
       <c r="U4" s="7" t="s">
         <v>18</v>
       </c>
@@ -5085,24 +5321,24 @@
       </c>
     </row>
     <row r="14" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P14" s="53" t="s">
+      <c r="P14" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
     </row>
     <row r="15" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
     </row>
     <row r="16" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5126,6 +5362,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25977106-C04A-4BDF-83D6-AA6BE76B6728}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD89"/>
   <sheetViews>
     <sheetView topLeftCell="M11" zoomScale="154" zoomScaleNormal="70" workbookViewId="0">
@@ -5147,24 +5384,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
       <c r="Q1" s="39"/>
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
@@ -5256,16 +5493,16 @@
       <c r="P4" t="s">
         <v>214</v>
       </c>
-      <c r="AA4" s="65">
+      <c r="AA4" s="62">
         <v>3</v>
       </c>
-      <c r="AB4" s="65" t="s">
+      <c r="AB4" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="68" t="s">
+      <c r="AC4" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="71" t="s">
+      <c r="AD4" s="68" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5277,10 +5514,10 @@
       <c r="P5" t="s">
         <v>215</v>
       </c>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="72"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="69"/>
     </row>
     <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
@@ -5293,10 +5530,10 @@
       <c r="P6" t="s">
         <v>217</v>
       </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="73"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="70"/>
     </row>
     <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -5309,16 +5546,16 @@
       <c r="P7" t="s">
         <v>218</v>
       </c>
-      <c r="AA7" s="65">
+      <c r="AA7" s="62">
         <v>4</v>
       </c>
-      <c r="AB7" s="65" t="s">
+      <c r="AB7" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="68" t="s">
+      <c r="AC7" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="71" t="s">
+      <c r="AD7" s="68" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5330,10 +5567,10 @@
       <c r="P8" t="s">
         <v>219</v>
       </c>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="72"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="69"/>
     </row>
     <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -5346,19 +5583,19 @@
       <c r="P9" t="s">
         <v>220</v>
       </c>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="73"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="70"/>
     </row>
     <row r="10" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -5369,16 +5606,16 @@
       <c r="P10" t="s">
         <v>222</v>
       </c>
-      <c r="AA10" s="61">
+      <c r="AA10" s="58">
         <v>5</v>
       </c>
-      <c r="AB10" s="62" t="s">
+      <c r="AB10" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="AC10" s="63" t="s">
+      <c r="AC10" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="64" t="s">
+      <c r="AD10" s="61" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5389,19 +5626,19 @@
       <c r="P11" t="s">
         <v>223</v>
       </c>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="64"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="61"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
         <v>224</v>
       </c>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="63"/>
-      <c r="AD12" s="64"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="61"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O13" t="s">
@@ -5410,10 +5647,10 @@
       <c r="P13" t="s">
         <v>225</v>
       </c>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="63"/>
-      <c r="AD13" s="64"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="61"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N14" s="43" t="s">
@@ -5422,10 +5659,10 @@
       <c r="P14" t="s">
         <v>228</v>
       </c>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="63"/>
-      <c r="AD14" s="64"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="61"/>
     </row>
     <row r="15" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
@@ -5443,10 +5680,10 @@
       <c r="P15" t="s">
         <v>227</v>
       </c>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="64"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="61"/>
     </row>
     <row r="16" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
@@ -5461,10 +5698,10 @@
       <c r="P16" t="s">
         <v>223</v>
       </c>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="64"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="61"/>
     </row>
     <row r="17" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
@@ -5479,10 +5716,10 @@
       <c r="P17" t="s">
         <v>224</v>
       </c>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="64"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="61"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
@@ -5500,10 +5737,10 @@
       <c r="P18" t="s">
         <v>225</v>
       </c>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="64"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="61"/>
     </row>
     <row r="19" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
@@ -5521,10 +5758,10 @@
       <c r="P19" t="s">
         <v>230</v>
       </c>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="64"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="61"/>
     </row>
     <row r="20" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
@@ -5542,10 +5779,10 @@
       <c r="O20" t="s">
         <v>232</v>
       </c>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="63"/>
-      <c r="AD20" s="64"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="61"/>
     </row>
     <row r="21" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
@@ -5563,10 +5800,10 @@
       <c r="P21" t="s">
         <v>233</v>
       </c>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="63"/>
-      <c r="AD21" s="64"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="61"/>
     </row>
     <row r="22" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -5584,10 +5821,10 @@
       <c r="P22" t="s">
         <v>234</v>
       </c>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="64"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="61"/>
     </row>
     <row r="23" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
@@ -5605,10 +5842,10 @@
       <c r="O23" t="s">
         <v>236</v>
       </c>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="63"/>
-      <c r="AD23" s="64"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="61"/>
     </row>
     <row r="24" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
@@ -5626,10 +5863,10 @@
       <c r="P24" t="s">
         <v>237</v>
       </c>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="63"/>
-      <c r="AD24" s="64"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="61"/>
     </row>
     <row r="25" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
@@ -5647,25 +5884,25 @@
       <c r="P25" t="s">
         <v>238</v>
       </c>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="64"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="61"/>
     </row>
     <row r="26" spans="1:30" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
@@ -5695,15 +5932,15 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
       <c r="L27" s="42"/>
@@ -5733,70 +5970,78 @@
       <c r="AD27" s="1"/>
     </row>
     <row r="54" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="60" t="s">
+      <c r="D54" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
+      <c r="A59" s="76"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
+      <c r="A60" s="76"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
+      <c r="A61" s="76"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="58" t="s">
+      <c r="A87" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="75"/>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="58"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="58"/>
+      <c r="A88" s="75"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="75"/>
     </row>
     <row r="89" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="58"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="58"/>
+      <c r="A89" s="75"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A87:C89"/>
+    <mergeCell ref="A58:C61"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="A62:C63"/>
+    <mergeCell ref="D26:I27"/>
+    <mergeCell ref="D54:J54"/>
     <mergeCell ref="AA10:AA25"/>
     <mergeCell ref="AB10:AB25"/>
     <mergeCell ref="AC10:AC25"/>
@@ -5809,14 +6054,6 @@
     <mergeCell ref="AB7:AB9"/>
     <mergeCell ref="AC7:AC9"/>
     <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A87:C89"/>
-    <mergeCell ref="A58:C61"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="A62:C63"/>
-    <mergeCell ref="D26:I27"/>
-    <mergeCell ref="D54:J54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AD2" r:id="rId1" display="https://stackoverflow.com/questions/15070513/how-to-test-a-non-thread-safe-class" xr:uid="{AF80577A-A125-48C9-AA50-5BBE662AA378}"/>
@@ -5833,16 +6070,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C39CBF-243C-46B8-A97D-C9A6BCF6006E}">
-  <dimension ref="A1:W52"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A2" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
     <col min="6" max="6" width="88.5703125" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="115.140625" customWidth="1"/>
@@ -5878,32 +6116,32 @@
       <c r="B2" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="74">
+      <c r="G2" s="78">
         <v>1</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
@@ -5912,10 +6150,10 @@
       <c r="C3" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="80"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="82"/>
       <c r="L3" s="38"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
@@ -5936,10 +6174,10 @@
       <c r="C4" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="80"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="82"/>
       <c r="L4" s="38"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
@@ -5957,10 +6195,10 @@
       <c r="C5" t="s">
         <v>246</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="81"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="83"/>
       <c r="L5" s="38"/>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
@@ -5981,16 +6219,16 @@
       <c r="B6" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="78">
         <v>2</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="84" t="s">
         <v>72</v>
       </c>
       <c r="M6" s="26"/>
@@ -6002,20 +6240,20 @@
       <c r="C7" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="83"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="85"/>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="83"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="85"/>
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6025,340 +6263,369 @@
       <c r="C9" t="s">
         <v>251</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="84"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="86"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" t="s">
+        <v>428</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="51"/>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" t="s">
+        <v>430</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="51"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>253</v>
       </c>
-      <c r="G10" s="74">
+      <c r="G12" s="78">
         <v>3</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H12" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="68" t="s">
+      <c r="I12" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="82" t="s">
+      <c r="J12" s="84" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>213</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>254</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="83"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="83"/>
-    </row>
-    <row r="13" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="B13" t="s">
-        <v>257</v>
-      </c>
-      <c r="G13" s="74">
-        <v>4</v>
-      </c>
-      <c r="H13" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="74"/>
-      <c r="K13" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="85"/>
+    </row>
+    <row r="15" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+      <c r="G15" s="78">
+        <v>4</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="78"/>
+      <c r="K15" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>213</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>258</v>
       </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>244</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>259</v>
       </c>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-    </row>
-    <row r="16" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+    </row>
+    <row r="18" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>260</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>213</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>261</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" t="s">
-        <v>262</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" t="s">
+        <v>262</v>
+      </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="Q22" s="27"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q24" s="27"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="33" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K33" s="53" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="35" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K35" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-    </row>
-    <row r="34" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-    </row>
-    <row r="35" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-    </row>
-    <row r="51" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K51" s="60" t="s">
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+    </row>
+    <row r="36" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+    </row>
+    <row r="37" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+    </row>
+    <row r="53" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K53" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="51"/>
-      <c r="U51" s="51"/>
-      <c r="V51" s="51"/>
-    </row>
-    <row r="52" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="51"/>
-      <c r="U52" s="51"/>
-      <c r="V52" s="51"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="55"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="55"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="55"/>
+    </row>
+    <row r="54" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="55"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K33:V35"/>
-    <mergeCell ref="K51:V52"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="K15:W18"/>
+    <mergeCell ref="K35:V37"/>
+    <mergeCell ref="K53:V54"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="I2:I5"/>
@@ -6367,21 +6634,18 @@
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="I6:I9"/>
     <mergeCell ref="J6:J9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="L2:W2"/>
-    <mergeCell ref="K13:W16"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{3D14D563-A18C-4362-B2CD-8D8339C1C427}"/>
     <hyperlink ref="J6" r:id="rId2" display="https://www.baeldung.com/java-connection-pooling" xr:uid="{C6D19347-A59D-426C-9D1E-C2B07B6CDCC2}"/>
-    <hyperlink ref="J10" r:id="rId3" display="https://viblo.asia/p/string-pool-la-gi-_x000a_" xr:uid="{6F55EEC8-830E-42C3-9431-2030A8B28A12}"/>
+    <hyperlink ref="J12" r:id="rId3" display="https://viblo.asia/p/string-pool-la-gi-_x000a_" xr:uid="{6F55EEC8-830E-42C3-9431-2030A8B28A12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -6391,6 +6655,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341EEE2D-1F16-40EE-ACD5-5E90DCDB2717}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6447,14 +6712,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="55"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -6652,6 +6917,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5CC180-ABEC-4096-BF7B-D59D7E76A5ED}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScale="95" workbookViewId="0">
@@ -6701,10 +6967,10 @@
       <c r="B2" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="78">
         <v>1</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="78" t="s">
         <v>119</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -6732,8 +6998,8 @@
       <c r="C3" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
@@ -6750,8 +7016,8 @@
       <c r="C4" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="6"/>
       <c r="G4" s="11"/>
       <c r="H4" s="3"/>
@@ -6771,8 +7037,8 @@
       <c r="C5" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="6"/>
       <c r="G5" s="11"/>
       <c r="H5" s="3"/>
@@ -6792,10 +7058,10 @@
       <c r="B6" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="78">
         <v>2</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="78" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -6823,8 +7089,8 @@
       <c r="C7" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -6841,8 +7107,8 @@
       <c r="C8" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
@@ -6862,8 +7128,8 @@
       <c r="C9" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -6883,13 +7149,13 @@
       <c r="B10" t="s">
         <v>273</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="90">
         <v>3</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="93" t="s">
         <v>127</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -6914,9 +7180,9 @@
       <c r="C11" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="87"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="9"/>
       <c r="H11" s="3"/>
       <c r="I11" s="1"/>
@@ -6932,9 +7198,9 @@
       <c r="C12" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="87"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="9"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
@@ -6953,9 +7219,9 @@
       <c r="C13" t="s">
         <v>267</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="88"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="9"/>
       <c r="H13" s="3"/>
       <c r="I13" s="1"/>
@@ -6974,10 +7240,10 @@
       <c r="B14" t="s">
         <v>276</v>
       </c>
-      <c r="D14" s="89">
+      <c r="D14" s="90">
         <v>4</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="78" t="s">
         <v>128</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -7005,8 +7271,8 @@
       <c r="C15" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="75"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
       <c r="H15" s="31"/>
@@ -7023,8 +7289,8 @@
       <c r="B16" t="s">
         <v>244</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="75"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="79"/>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
       <c r="H16" s="31"/>
@@ -7038,8 +7304,8 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="91"/>
-      <c r="E17" s="76"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
       <c r="H17" s="31"/>
@@ -7059,10 +7325,10 @@
       <c r="B18" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="89">
+      <c r="D18" s="90">
         <v>5</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="78" t="s">
         <v>130</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -7090,8 +7356,8 @@
       <c r="C19" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="75"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="6"/>
       <c r="G19" s="9"/>
       <c r="H19" s="31"/>
@@ -7108,8 +7374,8 @@
       <c r="C20" t="s">
         <v>280</v>
       </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="75"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
       <c r="H20" s="31"/>
@@ -7126,8 +7392,8 @@
       <c r="C21" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="75"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="6"/>
       <c r="G21" s="9"/>
       <c r="H21" s="31"/>
@@ -7144,8 +7410,8 @@
       <c r="C22" t="s">
         <v>283</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="75"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="79"/>
       <c r="F22" s="6"/>
       <c r="G22" s="9"/>
       <c r="H22" s="31"/>
@@ -7162,8 +7428,8 @@
       <c r="C23" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="90"/>
-      <c r="E23" s="75"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="79"/>
       <c r="F23" s="6"/>
       <c r="G23" s="9"/>
       <c r="H23" s="31"/>
@@ -7183,8 +7449,8 @@
       <c r="C24" t="s">
         <v>284</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="75"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="79"/>
       <c r="F24" s="6"/>
       <c r="G24" s="9"/>
       <c r="H24" s="31"/>
@@ -7201,8 +7467,8 @@
       <c r="C25" t="s">
         <v>285</v>
       </c>
-      <c r="D25" s="91"/>
-      <c r="E25" s="76"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="80"/>
       <c r="F25" s="6"/>
       <c r="G25" s="9"/>
       <c r="H25" s="31"/>
@@ -7222,10 +7488,10 @@
       <c r="B26" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="89">
+      <c r="D26" s="90">
         <v>6</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="78" t="s">
         <v>132</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -7253,8 +7519,8 @@
       <c r="C27" t="s">
         <v>287</v>
       </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="75"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="79"/>
       <c r="F27" s="6"/>
       <c r="G27" s="9"/>
       <c r="H27" s="31"/>
@@ -7271,8 +7537,8 @@
       <c r="C28" t="s">
         <v>288</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="75"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="6"/>
       <c r="G28" s="9"/>
       <c r="H28" s="31"/>
@@ -7292,8 +7558,8 @@
       <c r="C29" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="91"/>
-      <c r="E29" s="76"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="6"/>
       <c r="G29" s="9"/>
       <c r="H29" s="31"/>
@@ -7313,10 +7579,10 @@
       <c r="B30" t="s">
         <v>290</v>
       </c>
-      <c r="D30" s="74">
+      <c r="D30" s="78">
         <v>7</v>
       </c>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="78" t="s">
         <v>134</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -7342,8 +7608,8 @@
       <c r="C31" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
       <c r="F31" s="5"/>
       <c r="G31" s="1"/>
       <c r="H31" s="31"/>
@@ -7360,8 +7626,8 @@
       <c r="C32" t="s">
         <v>292</v>
       </c>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="5"/>
       <c r="G32" s="1"/>
       <c r="H32" s="31"/>
@@ -7381,8 +7647,8 @@
       <c r="C33" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
       <c r="F33" s="5"/>
       <c r="G33" s="1"/>
       <c r="H33" s="31"/>
@@ -7402,10 +7668,10 @@
       <c r="B34" t="s">
         <v>331</v>
       </c>
-      <c r="D34" s="74">
+      <c r="D34" s="78">
         <v>8</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="78" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -7433,8 +7699,8 @@
       <c r="C35" t="s">
         <v>294</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
       <c r="F35" s="5"/>
       <c r="G35" s="9"/>
       <c r="H35" s="31"/>
@@ -7451,8 +7717,8 @@
       <c r="C36" t="s">
         <v>330</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
       <c r="F36" s="5"/>
       <c r="G36" s="9"/>
       <c r="H36" s="31"/>
@@ -7472,8 +7738,8 @@
       <c r="C37" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
       <c r="F37" s="5"/>
       <c r="G37" s="9"/>
       <c r="H37" s="31"/>
@@ -7490,8 +7756,8 @@
       <c r="C38" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
       <c r="F38" s="5"/>
       <c r="G38" s="9"/>
       <c r="H38" s="31"/>
@@ -7508,8 +7774,8 @@
       <c r="C39" t="s">
         <v>296</v>
       </c>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
       <c r="F39" s="5"/>
       <c r="G39" s="9"/>
       <c r="H39" s="31"/>
@@ -7529,10 +7795,10 @@
       <c r="B40" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="89">
+      <c r="D40" s="90">
         <v>9</v>
       </c>
-      <c r="E40" s="89" t="s">
+      <c r="E40" s="90" t="s">
         <v>138</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -7560,8 +7826,8 @@
       <c r="C41" t="s">
         <v>300</v>
       </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9"/>
       <c r="H41" s="34"/>
@@ -7581,8 +7847,8 @@
       <c r="C42" t="s">
         <v>298</v>
       </c>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9"/>
       <c r="H42" s="34"/>
@@ -7602,10 +7868,10 @@
       <c r="B43" t="s">
         <v>301</v>
       </c>
-      <c r="D43" s="89">
+      <c r="D43" s="90">
         <v>10</v>
       </c>
-      <c r="E43" s="74" t="s">
+      <c r="E43" s="78" t="s">
         <v>139</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -7633,8 +7899,8 @@
       <c r="C44" t="s">
         <v>302</v>
       </c>
-      <c r="D44" s="90"/>
-      <c r="E44" s="75"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="79"/>
       <c r="F44" s="6"/>
       <c r="G44" s="9"/>
       <c r="H44" s="34"/>
@@ -7651,8 +7917,8 @@
       <c r="C45" t="s">
         <v>303</v>
       </c>
-      <c r="D45" s="90"/>
-      <c r="E45" s="75"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="79"/>
       <c r="F45" s="6"/>
       <c r="G45" s="9"/>
       <c r="H45" s="34"/>
@@ -7672,8 +7938,8 @@
       <c r="C46" t="s">
         <v>304</v>
       </c>
-      <c r="D46" s="90"/>
-      <c r="E46" s="75"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="79"/>
       <c r="F46" s="6"/>
       <c r="G46" s="9"/>
       <c r="H46" s="34"/>
@@ -7690,8 +7956,8 @@
       <c r="C47" t="s">
         <v>298</v>
       </c>
-      <c r="D47" s="91"/>
-      <c r="E47" s="76"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="80"/>
       <c r="F47" s="6"/>
       <c r="G47" s="9"/>
       <c r="H47" s="34"/>
@@ -7711,10 +7977,10 @@
       <c r="B48" t="s">
         <v>305</v>
       </c>
-      <c r="D48" s="89">
+      <c r="D48" s="90">
         <v>11</v>
       </c>
-      <c r="E48" s="89" t="s">
+      <c r="E48" s="90" t="s">
         <v>141</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -7742,8 +8008,8 @@
       <c r="C49" t="s">
         <v>306</v>
       </c>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
       <c r="F49" s="4"/>
       <c r="G49" s="9"/>
       <c r="H49" s="31"/>
@@ -7760,8 +8026,8 @@
       <c r="C50" t="s">
         <v>307</v>
       </c>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
       <c r="F50" s="4"/>
       <c r="G50" s="9"/>
       <c r="H50" s="31"/>
@@ -7781,8 +8047,8 @@
       <c r="C51" t="s">
         <v>308</v>
       </c>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
       <c r="F51" s="4"/>
       <c r="G51" s="9"/>
       <c r="H51" s="31"/>
@@ -7802,10 +8068,10 @@
       <c r="B52" t="s">
         <v>309</v>
       </c>
-      <c r="D52" s="89">
+      <c r="D52" s="90">
         <v>12</v>
       </c>
-      <c r="E52" s="89" t="s">
+      <c r="E52" s="90" t="s">
         <v>143</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -7833,8 +8099,8 @@
       <c r="C53" t="s">
         <v>310</v>
       </c>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
       <c r="F53" s="1"/>
       <c r="G53" s="9"/>
       <c r="H53" s="31"/>
@@ -7851,8 +8117,8 @@
       <c r="C54" t="s">
         <v>311</v>
       </c>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
       <c r="F54" s="1"/>
       <c r="G54" s="9"/>
       <c r="H54" s="31"/>
@@ -7872,8 +8138,8 @@
       <c r="C55" t="s">
         <v>312</v>
       </c>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
       <c r="F55" s="1"/>
       <c r="G55" s="9"/>
       <c r="H55" s="31"/>
@@ -7893,10 +8159,10 @@
       <c r="B56" t="s">
         <v>332</v>
       </c>
-      <c r="D56" s="89">
+      <c r="D56" s="90">
         <v>13</v>
       </c>
-      <c r="E56" s="74" t="s">
+      <c r="E56" s="78" t="s">
         <v>145</v>
       </c>
       <c r="F56" s="5" t="s">
@@ -7921,8 +8187,8 @@
       <c r="B57" t="s">
         <v>213</v>
       </c>
-      <c r="D57" s="90"/>
-      <c r="E57" s="75"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="79"/>
       <c r="F57" s="5"/>
       <c r="G57" s="9"/>
       <c r="H57" s="31"/>
@@ -7939,8 +8205,8 @@
       <c r="B58" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="91"/>
-      <c r="E58" s="76"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="80"/>
       <c r="F58" s="5"/>
       <c r="G58" s="9"/>
       <c r="H58" s="31"/>
@@ -7960,10 +8226,10 @@
       <c r="B59" t="s">
         <v>313</v>
       </c>
-      <c r="D59" s="89">
+      <c r="D59" s="90">
         <v>14</v>
       </c>
-      <c r="E59" s="74" t="s">
+      <c r="E59" s="78" t="s">
         <v>146</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -7991,8 +8257,8 @@
       <c r="C60" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="90"/>
-      <c r="E60" s="75"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="79"/>
       <c r="F60" s="6"/>
       <c r="G60" s="9"/>
       <c r="H60" s="31"/>
@@ -8009,8 +8275,8 @@
       <c r="C61" t="s">
         <v>315</v>
       </c>
-      <c r="D61" s="90"/>
-      <c r="E61" s="75"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="79"/>
       <c r="F61" s="6"/>
       <c r="G61" s="9"/>
       <c r="H61" s="31"/>
@@ -8030,8 +8296,8 @@
       <c r="C62" t="s">
         <v>316</v>
       </c>
-      <c r="D62" s="91"/>
-      <c r="E62" s="76"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="80"/>
       <c r="F62" s="6"/>
       <c r="G62" s="9"/>
       <c r="H62" s="31"/>
@@ -8051,10 +8317,10 @@
       <c r="B63" t="s">
         <v>317</v>
       </c>
-      <c r="D63" s="89">
+      <c r="D63" s="90">
         <v>15</v>
       </c>
-      <c r="E63" s="74" t="s">
+      <c r="E63" s="78" t="s">
         <v>149</v>
       </c>
       <c r="F63" s="5" t="s">
@@ -8082,8 +8348,8 @@
       <c r="C64" t="s">
         <v>318</v>
       </c>
-      <c r="D64" s="90"/>
-      <c r="E64" s="75"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="79"/>
       <c r="F64" s="5"/>
       <c r="G64" s="9"/>
       <c r="H64" s="31"/>
@@ -8100,8 +8366,8 @@
       <c r="C65" t="s">
         <v>319</v>
       </c>
-      <c r="D65" s="90"/>
-      <c r="E65" s="75"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="79"/>
       <c r="F65" s="5"/>
       <c r="G65" s="9"/>
       <c r="H65" s="31"/>
@@ -8121,8 +8387,8 @@
       <c r="C66" t="s">
         <v>320</v>
       </c>
-      <c r="D66" s="90"/>
-      <c r="E66" s="76"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="80"/>
       <c r="F66" s="5"/>
       <c r="G66" s="9"/>
       <c r="H66" s="31"/>
@@ -8145,7 +8411,7 @@
       <c r="D67" s="32">
         <v>16</v>
       </c>
-      <c r="E67" s="74" t="s">
+      <c r="E67" s="78" t="s">
         <v>150</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -8174,7 +8440,7 @@
         <v>322</v>
       </c>
       <c r="D68" s="32"/>
-      <c r="E68" s="75"/>
+      <c r="E68" s="79"/>
       <c r="F68" s="6"/>
       <c r="G68" s="9"/>
       <c r="H68" s="31"/>
@@ -8195,7 +8461,7 @@
         <v>323</v>
       </c>
       <c r="D69" s="32"/>
-      <c r="E69" s="75"/>
+      <c r="E69" s="79"/>
       <c r="F69" s="6"/>
       <c r="G69" s="9"/>
       <c r="H69" s="31"/>
@@ -8213,7 +8479,7 @@
         <v>324</v>
       </c>
       <c r="D70" s="32"/>
-      <c r="E70" s="76"/>
+      <c r="E70" s="80"/>
       <c r="F70" s="6"/>
       <c r="G70" s="9"/>
       <c r="H70" s="31"/>
@@ -8233,10 +8499,10 @@
       <c r="B71" t="s">
         <v>334</v>
       </c>
-      <c r="D71" s="74">
+      <c r="D71" s="78">
         <v>17</v>
       </c>
-      <c r="E71" s="74" t="s">
+      <c r="E71" s="78" t="s">
         <v>152</v>
       </c>
       <c r="F71" s="5" t="s">
@@ -8264,8 +8530,8 @@
       <c r="C72" t="s">
         <v>325</v>
       </c>
-      <c r="D72" s="75"/>
-      <c r="E72" s="75"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
       <c r="F72" s="5"/>
       <c r="G72" s="9"/>
       <c r="H72" s="31"/>
@@ -8285,8 +8551,8 @@
       <c r="C73" t="s">
         <v>327</v>
       </c>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
       <c r="F73" s="5"/>
       <c r="G73" s="9"/>
       <c r="H73" s="31"/>
@@ -8348,31 +8614,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="E2:E5"/>
@@ -8382,6 +8623,31 @@
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="E67:E70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{BD266EE8-9EE9-410E-A73B-7BCBE7209954}"/>
@@ -8408,10 +8674,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3AF180-2B8D-4C19-A7E4-B0AE9B7543FC}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8452,16 +8719,16 @@
       <c r="B2" t="s">
         <v>336</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2" s="78">
         <v>1</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="81" t="s">
         <v>175</v>
       </c>
     </row>
@@ -8476,10 +8743,10 @@
       <c r="D3" t="s">
         <v>346</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="80"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
@@ -8490,10 +8757,10 @@
       <c r="D4" t="s">
         <v>345</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="80"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="82"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
@@ -8504,10 +8771,10 @@
       <c r="D5" t="s">
         <v>344</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="81"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="83"/>
     </row>
     <row r="6" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
@@ -8632,10 +8899,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DFAC0-397F-4C98-B2DF-6497ADE191DD}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8771,9 +9039,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D713CF-1264-4070-BA73-824C7A1D0A05}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="83" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -8815,13 +9084,13 @@
       <c r="B2" t="s">
         <v>355</v>
       </c>
-      <c r="F2" s="74">
+      <c r="F2" s="78">
         <v>1</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="65" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="37" t="s">
@@ -8840,9 +9109,9 @@
       <c r="C3" t="s">
         <v>357</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="69"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="37"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -8857,9 +9126,9 @@
       <c r="C4" t="s">
         <v>359</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="70"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="37"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -8871,13 +9140,13 @@
       <c r="B5" t="s">
         <v>360</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="78">
         <v>2</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="96" t="s">
         <v>369</v>
       </c>
       <c r="I5" s="41" t="s">
@@ -8896,9 +9165,9 @@
       <c r="C6" t="s">
         <v>362</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="95"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="97"/>
       <c r="I6" s="41"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -8913,9 +9182,9 @@
       <c r="C7" t="s">
         <v>364</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="95"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="41"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -8930,9 +9199,9 @@
       <c r="C8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="95"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="97"/>
       <c r="I8" s="41"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -8947,9 +9216,9 @@
       <c r="C9" t="s">
         <v>366</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="96"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="98"/>
       <c r="I9" s="41"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -8966,8 +9235,8 @@
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="3"/>
       <c r="I10" s="37" t="s">
         <v>203</v>
@@ -8979,20 +9248,20 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="55" t="s">
         <v>192</v>
       </c>
       <c r="C11" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="74" t="s">
+      <c r="F11" s="79"/>
+      <c r="G11" s="78" t="s">
         <v>192</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="92" t="s">
+      <c r="I11" s="99" t="s">
         <v>205</v>
       </c>
       <c r="J11" s="14"/>
@@ -9002,14 +9271,14 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" t="s">
         <v>373</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="92"/>
+      <c r="I12" s="99"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -9021,10 +9290,10 @@
       <c r="C13" t="s">
         <v>387</v>
       </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="76"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="92"/>
+      <c r="I13" s="99"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -9032,20 +9301,20 @@
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="55" t="s">
         <v>374</v>
       </c>
       <c r="C14" t="s">
         <v>376</v>
       </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="74" t="s">
+      <c r="F14" s="79"/>
+      <c r="G14" s="78" t="s">
         <v>193</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I14" s="93"/>
+      <c r="I14" s="100"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -9053,14 +9322,14 @@
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
+      <c r="B15" s="55"/>
       <c r="C15" t="s">
         <v>378</v>
       </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="93"/>
+      <c r="I15" s="100"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -9072,10 +9341,10 @@
       <c r="C16" t="s">
         <v>388</v>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="76"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="93"/>
+      <c r="I16" s="100"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -9083,20 +9352,20 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="2:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="55" t="s">
         <v>194</v>
       </c>
       <c r="C17" t="s">
         <v>377</v>
       </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="74" t="s">
+      <c r="F17" s="79"/>
+      <c r="G17" s="78" t="s">
         <v>194</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="93"/>
+      <c r="I17" s="100"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -9104,12 +9373,12 @@
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" t="s">
         <v>379</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="5"/>
       <c r="I18" s="46"/>
       <c r="J18" s="14"/>
@@ -9123,8 +9392,8 @@
       <c r="C19" t="s">
         <v>389</v>
       </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="76"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="5"/>
       <c r="I19" s="46"/>
       <c r="J19" s="14"/>
@@ -9143,11 +9412,11 @@
       <c r="D20" t="s">
         <v>383</v>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="74" t="s">
+      <c r="F20" s="79"/>
+      <c r="G20" s="78" t="s">
         <v>375</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="65" t="s">
         <v>198</v>
       </c>
       <c r="I20" s="37" t="s">
@@ -9167,9 +9436,9 @@
       <c r="D21" t="s">
         <v>384</v>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="69"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="66"/>
       <c r="I21" s="37"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
@@ -9185,9 +9454,9 @@
       <c r="D22" t="s">
         <v>386</v>
       </c>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="70"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="37"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
@@ -9202,13 +9471,13 @@
       <c r="C23" t="s">
         <v>390</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="78">
         <v>3</v>
       </c>
-      <c r="G23" s="74" t="s">
+      <c r="G23" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="65" t="s">
         <v>400</v>
       </c>
       <c r="I23" s="41" t="s">
@@ -9227,9 +9496,9 @@
       <c r="D24" t="s">
         <v>403</v>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="69"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="66"/>
       <c r="I24" s="41"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -9241,9 +9510,9 @@
       <c r="D25" t="s">
         <v>404</v>
       </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="66"/>
       <c r="I25" s="41"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -9255,9 +9524,9 @@
       <c r="D26" t="s">
         <v>405</v>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="69"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="66"/>
       <c r="I26" s="41"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -9272,9 +9541,9 @@
       <c r="D27" t="s">
         <v>406</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="69"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="41"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
@@ -9286,9 +9555,9 @@
       <c r="D28" t="s">
         <v>407</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="69"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="41"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
@@ -9303,9 +9572,9 @@
       <c r="E29" t="s">
         <v>409</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="69"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="66"/>
       <c r="I29" s="41"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
@@ -9320,9 +9589,9 @@
       <c r="E30" t="s">
         <v>411</v>
       </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="69"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="66"/>
       <c r="I30" s="41"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
@@ -9337,9 +9606,9 @@
       <c r="D31" t="s">
         <v>423</v>
       </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="69"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="66"/>
       <c r="I31" s="41"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
@@ -9352,9 +9621,9 @@
       <c r="D32" t="s">
         <v>425</v>
       </c>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="69"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="66"/>
       <c r="I32" s="41"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
@@ -9369,9 +9638,9 @@
       <c r="D33" t="s">
         <v>424</v>
       </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="69"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="66"/>
       <c r="I33" s="41"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
@@ -9383,9 +9652,9 @@
       <c r="D34" t="s">
         <v>413</v>
       </c>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="69"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="66"/>
       <c r="I34" s="41"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
@@ -9400,9 +9669,9 @@
       <c r="D35" t="s">
         <v>415</v>
       </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="69"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="66"/>
       <c r="I35" s="41"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -9414,9 +9683,9 @@
       <c r="D36" t="s">
         <v>421</v>
       </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="69"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="66"/>
       <c r="I36" s="41"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
@@ -9431,9 +9700,9 @@
       <c r="D37" t="s">
         <v>417</v>
       </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="69"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="66"/>
       <c r="I37" s="41"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
@@ -9445,9 +9714,9 @@
       <c r="D38" t="s">
         <v>418</v>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="69"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="66"/>
       <c r="I38" s="41"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -9462,9 +9731,9 @@
       <c r="D39" t="s">
         <v>420</v>
       </c>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="69"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="66"/>
       <c r="I39" s="41"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
@@ -9476,9 +9745,9 @@
       <c r="D40" t="s">
         <v>421</v>
       </c>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="70"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="67"/>
       <c r="I40" s="41"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
@@ -9518,16 +9787,16 @@
       <c r="C42" t="s">
         <v>394</v>
       </c>
-      <c r="F42" s="61">
+      <c r="F42" s="58">
         <v>5</v>
       </c>
-      <c r="G42" s="61" t="s">
+      <c r="G42" s="58" t="s">
         <v>206</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I42" s="65" t="s">
+      <c r="I42" s="62" t="s">
         <v>202</v>
       </c>
       <c r="J42" s="14"/>
@@ -9546,12 +9815,12 @@
       <c r="E43" t="s">
         <v>398</v>
       </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
       <c r="H43" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I43" s="66"/>
+      <c r="I43" s="63"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
@@ -9565,12 +9834,12 @@
       <c r="E44" t="s">
         <v>399</v>
       </c>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
       <c r="H44" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I44" s="67"/>
+      <c r="I44" s="64"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
@@ -9615,19 +9884,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F5:F22"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G5:G10"/>
     <mergeCell ref="I11:I17"/>
     <mergeCell ref="G42:G44"/>
     <mergeCell ref="F42:F44"/>
@@ -9636,6 +9892,19 @@
     <mergeCell ref="F23:F40"/>
     <mergeCell ref="G23:G40"/>
     <mergeCell ref="H23:H40"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F5:F22"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I23" r:id="rId1" display="https://www.baeldung.com/spring-transactional-propagation-isolation" xr:uid="{48BFAE5D-1145-4E0D-A5BD-44A48408A956}"/>
@@ -9650,4 +9919,268 @@
   <pageSetup orientation="portrait" r:id="rId8"/>
   <drawing r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA47C9C-6F99-4F74-8F04-233056ABBE4B}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>441</v>
+      </c>
+      <c r="E10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>442</v>
+      </c>
+      <c r="E11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>457</v>
+      </c>
+      <c r="C18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>458</v>
+      </c>
+      <c r="C19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>461</v>
+      </c>
+      <c r="C22" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>463</v>
+      </c>
+      <c r="C25" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>464</v>
+      </c>
+      <c r="C26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="52" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>474</v>
+      </c>
+      <c r="B38" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="52" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{FD790352-9AB3-438A-B805-4E38FEE8BA22}"/>
+    <hyperlink ref="A28" r:id="rId2" location="deeper-look-into-spring-aops-annotations" xr:uid="{78DCEF18-00D2-4EFA-B107-E7CA18D0D8FE}"/>
+    <hyperlink ref="A29" r:id="rId3" display="https://www.digitalocean.com/community/tutorials/spring-aop-example-tutorial-aspect-advice-pointcut-joinpoint-annotations" xr:uid="{BCFC0ACD-33E1-483E-9A2A-1F45EF2A9DA9}"/>
+    <hyperlink ref="A30" r:id="rId4" location=":~:text=Aspect%20Oriented%20Programming%20(AOP)%20l%C3%A0,tr%E1%BA%A3%20v%E1%BB%81%20m%E1%BB%99t%20k%E1%BA%BFt%20qu%E1%BA%A3" display="https://techmaster.vn/posts/36087/spring-core-phan-5-spring-aop-la-gi-code-vi-du-voi-spring-aop - :~:text=Aspect%20Oriented%20Programming%20(AOP)%20l%C3%A0,tr%E1%BA%A3%20v%E1%BB%81%20m%E1%BB%99t%20k%E1%BA%BFt%20qu%E1%BA%A3" xr:uid="{70145C8E-A03B-4CE2-A6DA-970F7CB3F0C9}"/>
+    <hyperlink ref="A31" r:id="rId5" display="https://viblo.asia/p/su-dung-aop-trong-spring-boot-va-aspectj-vyDZOkbaZwj" xr:uid="{E9ED52EB-6172-4E9F-A0BD-111D6CCA182F}"/>
+    <hyperlink ref="A32" r:id="rId6" display="https://gpcoder.com/5112-gioi-thieu-aspect-oriented-programming-aop/" xr:uid="{0F8D92B0-260D-4D69-9F99-EAD6314460DD}"/>
+    <hyperlink ref="A33" r:id="rId7" display="https://levunguyen.com/laptrinhspring/2020/04/27/su-dung-aop-advise-trong-spring/" xr:uid="{197D74B0-CBE3-492E-BB4F-8EEC42746249}"/>
+    <hyperlink ref="A39" r:id="rId8" xr:uid="{DEDB1230-9B57-4D7C-BF68-766DD4B6BEC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
 </file>
--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE96A3C-B826-4BAF-BA4A-39FBDCFD8040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EBFF8C-D315-49DA-8A82-A8CF88C551E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
@@ -22,9 +22,11 @@
     <sheet name="day8" sheetId="7" r:id="rId7"/>
     <sheet name="day10" sheetId="8" r:id="rId8"/>
     <sheet name="day15" sheetId="9" r:id="rId9"/>
+    <sheet name="day17" sheetId="10" r:id="rId10"/>
+    <sheet name="day18" sheetId="11" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="745">
   <si>
     <t>STT</t>
   </si>
@@ -3459,15 +3461,9 @@
     <t>Có 5  loại Advice:</t>
   </si>
   <si>
-    <t xml:space="preserve">được thực hiện sau join point </t>
-  </si>
-  <si>
     <t>được thực hiện sau join point được kết thúc với return</t>
   </si>
   <si>
-    <t>bao gồm cả 4 advice trên</t>
-  </si>
-  <si>
     <t>Supported Pointcut Designators</t>
   </si>
   <si>
@@ -3531,29 +3527,939 @@
     <t>Weaving</t>
   </si>
   <si>
-    <t>dùng để match với các joinPoint method’s signature</t>
-  </si>
-  <si>
-    <t>dùng để match với tất cả phương thức join point có trong class, package, sub-package</t>
-  </si>
-  <si>
     <t>dùng để match với các tham số của phương thức join point</t>
   </si>
   <si>
-    <t>dùng để match với phương thức join point được đánh dấu bởi annotation đã được định nghĩa là pointcut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dùng để match với tất cả phương thức join point có trong class, package, sub-package bằng cách định nghĩa annotation bên trong nó và đính kèm annotation đó lên các class, package, sub-package </t>
-  </si>
-  <si>
     <t xml:space="preserve"> @target</t>
+  </si>
+  <si>
+    <t>Tấn công XSS (Cross-site-scripting)</t>
+  </si>
+  <si>
+    <t>Có 3 loại tấn công XSS</t>
+  </si>
+  <si>
+    <t>Reflected XSS</t>
+  </si>
+  <si>
+    <t>Stored XSS</t>
+  </si>
+  <si>
+    <t>DOM Based XSS</t>
+  </si>
+  <si>
+    <t>là khi kẻ tấn công chèn mã độc vào tham số request và gửi cho người dùng bấm vào</t>
+  </si>
+  <si>
+    <t>sau đó server trả về cho người dùng và thực thi mã độc trên trình duyệt người dùng</t>
+  </si>
+  <si>
+    <t>là khi kẻ tấn công chèn mã độc vào cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>sau đó người dùng get dữ liệu đó ra thì mã độc đó được thực thi trên trình duyệt người dùng</t>
+  </si>
+  <si>
+    <t>là kỹ thuật thay đổi cấu trúc DOM của tài liệu, cụ thể là HTML</t>
+  </si>
+  <si>
+    <t>dùng để chiếm phiên của người dùng</t>
+  </si>
+  <si>
+    <t>Các cách để ngăn chặn XSS</t>
+  </si>
+  <si>
+    <t>Data validation</t>
+  </si>
+  <si>
+    <t>Filtering</t>
+  </si>
+  <si>
+    <t>Escaping</t>
+  </si>
+  <si>
+    <t>là kiểm tra tính hợp lệ của dữ liệu đầu vào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">là việc lọc các từ khóa gây rủi ro trong input người dùng </t>
+  </si>
+  <si>
+    <t>như là &lt;script&gt;&lt;/script&gt; tags, Javascript commands, HTML markup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">là quá trình chuyển đổi các ký tự đặc biệt trong chuỗi thành các ký tự an toàn </t>
+  </si>
+  <si>
+    <t>tránh nhầm lẫn với các thẻ hoặc mã có thể gây lỗi</t>
+  </si>
+  <si>
+    <t>Hầu như các trình duyệt hiện nay đều hỗ trợ lọc các lỗ hỏng XSS</t>
+  </si>
+  <si>
+    <t>Nhưng một số trình duyệt cũ vẫn không có hỗ trợ, tuy nhiên để fix thì ta có thể sử dụng Content Security Policy (CSP)</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>là cơ chế giảm thiểu lỗ hỏng chèn nội dung như là CSP</t>
+  </si>
+  <si>
+    <t>dùng để khai báo những nguồn tài nguyên đc hoặc không được phép</t>
+  </si>
+  <si>
+    <t>XSS là gì? Tìm hiểu về lỗ hổng Cross-Site Scripting (vietnix.vn)</t>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/ky-thuat-tan-cong-xss-va-cach-ngan-chan-YWOZr0Py5Q0</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/spring-security-csp</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/spring-prevent-xss?ref=morioh.com&amp;utm_source=morioh.com</t>
+  </si>
+  <si>
+    <t>https://wiki.owasp.org/index.php/Testing_for_Reflected_Cross_site_scripting_(OTG-INPVAL-001)</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-security/reference/features/exploits/headers.html#headers-xss-protection</t>
+  </si>
+  <si>
+    <t>https://cheatsheetseries.owasp.org/cheatsheets/HTTP_Headers_Cheat_Sheet.html#x-xss-protection</t>
+  </si>
+  <si>
+    <t>X-XSS-Protection - HTTP | MDN (mozilla.org)</t>
+  </si>
+  <si>
+    <t>Testing for Reflected Cross site scripting (OTG-INPVAL-001) - OWASP</t>
+  </si>
+  <si>
+    <t>https://owasp.org/www-community/attacks/xss/</t>
+  </si>
+  <si>
+    <t>WSTG - v4.1 | OWASP Foundation</t>
+  </si>
+  <si>
+    <t>Content-Security-Policy - HTTP | MDN (mozilla.org)</t>
+  </si>
+  <si>
+    <t>Csp- header</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>(53) SpringBoot XSS - YouTube</t>
+  </si>
+  <si>
+    <t>(53) Cross-Site Scripting (XSS) Explained And Demonstrated By A Pro Hacker! - YouTube</t>
+  </si>
+  <si>
+    <t>Tấn công CSRF (Cross Site Request Forgery)</t>
+  </si>
+  <si>
+    <t>là kỹ thuật tấn công chèn script độc hại (js, html)</t>
+  </si>
+  <si>
+    <t>là kỹ thuật tấn công thực hiện các request dựa vào mượn quyền trái phép</t>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/ky-thuat-tan-cong-csrf-va-cach-phong-chong-amoG84bOGz8P</t>
+  </si>
+  <si>
+    <t>Cách hoạt động</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo URL hoặc script với mục đích khai thác </t>
+  </si>
+  <si>
+    <t>Lừa user thực thi URL hoặc script đó</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Với kịch bản </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GET</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">khai thác dựa qua các tham số </t>
+  </si>
+  <si>
+    <t>thường được thực hiện với các cách sau:</t>
+  </si>
+  <si>
+    <t>Gửi email có nội dung HTML</t>
+  </si>
+  <si>
+    <t>Chèn URL hoặc script trên trang mà đã được xác thực</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>có thể được ngụy trang dưới dạng 1 liên kết</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;a href="http://bank.com/transfer.do?acct=MARIA&amp;amount=100000"&gt;View my Pictures!&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>hoặc có thể là fake ảnh 0x0</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://bank.com/transfer.do?acct=MARIA&amp;amount=100000" width="0" height="0" border="0"&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Với kịch bản </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POST</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">cũng giống như GET </t>
+  </si>
+  <si>
+    <t>nhưng mà không thể thực hiện qua a tag hoặc img tag</t>
+  </si>
+  <si>
+    <t>phải sử dụng form và yêu cầu người dùng click submit</t>
+  </si>
+  <si>
+    <t>&lt;form action="http://bank.com/transfer.do" method="POST"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="hidden" name="acct" value="MARIA"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="hidden" name="amount" value="100000"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="submit" value="View my pictures"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>Điều này có thể thực hiện tự động thông qua JavaScript</t>
+  </si>
+  <si>
+    <t>&lt;body onload="document.forms[0].submit()"&gt;</t>
+  </si>
+  <si>
+    <t>Cross Site Request Forgery (CSRF) | OWASP Foundation</t>
+  </si>
+  <si>
+    <t>Các cách để giảm tấn công CSRF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sử dụng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Synchronizer Token Pattern</t>
+    </r>
+  </si>
+  <si>
+    <t>Với mỗi yêu cầu HTTP sẽ tạo ra CSRF token ngẫu nhiên</t>
+  </si>
+  <si>
+    <t>Server sẽ lưu lại token và gửi nó cho client</t>
+  </si>
+  <si>
+    <t>với mỗi FORM sẽ được đính kèm 1 tham số token</t>
+  </si>
+  <si>
+    <t>khi submit Form đó lên server thì server sẽ so sánh với token đã lưu</t>
+  </si>
+  <si>
+    <t>nếu mã token không giống nhau thì sẽ được coi là giả mạo và ngược lại</t>
+  </si>
+  <si>
+    <t>Các giá trị của thuộc tính:</t>
+  </si>
+  <si>
+    <t>Strict:</t>
+  </si>
+  <si>
+    <t>Lax</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sử dụng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SameSite Attribute</t>
+    </r>
+  </si>
+  <si>
+    <t>và là samesite mặc định nếu samesite không được set</t>
+  </si>
+  <si>
+    <t>là cách dùng thuộc tính SameSite Attribute trên cookie để bảo mật cookie với các trang web bên ngoài</t>
+  </si>
+  <si>
+    <t>nên kèm theo thuộc tính Secure(https) để tránh lỗi</t>
+  </si>
+  <si>
+    <t>chỉ gửi cookie với các SameSite</t>
+  </si>
+  <si>
+    <t>chỉ gửi cookie với các cross-site với các phương thức idempotent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gửi cookie kể cả cùng samesite hay cross-site </t>
+  </si>
+  <si>
+    <t>same-site</t>
+  </si>
+  <si>
+    <t>là cùng domain + path (với path có thể kèm theo hậu tố)</t>
+  </si>
+  <si>
+    <t>cross-site</t>
+  </si>
+  <si>
+    <t>là khác domain</t>
+  </si>
+  <si>
+    <t>phương thức idempotent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">là những phương thức HTTP không làm ảnh hưởng khi gửi nhiều lần (GET, PUT, DELETE) </t>
+  </si>
+  <si>
+    <t>phương thức safe</t>
+  </si>
+  <si>
+    <t>laà những phương thức HTTP chỉ đọc như (GET, HEAD, OPTIONS, TRACE)</t>
+  </si>
+  <si>
+    <t>RFC 7231: Hypertext Transfer Protocol (HTTP/1.1): Semantics and Content (rfc-editor.org)</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-security/reference/features/exploits/csrf.html#csrf-protection-stp</t>
+  </si>
+  <si>
+    <t>Spring Security CSRF Token | Java Development Journal (javadevjournal.com)</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/58386069/how-to-set-same-site-cookie-flag-in-spring-boot</t>
+  </si>
+  <si>
+    <t>Tấn công CORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">là kỹ thuật tấn công mà dựa vào lỗ hổng của server </t>
+  </si>
+  <si>
+    <t>dựa vào header của response có chứa Access-Control-Allow-Origin: *</t>
+  </si>
+  <si>
+    <t>Các thuật ngữ trong CORS</t>
+  </si>
+  <si>
+    <t>SOP</t>
+  </si>
+  <si>
+    <t>Same-origin</t>
+  </si>
+  <si>
+    <t>là một chính sách chỉ cho phép same-origin tải nội dung về</t>
+  </si>
+  <si>
+    <t>là một url cùng protocol, port, host</t>
+  </si>
+  <si>
+    <t>Access-Control-Allow-Origin</t>
+  </si>
+  <si>
+    <t>là nơi khai báo những origin được phép truy cập vào tài nguyên</t>
+  </si>
+  <si>
+    <t>Access-Control-Allow-Credentials</t>
+  </si>
+  <si>
+    <t>nếu là true thì cho phép gửi kèm cookie</t>
+  </si>
+  <si>
+    <t>và false thì ngươc lại</t>
+  </si>
+  <si>
+    <t>Tấn công CORS (Cross-Origin Resource Sharing) (viblo.asia)</t>
+  </si>
+  <si>
+    <t>Stateless Spring API</t>
+  </si>
+  <si>
+    <t>nếu sử dụng JWT để xác thực</t>
+  </si>
+  <si>
+    <t>thì không cần phải bật bảo vệ CSRF</t>
+  </si>
+  <si>
+    <t>nếu sử dụng cookie để lưu phiên người dùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">là api không lưu trạng thái của người dùng </t>
+  </si>
+  <si>
+    <t>thì ta cấu hình như sau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ Configuration
+public class SpringSecurityConfiguration {
+    @Bean
+    public SecurityFilterChain filterChain(HttpSecurity http) throws Exception {
+        http
+          .csrf()
+          .csrfTokenRepository(CookieCsrfTokenRepository.withHttpOnlyFalse());
+        return http.build();
+    }
+}</t>
+  </si>
+  <si>
+    <t>A Guide to CSRF Protection in Spring Security | Baeldung</t>
+  </si>
+  <si>
+    <t>cấu hình này sẽ thiết lập cookie XSRF-TOKEN</t>
+  </si>
+  <si>
+    <t>CORS :: Spring Security</t>
+  </si>
+  <si>
+    <t>cách cấu hình</t>
+  </si>
+  <si>
+    <t>Spring Boot Security CORS - Stack Overflow</t>
+  </si>
+  <si>
+    <t>Tấn công SQL Injection</t>
+  </si>
+  <si>
+    <t>là kỹ thuật tấn công lợi dụng lỗ hổng về truy vấn SQL</t>
+  </si>
+  <si>
+    <t>bằng cách chèn thêm một đoạn SQL để làm sai câu truy vấn ban đầu</t>
+  </si>
+  <si>
+    <t>thường các lỗ hổng này đều dựa được khai thác trên các form, tham số truyền vào</t>
+  </si>
+  <si>
+    <t>Cách phòng ngừa SQL Injection</t>
+  </si>
+  <si>
+    <t>Kiểm tra đầu vào trước khi gửi lên server</t>
+  </si>
+  <si>
+    <t>Mã hóa dữ liệu nhạy cảm như password, credit card,…</t>
+  </si>
+  <si>
+    <t>với Spring data jpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sử dụng preparedStatement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">đối với các tấn công SQL injection là an toàn </t>
+  </si>
+  <si>
+    <t>không thể trộn dữ liệu đầu vào với các câu lệnh sql</t>
+  </si>
+  <si>
+    <t>java - Is SpringBoot Data JPA Repository Safe Against SQL Injection? - Stack Overflow</t>
+  </si>
+  <si>
+    <t>Is Java Spring JPA native query SQL injection proof? - Stack Overflow</t>
+  </si>
+  <si>
+    <t>security - How can prepared statements protect from SQL injection attacks? - Stack Overflow</t>
+  </si>
+  <si>
+    <t>SQL Injection and How to Prevent It? | Baeldung</t>
+  </si>
+  <si>
+    <t>Một số ví dụ về tấn công SQL injection</t>
+  </si>
+  <si>
+    <t>Retrieving hidden data (truy vấn dữ liệu ẩn)</t>
+  </si>
+  <si>
+    <t>SELECT * FROM products WHERE category = 'Gifts' AND released = 1</t>
+  </si>
+  <si>
+    <t>SELECT * FROM products WHERE category = 'Gifts'--' AND released = 1</t>
+  </si>
+  <si>
+    <t>mẫu:</t>
+  </si>
+  <si>
+    <t>sql injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">với dữ liệu đầu vào là </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gifts'-- </t>
+  </si>
+  <si>
+    <t>thì sẽ che dấu đoạn truy vấn với released và sẽ truy vấn tất cả products với category = Gifts</t>
+  </si>
+  <si>
+    <t>SELECT * FROM products WHERE category = 'Gifts' OR 1=1--' AND released = 1</t>
+  </si>
+  <si>
+    <t>với dữ liệu đầu vào là Gift' OR 1=1--</t>
+  </si>
+  <si>
+    <t>thì sẽ che dấu đoạn truy vấn với released và sẽ truy vấn tất cả products dù category = Gifts có tồn tại hay không</t>
+  </si>
+  <si>
+    <t>Retrieving data from other database tables (truy vấn dữ liệu bảng khác)</t>
+  </si>
+  <si>
+    <t>SELECT name, description FROM products WHERE category = 'Gifts'</t>
+  </si>
+  <si>
+    <t>SELECT name, description FROM products WHERE category = '' UNION SELECT username, password FROM users--'</t>
+  </si>
+  <si>
+    <t>với dữ liệu đầu vào là ' UNION SELECT username, password FROM users--</t>
+  </si>
+  <si>
+    <t>với câu lệnh trên sẽ HỢP kết quả của 2 câu lệnh select</t>
+  </si>
+  <si>
+    <t>Kiểm tra tất cả cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>select * from account where username=''; show databases -- '</t>
+  </si>
+  <si>
+    <t>với đầu vào là 'show databases --</t>
+  </si>
+  <si>
+    <t>Kiểm tra tất cả các bảng trong 1 cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>select * from account where username=''; use doantotnghiep; SHOW TABLES; -- '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">với dữ liệu đầu vào là '; use doantotnghiep; SHOW TABLES; -- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xóa table </t>
+  </si>
+  <si>
+    <t>select * from trainning_java.account where username='';  Drop table if exists new_table; -- '</t>
+  </si>
+  <si>
+    <t>với dữ liệu đầu vào là ';  Drop table if exists new_table; --</t>
+  </si>
+  <si>
+    <t>Xóa cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>select * from trainning_java.account where username='';  Drop schema mydb; -- '</t>
+  </si>
+  <si>
+    <t>với dữ liệu đầu vào là ';  Drop schema mydb; --</t>
+  </si>
+  <si>
+    <t>https://portswigger.net/web-security/sql-injection#:~:text=SQL%20injection%20(SQLi)%20is%20a,not%20normally%20able%20to%20retrieve.</t>
+  </si>
+  <si>
+    <t>Tấn công CSV injection (Formula injection)</t>
+  </si>
+  <si>
+    <t>xảy ra khi trang web nhúng những thông tin không đáng tin cậy vào trong CSV</t>
+  </si>
+  <si>
+    <t>đảm bảo rằng không có ô nào bắt đầu bằng ký tự</t>
+  </si>
+  <si>
+    <t>Bằng (=)</t>
+  </si>
+  <si>
+    <t>Cộng (+)</t>
+  </si>
+  <si>
+    <t>Dấu trừ (-)</t>
+  </si>
+  <si>
+    <t>Tại (@)</t>
+  </si>
+  <si>
+    <t>Tab (0x09)</t>
+  </si>
+  <si>
+    <t>Carriage return(0x0D)</t>
+  </si>
+  <si>
+    <t>để tránh thì</t>
+  </si>
+  <si>
+    <t>hoặc</t>
+  </si>
+  <si>
+    <t>thêm trước từng ô dấu nháy đơn (')</t>
+  </si>
+  <si>
+    <t>bọc từng ô bằng dấu nháy kép (")</t>
+  </si>
+  <si>
+    <t>https://owasp.org/www-community/attacks/CSV_Injection</t>
+  </si>
+  <si>
+    <t>https://sangbui.com/csv-excel-macro-injection-at-hackerone/</t>
+  </si>
+  <si>
+    <t>https://websitehcm.com/tim-hieu-ve-csv-injection/#:~:text=CSV%20Injection%2C%20c%C3%B2n%20%C4%91%C6%B0%E1%BB%A3c%20g%E1%BB%8Di,c%C3%A1c%20%C4%91%E1%BB%8Bnh%20d%E1%BA%A1ng%20file%20kh%C3%A1c</t>
+  </si>
+  <si>
+    <t>được thực hiện sau join point (sau 3 advice trên)</t>
+  </si>
+  <si>
+    <t>bao gồm cả 4 advice trên (và after của nó sau 4 advice trên)</t>
+  </si>
+  <si>
+    <t>chú ý:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nếu </t>
+  </si>
+  <si>
+    <t>..*</t>
+  </si>
+  <si>
+    <t>.*.*</t>
+  </si>
+  <si>
+    <t>thì tất cả joinpoint ở trong các gói con</t>
+  </si>
+  <si>
+    <t>thì tất cả joinpoint ở trong gói hiện tại và các gói con</t>
+  </si>
+  <si>
+    <t>dùng để match với (các phương thức joinPoint chỉ định)</t>
+  </si>
+  <si>
+    <t>dùng để match với tất cả phương thức join point có trong (class hoặc tất cả class có trong package, sub-package chỉ định)</t>
+  </si>
+  <si>
+    <t>dùng để match với các phương thức joinpoint có trong class được annotation bởi (annotation của loại đã chỉ định)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dùng để match với các phương thức joinpoint </t>
+  </si>
+  <si>
+    <t>dùng để introduction các new interface tới các adviced objects</t>
+  </si>
+  <si>
+    <t>https://howtodoinjava.com/spring-aop/aspectj-pointcut-expressions/</t>
+  </si>
+  <si>
+    <t>dùng để match với tất cả phương thức được định nghĩa trong bean (với id hoặc tên của bean được chỉ định)</t>
+  </si>
+  <si>
+    <t>dùng để match với các phương thức join point với class được đính kèm với (annotation được chỉ định)</t>
+  </si>
+  <si>
+    <t>dùng để match với phương thức join point được đánh dấu bởi (annotation đã được chỉ định)</t>
+  </si>
+  <si>
+    <t>dùng để match với các phương thức join point có trong bean đã implement (interface đã được chỉ định) hoặc chính các (bean đã được chỉ định) (tự động tìm các bean của nó)</t>
+  </si>
+  <si>
+    <t>dùng để match với các phương thức join point có trong chính các (bean đã được chỉ định) (không tự động tìm các bean của nó)</t>
+  </si>
+  <si>
+    <t>lưu ý:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nếu inject bean(adviced object) hoặc interface của bean đó </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>từ advice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Lúc gọi hàm của adviced object thì sẽ bị stackoverflow (vì sẽ gọi lại advice liên tục)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nếu inject bean(adviced object) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">từ advice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>và gọi hàm của adviced object đó thì sẽ bình thường</t>
+    </r>
+  </si>
+  <si>
+    <t>Black box test (kiểm thử hộp đen)</t>
+  </si>
+  <si>
+    <t>White box test (kiểm thử hộp trắng)</t>
+  </si>
+  <si>
+    <t>là phương thức kiểm thử phần mềm không quan tâm tới code bên trong</t>
+  </si>
+  <si>
+    <t>là phương thức kiểm thử phần mềm mà quan tâm từng chức năng hoăc module trong code</t>
+  </si>
+  <si>
+    <t>thường sẽ viết testcase dựa theo luồng đi nào đó</t>
+  </si>
+  <si>
+    <t>sau khi test dựa trên testcase có phù hợp với kết quả mong đợi trong testcase không</t>
+  </si>
+  <si>
+    <t>Phương pháp thử nghiệm:</t>
+  </si>
+  <si>
+    <t>Acceptance test</t>
+  </si>
+  <si>
+    <t>Là việc kiểm thử mà tích hợp nhiều module lại với nhau</t>
+  </si>
+  <si>
+    <t>Là việc kiểm thử trên môi trường UAT (user acceptance test)</t>
+  </si>
+  <si>
+    <t>và kiểm thử lại toàn bộ chức năng trong product trước khi realease</t>
+  </si>
+  <si>
+    <t>việc test thường sẽ dựa vào framework nào đó hỗ trợ (Junit test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">và việc test này thường phải đòi hỏi hiểu được source code </t>
+  </si>
+  <si>
+    <t>thường thì Manual Tester sẽ làm phần này</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System test </t>
+  </si>
+  <si>
+    <t>Unit test</t>
+  </si>
+  <si>
+    <t>Intergration test</t>
+  </si>
+  <si>
+    <t>là việc kiểm thử với 1 function hoặc 1 chức năng nhỏ nào đó trong module</t>
+  </si>
+  <si>
+    <t>là việc kiểm thử với 1 module cụ thể</t>
+  </si>
+  <si>
+    <t>trong spring boot, thì việc kiểm thử sẽ kiểm tra 1 chức năng nào đó trong 1 layer</t>
+  </si>
+  <si>
+    <t>trong spring boot, thì việc kiểm thử sẽ tích hợp nhiều hàm của nhiều layer lại với nhau như (Service, Controller, Repository)</t>
+  </si>
+  <si>
+    <t>Testcase cơ bản</t>
+  </si>
+  <si>
+    <t>là một bộ các hành động liên tục vs đầu vào và đầu ra được mong đợi</t>
+  </si>
+  <si>
+    <t>JUnit5</t>
+  </si>
+  <si>
+    <t>hỗ trợ cho Java 8 trở lên</t>
+  </si>
+  <si>
+    <t>một framework kiểm thử đơn vị cho Java</t>
+  </si>
+  <si>
+    <t>Mockito 4</t>
+  </si>
+  <si>
+    <t>nó là 1 thư viện của Java được sử dụng để tạo các test API cho Unit test</t>
+  </si>
+  <si>
+    <t>mục đích chính là mô phỏng các bean để dùng cho việc test</t>
+  </si>
+  <si>
+    <t>AssertJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">là một thư viện Java cung cấp xác nhận và thông báo lỗi </t>
+  </si>
+  <si>
+    <t>Có 2 cách dùng Annotation</t>
+  </si>
+  <si>
+    <t>ExtendWith(SpringExtension.class)</t>
+  </si>
+  <si>
+    <t>ExtendWith(MockitoExtension.class)</t>
+  </si>
+  <si>
+    <t>https://www.vogella.com/tutorials/Mockito/article.html</t>
+  </si>
+  <si>
+    <t>@Mock</t>
+  </si>
+  <si>
+    <t>@InjectMock</t>
+  </si>
+  <si>
+    <t>Tạo đối tượng giả</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiêm đôí tượng giả được khởi tạo trước đó vào đối tượng được annotation này </t>
+  </si>
+  <si>
+    <t>Đối tượng này phải là class</t>
+  </si>
+  <si>
+    <t>@WebMvcTest</t>
+  </si>
+  <si>
+    <t>bao gồm</t>
+  </si>
+  <si>
+    <t>@AutoConfigureWebMvc</t>
+  </si>
+  <si>
+    <t>nếu cần cấu hình web layer để kiểm thử mà không dùng "MockMvc"</t>
+  </si>
+  <si>
+    <t>@AutoConfigureMockMvc</t>
+  </si>
+  <si>
+    <t>bật khi muốn config "MockMvc"</t>
+  </si>
+  <si>
+    <t>MockMvc</t>
+  </si>
+  <si>
+    <t>dùng để test web layer</t>
+  </si>
+  <si>
+    <t>@DataJpaTest</t>
+  </si>
+  <si>
+    <t>dùng để test với repository và chỉ sử dụng các bean liên quan tới Repository</t>
+  </si>
+  <si>
+    <t>@SpringBootTest</t>
+  </si>
+  <si>
+    <t>dùng cho kiểm thử tích hợp</t>
+  </si>
+  <si>
+    <t>chỉ dùng cho test với MVC Controller</t>
+  </si>
+  <si>
+    <t>được Spring quản lý (Spring extentsion)</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/46343782/whats-the-difference-between-autoconfigurewebmvc-and-autoconfiguremockmvc</t>
+  </si>
+  <si>
+    <t>Hỗ trợ</t>
+  </si>
+  <si>
+    <t>dùng các đối tượng do Spring quản lý</t>
+  </si>
+  <si>
+    <t>dùng để tạo các đối tượng giả</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3639,8 +4545,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F7199"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF880000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3668,6 +4606,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F4F6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3755,7 +4705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3881,6 +4831,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3956,6 +4924,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3982,12 +4956,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4838,6 +5806,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22951</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>34427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1915988</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>156099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67A7653-6082-B309-EFA5-FDF6D12755F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22951" y="25327319"/>
+          <a:ext cx="5553850" cy="2657846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5134,27 +6152,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
     </row>
     <row r="4" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P4" s="7" t="s">
@@ -5163,11 +6181,11 @@
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="53" t="s">
+      <c r="R4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
       <c r="U4" s="7" t="s">
         <v>18</v>
       </c>
@@ -5321,24 +6339,24 @@
       </c>
     </row>
     <row r="14" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P14" s="57" t="s">
+      <c r="P14" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
     </row>
     <row r="15" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
     </row>
     <row r="16" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5357,6 +6375,1247 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
   <drawing r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9601CE73-AAA1-4817-B4FF-196A7817E766}">
+  <dimension ref="A1:W136"/>
+  <sheetViews>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>507</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15" s="52" t="s">
+        <v>513</v>
+      </c>
+      <c r="N15" s="52" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J16" s="52" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J17" s="52"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>498</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>499</v>
+      </c>
+      <c r="C20" t="s">
+        <v>500</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>501</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J22" s="52" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J23" s="52" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>515</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>516</v>
+      </c>
+      <c r="J29" s="52" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J30" s="52" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="B33" t="s">
+        <v>521</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="B34" t="s">
+        <v>524</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="C36" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>531</v>
+      </c>
+      <c r="F40" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="42" t="s">
+        <v>536</v>
+      </c>
+      <c r="C44" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D47" s="54" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E48" s="54" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E49" s="54" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E50" s="54" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D51" s="55" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="42" t="s">
+        <v>549</v>
+      </c>
+      <c r="C55" t="s">
+        <v>550</v>
+      </c>
+      <c r="H55" s="52" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>551</v>
+      </c>
+      <c r="H56" s="52" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>559</v>
+      </c>
+      <c r="C60" t="s">
+        <v>561</v>
+      </c>
+      <c r="L60" s="52" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>566</v>
+      </c>
+      <c r="D61" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>568</v>
+      </c>
+      <c r="D62" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>570</v>
+      </c>
+      <c r="D63" t="s">
+        <v>571</v>
+      </c>
+      <c r="M63" s="52" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>572</v>
+      </c>
+      <c r="D64" t="s">
+        <v>573</v>
+      </c>
+      <c r="M64" s="52"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>556</v>
+      </c>
+      <c r="E66" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>557</v>
+      </c>
+      <c r="E67" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>558</v>
+      </c>
+      <c r="E70" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="52" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="42" t="s">
+        <v>592</v>
+      </c>
+      <c r="B75" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>593</v>
+      </c>
+      <c r="C76" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>595</v>
+      </c>
+      <c r="C77" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="56" t="s">
+        <v>598</v>
+      </c>
+      <c r="E78" s="52" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="E79" s="52"/>
+    </row>
+    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="47"/>
+      <c r="E80" s="52"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" s="53"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="53"/>
+      <c r="K81" s="53"/>
+      <c r="L81" s="53"/>
+      <c r="M81" s="53"/>
+      <c r="N81" s="53"/>
+      <c r="O81" s="53"/>
+      <c r="P81" s="53"/>
+      <c r="Q81" s="53"/>
+      <c r="R81" s="53"/>
+      <c r="S81" s="53"/>
+      <c r="T81" s="53"/>
+      <c r="U81" s="53"/>
+      <c r="V81" s="53"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="B82" t="s">
+        <v>579</v>
+      </c>
+      <c r="H82" s="52" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="B84" s="48" t="s">
+        <v>582</v>
+      </c>
+      <c r="C84" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B85" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="C85" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B86" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="C86" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B87" s="48" t="s">
+        <v>588</v>
+      </c>
+      <c r="C87" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="B89" s="52" t="s">
+        <v>601</v>
+      </c>
+      <c r="C89" s="52" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" s="53"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="53"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="53"/>
+      <c r="L90" s="53"/>
+      <c r="M90" s="53"/>
+      <c r="N90" s="53"/>
+      <c r="O90" s="53"/>
+      <c r="P90" s="53"/>
+      <c r="Q90" s="53"/>
+      <c r="R90" s="53"/>
+      <c r="S90" s="53"/>
+      <c r="T90" s="53"/>
+      <c r="U90" s="53"/>
+      <c r="V90" s="53"/>
+      <c r="W90" s="53"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="B91" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" s="42" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="B97" s="52" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>620</v>
+      </c>
+      <c r="C98" t="s">
+        <v>623</v>
+      </c>
+      <c r="D98" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>624</v>
+      </c>
+      <c r="D99" t="s">
+        <v>622</v>
+      </c>
+      <c r="G99" t="s">
+        <v>625</v>
+      </c>
+      <c r="I99" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>628</v>
+      </c>
+      <c r="H101" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>623</v>
+      </c>
+      <c r="D105" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>624</v>
+      </c>
+      <c r="D106" t="s">
+        <v>633</v>
+      </c>
+      <c r="K106" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>636</v>
+      </c>
+      <c r="C108" t="s">
+        <v>637</v>
+      </c>
+      <c r="E108" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>639</v>
+      </c>
+      <c r="C109" t="s">
+        <v>640</v>
+      </c>
+      <c r="G109" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>642</v>
+      </c>
+      <c r="C110" t="s">
+        <v>643</v>
+      </c>
+      <c r="H110" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>645</v>
+      </c>
+      <c r="C111" t="s">
+        <v>646</v>
+      </c>
+      <c r="G111" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="42" t="s">
+        <v>611</v>
+      </c>
+      <c r="B112" t="s">
+        <v>612</v>
+      </c>
+      <c r="C112" s="52" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>613</v>
+      </c>
+      <c r="C113" s="52" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>614</v>
+      </c>
+      <c r="C114" s="52" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C115" s="52" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" s="53"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="53"/>
+      <c r="E117" s="53"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="53"/>
+      <c r="H117" s="53"/>
+      <c r="I117" s="53"/>
+      <c r="J117" s="53"/>
+      <c r="K117" s="53"/>
+      <c r="L117" s="53"/>
+      <c r="M117" s="53"/>
+      <c r="N117" s="53"/>
+      <c r="O117" s="53"/>
+      <c r="P117" s="53"/>
+      <c r="Q117" s="53"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="B118" t="s">
+        <v>650</v>
+      </c>
+      <c r="E118" s="52" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B119" s="57" t="s">
+        <v>651</v>
+      </c>
+      <c r="E119" s="52" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>652</v>
+      </c>
+      <c r="E120" s="52" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A122" s="58"/>
+      <c r="C122" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C123" s="59" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B128" s="60" t="s">
+        <v>659</v>
+      </c>
+      <c r="C128" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="57"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="57"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G1" r:id="rId1" display="https://vietnix.vn/xss-la-gi/" xr:uid="{AEDAA2A5-4E52-4606-8131-335E080D657C}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{D591ABAF-BBEB-420C-9CE1-40B546AF7BEC}"/>
+    <hyperlink ref="J18" r:id="rId3" xr:uid="{7BC70495-51BD-4CD3-AD45-AFE3D5429D61}"/>
+    <hyperlink ref="J19" r:id="rId4" xr:uid="{57161E24-6E9B-44B6-B165-EF10AAC501A2}"/>
+    <hyperlink ref="J14" r:id="rId5" xr:uid="{14B0333D-444B-4AFF-AED8-4C60567753E5}"/>
+    <hyperlink ref="J20" r:id="rId6" location="headers-xss-protection" xr:uid="{B845AECC-D5FA-4EC1-8752-4E60D9FB57CE}"/>
+    <hyperlink ref="J21" r:id="rId7" location="x-xss-protection" xr:uid="{FD5B5601-4292-49A6-A2DE-8C240FE1175A}"/>
+    <hyperlink ref="J22" r:id="rId8" display="https://developer.mozilla.org/en-US/docs/Web/HTTP/Headers/X-XSS-Protection" xr:uid="{3E764C2C-F272-4EE3-8D23-D0D39E40AD0B}"/>
+    <hyperlink ref="N15" r:id="rId9" display="https://wiki.owasp.org/index.php/Testing_for_Reflected_Cross_site_scripting_(OTG-INPVAL-001)" xr:uid="{5A2A69B8-A5CF-40E3-B356-7F2F527844CE}"/>
+    <hyperlink ref="J23" r:id="rId10" xr:uid="{19A12CAA-4A51-4EC3-B48F-79FDC709BF83}"/>
+    <hyperlink ref="J15" r:id="rId11" display="https://owasp.org/www-project-web-security-testing-guide/v41/4-Web_Application_Security_Testing/07-Input_Validation_Testing/02-Testing_for_Stored_Cross_Site_Scripting.html" xr:uid="{FA24F95D-251A-467F-A9B2-7C54C8901D13}"/>
+    <hyperlink ref="J16" r:id="rId12" display="https://owasp.org/www-project-web-security-testing-guide/v41/4-Web_Application_Security_Testing/11-Client_Side_Testing/01-Testing_for_DOM-based_Cross_Site_Scripting.html" xr:uid="{8FF32BA5-EAF5-4FF7-9A15-8976C3E0DE32}"/>
+    <hyperlink ref="J27" r:id="rId13" display="https://developer.mozilla.org/en-US/docs/Web/HTTP/Headers/Content-Security-Policy" xr:uid="{0240185E-8D73-415C-AFF7-ABD6A7F433F6}"/>
+    <hyperlink ref="J29" r:id="rId14" display="https://www.youtube.com/watch?v=E2xqc5nzYc0" xr:uid="{4721C73F-4355-4DC6-9CB3-1B8D1A9494F2}"/>
+    <hyperlink ref="J30" r:id="rId15" display="https://www.youtube.com/watch?v=PPzn4K2ZjfY" xr:uid="{7D6FC200-9717-4A9F-A7F4-5774E0054EFA}"/>
+    <hyperlink ref="I33" r:id="rId16" xr:uid="{9B7D6045-DB06-4CAA-9351-EFB57ED87EA0}"/>
+    <hyperlink ref="F34" r:id="rId17" display="https://owasp.org/www-community/attacks/csrf" xr:uid="{D3CA62BE-1EA7-4F7A-AA1E-B76BB16A6FD2}"/>
+    <hyperlink ref="M63" r:id="rId18" location="page-23" display="https://www.rfc-editor.org/rfc/rfc7231 - page-23" xr:uid="{ABA7F53F-5306-49B4-84DC-93FB0C451B16}"/>
+    <hyperlink ref="H55" r:id="rId19" location="csrf-protection-stp" xr:uid="{CB89FBAC-ABF6-48F1-A44A-E821C5F2DD11}"/>
+    <hyperlink ref="H56" r:id="rId20" display="https://www.javadevjournal.com/spring-security/spring-security-csrf-token/" xr:uid="{CA115B42-4B9F-4871-B5C3-7558227ECEBB}"/>
+    <hyperlink ref="L60" r:id="rId21" location="csrf-protection-stp" xr:uid="{07C979B0-06E1-476E-AABB-753FB50946D7}"/>
+    <hyperlink ref="A73" r:id="rId22" xr:uid="{83154E48-21FD-45FE-AABF-3E0A8A43C868}"/>
+    <hyperlink ref="H82" r:id="rId23" display="https://viblo.asia/p/tan-cong-cors-cross-origin-resource-sharing-ORNZqk3n50n" xr:uid="{468AD7B6-380A-4436-8BE2-6D5F4DEF3D4C}"/>
+    <hyperlink ref="E78" r:id="rId24" display="https://www.baeldung.com/spring-security-csrf" xr:uid="{D2E8C32F-DDED-478B-A9DC-02672E20604F}"/>
+    <hyperlink ref="B89" r:id="rId25" location="page-title" display="https://docs.spring.io/spring-security/reference/reactive/integrations/cors.html - page-title" xr:uid="{13F75A0D-51BF-4A99-BF2A-31686512CDFB}"/>
+    <hyperlink ref="C89" r:id="rId26" display="https://stackoverflow.com/questions/40286549/spring-boot-security-cors" xr:uid="{71B283F1-08E5-4054-99CB-2294572327EB}"/>
+    <hyperlink ref="C112" r:id="rId27" display="https://stackoverflow.com/questions/73617743/is-springboot-data-jpa-repository-safe-against-sql-injection" xr:uid="{FC63F064-F407-4CB3-9F3A-674D330458C9}"/>
+    <hyperlink ref="C113" r:id="rId28" display="https://stackoverflow.com/questions/52791121/is-java-spring-jpa-native-query-sql-injection-proof" xr:uid="{B166F9B1-A786-41AD-9D9F-7154550B4EC0}"/>
+    <hyperlink ref="C114" r:id="rId29" location="8265319" display="https://stackoverflow.com/questions/8263371/how-can-prepared-statements-protect-from-sql-injection-attacks/8265319 - 8265319" xr:uid="{20A2708D-7D42-450B-A820-0715F708A046}"/>
+    <hyperlink ref="C115" r:id="rId30" display="https://www.baeldung.com/sql-injection" xr:uid="{EDCDD92C-0C8C-43F2-890B-748D77FE4F20}"/>
+    <hyperlink ref="B97" r:id="rId31" location=":~:text=SQL%20injection%20(SQLi)%20is%20a,not%20normally%20able%20to%20retrieve." xr:uid="{E963A806-0EA9-41A8-ABCC-93E03D8CF255}"/>
+    <hyperlink ref="E118" r:id="rId32" xr:uid="{C002AD2B-0200-422D-95C0-6D4C8D68662D}"/>
+    <hyperlink ref="E119" r:id="rId33" xr:uid="{EF701236-AB77-4716-8A1A-34425B304107}"/>
+    <hyperlink ref="E120" r:id="rId34" location=":~:text=CSV%20Injection%2C%20c%C3%B2n%20%C4%91%C6%B0%E1%BB%A3c%20g%E1%BB%8Di,c%C3%A1c%20%C4%91%E1%BB%8Bnh%20d%E1%BA%A1ng%20file%20kh%C3%A1c" xr:uid="{CDE8E9CF-248E-4EFF-B287-043F31112041}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F636C8-1563-4E93-9E63-868EB37CCEF7}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
+        <v>693</v>
+      </c>
+      <c r="C5" t="s">
+        <v>701</v>
+      </c>
+      <c r="D5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="48"/>
+      <c r="D7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>688</v>
+      </c>
+      <c r="B8" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="48" t="s">
+        <v>693</v>
+      </c>
+      <c r="C11" t="s">
+        <v>702</v>
+      </c>
+      <c r="D11" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="48"/>
+      <c r="D12" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>703</v>
+      </c>
+      <c r="D13" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>708</v>
+      </c>
+      <c r="B15" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>742</v>
+      </c>
+      <c r="B17" t="s">
+        <v>710</v>
+      </c>
+      <c r="C17" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>713</v>
+      </c>
+      <c r="C19" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>716</v>
+      </c>
+      <c r="C21" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>718</v>
+      </c>
+      <c r="B22" t="s">
+        <v>719</v>
+      </c>
+      <c r="C22" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>720</v>
+      </c>
+      <c r="C23" t="s">
+        <v>744</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="57" t="s">
+        <v>722</v>
+      </c>
+      <c r="D24" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="57" t="s">
+        <v>723</v>
+      </c>
+      <c r="D25" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>727</v>
+      </c>
+      <c r="B27" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>729</v>
+      </c>
+      <c r="D28" t="s">
+        <v>730</v>
+      </c>
+      <c r="K28" s="52" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="57" t="s">
+        <v>731</v>
+      </c>
+      <c r="D29" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>733</v>
+      </c>
+      <c r="B30" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="s">
+        <v>735</v>
+      </c>
+      <c r="B32" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
+        <v>737</v>
+      </c>
+      <c r="B33" t="s">
+        <v>738</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G23" r:id="rId1" xr:uid="{AB37745B-A37D-4404-9F96-054C8A6D9B9E}"/>
+    <hyperlink ref="K28" r:id="rId2" xr:uid="{CBD34CCF-81A5-48EC-8747-96BBF06D4608}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5384,24 +7643,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
       <c r="Q1" s="39"/>
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
@@ -5493,16 +7752,16 @@
       <c r="P4" t="s">
         <v>214</v>
       </c>
-      <c r="AA4" s="62">
+      <c r="AA4" s="70">
         <v>3</v>
       </c>
-      <c r="AB4" s="62" t="s">
+      <c r="AB4" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="65" t="s">
+      <c r="AC4" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="68" t="s">
+      <c r="AD4" s="76" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5514,10 +7773,10 @@
       <c r="P5" t="s">
         <v>215</v>
       </c>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="69"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="77"/>
     </row>
     <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
@@ -5530,10 +7789,10 @@
       <c r="P6" t="s">
         <v>217</v>
       </c>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="70"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="78"/>
     </row>
     <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -5546,16 +7805,16 @@
       <c r="P7" t="s">
         <v>218</v>
       </c>
-      <c r="AA7" s="62">
+      <c r="AA7" s="70">
         <v>4</v>
       </c>
-      <c r="AB7" s="62" t="s">
+      <c r="AB7" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="65" t="s">
+      <c r="AC7" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="68" t="s">
+      <c r="AD7" s="76" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5567,10 +7826,10 @@
       <c r="P8" t="s">
         <v>219</v>
       </c>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="69"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="77"/>
     </row>
     <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -5583,19 +7842,19 @@
       <c r="P9" t="s">
         <v>220</v>
       </c>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="70"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="78"/>
     </row>
     <row r="10" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -5606,16 +7865,16 @@
       <c r="P10" t="s">
         <v>222</v>
       </c>
-      <c r="AA10" s="58">
+      <c r="AA10" s="66">
         <v>5</v>
       </c>
-      <c r="AB10" s="59" t="s">
+      <c r="AB10" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="AC10" s="60" t="s">
+      <c r="AC10" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="61" t="s">
+      <c r="AD10" s="69" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5626,19 +7885,19 @@
       <c r="P11" t="s">
         <v>223</v>
       </c>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="61"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="69"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
         <v>224</v>
       </c>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="61"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="69"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O13" t="s">
@@ -5647,10 +7906,10 @@
       <c r="P13" t="s">
         <v>225</v>
       </c>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="61"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="69"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N14" s="43" t="s">
@@ -5659,10 +7918,10 @@
       <c r="P14" t="s">
         <v>228</v>
       </c>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="61"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="69"/>
     </row>
     <row r="15" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
@@ -5680,10 +7939,10 @@
       <c r="P15" t="s">
         <v>227</v>
       </c>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="61"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="69"/>
     </row>
     <row r="16" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
@@ -5698,10 +7957,10 @@
       <c r="P16" t="s">
         <v>223</v>
       </c>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="61"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="69"/>
     </row>
     <row r="17" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
@@ -5716,10 +7975,10 @@
       <c r="P17" t="s">
         <v>224</v>
       </c>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="61"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="69"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
@@ -5737,10 +7996,10 @@
       <c r="P18" t="s">
         <v>225</v>
       </c>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="61"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="69"/>
     </row>
     <row r="19" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
@@ -5758,10 +8017,10 @@
       <c r="P19" t="s">
         <v>230</v>
       </c>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="61"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="69"/>
     </row>
     <row r="20" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
@@ -5779,10 +8038,10 @@
       <c r="O20" t="s">
         <v>232</v>
       </c>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="61"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="69"/>
     </row>
     <row r="21" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
@@ -5800,10 +8059,10 @@
       <c r="P21" t="s">
         <v>233</v>
       </c>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="61"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="69"/>
     </row>
     <row r="22" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -5821,10 +8080,10 @@
       <c r="P22" t="s">
         <v>234</v>
       </c>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="61"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="69"/>
     </row>
     <row r="23" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
@@ -5842,10 +8101,10 @@
       <c r="O23" t="s">
         <v>236</v>
       </c>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="61"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="69"/>
     </row>
     <row r="24" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
@@ -5863,10 +8122,10 @@
       <c r="P24" t="s">
         <v>237</v>
       </c>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="61"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="69"/>
     </row>
     <row r="25" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
@@ -5884,25 +8143,25 @@
       <c r="P25" t="s">
         <v>238</v>
       </c>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="61"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="69"/>
     </row>
     <row r="26" spans="1:30" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
@@ -5932,15 +8191,15 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
       <c r="L27" s="42"/>
@@ -5970,67 +8229,67 @@
       <c r="AD27" s="1"/>
     </row>
     <row r="54" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="77" t="s">
+      <c r="D54" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="76" t="s">
+      <c r="A58" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
       <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="76"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="76"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="76"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="75" t="s">
+      <c r="A87" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B87" s="75"/>
-      <c r="C87" s="75"/>
+      <c r="B87" s="83"/>
+      <c r="C87" s="83"/>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="75"/>
-      <c r="B88" s="75"/>
-      <c r="C88" s="75"/>
+      <c r="A88" s="83"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="83"/>
     </row>
     <row r="89" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="75"/>
-      <c r="B89" s="75"/>
-      <c r="C89" s="75"/>
+      <c r="A89" s="83"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -6116,32 +8375,32 @@
       <c r="B2" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="78">
+      <c r="G2" s="88">
         <v>1</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
@@ -6150,10 +8409,10 @@
       <c r="C3" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="82"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="92"/>
       <c r="L3" s="38"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
@@ -6174,10 +8433,10 @@
       <c r="C4" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="82"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="92"/>
       <c r="L4" s="38"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
@@ -6195,10 +8454,10 @@
       <c r="C5" t="s">
         <v>246</v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="83"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="93"/>
       <c r="L5" s="38"/>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
@@ -6219,16 +8478,16 @@
       <c r="B6" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="88">
         <v>2</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="94" t="s">
         <v>72</v>
       </c>
       <c r="M6" s="26"/>
@@ -6240,20 +8499,20 @@
       <c r="C7" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="85"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="95"/>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="85"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="95"/>
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6263,10 +8522,10 @@
       <c r="C9" t="s">
         <v>251</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="86"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="96"/>
       <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6302,16 +8561,16 @@
       <c r="B12" t="s">
         <v>253</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="88">
         <v>3</v>
       </c>
-      <c r="H12" s="78" t="s">
+      <c r="H12" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="65" t="s">
+      <c r="I12" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="84" t="s">
+      <c r="J12" s="94" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6322,10 +8581,10 @@
       <c r="C13" t="s">
         <v>254</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="85"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="95"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -6334,10 +8593,10 @@
       <c r="C14" t="s">
         <v>255</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="85"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="95"/>
     </row>
     <row r="15" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
@@ -6346,31 +8605,31 @@
       <c r="B15" t="s">
         <v>257</v>
       </c>
-      <c r="G15" s="78">
+      <c r="G15" s="88">
         <v>4</v>
       </c>
-      <c r="H15" s="78" t="s">
+      <c r="H15" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="78"/>
-      <c r="K15" s="87" t="s">
+      <c r="J15" s="88"/>
+      <c r="K15" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -6379,23 +8638,23 @@
       <c r="C16" t="s">
         <v>258</v>
       </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -6404,23 +8663,23 @@
       <c r="C17" t="s">
         <v>259</v>
       </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
     </row>
     <row r="18" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
@@ -6439,19 +8698,19 @@
         <v>67</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -6546,81 +8805,84 @@
       <c r="J29" s="14"/>
     </row>
     <row r="35" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K35" s="57" t="s">
+      <c r="K35" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
     </row>
     <row r="36" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
     </row>
     <row r="37" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
     </row>
     <row r="53" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K53" s="77" t="s">
+      <c r="K53" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="L53" s="55"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="55"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="55"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="55"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="63"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="63"/>
+      <c r="T53" s="63"/>
+      <c r="U53" s="63"/>
+      <c r="V53" s="63"/>
     </row>
     <row r="54" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="55"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="63"/>
+      <c r="T54" s="63"/>
+      <c r="U54" s="63"/>
+      <c r="V54" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="L2:W2"/>
     <mergeCell ref="K15:W18"/>
@@ -6638,9 +8900,6 @@
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:J14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{3D14D563-A18C-4362-B2CD-8D8339C1C427}"/>
@@ -6712,14 +8971,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="63"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -6967,10 +9226,10 @@
       <c r="B2" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="78">
+      <c r="D2" s="88">
         <v>1</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="88" t="s">
         <v>119</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -6998,8 +9257,8 @@
       <c r="C3" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
@@ -7016,8 +9275,8 @@
       <c r="C4" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="6"/>
       <c r="G4" s="11"/>
       <c r="H4" s="3"/>
@@ -7037,8 +9296,8 @@
       <c r="C5" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="6"/>
       <c r="G5" s="11"/>
       <c r="H5" s="3"/>
@@ -7058,10 +9317,10 @@
       <c r="B6" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="88">
         <v>2</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="88" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -7089,8 +9348,8 @@
       <c r="C7" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -7107,8 +9366,8 @@
       <c r="C8" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
@@ -7128,8 +9387,8 @@
       <c r="C9" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -7149,13 +9408,13 @@
       <c r="B10" t="s">
         <v>273</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="98">
         <v>3</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="101" t="s">
         <v>127</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -7180,9 +9439,9 @@
       <c r="C11" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="94"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="102"/>
       <c r="G11" s="9"/>
       <c r="H11" s="3"/>
       <c r="I11" s="1"/>
@@ -7198,9 +9457,9 @@
       <c r="C12" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="94"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="102"/>
       <c r="G12" s="9"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
@@ -7219,9 +9478,9 @@
       <c r="C13" t="s">
         <v>267</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="95"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="103"/>
       <c r="G13" s="9"/>
       <c r="H13" s="3"/>
       <c r="I13" s="1"/>
@@ -7240,10 +9499,10 @@
       <c r="B14" t="s">
         <v>276</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="98">
         <v>4</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="88" t="s">
         <v>128</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -7271,8 +9530,8 @@
       <c r="C15" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="79"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="89"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
       <c r="H15" s="31"/>
@@ -7289,8 +9548,8 @@
       <c r="B16" t="s">
         <v>244</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="79"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
       <c r="H16" s="31"/>
@@ -7304,8 +9563,8 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="92"/>
-      <c r="E17" s="80"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
       <c r="H17" s="31"/>
@@ -7325,10 +9584,10 @@
       <c r="B18" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18" s="98">
         <v>5</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="88" t="s">
         <v>130</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -7356,8 +9615,8 @@
       <c r="C19" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="79"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="89"/>
       <c r="F19" s="6"/>
       <c r="G19" s="9"/>
       <c r="H19" s="31"/>
@@ -7374,8 +9633,8 @@
       <c r="C20" t="s">
         <v>280</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="79"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
       <c r="H20" s="31"/>
@@ -7392,8 +9651,8 @@
       <c r="C21" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="79"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="89"/>
       <c r="F21" s="6"/>
       <c r="G21" s="9"/>
       <c r="H21" s="31"/>
@@ -7410,8 +9669,8 @@
       <c r="C22" t="s">
         <v>283</v>
       </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="79"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="6"/>
       <c r="G22" s="9"/>
       <c r="H22" s="31"/>
@@ -7428,8 +9687,8 @@
       <c r="C23" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="6"/>
       <c r="G23" s="9"/>
       <c r="H23" s="31"/>
@@ -7449,8 +9708,8 @@
       <c r="C24" t="s">
         <v>284</v>
       </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="79"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="89"/>
       <c r="F24" s="6"/>
       <c r="G24" s="9"/>
       <c r="H24" s="31"/>
@@ -7467,8 +9726,8 @@
       <c r="C25" t="s">
         <v>285</v>
       </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="80"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="90"/>
       <c r="F25" s="6"/>
       <c r="G25" s="9"/>
       <c r="H25" s="31"/>
@@ -7488,10 +9747,10 @@
       <c r="B26" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="98">
         <v>6</v>
       </c>
-      <c r="E26" s="78" t="s">
+      <c r="E26" s="88" t="s">
         <v>132</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -7519,8 +9778,8 @@
       <c r="C27" t="s">
         <v>287</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="79"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="6"/>
       <c r="G27" s="9"/>
       <c r="H27" s="31"/>
@@ -7537,8 +9796,8 @@
       <c r="C28" t="s">
         <v>288</v>
       </c>
-      <c r="D28" s="91"/>
-      <c r="E28" s="79"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="89"/>
       <c r="F28" s="6"/>
       <c r="G28" s="9"/>
       <c r="H28" s="31"/>
@@ -7558,8 +9817,8 @@
       <c r="C29" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="80"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="90"/>
       <c r="F29" s="6"/>
       <c r="G29" s="9"/>
       <c r="H29" s="31"/>
@@ -7579,10 +9838,10 @@
       <c r="B30" t="s">
         <v>290</v>
       </c>
-      <c r="D30" s="78">
+      <c r="D30" s="88">
         <v>7</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="88" t="s">
         <v>134</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -7608,8 +9867,8 @@
       <c r="C31" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="5"/>
       <c r="G31" s="1"/>
       <c r="H31" s="31"/>
@@ -7626,8 +9885,8 @@
       <c r="C32" t="s">
         <v>292</v>
       </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
       <c r="F32" s="5"/>
       <c r="G32" s="1"/>
       <c r="H32" s="31"/>
@@ -7647,8 +9906,8 @@
       <c r="C33" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
       <c r="F33" s="5"/>
       <c r="G33" s="1"/>
       <c r="H33" s="31"/>
@@ -7668,10 +9927,10 @@
       <c r="B34" t="s">
         <v>331</v>
       </c>
-      <c r="D34" s="78">
+      <c r="D34" s="88">
         <v>8</v>
       </c>
-      <c r="E34" s="78" t="s">
+      <c r="E34" s="88" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -7699,8 +9958,8 @@
       <c r="C35" t="s">
         <v>294</v>
       </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
       <c r="F35" s="5"/>
       <c r="G35" s="9"/>
       <c r="H35" s="31"/>
@@ -7717,8 +9976,8 @@
       <c r="C36" t="s">
         <v>330</v>
       </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
       <c r="F36" s="5"/>
       <c r="G36" s="9"/>
       <c r="H36" s="31"/>
@@ -7738,8 +9997,8 @@
       <c r="C37" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
       <c r="F37" s="5"/>
       <c r="G37" s="9"/>
       <c r="H37" s="31"/>
@@ -7756,8 +10015,8 @@
       <c r="C38" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
       <c r="F38" s="5"/>
       <c r="G38" s="9"/>
       <c r="H38" s="31"/>
@@ -7774,8 +10033,8 @@
       <c r="C39" t="s">
         <v>296</v>
       </c>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
       <c r="F39" s="5"/>
       <c r="G39" s="9"/>
       <c r="H39" s="31"/>
@@ -7795,10 +10054,10 @@
       <c r="B40" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="90">
+      <c r="D40" s="98">
         <v>9</v>
       </c>
-      <c r="E40" s="90" t="s">
+      <c r="E40" s="98" t="s">
         <v>138</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -7826,8 +10085,8 @@
       <c r="C41" t="s">
         <v>300</v>
       </c>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9"/>
       <c r="H41" s="34"/>
@@ -7847,8 +10106,8 @@
       <c r="C42" t="s">
         <v>298</v>
       </c>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9"/>
       <c r="H42" s="34"/>
@@ -7868,10 +10127,10 @@
       <c r="B43" t="s">
         <v>301</v>
       </c>
-      <c r="D43" s="90">
+      <c r="D43" s="98">
         <v>10</v>
       </c>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="88" t="s">
         <v>139</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -7899,8 +10158,8 @@
       <c r="C44" t="s">
         <v>302</v>
       </c>
-      <c r="D44" s="91"/>
-      <c r="E44" s="79"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="89"/>
       <c r="F44" s="6"/>
       <c r="G44" s="9"/>
       <c r="H44" s="34"/>
@@ -7917,8 +10176,8 @@
       <c r="C45" t="s">
         <v>303</v>
       </c>
-      <c r="D45" s="91"/>
-      <c r="E45" s="79"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="89"/>
       <c r="F45" s="6"/>
       <c r="G45" s="9"/>
       <c r="H45" s="34"/>
@@ -7938,8 +10197,8 @@
       <c r="C46" t="s">
         <v>304</v>
       </c>
-      <c r="D46" s="91"/>
-      <c r="E46" s="79"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="89"/>
       <c r="F46" s="6"/>
       <c r="G46" s="9"/>
       <c r="H46" s="34"/>
@@ -7956,8 +10215,8 @@
       <c r="C47" t="s">
         <v>298</v>
       </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="80"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="90"/>
       <c r="F47" s="6"/>
       <c r="G47" s="9"/>
       <c r="H47" s="34"/>
@@ -7977,10 +10236,10 @@
       <c r="B48" t="s">
         <v>305</v>
       </c>
-      <c r="D48" s="90">
+      <c r="D48" s="98">
         <v>11</v>
       </c>
-      <c r="E48" s="90" t="s">
+      <c r="E48" s="98" t="s">
         <v>141</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -8008,8 +10267,8 @@
       <c r="C49" t="s">
         <v>306</v>
       </c>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
       <c r="F49" s="4"/>
       <c r="G49" s="9"/>
       <c r="H49" s="31"/>
@@ -8026,8 +10285,8 @@
       <c r="C50" t="s">
         <v>307</v>
       </c>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
       <c r="F50" s="4"/>
       <c r="G50" s="9"/>
       <c r="H50" s="31"/>
@@ -8047,8 +10306,8 @@
       <c r="C51" t="s">
         <v>308</v>
       </c>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
       <c r="F51" s="4"/>
       <c r="G51" s="9"/>
       <c r="H51" s="31"/>
@@ -8068,10 +10327,10 @@
       <c r="B52" t="s">
         <v>309</v>
       </c>
-      <c r="D52" s="90">
+      <c r="D52" s="98">
         <v>12</v>
       </c>
-      <c r="E52" s="90" t="s">
+      <c r="E52" s="98" t="s">
         <v>143</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -8099,8 +10358,8 @@
       <c r="C53" t="s">
         <v>310</v>
       </c>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
       <c r="F53" s="1"/>
       <c r="G53" s="9"/>
       <c r="H53" s="31"/>
@@ -8117,8 +10376,8 @@
       <c r="C54" t="s">
         <v>311</v>
       </c>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
       <c r="F54" s="1"/>
       <c r="G54" s="9"/>
       <c r="H54" s="31"/>
@@ -8138,8 +10397,8 @@
       <c r="C55" t="s">
         <v>312</v>
       </c>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
       <c r="F55" s="1"/>
       <c r="G55" s="9"/>
       <c r="H55" s="31"/>
@@ -8159,10 +10418,10 @@
       <c r="B56" t="s">
         <v>332</v>
       </c>
-      <c r="D56" s="90">
+      <c r="D56" s="98">
         <v>13</v>
       </c>
-      <c r="E56" s="78" t="s">
+      <c r="E56" s="88" t="s">
         <v>145</v>
       </c>
       <c r="F56" s="5" t="s">
@@ -8187,8 +10446,8 @@
       <c r="B57" t="s">
         <v>213</v>
       </c>
-      <c r="D57" s="91"/>
-      <c r="E57" s="79"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="89"/>
       <c r="F57" s="5"/>
       <c r="G57" s="9"/>
       <c r="H57" s="31"/>
@@ -8205,8 +10464,8 @@
       <c r="B58" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="92"/>
-      <c r="E58" s="80"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="90"/>
       <c r="F58" s="5"/>
       <c r="G58" s="9"/>
       <c r="H58" s="31"/>
@@ -8226,10 +10485,10 @@
       <c r="B59" t="s">
         <v>313</v>
       </c>
-      <c r="D59" s="90">
+      <c r="D59" s="98">
         <v>14</v>
       </c>
-      <c r="E59" s="78" t="s">
+      <c r="E59" s="88" t="s">
         <v>146</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -8257,8 +10516,8 @@
       <c r="C60" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="91"/>
-      <c r="E60" s="79"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="89"/>
       <c r="F60" s="6"/>
       <c r="G60" s="9"/>
       <c r="H60" s="31"/>
@@ -8275,8 +10534,8 @@
       <c r="C61" t="s">
         <v>315</v>
       </c>
-      <c r="D61" s="91"/>
-      <c r="E61" s="79"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="89"/>
       <c r="F61" s="6"/>
       <c r="G61" s="9"/>
       <c r="H61" s="31"/>
@@ -8296,8 +10555,8 @@
       <c r="C62" t="s">
         <v>316</v>
       </c>
-      <c r="D62" s="92"/>
-      <c r="E62" s="80"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="90"/>
       <c r="F62" s="6"/>
       <c r="G62" s="9"/>
       <c r="H62" s="31"/>
@@ -8317,10 +10576,10 @@
       <c r="B63" t="s">
         <v>317</v>
       </c>
-      <c r="D63" s="90">
+      <c r="D63" s="98">
         <v>15</v>
       </c>
-      <c r="E63" s="78" t="s">
+      <c r="E63" s="88" t="s">
         <v>149</v>
       </c>
       <c r="F63" s="5" t="s">
@@ -8348,8 +10607,8 @@
       <c r="C64" t="s">
         <v>318</v>
       </c>
-      <c r="D64" s="91"/>
-      <c r="E64" s="79"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="89"/>
       <c r="F64" s="5"/>
       <c r="G64" s="9"/>
       <c r="H64" s="31"/>
@@ -8366,8 +10625,8 @@
       <c r="C65" t="s">
         <v>319</v>
       </c>
-      <c r="D65" s="91"/>
-      <c r="E65" s="79"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="89"/>
       <c r="F65" s="5"/>
       <c r="G65" s="9"/>
       <c r="H65" s="31"/>
@@ -8387,8 +10646,8 @@
       <c r="C66" t="s">
         <v>320</v>
       </c>
-      <c r="D66" s="91"/>
-      <c r="E66" s="80"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="90"/>
       <c r="F66" s="5"/>
       <c r="G66" s="9"/>
       <c r="H66" s="31"/>
@@ -8411,7 +10670,7 @@
       <c r="D67" s="32">
         <v>16</v>
       </c>
-      <c r="E67" s="78" t="s">
+      <c r="E67" s="88" t="s">
         <v>150</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -8440,7 +10699,7 @@
         <v>322</v>
       </c>
       <c r="D68" s="32"/>
-      <c r="E68" s="79"/>
+      <c r="E68" s="89"/>
       <c r="F68" s="6"/>
       <c r="G68" s="9"/>
       <c r="H68" s="31"/>
@@ -8461,7 +10720,7 @@
         <v>323</v>
       </c>
       <c r="D69" s="32"/>
-      <c r="E69" s="79"/>
+      <c r="E69" s="89"/>
       <c r="F69" s="6"/>
       <c r="G69" s="9"/>
       <c r="H69" s="31"/>
@@ -8479,7 +10738,7 @@
         <v>324</v>
       </c>
       <c r="D70" s="32"/>
-      <c r="E70" s="80"/>
+      <c r="E70" s="90"/>
       <c r="F70" s="6"/>
       <c r="G70" s="9"/>
       <c r="H70" s="31"/>
@@ -8499,10 +10758,10 @@
       <c r="B71" t="s">
         <v>334</v>
       </c>
-      <c r="D71" s="78">
+      <c r="D71" s="88">
         <v>17</v>
       </c>
-      <c r="E71" s="78" t="s">
+      <c r="E71" s="88" t="s">
         <v>152</v>
       </c>
       <c r="F71" s="5" t="s">
@@ -8530,8 +10789,8 @@
       <c r="C72" t="s">
         <v>325</v>
       </c>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
       <c r="F72" s="5"/>
       <c r="G72" s="9"/>
       <c r="H72" s="31"/>
@@ -8551,8 +10810,8 @@
       <c r="C73" t="s">
         <v>327</v>
       </c>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
+      <c r="D73" s="90"/>
+      <c r="E73" s="90"/>
       <c r="F73" s="5"/>
       <c r="G73" s="9"/>
       <c r="H73" s="31"/>
@@ -8677,7 +10936,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -8719,16 +10978,16 @@
       <c r="B2" t="s">
         <v>336</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="88">
         <v>1</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="91" t="s">
         <v>175</v>
       </c>
     </row>
@@ -8743,10 +11002,10 @@
       <c r="D3" t="s">
         <v>346</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="82"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="92"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
@@ -8757,10 +11016,10 @@
       <c r="D4" t="s">
         <v>345</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="82"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
@@ -8771,10 +11030,10 @@
       <c r="D5" t="s">
         <v>344</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="83"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="93"/>
     </row>
     <row r="6" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
@@ -9042,8 +11301,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A37" zoomScale="83" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9084,13 +11343,13 @@
       <c r="B2" t="s">
         <v>355</v>
       </c>
-      <c r="F2" s="78">
+      <c r="F2" s="88">
         <v>1</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="73" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="37" t="s">
@@ -9109,9 +11368,9 @@
       <c r="C3" t="s">
         <v>357</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="66"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="74"/>
       <c r="I3" s="37"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -9126,9 +11385,9 @@
       <c r="C4" t="s">
         <v>359</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="67"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="37"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -9140,13 +11399,13 @@
       <c r="B5" t="s">
         <v>360</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="88">
         <v>2</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="104" t="s">
         <v>369</v>
       </c>
       <c r="I5" s="41" t="s">
@@ -9165,9 +11424,9 @@
       <c r="C6" t="s">
         <v>362</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="97"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="105"/>
       <c r="I6" s="41"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -9182,9 +11441,9 @@
       <c r="C7" t="s">
         <v>364</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="97"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="105"/>
       <c r="I7" s="41"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -9199,9 +11458,9 @@
       <c r="C8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="97"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="105"/>
       <c r="I8" s="41"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -9216,9 +11475,9 @@
       <c r="C9" t="s">
         <v>366</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="98"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="41"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -9235,8 +11494,8 @@
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="3"/>
       <c r="I10" s="37" t="s">
         <v>203</v>
@@ -9248,20 +11507,20 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="63" t="s">
         <v>192</v>
       </c>
       <c r="C11" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="78" t="s">
+      <c r="F11" s="89"/>
+      <c r="G11" s="88" t="s">
         <v>192</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="99" t="s">
+      <c r="I11" s="107" t="s">
         <v>205</v>
       </c>
       <c r="J11" s="14"/>
@@ -9271,14 +11530,14 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="55"/>
+      <c r="B12" s="63"/>
       <c r="C12" t="s">
         <v>373</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="99"/>
+      <c r="I12" s="107"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -9290,10 +11549,10 @@
       <c r="C13" t="s">
         <v>387</v>
       </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="80"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="99"/>
+      <c r="I13" s="107"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -9301,20 +11560,20 @@
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="63" t="s">
         <v>374</v>
       </c>
       <c r="C14" t="s">
         <v>376</v>
       </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="78" t="s">
+      <c r="F14" s="89"/>
+      <c r="G14" s="88" t="s">
         <v>193</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I14" s="100"/>
+      <c r="I14" s="108"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -9322,14 +11581,14 @@
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="55"/>
+      <c r="B15" s="63"/>
       <c r="C15" t="s">
         <v>378</v>
       </c>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="100"/>
+      <c r="I15" s="108"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -9341,10 +11600,10 @@
       <c r="C16" t="s">
         <v>388</v>
       </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="100"/>
+      <c r="I16" s="108"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -9352,20 +11611,20 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="2:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="63" t="s">
         <v>194</v>
       </c>
       <c r="C17" t="s">
         <v>377</v>
       </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="78" t="s">
+      <c r="F17" s="89"/>
+      <c r="G17" s="88" t="s">
         <v>194</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="100"/>
+      <c r="I17" s="108"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -9373,12 +11632,12 @@
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="55"/>
+      <c r="B18" s="63"/>
       <c r="C18" t="s">
         <v>379</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
       <c r="H18" s="5"/>
       <c r="I18" s="46"/>
       <c r="J18" s="14"/>
@@ -9392,8 +11651,8 @@
       <c r="C19" t="s">
         <v>389</v>
       </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="5"/>
       <c r="I19" s="46"/>
       <c r="J19" s="14"/>
@@ -9412,11 +11671,11 @@
       <c r="D20" t="s">
         <v>383</v>
       </c>
-      <c r="F20" s="79"/>
-      <c r="G20" s="78" t="s">
+      <c r="F20" s="89"/>
+      <c r="G20" s="88" t="s">
         <v>375</v>
       </c>
-      <c r="H20" s="65" t="s">
+      <c r="H20" s="73" t="s">
         <v>198</v>
       </c>
       <c r="I20" s="37" t="s">
@@ -9436,9 +11695,9 @@
       <c r="D21" t="s">
         <v>384</v>
       </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="66"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="74"/>
       <c r="I21" s="37"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
@@ -9454,9 +11713,9 @@
       <c r="D22" t="s">
         <v>386</v>
       </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="67"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="37"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
@@ -9471,13 +11730,13 @@
       <c r="C23" t="s">
         <v>390</v>
       </c>
-      <c r="F23" s="78">
+      <c r="F23" s="88">
         <v>3</v>
       </c>
-      <c r="G23" s="78" t="s">
+      <c r="G23" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="65" t="s">
+      <c r="H23" s="73" t="s">
         <v>400</v>
       </c>
       <c r="I23" s="41" t="s">
@@ -9496,9 +11755,9 @@
       <c r="D24" t="s">
         <v>403</v>
       </c>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="66"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="41"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -9510,9 +11769,9 @@
       <c r="D25" t="s">
         <v>404</v>
       </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="66"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="74"/>
       <c r="I25" s="41"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -9524,9 +11783,9 @@
       <c r="D26" t="s">
         <v>405</v>
       </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="66"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="41"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -9541,9 +11800,9 @@
       <c r="D27" t="s">
         <v>406</v>
       </c>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="66"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="74"/>
       <c r="I27" s="41"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
@@ -9555,9 +11814,9 @@
       <c r="D28" t="s">
         <v>407</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="66"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="41"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
@@ -9572,9 +11831,9 @@
       <c r="E29" t="s">
         <v>409</v>
       </c>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="66"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="74"/>
       <c r="I29" s="41"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
@@ -9589,9 +11848,9 @@
       <c r="E30" t="s">
         <v>411</v>
       </c>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="66"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="41"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
@@ -9606,9 +11865,9 @@
       <c r="D31" t="s">
         <v>423</v>
       </c>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="66"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="74"/>
       <c r="I31" s="41"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
@@ -9621,9 +11880,9 @@
       <c r="D32" t="s">
         <v>425</v>
       </c>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="66"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="74"/>
       <c r="I32" s="41"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
@@ -9638,9 +11897,9 @@
       <c r="D33" t="s">
         <v>424</v>
       </c>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="66"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="74"/>
       <c r="I33" s="41"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
@@ -9652,9 +11911,9 @@
       <c r="D34" t="s">
         <v>413</v>
       </c>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="66"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="74"/>
       <c r="I34" s="41"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
@@ -9669,9 +11928,9 @@
       <c r="D35" t="s">
         <v>415</v>
       </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="66"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="74"/>
       <c r="I35" s="41"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -9683,9 +11942,9 @@
       <c r="D36" t="s">
         <v>421</v>
       </c>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="66"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="74"/>
       <c r="I36" s="41"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
@@ -9700,9 +11959,9 @@
       <c r="D37" t="s">
         <v>417</v>
       </c>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="66"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="74"/>
       <c r="I37" s="41"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
@@ -9714,9 +11973,9 @@
       <c r="D38" t="s">
         <v>418</v>
       </c>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="66"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="74"/>
       <c r="I38" s="41"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -9731,9 +11990,9 @@
       <c r="D39" t="s">
         <v>420</v>
       </c>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="66"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="74"/>
       <c r="I39" s="41"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
@@ -9745,9 +12004,9 @@
       <c r="D40" t="s">
         <v>421</v>
       </c>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="67"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="75"/>
       <c r="I40" s="41"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
@@ -9787,16 +12046,16 @@
       <c r="C42" t="s">
         <v>394</v>
       </c>
-      <c r="F42" s="58">
+      <c r="F42" s="66">
         <v>5</v>
       </c>
-      <c r="G42" s="58" t="s">
+      <c r="G42" s="66" t="s">
         <v>206</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I42" s="62" t="s">
+      <c r="I42" s="70" t="s">
         <v>202</v>
       </c>
       <c r="J42" s="14"/>
@@ -9815,12 +12074,12 @@
       <c r="E43" t="s">
         <v>398</v>
       </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
       <c r="H43" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I43" s="63"/>
+      <c r="I43" s="71"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
@@ -9834,12 +12093,12 @@
       <c r="E44" t="s">
         <v>399</v>
       </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
       <c r="H44" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I44" s="64"/>
+      <c r="I44" s="72"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
@@ -9924,10 +12183,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA47C9C-6F99-4F74-8F04-233056ABBE4B}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9937,7 +12196,7 @@
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>431</v>
       </c>
@@ -9948,7 +12207,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>432</v>
       </c>
@@ -9956,12 +12215,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>435</v>
       </c>
@@ -9969,7 +12228,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>437</v>
       </c>
@@ -9977,20 +12236,38 @@
         <v>438</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>667</v>
+      </c>
+      <c r="N6" t="s">
+        <v>668</v>
+      </c>
+      <c r="O6" t="s">
+        <v>669</v>
+      </c>
+      <c r="P6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>439</v>
       </c>
       <c r="E7" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>670</v>
+      </c>
+      <c r="P7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>444</v>
       </c>
@@ -9998,31 +12275,31 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>443</v>
       </c>
       <c r="E9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>441</v>
       </c>
       <c r="E10" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>442</v>
       </c>
       <c r="E11" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>446</v>
       </c>
@@ -10030,7 +12307,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>448</v>
       </c>
@@ -10038,17 +12315,20 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="48" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>450</v>
       </c>
@@ -10056,131 +12336,163 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>455</v>
+      </c>
+      <c r="C18" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C19" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>457</v>
       </c>
-      <c r="C18" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C20" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="48" t="s">
+        <v>684</v>
+      </c>
+      <c r="D21" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>458</v>
       </c>
-      <c r="C19" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C22" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C24" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="C25" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="48" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C26" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="C22" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C27" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C28" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="27" t="s">
         <v>463</v>
       </c>
-      <c r="C25" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>464</v>
-      </c>
-      <c r="C26" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="C29" t="s">
+        <v>679</v>
+      </c>
+      <c r="M29" s="52" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
         <v>467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>474</v>
-      </c>
-      <c r="B38" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
+      <c r="B40" t="s">
         <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="52" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H1" r:id="rId1" xr:uid="{FD790352-9AB3-438A-B805-4E38FEE8BA22}"/>
-    <hyperlink ref="A28" r:id="rId2" location="deeper-look-into-spring-aops-annotations" xr:uid="{78DCEF18-00D2-4EFA-B107-E7CA18D0D8FE}"/>
-    <hyperlink ref="A29" r:id="rId3" display="https://www.digitalocean.com/community/tutorials/spring-aop-example-tutorial-aspect-advice-pointcut-joinpoint-annotations" xr:uid="{BCFC0ACD-33E1-483E-9A2A-1F45EF2A9DA9}"/>
-    <hyperlink ref="A30" r:id="rId4" location=":~:text=Aspect%20Oriented%20Programming%20(AOP)%20l%C3%A0,tr%E1%BA%A3%20v%E1%BB%81%20m%E1%BB%99t%20k%E1%BA%BFt%20qu%E1%BA%A3" display="https://techmaster.vn/posts/36087/spring-core-phan-5-spring-aop-la-gi-code-vi-du-voi-spring-aop - :~:text=Aspect%20Oriented%20Programming%20(AOP)%20l%C3%A0,tr%E1%BA%A3%20v%E1%BB%81%20m%E1%BB%99t%20k%E1%BA%BFt%20qu%E1%BA%A3" xr:uid="{70145C8E-A03B-4CE2-A6DA-970F7CB3F0C9}"/>
-    <hyperlink ref="A31" r:id="rId5" display="https://viblo.asia/p/su-dung-aop-trong-spring-boot-va-aspectj-vyDZOkbaZwj" xr:uid="{E9ED52EB-6172-4E9F-A0BD-111D6CCA182F}"/>
-    <hyperlink ref="A32" r:id="rId6" display="https://gpcoder.com/5112-gioi-thieu-aspect-oriented-programming-aop/" xr:uid="{0F8D92B0-260D-4D69-9F99-EAD6314460DD}"/>
-    <hyperlink ref="A33" r:id="rId7" display="https://levunguyen.com/laptrinhspring/2020/04/27/su-dung-aop-advise-trong-spring/" xr:uid="{197D74B0-CBE3-492E-BB4F-8EEC42746249}"/>
-    <hyperlink ref="A39" r:id="rId8" xr:uid="{DEDB1230-9B57-4D7C-BF68-766DD4B6BEC4}"/>
+    <hyperlink ref="A30" r:id="rId2" location="deeper-look-into-spring-aops-annotations" xr:uid="{78DCEF18-00D2-4EFA-B107-E7CA18D0D8FE}"/>
+    <hyperlink ref="A31" r:id="rId3" display="https://www.digitalocean.com/community/tutorials/spring-aop-example-tutorial-aspect-advice-pointcut-joinpoint-annotations" xr:uid="{BCFC0ACD-33E1-483E-9A2A-1F45EF2A9DA9}"/>
+    <hyperlink ref="A32" r:id="rId4" location=":~:text=Aspect%20Oriented%20Programming%20(AOP)%20l%C3%A0,tr%E1%BA%A3%20v%E1%BB%81%20m%E1%BB%99t%20k%E1%BA%BFt%20qu%E1%BA%A3" display="https://techmaster.vn/posts/36087/spring-core-phan-5-spring-aop-la-gi-code-vi-du-voi-spring-aop - :~:text=Aspect%20Oriented%20Programming%20(AOP)%20l%C3%A0,tr%E1%BA%A3%20v%E1%BB%81%20m%E1%BB%99t%20k%E1%BA%BFt%20qu%E1%BA%A3" xr:uid="{70145C8E-A03B-4CE2-A6DA-970F7CB3F0C9}"/>
+    <hyperlink ref="A33" r:id="rId5" display="https://viblo.asia/p/su-dung-aop-trong-spring-boot-va-aspectj-vyDZOkbaZwj" xr:uid="{E9ED52EB-6172-4E9F-A0BD-111D6CCA182F}"/>
+    <hyperlink ref="A34" r:id="rId6" display="https://gpcoder.com/5112-gioi-thieu-aspect-oriented-programming-aop/" xr:uid="{0F8D92B0-260D-4D69-9F99-EAD6314460DD}"/>
+    <hyperlink ref="A35" r:id="rId7" display="https://levunguyen.com/laptrinhspring/2020/04/27/su-dung-aop-advise-trong-spring/" xr:uid="{197D74B0-CBE3-492E-BB4F-8EEC42746249}"/>
+    <hyperlink ref="A41" r:id="rId8" xr:uid="{DEDB1230-9B57-4D7C-BF68-766DD4B6BEC4}"/>
+    <hyperlink ref="M29" r:id="rId9" xr:uid="{7C479F47-8D01-408D-BE32-986A477D3687}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EBFF8C-D315-49DA-8A82-A8CF88C551E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7B8E33-F005-49D2-AC3E-9B4AE6CF7F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="751">
   <si>
     <t>STT</t>
   </si>
@@ -3886,9 +3886,6 @@
     <t>phương thức safe</t>
   </si>
   <si>
-    <t>laà những phương thức HTTP chỉ đọc như (GET, HEAD, OPTIONS, TRACE)</t>
-  </si>
-  <si>
     <t>RFC 7231: Hypertext Transfer Protocol (HTTP/1.1): Semantics and Content (rfc-editor.org)</t>
   </si>
   <si>
@@ -3911,9 +3908,6 @@
   </si>
   <si>
     <t>Các thuật ngữ trong CORS</t>
-  </si>
-  <si>
-    <t>SOP</t>
   </si>
   <si>
     <t>Same-origin</t>
@@ -4453,6 +4447,30 @@
   </si>
   <si>
     <t>dùng để tạo các đối tượng giả</t>
+  </si>
+  <si>
+    <t>là những phương thức HTTP chỉ đọc như (GET, HEAD, OPTIONS, TRACE)</t>
+  </si>
+  <si>
+    <t>SOP (Same origin policy)</t>
+  </si>
+  <si>
+    <t>Tìm hiểu cách phòng ngừa SQL Injection</t>
+  </si>
+  <si>
+    <t>update code theo convention code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiểm tra cụ thể với thông tin được get </t>
+  </si>
+  <si>
+    <t>không nên truyền bean hoặc interface của bean đó trực tiếp làm tham số, nên gọi thẳng tới folder chứa bean hoặc interface đó</t>
+  </si>
+  <si>
+    <t>không nên truyền bean hoặc interface của bean đó trực tiếp làm tham số, nên gọi thẳng tới folder chứa bean</t>
+  </si>
+  <si>
+    <t>không nên lấy đối tượng advice từ joinpoint và lúc thực hiện phương thức của nó sẽ gây tràn luồng</t>
   </si>
 </sst>
 </file>
@@ -4924,12 +4942,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4956,6 +4968,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5824,7 +5842,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67A7653-6082-B309-EFA5-FDF6D12755F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6380,17 +6398,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9601CE73-AAA1-4817-B4FF-196A7817E766}">
-  <dimension ref="A1:W136"/>
+  <dimension ref="A1:W137"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
     <col min="4" max="4" width="46.42578125" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
@@ -6744,7 +6762,7 @@
         <v>550</v>
       </c>
       <c r="H55" s="52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -6752,7 +6770,7 @@
         <v>551</v>
       </c>
       <c r="H56" s="52" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -6778,7 +6796,7 @@
         <v>561</v>
       </c>
       <c r="L60" s="52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -6805,7 +6823,7 @@
         <v>571</v>
       </c>
       <c r="M63" s="52" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -6813,7 +6831,7 @@
         <v>572</v>
       </c>
       <c r="D64" t="s">
-        <v>573</v>
+        <v>743</v>
       </c>
       <c r="M64" s="52"/>
     </row>
@@ -6863,451 +6881,457 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="52" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="42" t="s">
-        <v>592</v>
-      </c>
-      <c r="B75" t="s">
-        <v>596</v>
-      </c>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="52"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="42" t="s">
+        <v>590</v>
+      </c>
       <c r="B76" t="s">
-        <v>593</v>
-      </c>
-      <c r="C76" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>591</v>
+      </c>
+      <c r="C77" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>593</v>
+      </c>
+      <c r="C78" t="s">
         <v>595</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="79" spans="1:5" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="E79" s="52" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D78" s="56" t="s">
+    <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="47" t="s">
         <v>598</v>
       </c>
-      <c r="E78" s="52" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D79" s="47" t="s">
-        <v>600</v>
-      </c>
-      <c r="E79" s="52"/>
-    </row>
-    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D80" s="47"/>
       <c r="E80" s="52"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="53"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="53"/>
-      <c r="M81" s="53"/>
-      <c r="N81" s="53"/>
-      <c r="O81" s="53"/>
-      <c r="P81" s="53"/>
-      <c r="Q81" s="53"/>
-      <c r="R81" s="53"/>
-      <c r="S81" s="53"/>
-      <c r="T81" s="53"/>
-      <c r="U81" s="53"/>
-      <c r="V81" s="53"/>
+    <row r="81" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="47"/>
+      <c r="E81" s="52"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="53"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="53"/>
+      <c r="K82" s="53"/>
+      <c r="L82" s="53"/>
+      <c r="M82" s="53"/>
+      <c r="N82" s="53"/>
+      <c r="O82" s="53"/>
+      <c r="P82" s="53"/>
+      <c r="Q82" s="53"/>
+      <c r="R82" s="53"/>
+      <c r="S82" s="53"/>
+      <c r="T82" s="53"/>
+      <c r="U82" s="53"/>
+      <c r="V82" s="53"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="B83" t="s">
         <v>578</v>
       </c>
-      <c r="B82" t="s">
+      <c r="H83" s="52" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>579</v>
       </c>
-      <c r="H82" s="52" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" s="42" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="42" t="s">
-        <v>581</v>
-      </c>
-      <c r="B84" s="48" t="s">
+      <c r="B85" s="48" t="s">
+        <v>744</v>
+      </c>
+      <c r="C85" t="s">
         <v>582</v>
-      </c>
-      <c r="C84" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B85" s="48" t="s">
-        <v>583</v>
-      </c>
-      <c r="C85" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B86" s="48" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C86" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B87" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="C87" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B88" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="C88" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
         <v>588</v>
       </c>
-      <c r="C87" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89" s="42" t="s">
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" s="42" t="s">
+        <v>600</v>
+      </c>
+      <c r="B90" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="C90" s="52" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" s="53"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="53"/>
+      <c r="K91" s="53"/>
+      <c r="L91" s="53"/>
+      <c r="M91" s="53"/>
+      <c r="N91" s="53"/>
+      <c r="O91" s="53"/>
+      <c r="P91" s="53"/>
+      <c r="Q91" s="53"/>
+      <c r="R91" s="53"/>
+      <c r="S91" s="53"/>
+      <c r="T91" s="53"/>
+      <c r="U91" s="53"/>
+      <c r="V91" s="53"/>
+      <c r="W91" s="53"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" s="42" t="s">
         <v>602</v>
       </c>
-      <c r="B89" s="52" t="s">
-        <v>601</v>
-      </c>
-      <c r="C89" s="52" t="s">
+      <c r="B92" t="s">
         <v>603</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="53"/>
-      <c r="M90" s="53"/>
-      <c r="N90" s="53"/>
-      <c r="O90" s="53"/>
-      <c r="P90" s="53"/>
-      <c r="Q90" s="53"/>
-      <c r="R90" s="53"/>
-      <c r="S90" s="53"/>
-      <c r="T90" s="53"/>
-      <c r="U90" s="53"/>
-      <c r="V90" s="53"/>
-      <c r="W90" s="53"/>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A91" s="42" t="s">
-        <v>604</v>
-      </c>
-      <c r="B91" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A94" s="42" t="s">
-        <v>608</v>
+      <c r="B94" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>609</v>
+      <c r="A95" s="42" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="42" t="s">
+      <c r="B97" t="s">
+        <v>608</v>
+      </c>
+      <c r="C97" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="42" t="s">
+        <v>617</v>
+      </c>
+      <c r="B98" s="52" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>618</v>
+      </c>
+      <c r="C99" t="s">
+        <v>621</v>
+      </c>
+      <c r="D99" t="s">
         <v>619</v>
       </c>
-      <c r="B97" s="52" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>622</v>
+      </c>
+      <c r="D100" t="s">
         <v>620</v>
       </c>
-      <c r="C98" t="s">
+      <c r="G100" t="s">
         <v>623</v>
       </c>
-      <c r="D98" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+      <c r="I100" t="s">
         <v>624</v>
       </c>
-      <c r="D99" t="s">
-        <v>622</v>
-      </c>
-      <c r="G99" t="s">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
         <v>625</v>
       </c>
-      <c r="I99" t="s">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E100" t="s">
+      <c r="H102" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
         <v>628</v>
       </c>
-      <c r="H101" t="s">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E102" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
-        <v>623</v>
-      </c>
-      <c r="D105" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D106" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>622</v>
+      </c>
+      <c r="D107" t="s">
+        <v>631</v>
+      </c>
+      <c r="K107" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
         <v>633</v>
-      </c>
-      <c r="K106" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E107" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>636</v>
-      </c>
-      <c r="C108" t="s">
-        <v>637</v>
-      </c>
-      <c r="E108" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C109" t="s">
-        <v>640</v>
-      </c>
-      <c r="G109" t="s">
-        <v>641</v>
+        <v>635</v>
+      </c>
+      <c r="E109" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C110" t="s">
-        <v>643</v>
-      </c>
-      <c r="H110" t="s">
-        <v>644</v>
+        <v>638</v>
+      </c>
+      <c r="G110" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>640</v>
+      </c>
+      <c r="C111" t="s">
+        <v>641</v>
+      </c>
+      <c r="H111" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>643</v>
+      </c>
+      <c r="C112" t="s">
+        <v>644</v>
+      </c>
+      <c r="G112" t="s">
         <v>645</v>
       </c>
-      <c r="C111" t="s">
-        <v>646</v>
-      </c>
-      <c r="G111" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="42" t="s">
-        <v>611</v>
-      </c>
-      <c r="B112" t="s">
-        <v>612</v>
-      </c>
-      <c r="C112" s="52" t="s">
-        <v>615</v>
-      </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" s="42" t="s">
+        <v>609</v>
+      </c>
       <c r="B113" t="s">
+        <v>610</v>
+      </c>
+      <c r="C113" s="52" t="s">
         <v>613</v>
-      </c>
-      <c r="C113" s="52" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
+        <v>611</v>
+      </c>
+      <c r="C114" s="52" t="s">
         <v>614</v>
       </c>
-      <c r="C114" s="52" t="s">
-        <v>617</v>
-      </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>612</v>
+      </c>
       <c r="C115" s="52" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="53"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="53"/>
-      <c r="E117" s="53"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="53"/>
-      <c r="H117" s="53"/>
-      <c r="I117" s="53"/>
-      <c r="J117" s="53"/>
-      <c r="K117" s="53"/>
-      <c r="L117" s="53"/>
-      <c r="M117" s="53"/>
-      <c r="N117" s="53"/>
-      <c r="O117" s="53"/>
-      <c r="P117" s="53"/>
-      <c r="Q117" s="53"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C116" s="52" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="53"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="53"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="53"/>
+      <c r="I118" s="53"/>
+      <c r="J118" s="53"/>
+      <c r="K118" s="53"/>
+      <c r="L118" s="53"/>
+      <c r="M118" s="53"/>
+      <c r="N118" s="53"/>
+      <c r="O118" s="53"/>
+      <c r="P118" s="53"/>
+      <c r="Q118" s="53"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119" s="42" t="s">
+        <v>647</v>
+      </c>
+      <c r="B119" t="s">
+        <v>648</v>
+      </c>
+      <c r="E119" s="52" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B120" s="57" t="s">
         <v>649</v>
       </c>
-      <c r="B118" t="s">
-        <v>650</v>
-      </c>
-      <c r="E118" s="52" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B119" s="57" t="s">
-        <v>651</v>
-      </c>
-      <c r="E119" s="52" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
-        <v>652</v>
-      </c>
       <c r="E120" s="52" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
+        <v>650</v>
+      </c>
+      <c r="E121" s="52" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A123" s="58"/>
+      <c r="C123" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C124" s="59" t="s">
         <v>653</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="58"/>
-      <c r="C122" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C123" s="59" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="60" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+      <c r="C129" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B128" s="60" t="s">
-        <v>659</v>
-      </c>
-      <c r="C128" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="57"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="57"/>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="57"/>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="57"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7333,18 +7357,18 @@
     <hyperlink ref="H56" r:id="rId20" display="https://www.javadevjournal.com/spring-security/spring-security-csrf-token/" xr:uid="{CA115B42-4B9F-4871-B5C3-7558227ECEBB}"/>
     <hyperlink ref="L60" r:id="rId21" location="csrf-protection-stp" xr:uid="{07C979B0-06E1-476E-AABB-753FB50946D7}"/>
     <hyperlink ref="A73" r:id="rId22" xr:uid="{83154E48-21FD-45FE-AABF-3E0A8A43C868}"/>
-    <hyperlink ref="H82" r:id="rId23" display="https://viblo.asia/p/tan-cong-cors-cross-origin-resource-sharing-ORNZqk3n50n" xr:uid="{468AD7B6-380A-4436-8BE2-6D5F4DEF3D4C}"/>
-    <hyperlink ref="E78" r:id="rId24" display="https://www.baeldung.com/spring-security-csrf" xr:uid="{D2E8C32F-DDED-478B-A9DC-02672E20604F}"/>
-    <hyperlink ref="B89" r:id="rId25" location="page-title" display="https://docs.spring.io/spring-security/reference/reactive/integrations/cors.html - page-title" xr:uid="{13F75A0D-51BF-4A99-BF2A-31686512CDFB}"/>
-    <hyperlink ref="C89" r:id="rId26" display="https://stackoverflow.com/questions/40286549/spring-boot-security-cors" xr:uid="{71B283F1-08E5-4054-99CB-2294572327EB}"/>
-    <hyperlink ref="C112" r:id="rId27" display="https://stackoverflow.com/questions/73617743/is-springboot-data-jpa-repository-safe-against-sql-injection" xr:uid="{FC63F064-F407-4CB3-9F3A-674D330458C9}"/>
-    <hyperlink ref="C113" r:id="rId28" display="https://stackoverflow.com/questions/52791121/is-java-spring-jpa-native-query-sql-injection-proof" xr:uid="{B166F9B1-A786-41AD-9D9F-7154550B4EC0}"/>
-    <hyperlink ref="C114" r:id="rId29" location="8265319" display="https://stackoverflow.com/questions/8263371/how-can-prepared-statements-protect-from-sql-injection-attacks/8265319 - 8265319" xr:uid="{20A2708D-7D42-450B-A820-0715F708A046}"/>
-    <hyperlink ref="C115" r:id="rId30" display="https://www.baeldung.com/sql-injection" xr:uid="{EDCDD92C-0C8C-43F2-890B-748D77FE4F20}"/>
-    <hyperlink ref="B97" r:id="rId31" location=":~:text=SQL%20injection%20(SQLi)%20is%20a,not%20normally%20able%20to%20retrieve." xr:uid="{E963A806-0EA9-41A8-ABCC-93E03D8CF255}"/>
-    <hyperlink ref="E118" r:id="rId32" xr:uid="{C002AD2B-0200-422D-95C0-6D4C8D68662D}"/>
-    <hyperlink ref="E119" r:id="rId33" xr:uid="{EF701236-AB77-4716-8A1A-34425B304107}"/>
-    <hyperlink ref="E120" r:id="rId34" location=":~:text=CSV%20Injection%2C%20c%C3%B2n%20%C4%91%C6%B0%E1%BB%A3c%20g%E1%BB%8Di,c%C3%A1c%20%C4%91%E1%BB%8Bnh%20d%E1%BA%A1ng%20file%20kh%C3%A1c" xr:uid="{CDE8E9CF-248E-4EFF-B287-043F31112041}"/>
+    <hyperlink ref="H83" r:id="rId23" display="https://viblo.asia/p/tan-cong-cors-cross-origin-resource-sharing-ORNZqk3n50n" xr:uid="{468AD7B6-380A-4436-8BE2-6D5F4DEF3D4C}"/>
+    <hyperlink ref="E79" r:id="rId24" display="https://www.baeldung.com/spring-security-csrf" xr:uid="{D2E8C32F-DDED-478B-A9DC-02672E20604F}"/>
+    <hyperlink ref="B90" r:id="rId25" location="page-title" display="https://docs.spring.io/spring-security/reference/reactive/integrations/cors.html - page-title" xr:uid="{13F75A0D-51BF-4A99-BF2A-31686512CDFB}"/>
+    <hyperlink ref="C90" r:id="rId26" display="https://stackoverflow.com/questions/40286549/spring-boot-security-cors" xr:uid="{71B283F1-08E5-4054-99CB-2294572327EB}"/>
+    <hyperlink ref="C113" r:id="rId27" display="https://stackoverflow.com/questions/73617743/is-springboot-data-jpa-repository-safe-against-sql-injection" xr:uid="{FC63F064-F407-4CB3-9F3A-674D330458C9}"/>
+    <hyperlink ref="C114" r:id="rId28" display="https://stackoverflow.com/questions/52791121/is-java-spring-jpa-native-query-sql-injection-proof" xr:uid="{B166F9B1-A786-41AD-9D9F-7154550B4EC0}"/>
+    <hyperlink ref="C115" r:id="rId29" location="8265319" display="https://stackoverflow.com/questions/8263371/how-can-prepared-statements-protect-from-sql-injection-attacks/8265319 - 8265319" xr:uid="{20A2708D-7D42-450B-A820-0715F708A046}"/>
+    <hyperlink ref="C116" r:id="rId30" display="https://www.baeldung.com/sql-injection" xr:uid="{EDCDD92C-0C8C-43F2-890B-748D77FE4F20}"/>
+    <hyperlink ref="B98" r:id="rId31" location=":~:text=SQL%20injection%20(SQLi)%20is%20a,not%20normally%20able%20to%20retrieve." xr:uid="{E963A806-0EA9-41A8-ABCC-93E03D8CF255}"/>
+    <hyperlink ref="E119" r:id="rId32" xr:uid="{C002AD2B-0200-422D-95C0-6D4C8D68662D}"/>
+    <hyperlink ref="E120" r:id="rId33" xr:uid="{EF701236-AB77-4716-8A1A-34425B304107}"/>
+    <hyperlink ref="E121" r:id="rId34" location=":~:text=CSV%20Injection%2C%20c%C3%B2n%20%C4%91%C6%B0%E1%BB%A3c%20g%E1%BB%8Di,c%C3%A1c%20%C4%91%E1%BB%8Bnh%20d%E1%BA%A1ng%20file%20kh%C3%A1c" xr:uid="{CDE8E9CF-248E-4EFF-B287-043F31112041}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId35"/>
@@ -7353,10 +7377,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F636C8-1563-4E93-9E63-868EB37CCEF7}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7368,246 +7392,256 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1" t="s">
         <v>687</v>
-      </c>
-      <c r="B1" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
+        <v>691</v>
+      </c>
+      <c r="C5" t="s">
+        <v>699</v>
+      </c>
+      <c r="D5" t="s">
         <v>693</v>
-      </c>
-      <c r="C5" t="s">
-        <v>701</v>
-      </c>
-      <c r="D5" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="48"/>
       <c r="C6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D6" t="s">
         <v>694</v>
-      </c>
-      <c r="D6" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="48"/>
       <c r="D7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="B8" t="s">
         <v>688</v>
-      </c>
-      <c r="B8" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C11" t="s">
+        <v>700</v>
+      </c>
+      <c r="D11" t="s">
         <v>702</v>
-      </c>
-      <c r="D11" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="48"/>
       <c r="D12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
+        <v>701</v>
+      </c>
+      <c r="D13" t="s">
         <v>703</v>
-      </c>
-      <c r="D13" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B17" t="s">
+        <v>708</v>
+      </c>
+      <c r="C17" t="s">
         <v>710</v>
-      </c>
-      <c r="C17" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C19" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C21" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B22" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C22" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C23" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C24" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="D24" t="s">
         <v>722</v>
-      </c>
-      <c r="D24" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C25" s="57" t="s">
+        <v>721</v>
+      </c>
+      <c r="D25" t="s">
         <v>723</v>
-      </c>
-      <c r="D25" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B27" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>726</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>727</v>
+      </c>
+      <c r="D28" t="s">
         <v>728</v>
       </c>
-      <c r="C28" s="57" t="s">
-        <v>729</v>
-      </c>
-      <c r="D28" t="s">
-        <v>730</v>
-      </c>
       <c r="K28" s="52" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C29" s="57" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D29" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B30" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
+        <v>733</v>
+      </c>
+      <c r="B32" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
         <v>735</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
-        <v>737</v>
-      </c>
-      <c r="B33" t="s">
-        <v>738</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -8375,16 +8409,16 @@
       <c r="B2" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="88">
+      <c r="G2" s="86">
         <v>1</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="86" t="s">
         <v>56</v>
       </c>
       <c r="I2" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="89" t="s">
         <v>58</v>
       </c>
       <c r="L2" s="65" t="s">
@@ -8409,10 +8443,10 @@
       <c r="C3" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="74"/>
-      <c r="J3" s="92"/>
+      <c r="J3" s="90"/>
       <c r="L3" s="38"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
@@ -8433,10 +8467,10 @@
       <c r="C4" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="74"/>
-      <c r="J4" s="92"/>
+      <c r="J4" s="90"/>
       <c r="L4" s="38"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
@@ -8454,10 +8488,10 @@
       <c r="C5" t="s">
         <v>246</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="75"/>
-      <c r="J5" s="93"/>
+      <c r="J5" s="91"/>
       <c r="L5" s="38"/>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
@@ -8478,16 +8512,16 @@
       <c r="B6" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="86">
         <v>2</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="86" t="s">
         <v>59</v>
       </c>
       <c r="I6" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="92" t="s">
         <v>72</v>
       </c>
       <c r="M6" s="26"/>
@@ -8499,20 +8533,20 @@
       <c r="C7" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="74"/>
-      <c r="J7" s="95"/>
+      <c r="J7" s="93"/>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="74"/>
-      <c r="J8" s="95"/>
+      <c r="J8" s="93"/>
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8522,10 +8556,10 @@
       <c r="C9" t="s">
         <v>251</v>
       </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
       <c r="I9" s="75"/>
-      <c r="J9" s="96"/>
+      <c r="J9" s="94"/>
       <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8561,16 +8595,16 @@
       <c r="B12" t="s">
         <v>253</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="86">
         <v>3</v>
       </c>
-      <c r="H12" s="88" t="s">
+      <c r="H12" s="86" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="92" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8581,10 +8615,10 @@
       <c r="C13" t="s">
         <v>254</v>
       </c>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="74"/>
-      <c r="J13" s="95"/>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -8593,10 +8627,10 @@
       <c r="C14" t="s">
         <v>255</v>
       </c>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="74"/>
-      <c r="J14" s="95"/>
+      <c r="J14" s="93"/>
     </row>
     <row r="15" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
@@ -8605,17 +8639,17 @@
       <c r="B15" t="s">
         <v>257</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="86">
         <v>4</v>
       </c>
-      <c r="H15" s="88" t="s">
+      <c r="H15" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I15" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="86" t="s">
+      <c r="J15" s="86"/>
+      <c r="K15" s="95" t="s">
         <v>69</v>
       </c>
       <c r="L15" s="63"/>
@@ -8638,11 +8672,11 @@
       <c r="C16" t="s">
         <v>258</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="74"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="95"/>
       <c r="L16" s="63"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
@@ -8663,11 +8697,11 @@
       <c r="C17" t="s">
         <v>259</v>
       </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="75"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="86"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="95"/>
       <c r="L17" s="63"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
@@ -8698,7 +8732,7 @@
         <v>67</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="87"/>
+      <c r="K18" s="96"/>
       <c r="L18" s="63"/>
       <c r="M18" s="63"/>
       <c r="N18" s="63"/>
@@ -8880,8 +8914,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="L2:W2"/>
@@ -8900,6 +8932,8 @@
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:J14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{3D14D563-A18C-4362-B2CD-8D8339C1C427}"/>
@@ -9226,10 +9260,10 @@
       <c r="B2" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="88">
+      <c r="D2" s="86">
         <v>1</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="86" t="s">
         <v>119</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -9257,8 +9291,8 @@
       <c r="C3" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
@@ -9275,8 +9309,8 @@
       <c r="C4" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="6"/>
       <c r="G4" s="11"/>
       <c r="H4" s="3"/>
@@ -9296,8 +9330,8 @@
       <c r="C5" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="6"/>
       <c r="G5" s="11"/>
       <c r="H5" s="3"/>
@@ -9317,10 +9351,10 @@
       <c r="B6" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="86">
         <v>2</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="86" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -9348,8 +9382,8 @@
       <c r="C7" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -9366,8 +9400,8 @@
       <c r="C8" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
@@ -9387,8 +9421,8 @@
       <c r="C9" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -9502,7 +9536,7 @@
       <c r="D14" s="98">
         <v>4</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="86" t="s">
         <v>128</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -9531,7 +9565,7 @@
         <v>277</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="E15" s="89"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
       <c r="H15" s="31"/>
@@ -9549,7 +9583,7 @@
         <v>244</v>
       </c>
       <c r="D16" s="99"/>
-      <c r="E16" s="89"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
       <c r="H16" s="31"/>
@@ -9564,7 +9598,7 @@
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="100"/>
-      <c r="E17" s="90"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
       <c r="H17" s="31"/>
@@ -9587,7 +9621,7 @@
       <c r="D18" s="98">
         <v>5</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="86" t="s">
         <v>130</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -9616,7 +9650,7 @@
         <v>279</v>
       </c>
       <c r="D19" s="99"/>
-      <c r="E19" s="89"/>
+      <c r="E19" s="87"/>
       <c r="F19" s="6"/>
       <c r="G19" s="9"/>
       <c r="H19" s="31"/>
@@ -9634,7 +9668,7 @@
         <v>280</v>
       </c>
       <c r="D20" s="99"/>
-      <c r="E20" s="89"/>
+      <c r="E20" s="87"/>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
       <c r="H20" s="31"/>
@@ -9652,7 +9686,7 @@
         <v>282</v>
       </c>
       <c r="D21" s="99"/>
-      <c r="E21" s="89"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="6"/>
       <c r="G21" s="9"/>
       <c r="H21" s="31"/>
@@ -9670,7 +9704,7 @@
         <v>283</v>
       </c>
       <c r="D22" s="99"/>
-      <c r="E22" s="89"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="6"/>
       <c r="G22" s="9"/>
       <c r="H22" s="31"/>
@@ -9688,7 +9722,7 @@
         <v>281</v>
       </c>
       <c r="D23" s="99"/>
-      <c r="E23" s="89"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="6"/>
       <c r="G23" s="9"/>
       <c r="H23" s="31"/>
@@ -9709,7 +9743,7 @@
         <v>284</v>
       </c>
       <c r="D24" s="99"/>
-      <c r="E24" s="89"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="6"/>
       <c r="G24" s="9"/>
       <c r="H24" s="31"/>
@@ -9727,7 +9761,7 @@
         <v>285</v>
       </c>
       <c r="D25" s="100"/>
-      <c r="E25" s="90"/>
+      <c r="E25" s="88"/>
       <c r="F25" s="6"/>
       <c r="G25" s="9"/>
       <c r="H25" s="31"/>
@@ -9750,7 +9784,7 @@
       <c r="D26" s="98">
         <v>6</v>
       </c>
-      <c r="E26" s="88" t="s">
+      <c r="E26" s="86" t="s">
         <v>132</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -9779,7 +9813,7 @@
         <v>287</v>
       </c>
       <c r="D27" s="99"/>
-      <c r="E27" s="89"/>
+      <c r="E27" s="87"/>
       <c r="F27" s="6"/>
       <c r="G27" s="9"/>
       <c r="H27" s="31"/>
@@ -9797,7 +9831,7 @@
         <v>288</v>
       </c>
       <c r="D28" s="99"/>
-      <c r="E28" s="89"/>
+      <c r="E28" s="87"/>
       <c r="F28" s="6"/>
       <c r="G28" s="9"/>
       <c r="H28" s="31"/>
@@ -9818,7 +9852,7 @@
         <v>289</v>
       </c>
       <c r="D29" s="100"/>
-      <c r="E29" s="90"/>
+      <c r="E29" s="88"/>
       <c r="F29" s="6"/>
       <c r="G29" s="9"/>
       <c r="H29" s="31"/>
@@ -9838,10 +9872,10 @@
       <c r="B30" t="s">
         <v>290</v>
       </c>
-      <c r="D30" s="88">
+      <c r="D30" s="86">
         <v>7</v>
       </c>
-      <c r="E30" s="88" t="s">
+      <c r="E30" s="86" t="s">
         <v>134</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -9867,8 +9901,8 @@
       <c r="C31" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
       <c r="F31" s="5"/>
       <c r="G31" s="1"/>
       <c r="H31" s="31"/>
@@ -9885,8 +9919,8 @@
       <c r="C32" t="s">
         <v>292</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
       <c r="F32" s="5"/>
       <c r="G32" s="1"/>
       <c r="H32" s="31"/>
@@ -9906,8 +9940,8 @@
       <c r="C33" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
       <c r="F33" s="5"/>
       <c r="G33" s="1"/>
       <c r="H33" s="31"/>
@@ -9927,10 +9961,10 @@
       <c r="B34" t="s">
         <v>331</v>
       </c>
-      <c r="D34" s="88">
+      <c r="D34" s="86">
         <v>8</v>
       </c>
-      <c r="E34" s="88" t="s">
+      <c r="E34" s="86" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -9958,8 +9992,8 @@
       <c r="C35" t="s">
         <v>294</v>
       </c>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
       <c r="F35" s="5"/>
       <c r="G35" s="9"/>
       <c r="H35" s="31"/>
@@ -9976,8 +10010,8 @@
       <c r="C36" t="s">
         <v>330</v>
       </c>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
       <c r="F36" s="5"/>
       <c r="G36" s="9"/>
       <c r="H36" s="31"/>
@@ -9997,8 +10031,8 @@
       <c r="C37" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
       <c r="F37" s="5"/>
       <c r="G37" s="9"/>
       <c r="H37" s="31"/>
@@ -10015,8 +10049,8 @@
       <c r="C38" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
       <c r="F38" s="5"/>
       <c r="G38" s="9"/>
       <c r="H38" s="31"/>
@@ -10033,8 +10067,8 @@
       <c r="C39" t="s">
         <v>296</v>
       </c>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
       <c r="F39" s="5"/>
       <c r="G39" s="9"/>
       <c r="H39" s="31"/>
@@ -10130,7 +10164,7 @@
       <c r="D43" s="98">
         <v>10</v>
       </c>
-      <c r="E43" s="88" t="s">
+      <c r="E43" s="86" t="s">
         <v>139</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -10159,7 +10193,7 @@
         <v>302</v>
       </c>
       <c r="D44" s="99"/>
-      <c r="E44" s="89"/>
+      <c r="E44" s="87"/>
       <c r="F44" s="6"/>
       <c r="G44" s="9"/>
       <c r="H44" s="34"/>
@@ -10177,7 +10211,7 @@
         <v>303</v>
       </c>
       <c r="D45" s="99"/>
-      <c r="E45" s="89"/>
+      <c r="E45" s="87"/>
       <c r="F45" s="6"/>
       <c r="G45" s="9"/>
       <c r="H45" s="34"/>
@@ -10198,7 +10232,7 @@
         <v>304</v>
       </c>
       <c r="D46" s="99"/>
-      <c r="E46" s="89"/>
+      <c r="E46" s="87"/>
       <c r="F46" s="6"/>
       <c r="G46" s="9"/>
       <c r="H46" s="34"/>
@@ -10216,7 +10250,7 @@
         <v>298</v>
       </c>
       <c r="D47" s="100"/>
-      <c r="E47" s="90"/>
+      <c r="E47" s="88"/>
       <c r="F47" s="6"/>
       <c r="G47" s="9"/>
       <c r="H47" s="34"/>
@@ -10421,7 +10455,7 @@
       <c r="D56" s="98">
         <v>13</v>
       </c>
-      <c r="E56" s="88" t="s">
+      <c r="E56" s="86" t="s">
         <v>145</v>
       </c>
       <c r="F56" s="5" t="s">
@@ -10447,7 +10481,7 @@
         <v>213</v>
       </c>
       <c r="D57" s="99"/>
-      <c r="E57" s="89"/>
+      <c r="E57" s="87"/>
       <c r="F57" s="5"/>
       <c r="G57" s="9"/>
       <c r="H57" s="31"/>
@@ -10465,7 +10499,7 @@
         <v>244</v>
       </c>
       <c r="D58" s="100"/>
-      <c r="E58" s="90"/>
+      <c r="E58" s="88"/>
       <c r="F58" s="5"/>
       <c r="G58" s="9"/>
       <c r="H58" s="31"/>
@@ -10488,7 +10522,7 @@
       <c r="D59" s="98">
         <v>14</v>
       </c>
-      <c r="E59" s="88" t="s">
+      <c r="E59" s="86" t="s">
         <v>146</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -10517,7 +10551,7 @@
         <v>314</v>
       </c>
       <c r="D60" s="99"/>
-      <c r="E60" s="89"/>
+      <c r="E60" s="87"/>
       <c r="F60" s="6"/>
       <c r="G60" s="9"/>
       <c r="H60" s="31"/>
@@ -10535,7 +10569,7 @@
         <v>315</v>
       </c>
       <c r="D61" s="99"/>
-      <c r="E61" s="89"/>
+      <c r="E61" s="87"/>
       <c r="F61" s="6"/>
       <c r="G61" s="9"/>
       <c r="H61" s="31"/>
@@ -10556,7 +10590,7 @@
         <v>316</v>
       </c>
       <c r="D62" s="100"/>
-      <c r="E62" s="90"/>
+      <c r="E62" s="88"/>
       <c r="F62" s="6"/>
       <c r="G62" s="9"/>
       <c r="H62" s="31"/>
@@ -10579,7 +10613,7 @@
       <c r="D63" s="98">
         <v>15</v>
       </c>
-      <c r="E63" s="88" t="s">
+      <c r="E63" s="86" t="s">
         <v>149</v>
       </c>
       <c r="F63" s="5" t="s">
@@ -10608,7 +10642,7 @@
         <v>318</v>
       </c>
       <c r="D64" s="99"/>
-      <c r="E64" s="89"/>
+      <c r="E64" s="87"/>
       <c r="F64" s="5"/>
       <c r="G64" s="9"/>
       <c r="H64" s="31"/>
@@ -10626,7 +10660,7 @@
         <v>319</v>
       </c>
       <c r="D65" s="99"/>
-      <c r="E65" s="89"/>
+      <c r="E65" s="87"/>
       <c r="F65" s="5"/>
       <c r="G65" s="9"/>
       <c r="H65" s="31"/>
@@ -10647,7 +10681,7 @@
         <v>320</v>
       </c>
       <c r="D66" s="99"/>
-      <c r="E66" s="90"/>
+      <c r="E66" s="88"/>
       <c r="F66" s="5"/>
       <c r="G66" s="9"/>
       <c r="H66" s="31"/>
@@ -10670,7 +10704,7 @@
       <c r="D67" s="32">
         <v>16</v>
       </c>
-      <c r="E67" s="88" t="s">
+      <c r="E67" s="86" t="s">
         <v>150</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -10699,7 +10733,7 @@
         <v>322</v>
       </c>
       <c r="D68" s="32"/>
-      <c r="E68" s="89"/>
+      <c r="E68" s="87"/>
       <c r="F68" s="6"/>
       <c r="G68" s="9"/>
       <c r="H68" s="31"/>
@@ -10720,7 +10754,7 @@
         <v>323</v>
       </c>
       <c r="D69" s="32"/>
-      <c r="E69" s="89"/>
+      <c r="E69" s="87"/>
       <c r="F69" s="6"/>
       <c r="G69" s="9"/>
       <c r="H69" s="31"/>
@@ -10738,7 +10772,7 @@
         <v>324</v>
       </c>
       <c r="D70" s="32"/>
-      <c r="E70" s="90"/>
+      <c r="E70" s="88"/>
       <c r="F70" s="6"/>
       <c r="G70" s="9"/>
       <c r="H70" s="31"/>
@@ -10758,10 +10792,10 @@
       <c r="B71" t="s">
         <v>334</v>
       </c>
-      <c r="D71" s="88">
+      <c r="D71" s="86">
         <v>17</v>
       </c>
-      <c r="E71" s="88" t="s">
+      <c r="E71" s="86" t="s">
         <v>152</v>
       </c>
       <c r="F71" s="5" t="s">
@@ -10789,8 +10823,8 @@
       <c r="C72" t="s">
         <v>325</v>
       </c>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
       <c r="F72" s="5"/>
       <c r="G72" s="9"/>
       <c r="H72" s="31"/>
@@ -10810,8 +10844,8 @@
       <c r="C73" t="s">
         <v>327</v>
       </c>
-      <c r="D73" s="90"/>
-      <c r="E73" s="90"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
       <c r="F73" s="5"/>
       <c r="G73" s="9"/>
       <c r="H73" s="31"/>
@@ -10978,16 +11012,16 @@
       <c r="B2" t="s">
         <v>336</v>
       </c>
-      <c r="E2" s="88">
+      <c r="E2" s="86">
         <v>1</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="86" t="s">
         <v>171</v>
       </c>
       <c r="G2" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="89" t="s">
         <v>175</v>
       </c>
     </row>
@@ -11002,10 +11036,10 @@
       <c r="D3" t="s">
         <v>346</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="74"/>
-      <c r="H3" s="92"/>
+      <c r="H3" s="90"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
@@ -11016,10 +11050,10 @@
       <c r="D4" t="s">
         <v>345</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
       <c r="G4" s="74"/>
-      <c r="H4" s="92"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
@@ -11030,10 +11064,10 @@
       <c r="D5" t="s">
         <v>344</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="75"/>
-      <c r="H5" s="93"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
@@ -11343,10 +11377,10 @@
       <c r="B2" t="s">
         <v>355</v>
       </c>
-      <c r="F2" s="88">
+      <c r="F2" s="86">
         <v>1</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="86" t="s">
         <v>189</v>
       </c>
       <c r="H2" s="73" t="s">
@@ -11368,8 +11402,8 @@
       <c r="C3" t="s">
         <v>357</v>
       </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
       <c r="H3" s="74"/>
       <c r="I3" s="37"/>
       <c r="J3" s="14"/>
@@ -11385,8 +11419,8 @@
       <c r="C4" t="s">
         <v>359</v>
       </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="75"/>
       <c r="I4" s="37"/>
       <c r="J4" s="14"/>
@@ -11399,10 +11433,10 @@
       <c r="B5" t="s">
         <v>360</v>
       </c>
-      <c r="F5" s="88">
+      <c r="F5" s="86">
         <v>2</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="86" t="s">
         <v>191</v>
       </c>
       <c r="H5" s="104" t="s">
@@ -11424,8 +11458,8 @@
       <c r="C6" t="s">
         <v>362</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="105"/>
       <c r="I6" s="41"/>
       <c r="J6" s="14"/>
@@ -11441,8 +11475,8 @@
       <c r="C7" t="s">
         <v>364</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="105"/>
       <c r="I7" s="41"/>
       <c r="J7" s="14"/>
@@ -11458,8 +11492,8 @@
       <c r="C8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="105"/>
       <c r="I8" s="41"/>
       <c r="J8" s="14"/>
@@ -11475,8 +11509,8 @@
       <c r="C9" t="s">
         <v>366</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
       <c r="H9" s="106"/>
       <c r="I9" s="41"/>
       <c r="J9" s="14"/>
@@ -11494,8 +11528,8 @@
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="88"/>
       <c r="H10" s="3"/>
       <c r="I10" s="37" t="s">
         <v>203</v>
@@ -11513,8 +11547,8 @@
       <c r="C11" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="88" t="s">
+      <c r="F11" s="87"/>
+      <c r="G11" s="86" t="s">
         <v>192</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -11534,8 +11568,8 @@
       <c r="C12" t="s">
         <v>373</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="5"/>
       <c r="I12" s="107"/>
       <c r="J12" s="14"/>
@@ -11549,8 +11583,8 @@
       <c r="C13" t="s">
         <v>387</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="88"/>
       <c r="H13" s="5"/>
       <c r="I13" s="107"/>
       <c r="J13" s="14"/>
@@ -11566,8 +11600,8 @@
       <c r="C14" t="s">
         <v>376</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="88" t="s">
+      <c r="F14" s="87"/>
+      <c r="G14" s="86" t="s">
         <v>193</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -11585,8 +11619,8 @@
       <c r="C15" t="s">
         <v>378</v>
       </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="5"/>
       <c r="I15" s="108"/>
       <c r="J15" s="14"/>
@@ -11600,8 +11634,8 @@
       <c r="C16" t="s">
         <v>388</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="88"/>
       <c r="H16" s="5"/>
       <c r="I16" s="108"/>
       <c r="J16" s="14"/>
@@ -11617,8 +11651,8 @@
       <c r="C17" t="s">
         <v>377</v>
       </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="88" t="s">
+      <c r="F17" s="87"/>
+      <c r="G17" s="86" t="s">
         <v>194</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -11636,8 +11670,8 @@
       <c r="C18" t="s">
         <v>379</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
       <c r="H18" s="5"/>
       <c r="I18" s="46"/>
       <c r="J18" s="14"/>
@@ -11651,8 +11685,8 @@
       <c r="C19" t="s">
         <v>389</v>
       </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="90"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="88"/>
       <c r="H19" s="5"/>
       <c r="I19" s="46"/>
       <c r="J19" s="14"/>
@@ -11671,8 +11705,8 @@
       <c r="D20" t="s">
         <v>383</v>
       </c>
-      <c r="F20" s="89"/>
-      <c r="G20" s="88" t="s">
+      <c r="F20" s="87"/>
+      <c r="G20" s="86" t="s">
         <v>375</v>
       </c>
       <c r="H20" s="73" t="s">
@@ -11695,8 +11729,8 @@
       <c r="D21" t="s">
         <v>384</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
       <c r="H21" s="74"/>
       <c r="I21" s="37"/>
       <c r="J21" s="14"/>
@@ -11713,8 +11747,8 @@
       <c r="D22" t="s">
         <v>386</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
       <c r="H22" s="75"/>
       <c r="I22" s="37"/>
       <c r="J22" s="14"/>
@@ -11730,10 +11764,10 @@
       <c r="C23" t="s">
         <v>390</v>
       </c>
-      <c r="F23" s="88">
+      <c r="F23" s="86">
         <v>3</v>
       </c>
-      <c r="G23" s="88" t="s">
+      <c r="G23" s="86" t="s">
         <v>199</v>
       </c>
       <c r="H23" s="73" t="s">
@@ -11755,8 +11789,8 @@
       <c r="D24" t="s">
         <v>403</v>
       </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
       <c r="H24" s="74"/>
       <c r="I24" s="41"/>
       <c r="J24" s="14"/>
@@ -11769,8 +11803,8 @@
       <c r="D25" t="s">
         <v>404</v>
       </c>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
       <c r="H25" s="74"/>
       <c r="I25" s="41"/>
       <c r="J25" s="14"/>
@@ -11783,8 +11817,8 @@
       <c r="D26" t="s">
         <v>405</v>
       </c>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
       <c r="H26" s="74"/>
       <c r="I26" s="41"/>
       <c r="J26" s="14"/>
@@ -11800,8 +11834,8 @@
       <c r="D27" t="s">
         <v>406</v>
       </c>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="74"/>
       <c r="I27" s="41"/>
       <c r="J27" s="14"/>
@@ -11814,8 +11848,8 @@
       <c r="D28" t="s">
         <v>407</v>
       </c>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
       <c r="H28" s="74"/>
       <c r="I28" s="41"/>
       <c r="J28" s="14"/>
@@ -11831,8 +11865,8 @@
       <c r="E29" t="s">
         <v>409</v>
       </c>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="74"/>
       <c r="I29" s="41"/>
       <c r="J29" s="14"/>
@@ -11848,8 +11882,8 @@
       <c r="E30" t="s">
         <v>411</v>
       </c>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="74"/>
       <c r="I30" s="41"/>
       <c r="J30" s="14"/>
@@ -11865,8 +11899,8 @@
       <c r="D31" t="s">
         <v>423</v>
       </c>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
       <c r="H31" s="74"/>
       <c r="I31" s="41"/>
       <c r="J31" s="14"/>
@@ -11880,8 +11914,8 @@
       <c r="D32" t="s">
         <v>425</v>
       </c>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
       <c r="H32" s="74"/>
       <c r="I32" s="41"/>
       <c r="J32" s="14"/>
@@ -11897,8 +11931,8 @@
       <c r="D33" t="s">
         <v>424</v>
       </c>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
       <c r="H33" s="74"/>
       <c r="I33" s="41"/>
       <c r="J33" s="14"/>
@@ -11911,8 +11945,8 @@
       <c r="D34" t="s">
         <v>413</v>
       </c>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
       <c r="H34" s="74"/>
       <c r="I34" s="41"/>
       <c r="J34" s="14"/>
@@ -11928,8 +11962,8 @@
       <c r="D35" t="s">
         <v>415</v>
       </c>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
       <c r="H35" s="74"/>
       <c r="I35" s="41"/>
       <c r="J35" s="14"/>
@@ -11942,8 +11976,8 @@
       <c r="D36" t="s">
         <v>421</v>
       </c>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
       <c r="H36" s="74"/>
       <c r="I36" s="41"/>
       <c r="J36" s="14"/>
@@ -11959,8 +11993,8 @@
       <c r="D37" t="s">
         <v>417</v>
       </c>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
       <c r="H37" s="74"/>
       <c r="I37" s="41"/>
       <c r="J37" s="14"/>
@@ -11973,8 +12007,8 @@
       <c r="D38" t="s">
         <v>418</v>
       </c>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
       <c r="H38" s="74"/>
       <c r="I38" s="41"/>
       <c r="J38" s="14"/>
@@ -11990,8 +12024,8 @@
       <c r="D39" t="s">
         <v>420</v>
       </c>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
       <c r="H39" s="74"/>
       <c r="I39" s="41"/>
       <c r="J39" s="14"/>
@@ -12004,8 +12038,8 @@
       <c r="D40" t="s">
         <v>421</v>
       </c>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
       <c r="H40" s="75"/>
       <c r="I40" s="41"/>
       <c r="J40" s="14"/>
@@ -12183,10 +12217,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA47C9C-6F99-4F74-8F04-233056ABBE4B}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12241,16 +12275,16 @@
         <v>452</v>
       </c>
       <c r="M6" t="s">
+        <v>665</v>
+      </c>
+      <c r="N6" t="s">
+        <v>666</v>
+      </c>
+      <c r="O6" t="s">
         <v>667</v>
       </c>
-      <c r="N6" t="s">
-        <v>668</v>
-      </c>
-      <c r="O6" t="s">
-        <v>669</v>
-      </c>
       <c r="P6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -12261,10 +12295,10 @@
         <v>440</v>
       </c>
       <c r="O7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="P7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -12288,7 +12322,7 @@
         <v>441</v>
       </c>
       <c r="E10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -12296,7 +12330,7 @@
         <v>442</v>
       </c>
       <c r="E11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -12325,7 +12359,7 @@
         <v>464</v>
       </c>
       <c r="C15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -12336,161 +12370,188 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>455</v>
       </c>
       <c r="C18" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>456</v>
       </c>
       <c r="C19" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>457</v>
       </c>
       <c r="C20" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="48" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="48" t="s">
+      <c r="D21" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="48"/>
+      <c r="D22" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="48"/>
+      <c r="D23" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>458</v>
+      </c>
+      <c r="C24" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="48" t="s">
+        <v>682</v>
+      </c>
+      <c r="D25" t="s">
         <v>684</v>
       </c>
-      <c r="D21" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>458</v>
-      </c>
-      <c r="C22" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="48"/>
+      <c r="D26" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="48"/>
+      <c r="D27" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>459</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="48" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="C25" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="48" t="s">
+      <c r="C29" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="48" t="s">
         <v>460</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C31" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="C33" t="s">
+        <v>677</v>
+      </c>
+      <c r="M33" s="52" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="C27" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="C28" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="C29" t="s">
-        <v>679</v>
-      </c>
-      <c r="M29" s="52" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="52" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="52" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>472</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="52" t="s">
         <v>471</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H1" r:id="rId1" xr:uid="{FD790352-9AB3-438A-B805-4E38FEE8BA22}"/>
-    <hyperlink ref="A30" r:id="rId2" location="deeper-look-into-spring-aops-annotations" xr:uid="{78DCEF18-00D2-4EFA-B107-E7CA18D0D8FE}"/>
-    <hyperlink ref="A31" r:id="rId3" display="https://www.digitalocean.com/community/tutorials/spring-aop-example-tutorial-aspect-advice-pointcut-joinpoint-annotations" xr:uid="{BCFC0ACD-33E1-483E-9A2A-1F45EF2A9DA9}"/>
-    <hyperlink ref="A32" r:id="rId4" location=":~:text=Aspect%20Oriented%20Programming%20(AOP)%20l%C3%A0,tr%E1%BA%A3%20v%E1%BB%81%20m%E1%BB%99t%20k%E1%BA%BFt%20qu%E1%BA%A3" display="https://techmaster.vn/posts/36087/spring-core-phan-5-spring-aop-la-gi-code-vi-du-voi-spring-aop - :~:text=Aspect%20Oriented%20Programming%20(AOP)%20l%C3%A0,tr%E1%BA%A3%20v%E1%BB%81%20m%E1%BB%99t%20k%E1%BA%BFt%20qu%E1%BA%A3" xr:uid="{70145C8E-A03B-4CE2-A6DA-970F7CB3F0C9}"/>
-    <hyperlink ref="A33" r:id="rId5" display="https://viblo.asia/p/su-dung-aop-trong-spring-boot-va-aspectj-vyDZOkbaZwj" xr:uid="{E9ED52EB-6172-4E9F-A0BD-111D6CCA182F}"/>
-    <hyperlink ref="A34" r:id="rId6" display="https://gpcoder.com/5112-gioi-thieu-aspect-oriented-programming-aop/" xr:uid="{0F8D92B0-260D-4D69-9F99-EAD6314460DD}"/>
-    <hyperlink ref="A35" r:id="rId7" display="https://levunguyen.com/laptrinhspring/2020/04/27/su-dung-aop-advise-trong-spring/" xr:uid="{197D74B0-CBE3-492E-BB4F-8EEC42746249}"/>
-    <hyperlink ref="A41" r:id="rId8" xr:uid="{DEDB1230-9B57-4D7C-BF68-766DD4B6BEC4}"/>
-    <hyperlink ref="M29" r:id="rId9" xr:uid="{7C479F47-8D01-408D-BE32-986A477D3687}"/>
+    <hyperlink ref="A34" r:id="rId2" location="deeper-look-into-spring-aops-annotations" xr:uid="{78DCEF18-00D2-4EFA-B107-E7CA18D0D8FE}"/>
+    <hyperlink ref="A35" r:id="rId3" display="https://www.digitalocean.com/community/tutorials/spring-aop-example-tutorial-aspect-advice-pointcut-joinpoint-annotations" xr:uid="{BCFC0ACD-33E1-483E-9A2A-1F45EF2A9DA9}"/>
+    <hyperlink ref="A36" r:id="rId4" location=":~:text=Aspect%20Oriented%20Programming%20(AOP)%20l%C3%A0,tr%E1%BA%A3%20v%E1%BB%81%20m%E1%BB%99t%20k%E1%BA%BFt%20qu%E1%BA%A3" display="https://techmaster.vn/posts/36087/spring-core-phan-5-spring-aop-la-gi-code-vi-du-voi-spring-aop - :~:text=Aspect%20Oriented%20Programming%20(AOP)%20l%C3%A0,tr%E1%BA%A3%20v%E1%BB%81%20m%E1%BB%99t%20k%E1%BA%BFt%20qu%E1%BA%A3" xr:uid="{70145C8E-A03B-4CE2-A6DA-970F7CB3F0C9}"/>
+    <hyperlink ref="A37" r:id="rId5" display="https://viblo.asia/p/su-dung-aop-trong-spring-boot-va-aspectj-vyDZOkbaZwj" xr:uid="{E9ED52EB-6172-4E9F-A0BD-111D6CCA182F}"/>
+    <hyperlink ref="A38" r:id="rId6" display="https://gpcoder.com/5112-gioi-thieu-aspect-oriented-programming-aop/" xr:uid="{0F8D92B0-260D-4D69-9F99-EAD6314460DD}"/>
+    <hyperlink ref="A39" r:id="rId7" display="https://levunguyen.com/laptrinhspring/2020/04/27/su-dung-aop-advise-trong-spring/" xr:uid="{197D74B0-CBE3-492E-BB4F-8EEC42746249}"/>
+    <hyperlink ref="A45" r:id="rId8" xr:uid="{DEDB1230-9B57-4D7C-BF68-766DD4B6BEC4}"/>
+    <hyperlink ref="M33" r:id="rId9" xr:uid="{7C479F47-8D01-408D-BE32-986A477D3687}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>

--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7B8E33-F005-49D2-AC3E-9B4AE6CF7F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C678C64-1690-414A-A666-9726405F2FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
@@ -4882,6 +4882,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4921,27 +4942,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4950,6 +4950,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4969,22 +4975,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4997,6 +4988,21 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5004,12 +5010,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6400,8 +6400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9601CE73-AAA1-4817-B4FF-196A7817E766}">
   <dimension ref="A1:W137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7379,7 +7379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F636C8-1563-4E93-9E63-868EB37CCEF7}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -7677,24 +7677,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
       <c r="Q1" s="39"/>
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
@@ -7786,16 +7786,16 @@
       <c r="P4" t="s">
         <v>214</v>
       </c>
-      <c r="AA4" s="70">
+      <c r="AA4" s="77">
         <v>3</v>
       </c>
-      <c r="AB4" s="70" t="s">
+      <c r="AB4" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="73" t="s">
+      <c r="AC4" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="76" t="s">
+      <c r="AD4" s="83" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7807,10 +7807,10 @@
       <c r="P5" t="s">
         <v>215</v>
       </c>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="77"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="84"/>
     </row>
     <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
@@ -7823,10 +7823,10 @@
       <c r="P6" t="s">
         <v>217</v>
       </c>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="78"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="85"/>
     </row>
     <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -7839,16 +7839,16 @@
       <c r="P7" t="s">
         <v>218</v>
       </c>
-      <c r="AA7" s="70">
+      <c r="AA7" s="77">
         <v>4</v>
       </c>
-      <c r="AB7" s="70" t="s">
+      <c r="AB7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="73" t="s">
+      <c r="AC7" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="76" t="s">
+      <c r="AD7" s="83" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7860,10 +7860,10 @@
       <c r="P8" t="s">
         <v>219</v>
       </c>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="77"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="84"/>
     </row>
     <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -7876,19 +7876,19 @@
       <c r="P9" t="s">
         <v>220</v>
       </c>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="78"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="85"/>
     </row>
     <row r="10" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -7899,16 +7899,16 @@
       <c r="P10" t="s">
         <v>222</v>
       </c>
-      <c r="AA10" s="66">
+      <c r="AA10" s="73">
         <v>5</v>
       </c>
-      <c r="AB10" s="67" t="s">
+      <c r="AB10" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="AC10" s="68" t="s">
+      <c r="AC10" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="69" t="s">
+      <c r="AD10" s="76" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7919,19 +7919,19 @@
       <c r="P11" t="s">
         <v>223</v>
       </c>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="69"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="76"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
         <v>224</v>
       </c>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="69"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="76"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O13" t="s">
@@ -7940,10 +7940,10 @@
       <c r="P13" t="s">
         <v>225</v>
       </c>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="69"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="76"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N14" s="43" t="s">
@@ -7952,10 +7952,10 @@
       <c r="P14" t="s">
         <v>228</v>
       </c>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="69"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="76"/>
     </row>
     <row r="15" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
@@ -7973,10 +7973,10 @@
       <c r="P15" t="s">
         <v>227</v>
       </c>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="69"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="76"/>
     </row>
     <row r="16" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
@@ -7991,10 +7991,10 @@
       <c r="P16" t="s">
         <v>223</v>
       </c>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="69"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="76"/>
     </row>
     <row r="17" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
@@ -8009,10 +8009,10 @@
       <c r="P17" t="s">
         <v>224</v>
       </c>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="69"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="76"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
@@ -8030,10 +8030,10 @@
       <c r="P18" t="s">
         <v>225</v>
       </c>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="69"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="76"/>
     </row>
     <row r="19" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
@@ -8051,10 +8051,10 @@
       <c r="P19" t="s">
         <v>230</v>
       </c>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="69"/>
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="76"/>
     </row>
     <row r="20" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
@@ -8072,10 +8072,10 @@
       <c r="O20" t="s">
         <v>232</v>
       </c>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="69"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="76"/>
     </row>
     <row r="21" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
@@ -8093,10 +8093,10 @@
       <c r="P21" t="s">
         <v>233</v>
       </c>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="69"/>
+      <c r="AA21" s="73"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="76"/>
     </row>
     <row r="22" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -8114,10 +8114,10 @@
       <c r="P22" t="s">
         <v>234</v>
       </c>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="69"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="76"/>
     </row>
     <row r="23" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
@@ -8135,10 +8135,10 @@
       <c r="O23" t="s">
         <v>236</v>
       </c>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="69"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="76"/>
     </row>
     <row r="24" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
@@ -8156,10 +8156,10 @@
       <c r="P24" t="s">
         <v>237</v>
       </c>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="67"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="69"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="76"/>
     </row>
     <row r="25" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
@@ -8177,10 +8177,10 @@
       <c r="P25" t="s">
         <v>238</v>
       </c>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="69"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="76"/>
     </row>
     <row r="26" spans="1:30" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
@@ -8263,38 +8263,38 @@
       <c r="AD27" s="1"/>
     </row>
     <row r="54" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="85" t="s">
+      <c r="D54" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="84"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="84"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="84"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="65" t="s">
@@ -8309,32 +8309,24 @@
       <c r="C63" s="65"/>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="83" t="s">
+      <c r="A87" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B87" s="83"/>
-      <c r="C87" s="83"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="83"/>
-      <c r="B88" s="83"/>
-      <c r="C88" s="83"/>
+      <c r="A88" s="70"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="70"/>
     </row>
     <row r="89" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="83"/>
-      <c r="B89" s="83"/>
-      <c r="C89" s="83"/>
+      <c r="A89" s="70"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A87:C89"/>
-    <mergeCell ref="A58:C61"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="A62:C63"/>
-    <mergeCell ref="D26:I27"/>
-    <mergeCell ref="D54:J54"/>
     <mergeCell ref="AA10:AA25"/>
     <mergeCell ref="AB10:AB25"/>
     <mergeCell ref="AC10:AC25"/>
@@ -8347,6 +8339,14 @@
     <mergeCell ref="AB7:AB9"/>
     <mergeCell ref="AC7:AC9"/>
     <mergeCell ref="AD7:AD9"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A87:C89"/>
+    <mergeCell ref="A58:C61"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="A62:C63"/>
+    <mergeCell ref="D26:I27"/>
+    <mergeCell ref="D54:J54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AD2" r:id="rId1" display="https://stackoverflow.com/questions/15070513/how-to-test-a-non-thread-safe-class" xr:uid="{AF80577A-A125-48C9-AA50-5BBE662AA378}"/>
@@ -8415,10 +8415,10 @@
       <c r="H2" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="91" t="s">
         <v>58</v>
       </c>
       <c r="L2" s="65" t="s">
@@ -8445,8 +8445,8 @@
       </c>
       <c r="G3" s="87"/>
       <c r="H3" s="87"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="90"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="92"/>
       <c r="L3" s="38"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
@@ -8469,8 +8469,8 @@
       </c>
       <c r="G4" s="87"/>
       <c r="H4" s="87"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="90"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="92"/>
       <c r="L4" s="38"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
@@ -8490,8 +8490,8 @@
       </c>
       <c r="G5" s="88"/>
       <c r="H5" s="88"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="91"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="93"/>
       <c r="L5" s="38"/>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
@@ -8518,10 +8518,10 @@
       <c r="H6" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="94" t="s">
         <v>72</v>
       </c>
       <c r="M6" s="26"/>
@@ -8535,8 +8535,8 @@
       </c>
       <c r="G7" s="87"/>
       <c r="H7" s="87"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="93"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="95"/>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8545,8 +8545,8 @@
       </c>
       <c r="G8" s="87"/>
       <c r="H8" s="87"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="93"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="95"/>
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8558,8 +8558,8 @@
       </c>
       <c r="G9" s="88"/>
       <c r="H9" s="88"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="94"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="96"/>
       <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8601,10 +8601,10 @@
       <c r="H12" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="92" t="s">
+      <c r="J12" s="94" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8617,8 +8617,8 @@
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="93"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="95"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -8629,8 +8629,8 @@
       </c>
       <c r="G14" s="87"/>
       <c r="H14" s="87"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="93"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="95"/>
     </row>
     <row r="15" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
@@ -8645,11 +8645,11 @@
       <c r="H15" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="73" t="s">
+      <c r="I15" s="80" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="86"/>
-      <c r="K15" s="95" t="s">
+      <c r="K15" s="89" t="s">
         <v>69</v>
       </c>
       <c r="L15" s="63"/>
@@ -8674,9 +8674,9 @@
       </c>
       <c r="G16" s="87"/>
       <c r="H16" s="87"/>
-      <c r="I16" s="74"/>
+      <c r="I16" s="81"/>
       <c r="J16" s="87"/>
-      <c r="K16" s="95"/>
+      <c r="K16" s="89"/>
       <c r="L16" s="63"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
@@ -8699,9 +8699,9 @@
       </c>
       <c r="G17" s="88"/>
       <c r="H17" s="88"/>
-      <c r="I17" s="75"/>
+      <c r="I17" s="82"/>
       <c r="J17" s="88"/>
-      <c r="K17" s="95"/>
+      <c r="K17" s="89"/>
       <c r="L17" s="63"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
@@ -8732,7 +8732,7 @@
         <v>67</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="96"/>
+      <c r="K18" s="90"/>
       <c r="L18" s="63"/>
       <c r="M18" s="63"/>
       <c r="N18" s="63"/>
@@ -8883,7 +8883,7 @@
       <c r="V37" s="63"/>
     </row>
     <row r="53" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K53" s="85" t="s">
+      <c r="K53" s="72" t="s">
         <v>71</v>
       </c>
       <c r="L53" s="63"/>
@@ -8914,11 +8914,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="L2:W2"/>
-    <mergeCell ref="K15:W18"/>
-    <mergeCell ref="K35:V37"/>
     <mergeCell ref="K53:V54"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="H2:H5"/>
@@ -8934,6 +8929,11 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="K15:W18"/>
+    <mergeCell ref="K35:V37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{3D14D563-A18C-4362-B2CD-8D8339C1C427}"/>
@@ -9442,13 +9442,13 @@
       <c r="B10" t="s">
         <v>273</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="101">
         <v>3</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="101" t="s">
+      <c r="F10" s="98" t="s">
         <v>127</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -9473,9 +9473,9 @@
       <c r="C11" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="9"/>
       <c r="H11" s="3"/>
       <c r="I11" s="1"/>
@@ -9491,9 +9491,9 @@
       <c r="C12" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="9"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
@@ -9512,9 +9512,9 @@
       <c r="C13" t="s">
         <v>267</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="9"/>
       <c r="H13" s="3"/>
       <c r="I13" s="1"/>
@@ -9533,7 +9533,7 @@
       <c r="B14" t="s">
         <v>276</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="101">
         <v>4</v>
       </c>
       <c r="E14" s="86" t="s">
@@ -9564,7 +9564,7 @@
       <c r="C15" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="87"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
@@ -9582,7 +9582,7 @@
       <c r="B16" t="s">
         <v>244</v>
       </c>
-      <c r="D16" s="99"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="87"/>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
@@ -9597,7 +9597,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="100"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="88"/>
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
@@ -9618,7 +9618,7 @@
       <c r="B18" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="101">
         <v>5</v>
       </c>
       <c r="E18" s="86" t="s">
@@ -9649,7 +9649,7 @@
       <c r="C19" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="99"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="87"/>
       <c r="F19" s="6"/>
       <c r="G19" s="9"/>
@@ -9667,7 +9667,7 @@
       <c r="C20" t="s">
         <v>280</v>
       </c>
-      <c r="D20" s="99"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="87"/>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
@@ -9685,7 +9685,7 @@
       <c r="C21" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="99"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="87"/>
       <c r="F21" s="6"/>
       <c r="G21" s="9"/>
@@ -9703,7 +9703,7 @@
       <c r="C22" t="s">
         <v>283</v>
       </c>
-      <c r="D22" s="99"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="87"/>
       <c r="F22" s="6"/>
       <c r="G22" s="9"/>
@@ -9721,7 +9721,7 @@
       <c r="C23" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="99"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="87"/>
       <c r="F23" s="6"/>
       <c r="G23" s="9"/>
@@ -9742,7 +9742,7 @@
       <c r="C24" t="s">
         <v>284</v>
       </c>
-      <c r="D24" s="99"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="87"/>
       <c r="F24" s="6"/>
       <c r="G24" s="9"/>
@@ -9760,7 +9760,7 @@
       <c r="C25" t="s">
         <v>285</v>
       </c>
-      <c r="D25" s="100"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="88"/>
       <c r="F25" s="6"/>
       <c r="G25" s="9"/>
@@ -9781,7 +9781,7 @@
       <c r="B26" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="98">
+      <c r="D26" s="101">
         <v>6</v>
       </c>
       <c r="E26" s="86" t="s">
@@ -9812,7 +9812,7 @@
       <c r="C27" t="s">
         <v>287</v>
       </c>
-      <c r="D27" s="99"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="87"/>
       <c r="F27" s="6"/>
       <c r="G27" s="9"/>
@@ -9830,7 +9830,7 @@
       <c r="C28" t="s">
         <v>288</v>
       </c>
-      <c r="D28" s="99"/>
+      <c r="D28" s="102"/>
       <c r="E28" s="87"/>
       <c r="F28" s="6"/>
       <c r="G28" s="9"/>
@@ -9851,7 +9851,7 @@
       <c r="C29" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="100"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="88"/>
       <c r="F29" s="6"/>
       <c r="G29" s="9"/>
@@ -10088,10 +10088,10 @@
       <c r="B40" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="98">
+      <c r="D40" s="101">
         <v>9</v>
       </c>
-      <c r="E40" s="98" t="s">
+      <c r="E40" s="101" t="s">
         <v>138</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -10119,8 +10119,8 @@
       <c r="C41" t="s">
         <v>300</v>
       </c>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9"/>
       <c r="H41" s="34"/>
@@ -10140,8 +10140,8 @@
       <c r="C42" t="s">
         <v>298</v>
       </c>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9"/>
       <c r="H42" s="34"/>
@@ -10161,7 +10161,7 @@
       <c r="B43" t="s">
         <v>301</v>
       </c>
-      <c r="D43" s="98">
+      <c r="D43" s="101">
         <v>10</v>
       </c>
       <c r="E43" s="86" t="s">
@@ -10192,7 +10192,7 @@
       <c r="C44" t="s">
         <v>302</v>
       </c>
-      <c r="D44" s="99"/>
+      <c r="D44" s="102"/>
       <c r="E44" s="87"/>
       <c r="F44" s="6"/>
       <c r="G44" s="9"/>
@@ -10210,7 +10210,7 @@
       <c r="C45" t="s">
         <v>303</v>
       </c>
-      <c r="D45" s="99"/>
+      <c r="D45" s="102"/>
       <c r="E45" s="87"/>
       <c r="F45" s="6"/>
       <c r="G45" s="9"/>
@@ -10231,7 +10231,7 @@
       <c r="C46" t="s">
         <v>304</v>
       </c>
-      <c r="D46" s="99"/>
+      <c r="D46" s="102"/>
       <c r="E46" s="87"/>
       <c r="F46" s="6"/>
       <c r="G46" s="9"/>
@@ -10249,7 +10249,7 @@
       <c r="C47" t="s">
         <v>298</v>
       </c>
-      <c r="D47" s="100"/>
+      <c r="D47" s="103"/>
       <c r="E47" s="88"/>
       <c r="F47" s="6"/>
       <c r="G47" s="9"/>
@@ -10270,10 +10270,10 @@
       <c r="B48" t="s">
         <v>305</v>
       </c>
-      <c r="D48" s="98">
+      <c r="D48" s="101">
         <v>11</v>
       </c>
-      <c r="E48" s="98" t="s">
+      <c r="E48" s="101" t="s">
         <v>141</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -10301,8 +10301,8 @@
       <c r="C49" t="s">
         <v>306</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
       <c r="F49" s="4"/>
       <c r="G49" s="9"/>
       <c r="H49" s="31"/>
@@ -10319,8 +10319,8 @@
       <c r="C50" t="s">
         <v>307</v>
       </c>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
       <c r="F50" s="4"/>
       <c r="G50" s="9"/>
       <c r="H50" s="31"/>
@@ -10340,8 +10340,8 @@
       <c r="C51" t="s">
         <v>308</v>
       </c>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
       <c r="F51" s="4"/>
       <c r="G51" s="9"/>
       <c r="H51" s="31"/>
@@ -10361,10 +10361,10 @@
       <c r="B52" t="s">
         <v>309</v>
       </c>
-      <c r="D52" s="98">
+      <c r="D52" s="101">
         <v>12</v>
       </c>
-      <c r="E52" s="98" t="s">
+      <c r="E52" s="101" t="s">
         <v>143</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -10392,8 +10392,8 @@
       <c r="C53" t="s">
         <v>310</v>
       </c>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
       <c r="F53" s="1"/>
       <c r="G53" s="9"/>
       <c r="H53" s="31"/>
@@ -10410,8 +10410,8 @@
       <c r="C54" t="s">
         <v>311</v>
       </c>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
       <c r="F54" s="1"/>
       <c r="G54" s="9"/>
       <c r="H54" s="31"/>
@@ -10431,8 +10431,8 @@
       <c r="C55" t="s">
         <v>312</v>
       </c>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
       <c r="F55" s="1"/>
       <c r="G55" s="9"/>
       <c r="H55" s="31"/>
@@ -10452,7 +10452,7 @@
       <c r="B56" t="s">
         <v>332</v>
       </c>
-      <c r="D56" s="98">
+      <c r="D56" s="101">
         <v>13</v>
       </c>
       <c r="E56" s="86" t="s">
@@ -10480,7 +10480,7 @@
       <c r="B57" t="s">
         <v>213</v>
       </c>
-      <c r="D57" s="99"/>
+      <c r="D57" s="102"/>
       <c r="E57" s="87"/>
       <c r="F57" s="5"/>
       <c r="G57" s="9"/>
@@ -10498,7 +10498,7 @@
       <c r="B58" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="100"/>
+      <c r="D58" s="103"/>
       <c r="E58" s="88"/>
       <c r="F58" s="5"/>
       <c r="G58" s="9"/>
@@ -10519,7 +10519,7 @@
       <c r="B59" t="s">
         <v>313</v>
       </c>
-      <c r="D59" s="98">
+      <c r="D59" s="101">
         <v>14</v>
       </c>
       <c r="E59" s="86" t="s">
@@ -10550,7 +10550,7 @@
       <c r="C60" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="99"/>
+      <c r="D60" s="102"/>
       <c r="E60" s="87"/>
       <c r="F60" s="6"/>
       <c r="G60" s="9"/>
@@ -10568,7 +10568,7 @@
       <c r="C61" t="s">
         <v>315</v>
       </c>
-      <c r="D61" s="99"/>
+      <c r="D61" s="102"/>
       <c r="E61" s="87"/>
       <c r="F61" s="6"/>
       <c r="G61" s="9"/>
@@ -10589,7 +10589,7 @@
       <c r="C62" t="s">
         <v>316</v>
       </c>
-      <c r="D62" s="100"/>
+      <c r="D62" s="103"/>
       <c r="E62" s="88"/>
       <c r="F62" s="6"/>
       <c r="G62" s="9"/>
@@ -10610,7 +10610,7 @@
       <c r="B63" t="s">
         <v>317</v>
       </c>
-      <c r="D63" s="98">
+      <c r="D63" s="101">
         <v>15</v>
       </c>
       <c r="E63" s="86" t="s">
@@ -10641,7 +10641,7 @@
       <c r="C64" t="s">
         <v>318</v>
       </c>
-      <c r="D64" s="99"/>
+      <c r="D64" s="102"/>
       <c r="E64" s="87"/>
       <c r="F64" s="5"/>
       <c r="G64" s="9"/>
@@ -10659,7 +10659,7 @@
       <c r="C65" t="s">
         <v>319</v>
       </c>
-      <c r="D65" s="99"/>
+      <c r="D65" s="102"/>
       <c r="E65" s="87"/>
       <c r="F65" s="5"/>
       <c r="G65" s="9"/>
@@ -10680,7 +10680,7 @@
       <c r="C66" t="s">
         <v>320</v>
       </c>
-      <c r="D66" s="99"/>
+      <c r="D66" s="102"/>
       <c r="E66" s="88"/>
       <c r="F66" s="5"/>
       <c r="G66" s="9"/>
@@ -10907,6 +10907,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="E2:E5"/>
@@ -10916,31 +10941,6 @@
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="E67:E70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{BD266EE8-9EE9-410E-A73B-7BCBE7209954}"/>
@@ -11018,10 +11018,10 @@
       <c r="F2" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="91" t="s">
         <v>175</v>
       </c>
     </row>
@@ -11038,8 +11038,8 @@
       </c>
       <c r="E3" s="87"/>
       <c r="F3" s="87"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="90"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="92"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
@@ -11052,8 +11052,8 @@
       </c>
       <c r="E4" s="87"/>
       <c r="F4" s="87"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="90"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
@@ -11066,8 +11066,8 @@
       </c>
       <c r="E5" s="88"/>
       <c r="F5" s="88"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="91"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="93"/>
     </row>
     <row r="6" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
@@ -11335,7 +11335,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="83" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="83" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -11383,7 +11383,7 @@
       <c r="G2" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="80" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="37" t="s">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
-      <c r="H3" s="74"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="37"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="F4" s="88"/>
       <c r="G4" s="88"/>
-      <c r="H4" s="75"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="37"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -11439,7 +11439,7 @@
       <c r="G5" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="106" t="s">
         <v>369</v>
       </c>
       <c r="I5" s="41" t="s">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
-      <c r="H6" s="105"/>
+      <c r="H6" s="107"/>
       <c r="I6" s="41"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87"/>
-      <c r="H7" s="105"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="41"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -11494,7 +11494,7 @@
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87"/>
-      <c r="H8" s="105"/>
+      <c r="H8" s="107"/>
       <c r="I8" s="41"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="F9" s="87"/>
       <c r="G9" s="87"/>
-      <c r="H9" s="106"/>
+      <c r="H9" s="108"/>
       <c r="I9" s="41"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -11554,7 +11554,7 @@
       <c r="H11" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="104" t="s">
         <v>205</v>
       </c>
       <c r="J11" s="14"/>
@@ -11571,7 +11571,7 @@
       <c r="F12" s="87"/>
       <c r="G12" s="87"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="107"/>
+      <c r="I12" s="104"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -11586,7 +11586,7 @@
       <c r="F13" s="87"/>
       <c r="G13" s="88"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="107"/>
+      <c r="I13" s="104"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -11607,7 +11607,7 @@
       <c r="H14" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I14" s="108"/>
+      <c r="I14" s="105"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -11622,7 +11622,7 @@
       <c r="F15" s="87"/>
       <c r="G15" s="87"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="108"/>
+      <c r="I15" s="105"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -11637,7 +11637,7 @@
       <c r="F16" s="87"/>
       <c r="G16" s="88"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="108"/>
+      <c r="I16" s="105"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -11658,7 +11658,7 @@
       <c r="H17" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="108"/>
+      <c r="I17" s="105"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -11709,7 +11709,7 @@
       <c r="G20" s="86" t="s">
         <v>375</v>
       </c>
-      <c r="H20" s="73" t="s">
+      <c r="H20" s="80" t="s">
         <v>198</v>
       </c>
       <c r="I20" s="37" t="s">
@@ -11731,7 +11731,7 @@
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="87"/>
-      <c r="H21" s="74"/>
+      <c r="H21" s="81"/>
       <c r="I21" s="37"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
@@ -11749,7 +11749,7 @@
       </c>
       <c r="F22" s="88"/>
       <c r="G22" s="88"/>
-      <c r="H22" s="75"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="37"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
@@ -11770,7 +11770,7 @@
       <c r="G23" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="73" t="s">
+      <c r="H23" s="80" t="s">
         <v>400</v>
       </c>
       <c r="I23" s="41" t="s">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="F24" s="87"/>
       <c r="G24" s="87"/>
-      <c r="H24" s="74"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="41"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -11805,7 +11805,7 @@
       </c>
       <c r="F25" s="87"/>
       <c r="G25" s="87"/>
-      <c r="H25" s="74"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="41"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -11819,7 +11819,7 @@
       </c>
       <c r="F26" s="87"/>
       <c r="G26" s="87"/>
-      <c r="H26" s="74"/>
+      <c r="H26" s="81"/>
       <c r="I26" s="41"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="F27" s="87"/>
       <c r="G27" s="87"/>
-      <c r="H27" s="74"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="41"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
@@ -11850,7 +11850,7 @@
       </c>
       <c r="F28" s="87"/>
       <c r="G28" s="87"/>
-      <c r="H28" s="74"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="41"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
@@ -11867,7 +11867,7 @@
       </c>
       <c r="F29" s="87"/>
       <c r="G29" s="87"/>
-      <c r="H29" s="74"/>
+      <c r="H29" s="81"/>
       <c r="I29" s="41"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
@@ -11884,7 +11884,7 @@
       </c>
       <c r="F30" s="87"/>
       <c r="G30" s="87"/>
-      <c r="H30" s="74"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="41"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="F31" s="87"/>
       <c r="G31" s="87"/>
-      <c r="H31" s="74"/>
+      <c r="H31" s="81"/>
       <c r="I31" s="41"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="F32" s="87"/>
       <c r="G32" s="87"/>
-      <c r="H32" s="74"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="41"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
@@ -11933,7 +11933,7 @@
       </c>
       <c r="F33" s="87"/>
       <c r="G33" s="87"/>
-      <c r="H33" s="74"/>
+      <c r="H33" s="81"/>
       <c r="I33" s="41"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
@@ -11947,7 +11947,7 @@
       </c>
       <c r="F34" s="87"/>
       <c r="G34" s="87"/>
-      <c r="H34" s="74"/>
+      <c r="H34" s="81"/>
       <c r="I34" s="41"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
@@ -11964,7 +11964,7 @@
       </c>
       <c r="F35" s="87"/>
       <c r="G35" s="87"/>
-      <c r="H35" s="74"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="41"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="F36" s="87"/>
       <c r="G36" s="87"/>
-      <c r="H36" s="74"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="41"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
@@ -11995,7 +11995,7 @@
       </c>
       <c r="F37" s="87"/>
       <c r="G37" s="87"/>
-      <c r="H37" s="74"/>
+      <c r="H37" s="81"/>
       <c r="I37" s="41"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="F38" s="87"/>
       <c r="G38" s="87"/>
-      <c r="H38" s="74"/>
+      <c r="H38" s="81"/>
       <c r="I38" s="41"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -12026,7 +12026,7 @@
       </c>
       <c r="F39" s="87"/>
       <c r="G39" s="87"/>
-      <c r="H39" s="74"/>
+      <c r="H39" s="81"/>
       <c r="I39" s="41"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="F40" s="88"/>
       <c r="G40" s="88"/>
-      <c r="H40" s="75"/>
+      <c r="H40" s="82"/>
       <c r="I40" s="41"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
@@ -12080,16 +12080,16 @@
       <c r="C42" t="s">
         <v>394</v>
       </c>
-      <c r="F42" s="66">
+      <c r="F42" s="73">
         <v>5</v>
       </c>
-      <c r="G42" s="66" t="s">
+      <c r="G42" s="73" t="s">
         <v>206</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I42" s="70" t="s">
+      <c r="I42" s="77" t="s">
         <v>202</v>
       </c>
       <c r="J42" s="14"/>
@@ -12108,12 +12108,12 @@
       <c r="E43" t="s">
         <v>398</v>
       </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
       <c r="H43" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I43" s="71"/>
+      <c r="I43" s="78"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
@@ -12127,12 +12127,12 @@
       <c r="E44" t="s">
         <v>399</v>
       </c>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
       <c r="H44" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I44" s="72"/>
+      <c r="I44" s="79"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
@@ -12177,6 +12177,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F5:F22"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G5:G10"/>
     <mergeCell ref="I11:I17"/>
     <mergeCell ref="G42:G44"/>
     <mergeCell ref="F42:F44"/>
@@ -12185,19 +12198,6 @@
     <mergeCell ref="F23:F40"/>
     <mergeCell ref="G23:G40"/>
     <mergeCell ref="H23:H40"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G5:G10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F5:F22"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I23" r:id="rId1" display="https://www.baeldung.com/spring-transactional-propagation-isolation" xr:uid="{48BFAE5D-1145-4E0D-A5BD-44A48408A956}"/>

--- a/Task_Result.xlsx
+++ b/Task_Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\beetech\java\stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C678C64-1690-414A-A666-9726405F2FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD36651D-FEF9-41FA-AE7C-BE7275D78D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day2 " sheetId="1" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="day15" sheetId="9" r:id="rId9"/>
     <sheet name="day17" sheetId="10" r:id="rId10"/>
     <sheet name="day18" sheetId="11" r:id="rId11"/>
+    <sheet name="jpa" sheetId="12" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="769">
   <si>
     <t>STT</t>
   </si>
@@ -2447,9 +2448,6 @@
   </si>
   <si>
     <t>isolation (Tính cô lập)</t>
-  </si>
-  <si>
-    <t>Khả năng thực hiện đồng thời nhiều transaction mà không bị ảnh hưởng tới sự nhất quá dữ liệu</t>
   </si>
   <si>
     <t>Durability (Tính bền vững)</t>
@@ -4471,6 +4469,63 @@
   </si>
   <si>
     <t>không nên lấy đối tượng advice từ joinpoint và lúc thực hiện phương thức của nó sẽ gây tràn luồng</t>
+  </si>
+  <si>
+    <t>Khả năng thực hiện đồng thời nhiều transaction mà không bị ảnh hưởng tới sự nhất quán dữ liệu</t>
+  </si>
+  <si>
+    <t>phương thức join</t>
+  </si>
+  <si>
+    <t>Dùng để join luồng phụ vào luồng chính</t>
+  </si>
+  <si>
+    <t>nên các thread join theo thứ tự sẽ được thực hiện theo thứ tự</t>
+  </si>
+  <si>
+    <t>HashTable và HashMap</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>HashTable</t>
+  </si>
+  <si>
+    <t>Có thể null key và value</t>
+  </si>
+  <si>
+    <t>Không thể null key hoặc value</t>
+  </si>
+  <si>
+    <t>không tự đồng bộ giữa các luồng</t>
+  </si>
+  <si>
+    <t>đồng bộ giữa các luông</t>
+  </si>
+  <si>
+    <t>Hiệu suất cao hơn vì không phải đồng bộ</t>
+  </si>
+  <si>
+    <t>Hiệu suất thấp hơn vì phải đồng bộ</t>
+  </si>
+  <si>
+    <t>mới hơn</t>
+  </si>
+  <si>
+    <t>cũ hơn</t>
+  </si>
+  <si>
+    <t>native Query</t>
+  </si>
+  <si>
+    <t>Với những hàm do jpa cung cấp thì bắt buộc domain type phải là chính entity đó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chỉ nên truyển vào Object[], với Object là từng colum được select </t>
+  </si>
+  <si>
+    <t>nên thử test nó trả về object nào</t>
   </si>
 </sst>
 </file>
@@ -4723,7 +4778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4866,6 +4921,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6153,8 +6211,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="P1:V16"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6170,27 +6228,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
     </row>
     <row r="4" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P4" s="7" t="s">
@@ -6199,11 +6257,11 @@
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
       <c r="U4" s="7" t="s">
         <v>18</v>
       </c>
@@ -6356,25 +6414,62 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="Q12" s="61" t="s">
+        <v>754</v>
+      </c>
+      <c r="R12" t="s">
+        <v>755</v>
+      </c>
+      <c r="S12" t="s">
+        <v>757</v>
+      </c>
+      <c r="T12" t="s">
+        <v>759</v>
+      </c>
+      <c r="U12" t="s">
+        <v>761</v>
+      </c>
+      <c r="V12" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="13" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>756</v>
+      </c>
+      <c r="S13" t="s">
+        <v>758</v>
+      </c>
+      <c r="T13" t="s">
+        <v>760</v>
+      </c>
+      <c r="U13" t="s">
+        <v>762</v>
+      </c>
+      <c r="V13" t="s">
+        <v>764</v>
+      </c>
+    </row>
     <row r="14" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P14" s="65" t="s">
+      <c r="P14" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
     </row>
     <row r="15" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
     </row>
     <row r="16" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6400,8 +6495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9601CE73-AAA1-4817-B4FF-196A7817E766}">
   <dimension ref="A1:W137"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6418,118 +6513,118 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" t="s">
         <v>478</v>
       </c>
-      <c r="B3" t="s">
-        <v>479</v>
-      </c>
       <c r="C3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J15" s="52" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J16" s="52" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -6537,68 +6632,68 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J18" s="52" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J19" s="52" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>498</v>
+      </c>
+      <c r="C20" t="s">
         <v>499</v>
       </c>
-      <c r="C20" t="s">
-        <v>500</v>
-      </c>
       <c r="J20" s="52" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J22" s="52" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J23" s="52" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J27" s="52" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
+        <v>515</v>
+      </c>
+      <c r="J29" s="52" t="s">
         <v>516</v>
-      </c>
-      <c r="J29" s="52" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J30" s="52" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -6625,263 +6720,263 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B33" t="s">
+        <v>520</v>
+      </c>
+      <c r="I33" s="52" t="s">
         <v>521</v>
-      </c>
-      <c r="I33" s="52" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="B34" t="s">
         <v>523</v>
       </c>
-      <c r="B34" t="s">
-        <v>524</v>
-      </c>
       <c r="F34" s="52" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="C36" t="s">
         <v>526</v>
-      </c>
-      <c r="C36" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F40" t="s">
         <v>531</v>
-      </c>
-      <c r="F40" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="C44" t="s">
         <v>536</v>
-      </c>
-      <c r="C44" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D47" s="54" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E48" s="54" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E49" s="54" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E50" s="54" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D51" s="55" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="C55" t="s">
         <v>549</v>
       </c>
-      <c r="C55" t="s">
-        <v>550</v>
-      </c>
       <c r="H55" s="52" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H56" s="52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C60" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L60" s="52" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
+        <v>565</v>
+      </c>
+      <c r="D61" t="s">
         <v>566</v>
-      </c>
-      <c r="D61" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
+        <v>567</v>
+      </c>
+      <c r="D62" t="s">
         <v>568</v>
-      </c>
-      <c r="D62" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
+        <v>569</v>
+      </c>
+      <c r="D63" t="s">
         <v>570</v>
       </c>
-      <c r="D63" t="s">
-        <v>571</v>
-      </c>
       <c r="M63" s="52" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D64" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M64" s="52"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E66" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E67" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E70" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="52" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -6889,39 +6984,39 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="42" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B76" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>590</v>
+      </c>
+      <c r="C77" t="s">
         <v>591</v>
-      </c>
-      <c r="C77" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C78" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="56" t="s">
+        <v>595</v>
+      </c>
+      <c r="E79" s="52" t="s">
         <v>596</v>
-      </c>
-      <c r="E79" s="52" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E80" s="52"/>
     </row>
@@ -6955,69 +7050,69 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="B83" t="s">
         <v>577</v>
       </c>
-      <c r="B83" t="s">
-        <v>578</v>
-      </c>
       <c r="H83" s="52" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B85" s="48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C85" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B86" s="48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C86" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B87" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="C87" t="s">
         <v>584</v>
-      </c>
-      <c r="C87" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B88" s="48" t="s">
+        <v>585</v>
+      </c>
+      <c r="C88" t="s">
         <v>586</v>
-      </c>
-      <c r="C88" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="42" t="s">
+        <v>599</v>
+      </c>
+      <c r="B90" s="52" t="s">
+        <v>598</v>
+      </c>
+      <c r="C90" s="52" t="s">
         <v>600</v>
-      </c>
-      <c r="B90" s="52" t="s">
-        <v>599</v>
-      </c>
-      <c r="C90" s="52" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
@@ -7047,194 +7142,194 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="42" t="s">
+        <v>601</v>
+      </c>
+      <c r="B92" t="s">
         <v>602</v>
-      </c>
-      <c r="B92" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C97" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B98" s="52" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
+        <v>617</v>
+      </c>
+      <c r="C99" t="s">
+        <v>620</v>
+      </c>
+      <c r="D99" t="s">
         <v>618</v>
-      </c>
-      <c r="C99" t="s">
-        <v>621</v>
-      </c>
-      <c r="D99" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
+        <v>621</v>
+      </c>
+      <c r="D100" t="s">
+        <v>619</v>
+      </c>
+      <c r="G100" t="s">
         <v>622</v>
       </c>
-      <c r="D100" t="s">
-        <v>620</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="I100" t="s">
         <v>623</v>
-      </c>
-      <c r="I100" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
+        <v>625</v>
+      </c>
+      <c r="H102" t="s">
         <v>626</v>
-      </c>
-      <c r="H102" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D106" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D107" t="s">
+        <v>630</v>
+      </c>
+      <c r="K107" t="s">
         <v>631</v>
-      </c>
-      <c r="K107" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
+        <v>633</v>
+      </c>
+      <c r="C109" t="s">
         <v>634</v>
       </c>
-      <c r="C109" t="s">
+      <c r="E109" t="s">
         <v>635</v>
-      </c>
-      <c r="E109" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
+        <v>636</v>
+      </c>
+      <c r="C110" t="s">
         <v>637</v>
       </c>
-      <c r="C110" t="s">
+      <c r="G110" t="s">
         <v>638</v>
-      </c>
-      <c r="G110" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>639</v>
+      </c>
+      <c r="C111" t="s">
         <v>640</v>
       </c>
-      <c r="C111" t="s">
+      <c r="H111" t="s">
         <v>641</v>
-      </c>
-      <c r="H111" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
+        <v>642</v>
+      </c>
+      <c r="C112" t="s">
         <v>643</v>
       </c>
-      <c r="C112" t="s">
+      <c r="G112" t="s">
         <v>644</v>
-      </c>
-      <c r="G112" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="42" t="s">
+        <v>608</v>
+      </c>
+      <c r="B113" t="s">
         <v>609</v>
       </c>
-      <c r="B113" t="s">
-        <v>610</v>
-      </c>
       <c r="C113" s="52" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C114" s="52" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C115" s="52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C116" s="52" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
@@ -7258,73 +7353,73 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="42" t="s">
+        <v>646</v>
+      </c>
+      <c r="B119" t="s">
         <v>647</v>
       </c>
-      <c r="B119" t="s">
-        <v>648</v>
-      </c>
       <c r="E119" s="52" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B120" s="57" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E120" s="52" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E121" s="52" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="58"/>
       <c r="C123" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C124" s="59" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="60" t="s">
+        <v>656</v>
+      </c>
+      <c r="C129" t="s">
         <v>657</v>
-      </c>
-      <c r="C129" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
@@ -7379,7 +7474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F636C8-1563-4E93-9E63-868EB37CCEF7}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -7392,256 +7487,256 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="48"/>
       <c r="C6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="48"/>
       <c r="D7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="48"/>
       <c r="D12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
+        <v>705</v>
+      </c>
+      <c r="B15" t="s">
         <v>706</v>
-      </c>
-      <c r="B15" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>710</v>
+      </c>
+      <c r="C19" t="s">
         <v>711</v>
-      </c>
-      <c r="C19" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>713</v>
+      </c>
+      <c r="C21" t="s">
         <v>714</v>
-      </c>
-      <c r="C21" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>715</v>
+      </c>
+      <c r="B22" t="s">
         <v>716</v>
       </c>
-      <c r="B22" t="s">
-        <v>717</v>
-      </c>
       <c r="C22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>717</v>
+      </c>
+      <c r="C23" t="s">
+        <v>741</v>
+      </c>
+      <c r="G23" s="52" t="s">
         <v>718</v>
-      </c>
-      <c r="C23" t="s">
-        <v>742</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C24" s="57" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D24" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C25" s="57" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D25" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>725</v>
+      </c>
+      <c r="C28" s="57" t="s">
         <v>726</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="D28" t="s">
         <v>727</v>
       </c>
-      <c r="D28" t="s">
-        <v>728</v>
-      </c>
       <c r="K28" s="52" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C29" s="57" t="s">
+        <v>728</v>
+      </c>
+      <c r="D29" t="s">
         <v>729</v>
-      </c>
-      <c r="D29" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>730</v>
+      </c>
+      <c r="B30" t="s">
         <v>731</v>
-      </c>
-      <c r="B30" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
+        <v>732</v>
+      </c>
+      <c r="B32" t="s">
         <v>733</v>
-      </c>
-      <c r="B32" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
+        <v>734</v>
+      </c>
+      <c r="B33" t="s">
         <v>735</v>
-      </c>
-      <c r="B33" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -7653,13 +7748,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760EC3B2-6778-433D-B416-FB7DFEE0A0B7}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25977106-C04A-4BDF-83D6-AA6BE76B6728}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD89"/>
   <sheetViews>
-    <sheetView topLeftCell="M11" zoomScale="154" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView topLeftCell="M18" zoomScale="154" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7667,7 +7804,7 @@
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="127.140625" customWidth="1"/>
     <col min="4" max="4" width="71.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
     <col min="26" max="26" width="24.85546875" customWidth="1"/>
     <col min="27" max="27" width="39.140625" customWidth="1"/>
@@ -7677,24 +7814,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
       <c r="Q1" s="39"/>
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
@@ -7786,16 +7923,16 @@
       <c r="P4" t="s">
         <v>214</v>
       </c>
-      <c r="AA4" s="77">
+      <c r="AA4" s="78">
         <v>3</v>
       </c>
-      <c r="AB4" s="77" t="s">
+      <c r="AB4" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="80" t="s">
+      <c r="AC4" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="83" t="s">
+      <c r="AD4" s="84" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7807,10 +7944,10 @@
       <c r="P5" t="s">
         <v>215</v>
       </c>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="84"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="85"/>
     </row>
     <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
@@ -7823,10 +7960,10 @@
       <c r="P6" t="s">
         <v>217</v>
       </c>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="85"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="86"/>
     </row>
     <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -7839,16 +7976,16 @@
       <c r="P7" t="s">
         <v>218</v>
       </c>
-      <c r="AA7" s="77">
+      <c r="AA7" s="78">
         <v>4</v>
       </c>
-      <c r="AB7" s="77" t="s">
+      <c r="AB7" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="80" t="s">
+      <c r="AC7" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="83" t="s">
+      <c r="AD7" s="84" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7860,10 +7997,10 @@
       <c r="P8" t="s">
         <v>219</v>
       </c>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="84"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="85"/>
     </row>
     <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -7876,19 +8013,19 @@
       <c r="P9" t="s">
         <v>220</v>
       </c>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="85"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="86"/>
     </row>
     <row r="10" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -7899,16 +8036,16 @@
       <c r="P10" t="s">
         <v>222</v>
       </c>
-      <c r="AA10" s="73">
+      <c r="AA10" s="74">
         <v>5</v>
       </c>
-      <c r="AB10" s="74" t="s">
+      <c r="AB10" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="AC10" s="75" t="s">
+      <c r="AC10" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="76" t="s">
+      <c r="AD10" s="77" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7919,19 +8056,19 @@
       <c r="P11" t="s">
         <v>223</v>
       </c>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="76"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="77"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
         <v>224</v>
       </c>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="76"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="77"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O13" t="s">
@@ -7940,10 +8077,10 @@
       <c r="P13" t="s">
         <v>225</v>
       </c>
-      <c r="AA13" s="73"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="76"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="77"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N14" s="43" t="s">
@@ -7952,10 +8089,10 @@
       <c r="P14" t="s">
         <v>228</v>
       </c>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="76"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="77"/>
     </row>
     <row r="15" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
@@ -7973,10 +8110,10 @@
       <c r="P15" t="s">
         <v>227</v>
       </c>
-      <c r="AA15" s="73"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="76"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="77"/>
     </row>
     <row r="16" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
@@ -7991,10 +8128,10 @@
       <c r="P16" t="s">
         <v>223</v>
       </c>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="76"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="77"/>
     </row>
     <row r="17" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
@@ -8009,10 +8146,10 @@
       <c r="P17" t="s">
         <v>224</v>
       </c>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="76"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="77"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
@@ -8030,10 +8167,10 @@
       <c r="P18" t="s">
         <v>225</v>
       </c>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="76"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="77"/>
     </row>
     <row r="19" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
@@ -8051,10 +8188,10 @@
       <c r="P19" t="s">
         <v>230</v>
       </c>
-      <c r="AA19" s="73"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="76"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="77"/>
     </row>
     <row r="20" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
@@ -8072,10 +8209,10 @@
       <c r="O20" t="s">
         <v>232</v>
       </c>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="76"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="77"/>
     </row>
     <row r="21" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
@@ -8093,10 +8230,10 @@
       <c r="P21" t="s">
         <v>233</v>
       </c>
-      <c r="AA21" s="73"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="76"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="77"/>
     </row>
     <row r="22" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -8114,10 +8251,10 @@
       <c r="P22" t="s">
         <v>234</v>
       </c>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="76"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="77"/>
     </row>
     <row r="23" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
@@ -8135,10 +8272,10 @@
       <c r="O23" t="s">
         <v>236</v>
       </c>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="75"/>
-      <c r="AD23" s="76"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="77"/>
     </row>
     <row r="24" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
@@ -8156,10 +8293,10 @@
       <c r="P24" t="s">
         <v>237</v>
       </c>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="76"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="77"/>
     </row>
     <row r="25" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
@@ -8177,31 +8314,35 @@
       <c r="P25" t="s">
         <v>238</v>
       </c>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="76"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="77"/>
     </row>
     <row r="26" spans="1:30" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65" t="s">
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
       <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
+      <c r="N26" s="42" t="s">
+        <v>751</v>
+      </c>
+      <c r="O26" t="s">
+        <v>752</v>
+      </c>
       <c r="P26" s="42"/>
       <c r="Q26" s="42"/>
       <c r="R26" s="42"/>
@@ -8225,21 +8366,23 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
       <c r="L27" s="42"/>
       <c r="M27" s="42"/>
       <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
+      <c r="O27" t="s">
+        <v>753</v>
+      </c>
       <c r="P27" s="42"/>
       <c r="Q27" s="42"/>
       <c r="R27" s="42"/>
@@ -8263,67 +8406,67 @@
       <c r="AD27" s="1"/>
     </row>
     <row r="54" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="72" t="s">
+      <c r="D54" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
       <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
+      <c r="A59" s="72"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
+      <c r="A63" s="66"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="70" t="s">
+      <c r="A87" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="71"/>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="70"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="70"/>
+      <c r="A88" s="71"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="71"/>
     </row>
     <row r="89" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="70"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
+      <c r="A89" s="71"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -8409,32 +8552,32 @@
       <c r="B2" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="86">
+      <c r="G2" s="87">
         <v>1</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
@@ -8443,10 +8586,10 @@
       <c r="C3" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="92"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="93"/>
       <c r="L3" s="38"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
@@ -8467,10 +8610,10 @@
       <c r="C4" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="92"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="93"/>
       <c r="L4" s="38"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
@@ -8488,10 +8631,10 @@
       <c r="C5" t="s">
         <v>246</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="93"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="94"/>
       <c r="L5" s="38"/>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
@@ -8512,16 +8655,16 @@
       <c r="B6" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="87">
         <v>2</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="95" t="s">
         <v>72</v>
       </c>
       <c r="M6" s="26"/>
@@ -8533,20 +8676,20 @@
       <c r="C7" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="95"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="96"/>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="95"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="96"/>
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8556,18 +8699,18 @@
       <c r="C9" t="s">
         <v>251</v>
       </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="96"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="97"/>
       <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" t="s">
         <v>427</v>
-      </c>
-      <c r="C10" t="s">
-        <v>428</v>
       </c>
       <c r="G10" s="50"/>
       <c r="H10" s="50"/>
@@ -8577,10 +8720,10 @@
     </row>
     <row r="11" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" t="s">
         <v>429</v>
-      </c>
-      <c r="C11" t="s">
-        <v>430</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -8595,16 +8738,16 @@
       <c r="B12" t="s">
         <v>253</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="87">
         <v>3</v>
       </c>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="80" t="s">
+      <c r="I12" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="95" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8615,10 +8758,10 @@
       <c r="C13" t="s">
         <v>254</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="95"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="96"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -8627,10 +8770,10 @@
       <c r="C14" t="s">
         <v>255</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="95"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="96"/>
     </row>
     <row r="15" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
@@ -8639,31 +8782,31 @@
       <c r="B15" t="s">
         <v>257</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="87">
         <v>4</v>
       </c>
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="80" t="s">
+      <c r="I15" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="89" t="s">
+      <c r="J15" s="87"/>
+      <c r="K15" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -8672,23 +8815,23 @@
       <c r="C16" t="s">
         <v>258</v>
       </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -8697,23 +8840,23 @@
       <c r="C17" t="s">
         <v>259</v>
       </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
     </row>
     <row r="18" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
@@ -8732,19 +8875,19 @@
         <v>67</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -8839,82 +8982,88 @@
       <c r="J29" s="14"/>
     </row>
     <row r="35" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K35" s="65" t="s">
+      <c r="K35" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="63"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="63"/>
-      <c r="V35" s="63"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
     </row>
     <row r="36" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="63"/>
-      <c r="V36" s="63"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
     </row>
     <row r="37" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="63"/>
-      <c r="V37" s="63"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="64"/>
     </row>
     <row r="53" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K53" s="72" t="s">
+      <c r="K53" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="L53" s="63"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="63"/>
-      <c r="R53" s="63"/>
-      <c r="S53" s="63"/>
-      <c r="T53" s="63"/>
-      <c r="U53" s="63"/>
-      <c r="V53" s="63"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64"/>
+      <c r="T53" s="64"/>
+      <c r="U53" s="64"/>
+      <c r="V53" s="64"/>
     </row>
     <row r="54" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K54" s="63"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="63"/>
-      <c r="S54" s="63"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="63"/>
-      <c r="V54" s="63"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="64"/>
+      <c r="S54" s="64"/>
+      <c r="T54" s="64"/>
+      <c r="U54" s="64"/>
+      <c r="V54" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K53:V54"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="I2:I5"/>
@@ -8923,17 +9072,11 @@
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="I6:I9"/>
     <mergeCell ref="J6:J9"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="L2:W2"/>
     <mergeCell ref="K15:W18"/>
     <mergeCell ref="K35:V37"/>
+    <mergeCell ref="K53:V54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{3D14D563-A18C-4362-B2CD-8D8339C1C427}"/>
@@ -9005,14 +9148,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="64"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -9213,8 +9356,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A18" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9260,10 +9403,10 @@
       <c r="B2" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="86">
+      <c r="D2" s="87">
         <v>1</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="87" t="s">
         <v>119</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -9291,8 +9434,8 @@
       <c r="C3" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
@@ -9309,8 +9452,8 @@
       <c r="C4" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="6"/>
       <c r="G4" s="11"/>
       <c r="H4" s="3"/>
@@ -9330,8 +9473,8 @@
       <c r="C5" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="6"/>
       <c r="G5" s="11"/>
       <c r="H5" s="3"/>
@@ -9351,10 +9494,10 @@
       <c r="B6" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="87">
         <v>2</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="87" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -9382,8 +9525,8 @@
       <c r="C7" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -9400,8 +9543,8 @@
       <c r="C8" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
@@ -9421,8 +9564,8 @@
       <c r="C9" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -9442,13 +9585,13 @@
       <c r="B10" t="s">
         <v>273</v>
       </c>
-      <c r="D10" s="101">
+      <c r="D10" s="102">
         <v>3</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="98" t="s">
+      <c r="F10" s="99" t="s">
         <v>127</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -9473,9 +9616,9 @@
       <c r="C11" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="99"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="9"/>
       <c r="H11" s="3"/>
       <c r="I11" s="1"/>
@@ -9491,9 +9634,9 @@
       <c r="C12" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="99"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="9"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
@@ -9512,9 +9655,9 @@
       <c r="C13" t="s">
         <v>267</v>
       </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="100"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="9"/>
       <c r="H13" s="3"/>
       <c r="I13" s="1"/>
@@ -9533,10 +9676,10 @@
       <c r="B14" t="s">
         <v>276</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="102">
         <v>4</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="87" t="s">
         <v>128</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -9564,8 +9707,8 @@
       <c r="C15" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="87"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
       <c r="H15" s="31"/>
@@ -9582,8 +9725,8 @@
       <c r="B16" t="s">
         <v>244</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="87"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
       <c r="H16" s="31"/>
@@ -9597,8 +9740,8 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="103"/>
-      <c r="E17" s="88"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
       <c r="H17" s="31"/>
@@ -9618,10 +9761,10 @@
       <c r="B18" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="102">
         <v>5</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="87" t="s">
         <v>130</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -9649,8 +9792,8 @@
       <c r="C19" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="87"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="6"/>
       <c r="G19" s="9"/>
       <c r="H19" s="31"/>
@@ -9667,8 +9810,8 @@
       <c r="C20" t="s">
         <v>280</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="87"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
       <c r="H20" s="31"/>
@@ -9685,8 +9828,8 @@
       <c r="C21" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="87"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="88"/>
       <c r="F21" s="6"/>
       <c r="G21" s="9"/>
       <c r="H21" s="31"/>
@@ -9703,8 +9846,8 @@
       <c r="C22" t="s">
         <v>283</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="87"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="6"/>
       <c r="G22" s="9"/>
       <c r="H22" s="31"/>
@@ -9721,8 +9864,8 @@
       <c r="C23" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="87"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="6"/>
       <c r="G23" s="9"/>
       <c r="H23" s="31"/>
@@ -9742,8 +9885,8 @@
       <c r="C24" t="s">
         <v>284</v>
       </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="87"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="6"/>
       <c r="G24" s="9"/>
       <c r="H24" s="31"/>
@@ -9760,8 +9903,8 @@
       <c r="C25" t="s">
         <v>285</v>
       </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="88"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="89"/>
       <c r="F25" s="6"/>
       <c r="G25" s="9"/>
       <c r="H25" s="31"/>
@@ -9781,10 +9924,10 @@
       <c r="B26" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="101">
+      <c r="D26" s="102">
         <v>6</v>
       </c>
-      <c r="E26" s="86" t="s">
+      <c r="E26" s="87" t="s">
         <v>132</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -9812,8 +9955,8 @@
       <c r="C27" t="s">
         <v>287</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="87"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="88"/>
       <c r="F27" s="6"/>
       <c r="G27" s="9"/>
       <c r="H27" s="31"/>
@@ -9830,8 +9973,8 @@
       <c r="C28" t="s">
         <v>288</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="87"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="88"/>
       <c r="F28" s="6"/>
       <c r="G28" s="9"/>
       <c r="H28" s="31"/>
@@ -9851,8 +9994,8 @@
       <c r="C29" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="88"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="6"/>
       <c r="G29" s="9"/>
       <c r="H29" s="31"/>
@@ -9872,10 +10015,10 @@
       <c r="B30" t="s">
         <v>290</v>
       </c>
-      <c r="D30" s="86">
+      <c r="D30" s="87">
         <v>7</v>
       </c>
-      <c r="E30" s="86" t="s">
+      <c r="E30" s="87" t="s">
         <v>134</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -9901,8 +10044,8 @@
       <c r="C31" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
       <c r="F31" s="5"/>
       <c r="G31" s="1"/>
       <c r="H31" s="31"/>
@@ -9919,8 +10062,8 @@
       <c r="C32" t="s">
         <v>292</v>
       </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
       <c r="F32" s="5"/>
       <c r="G32" s="1"/>
       <c r="H32" s="31"/>
@@ -9940,8 +10083,8 @@
       <c r="C33" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
       <c r="F33" s="5"/>
       <c r="G33" s="1"/>
       <c r="H33" s="31"/>
@@ -9961,10 +10104,10 @@
       <c r="B34" t="s">
         <v>331</v>
       </c>
-      <c r="D34" s="86">
+      <c r="D34" s="87">
         <v>8</v>
       </c>
-      <c r="E34" s="86" t="s">
+      <c r="E34" s="87" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -9992,8 +10135,8 @@
       <c r="C35" t="s">
         <v>294</v>
       </c>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
       <c r="F35" s="5"/>
       <c r="G35" s="9"/>
       <c r="H35" s="31"/>
@@ -10010,8 +10153,8 @@
       <c r="C36" t="s">
         <v>330</v>
       </c>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
       <c r="F36" s="5"/>
       <c r="G36" s="9"/>
       <c r="H36" s="31"/>
@@ -10031,8 +10174,8 @@
       <c r="C37" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
       <c r="F37" s="5"/>
       <c r="G37" s="9"/>
       <c r="H37" s="31"/>
@@ -10049,8 +10192,8 @@
       <c r="C38" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
       <c r="F38" s="5"/>
       <c r="G38" s="9"/>
       <c r="H38" s="31"/>
@@ -10067,8 +10210,8 @@
       <c r="C39" t="s">
         <v>296</v>
       </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
       <c r="F39" s="5"/>
       <c r="G39" s="9"/>
       <c r="H39" s="31"/>
@@ -10088,10 +10231,10 @@
       <c r="B40" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="101">
+      <c r="D40" s="102">
         <v>9</v>
       </c>
-      <c r="E40" s="101" t="s">
+      <c r="E40" s="102" t="s">
         <v>138</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -10119,8 +10262,8 @@
       <c r="C41" t="s">
         <v>300</v>
       </c>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9"/>
       <c r="H41" s="34"/>
@@ -10140,8 +10283,8 @@
       <c r="C42" t="s">
         <v>298</v>
       </c>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9"/>
       <c r="H42" s="34"/>
@@ -10161,10 +10304,10 @@
       <c r="B43" t="s">
         <v>301</v>
       </c>
-      <c r="D43" s="101">
+      <c r="D43" s="102">
         <v>10</v>
       </c>
-      <c r="E43" s="86" t="s">
+      <c r="E43" s="87" t="s">
         <v>139</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -10192,8 +10335,8 @@
       <c r="C44" t="s">
         <v>302</v>
       </c>
-      <c r="D44" s="102"/>
-      <c r="E44" s="87"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="88"/>
       <c r="F44" s="6"/>
       <c r="G44" s="9"/>
       <c r="H44" s="34"/>
@@ -10210,8 +10353,8 @@
       <c r="C45" t="s">
         <v>303</v>
       </c>
-      <c r="D45" s="102"/>
-      <c r="E45" s="87"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="88"/>
       <c r="F45" s="6"/>
       <c r="G45" s="9"/>
       <c r="H45" s="34"/>
@@ -10231,8 +10374,8 @@
       <c r="C46" t="s">
         <v>304</v>
       </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="87"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="88"/>
       <c r="F46" s="6"/>
       <c r="G46" s="9"/>
       <c r="H46" s="34"/>
@@ -10249,8 +10392,8 @@
       <c r="C47" t="s">
         <v>298</v>
       </c>
-      <c r="D47" s="103"/>
-      <c r="E47" s="88"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="89"/>
       <c r="F47" s="6"/>
       <c r="G47" s="9"/>
       <c r="H47" s="34"/>
@@ -10270,10 +10413,10 @@
       <c r="B48" t="s">
         <v>305</v>
       </c>
-      <c r="D48" s="101">
+      <c r="D48" s="102">
         <v>11</v>
       </c>
-      <c r="E48" s="101" t="s">
+      <c r="E48" s="102" t="s">
         <v>141</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -10301,8 +10444,8 @@
       <c r="C49" t="s">
         <v>306</v>
       </c>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
       <c r="F49" s="4"/>
       <c r="G49" s="9"/>
       <c r="H49" s="31"/>
@@ -10319,8 +10462,8 @@
       <c r="C50" t="s">
         <v>307</v>
       </c>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
       <c r="F50" s="4"/>
       <c r="G50" s="9"/>
       <c r="H50" s="31"/>
@@ -10340,8 +10483,8 @@
       <c r="C51" t="s">
         <v>308</v>
       </c>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
       <c r="F51" s="4"/>
       <c r="G51" s="9"/>
       <c r="H51" s="31"/>
@@ -10361,10 +10504,10 @@
       <c r="B52" t="s">
         <v>309</v>
       </c>
-      <c r="D52" s="101">
+      <c r="D52" s="102">
         <v>12</v>
       </c>
-      <c r="E52" s="101" t="s">
+      <c r="E52" s="102" t="s">
         <v>143</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -10392,8 +10535,8 @@
       <c r="C53" t="s">
         <v>310</v>
       </c>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
       <c r="F53" s="1"/>
       <c r="G53" s="9"/>
       <c r="H53" s="31"/>
@@ -10410,8 +10553,8 @@
       <c r="C54" t="s">
         <v>311</v>
       </c>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
       <c r="F54" s="1"/>
       <c r="G54" s="9"/>
       <c r="H54" s="31"/>
@@ -10431,8 +10574,8 @@
       <c r="C55" t="s">
         <v>312</v>
       </c>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
       <c r="F55" s="1"/>
       <c r="G55" s="9"/>
       <c r="H55" s="31"/>
@@ -10452,10 +10595,10 @@
       <c r="B56" t="s">
         <v>332</v>
       </c>
-      <c r="D56" s="101">
+      <c r="D56" s="102">
         <v>13</v>
       </c>
-      <c r="E56" s="86" t="s">
+      <c r="E56" s="87" t="s">
         <v>145</v>
       </c>
       <c r="F56" s="5" t="s">
@@ -10480,8 +10623,8 @@
       <c r="B57" t="s">
         <v>213</v>
       </c>
-      <c r="D57" s="102"/>
-      <c r="E57" s="87"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="88"/>
       <c r="F57" s="5"/>
       <c r="G57" s="9"/>
       <c r="H57" s="31"/>
@@ -10498,8 +10641,8 @@
       <c r="B58" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="103"/>
-      <c r="E58" s="88"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="89"/>
       <c r="F58" s="5"/>
       <c r="G58" s="9"/>
       <c r="H58" s="31"/>
@@ -10519,10 +10662,10 @@
       <c r="B59" t="s">
         <v>313</v>
       </c>
-      <c r="D59" s="101">
+      <c r="D59" s="102">
         <v>14</v>
       </c>
-      <c r="E59" s="86" t="s">
+      <c r="E59" s="87" t="s">
         <v>146</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -10550,8 +10693,8 @@
       <c r="C60" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="102"/>
-      <c r="E60" s="87"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="88"/>
       <c r="F60" s="6"/>
       <c r="G60" s="9"/>
       <c r="H60" s="31"/>
@@ -10568,8 +10711,8 @@
       <c r="C61" t="s">
         <v>315</v>
       </c>
-      <c r="D61" s="102"/>
-      <c r="E61" s="87"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="88"/>
       <c r="F61" s="6"/>
       <c r="G61" s="9"/>
       <c r="H61" s="31"/>
@@ -10589,8 +10732,8 @@
       <c r="C62" t="s">
         <v>316</v>
       </c>
-      <c r="D62" s="103"/>
-      <c r="E62" s="88"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="89"/>
       <c r="F62" s="6"/>
       <c r="G62" s="9"/>
       <c r="H62" s="31"/>
@@ -10610,10 +10753,10 @@
       <c r="B63" t="s">
         <v>317</v>
       </c>
-      <c r="D63" s="101">
+      <c r="D63" s="102">
         <v>15</v>
       </c>
-      <c r="E63" s="86" t="s">
+      <c r="E63" s="87" t="s">
         <v>149</v>
       </c>
       <c r="F63" s="5" t="s">
@@ -10641,8 +10784,8 @@
       <c r="C64" t="s">
         <v>318</v>
       </c>
-      <c r="D64" s="102"/>
-      <c r="E64" s="87"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="88"/>
       <c r="F64" s="5"/>
       <c r="G64" s="9"/>
       <c r="H64" s="31"/>
@@ -10659,8 +10802,8 @@
       <c r="C65" t="s">
         <v>319</v>
       </c>
-      <c r="D65" s="102"/>
-      <c r="E65" s="87"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="88"/>
       <c r="F65" s="5"/>
       <c r="G65" s="9"/>
       <c r="H65" s="31"/>
@@ -10680,8 +10823,8 @@
       <c r="C66" t="s">
         <v>320</v>
       </c>
-      <c r="D66" s="102"/>
-      <c r="E66" s="88"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="89"/>
       <c r="F66" s="5"/>
       <c r="G66" s="9"/>
       <c r="H66" s="31"/>
@@ -10704,7 +10847,7 @@
       <c r="D67" s="32">
         <v>16</v>
       </c>
-      <c r="E67" s="86" t="s">
+      <c r="E67" s="87" t="s">
         <v>150</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -10733,7 +10876,7 @@
         <v>322</v>
       </c>
       <c r="D68" s="32"/>
-      <c r="E68" s="87"/>
+      <c r="E68" s="88"/>
       <c r="F68" s="6"/>
       <c r="G68" s="9"/>
       <c r="H68" s="31"/>
@@ -10754,7 +10897,7 @@
         <v>323</v>
       </c>
       <c r="D69" s="32"/>
-      <c r="E69" s="87"/>
+      <c r="E69" s="88"/>
       <c r="F69" s="6"/>
       <c r="G69" s="9"/>
       <c r="H69" s="31"/>
@@ -10772,7 +10915,7 @@
         <v>324</v>
       </c>
       <c r="D70" s="32"/>
-      <c r="E70" s="88"/>
+      <c r="E70" s="89"/>
       <c r="F70" s="6"/>
       <c r="G70" s="9"/>
       <c r="H70" s="31"/>
@@ -10792,10 +10935,10 @@
       <c r="B71" t="s">
         <v>334</v>
       </c>
-      <c r="D71" s="86">
+      <c r="D71" s="87">
         <v>17</v>
       </c>
-      <c r="E71" s="86" t="s">
+      <c r="E71" s="87" t="s">
         <v>152</v>
       </c>
       <c r="F71" s="5" t="s">
@@ -10823,8 +10966,8 @@
       <c r="C72" t="s">
         <v>325</v>
       </c>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
       <c r="F72" s="5"/>
       <c r="G72" s="9"/>
       <c r="H72" s="31"/>
@@ -10844,8 +10987,8 @@
       <c r="C73" t="s">
         <v>327</v>
       </c>
-      <c r="D73" s="88"/>
-      <c r="E73" s="88"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
       <c r="F73" s="5"/>
       <c r="G73" s="9"/>
       <c r="H73" s="31"/>
@@ -11012,16 +11155,16 @@
       <c r="B2" t="s">
         <v>336</v>
       </c>
-      <c r="E2" s="86">
+      <c r="E2" s="87">
         <v>1</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="92" t="s">
         <v>175</v>
       </c>
     </row>
@@ -11036,10 +11179,10 @@
       <c r="D3" t="s">
         <v>346</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="92"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="93"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
@@ -11050,10 +11193,10 @@
       <c r="D4" t="s">
         <v>345</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="92"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
@@ -11064,10 +11207,10 @@
       <c r="D5" t="s">
         <v>344</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="93"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
@@ -11195,8 +11338,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11335,8 +11478,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A10" zoomScale="83" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11377,13 +11520,13 @@
       <c r="B2" t="s">
         <v>355</v>
       </c>
-      <c r="F2" s="86">
+      <c r="F2" s="87">
         <v>1</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="81" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="37" t="s">
@@ -11402,9 +11545,9 @@
       <c r="C3" t="s">
         <v>357</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="81"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="82"/>
       <c r="I3" s="37"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -11419,9 +11562,9 @@
       <c r="C4" t="s">
         <v>359</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="82"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="83"/>
       <c r="I4" s="37"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -11433,14 +11576,14 @@
       <c r="B5" t="s">
         <v>360</v>
       </c>
-      <c r="F5" s="86">
+      <c r="F5" s="87">
         <v>2</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="106" t="s">
-        <v>369</v>
+      <c r="H5" s="107" t="s">
+        <v>368</v>
       </c>
       <c r="I5" s="41" t="s">
         <v>204</v>
@@ -11458,9 +11601,9 @@
       <c r="C6" t="s">
         <v>362</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="107"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="108"/>
       <c r="I6" s="41"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -11475,9 +11618,9 @@
       <c r="C7" t="s">
         <v>364</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="107"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="108"/>
       <c r="I7" s="41"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -11487,14 +11630,14 @@
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" t="s">
         <v>367</v>
       </c>
-      <c r="C8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="107"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="108"/>
       <c r="I8" s="41"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -11507,11 +11650,11 @@
         <v>365</v>
       </c>
       <c r="C9" t="s">
-        <v>366</v>
-      </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="108"/>
+        <v>750</v>
+      </c>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="109"/>
       <c r="I9" s="41"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -11521,15 +11664,15 @@
     </row>
     <row r="10" spans="1:14" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>370</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>371</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="3"/>
       <c r="I10" s="37" t="s">
         <v>203</v>
@@ -11541,20 +11684,20 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="64" t="s">
         <v>192</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
-      </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="86" t="s">
+        <v>371</v>
+      </c>
+      <c r="F11" s="88"/>
+      <c r="G11" s="87" t="s">
         <v>192</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="104" t="s">
+      <c r="I11" s="105" t="s">
         <v>205</v>
       </c>
       <c r="J11" s="14"/>
@@ -11564,14 +11707,14 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="63"/>
+      <c r="B12" s="64"/>
       <c r="C12" t="s">
-        <v>373</v>
-      </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
+        <v>372</v>
+      </c>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="104"/>
+      <c r="I12" s="105"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -11581,12 +11724,12 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" t="s">
-        <v>387</v>
-      </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
+        <v>386</v>
+      </c>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="104"/>
+      <c r="I13" s="105"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -11594,20 +11737,20 @@
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="63" t="s">
-        <v>374</v>
+      <c r="B14" s="64" t="s">
+        <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>376</v>
-      </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="86" t="s">
+        <v>375</v>
+      </c>
+      <c r="F14" s="88"/>
+      <c r="G14" s="87" t="s">
         <v>193</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I14" s="105"/>
+      <c r="I14" s="106"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -11615,14 +11758,14 @@
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="63"/>
+      <c r="B15" s="64"/>
       <c r="C15" t="s">
-        <v>378</v>
-      </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
+        <v>377</v>
+      </c>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="105"/>
+      <c r="I15" s="106"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -11632,12 +11775,12 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="23"/>
       <c r="C16" t="s">
-        <v>388</v>
-      </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="88"/>
+        <v>387</v>
+      </c>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="105"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -11645,20 +11788,20 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="2:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="64" t="s">
         <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>377</v>
-      </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="F17" s="88"/>
+      <c r="G17" s="87" t="s">
         <v>194</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="105"/>
+      <c r="I17" s="106"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -11666,12 +11809,12 @@
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="63"/>
+      <c r="B18" s="64"/>
       <c r="C18" t="s">
-        <v>379</v>
-      </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
+        <v>378</v>
+      </c>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
       <c r="H18" s="5"/>
       <c r="I18" s="46"/>
       <c r="J18" s="14"/>
@@ -11683,10 +11826,10 @@
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="23"/>
       <c r="C19" t="s">
-        <v>389</v>
-      </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="88"/>
+        <v>388</v>
+      </c>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="5"/>
       <c r="I19" s="46"/>
       <c r="J19" s="14"/>
@@ -11697,19 +11840,19 @@
     </row>
     <row r="20" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" t="s">
         <v>380</v>
       </c>
-      <c r="C20" t="s">
-        <v>381</v>
-      </c>
       <c r="D20" t="s">
-        <v>383</v>
-      </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="86" t="s">
-        <v>375</v>
-      </c>
-      <c r="H20" s="80" t="s">
+        <v>382</v>
+      </c>
+      <c r="F20" s="88"/>
+      <c r="G20" s="87" t="s">
+        <v>374</v>
+      </c>
+      <c r="H20" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I20" s="37" t="s">
@@ -11724,14 +11867,14 @@
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="23"/>
       <c r="C21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D21" t="s">
-        <v>384</v>
-      </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="81"/>
+        <v>383</v>
+      </c>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="37"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
@@ -11742,14 +11885,14 @@
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="23"/>
       <c r="C22" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" t="s">
         <v>385</v>
       </c>
-      <c r="D22" t="s">
-        <v>386</v>
-      </c>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="82"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="83"/>
       <c r="I22" s="37"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
@@ -11762,19 +11905,19 @@
         <v>199</v>
       </c>
       <c r="C23" t="s">
-        <v>390</v>
-      </c>
-      <c r="F23" s="86">
+        <v>389</v>
+      </c>
+      <c r="F23" s="87">
         <v>3</v>
       </c>
-      <c r="G23" s="86" t="s">
+      <c r="G23" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="80" t="s">
-        <v>400</v>
+      <c r="H23" s="81" t="s">
+        <v>399</v>
       </c>
       <c r="I23" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
@@ -11784,14 +11927,14 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D24" t="s">
         <v>402</v>
       </c>
-      <c r="D24" t="s">
-        <v>403</v>
-      </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="81"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="82"/>
       <c r="I24" s="41"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -11801,11 +11944,11 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>404</v>
-      </c>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="81"/>
+        <v>403</v>
+      </c>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="82"/>
       <c r="I25" s="41"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -11815,11 +11958,11 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>405</v>
-      </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="81"/>
+        <v>404</v>
+      </c>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="82"/>
       <c r="I26" s="41"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -11829,14 +11972,14 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="81"/>
+        <v>405</v>
+      </c>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="82"/>
       <c r="I27" s="41"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
@@ -11846,11 +11989,11 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>407</v>
-      </c>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="81"/>
+        <v>406</v>
+      </c>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="82"/>
       <c r="I28" s="41"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
@@ -11860,14 +12003,14 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
+        <v>407</v>
+      </c>
+      <c r="E29" t="s">
         <v>408</v>
       </c>
-      <c r="E29" t="s">
-        <v>409</v>
-      </c>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="81"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="82"/>
       <c r="I29" s="41"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
@@ -11877,14 +12020,14 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
+        <v>409</v>
+      </c>
+      <c r="E30" t="s">
         <v>410</v>
       </c>
-      <c r="E30" t="s">
-        <v>411</v>
-      </c>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="81"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="41"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
@@ -11894,14 +12037,14 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="D31" t="s">
         <v>422</v>
       </c>
-      <c r="D31" t="s">
-        <v>423</v>
-      </c>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="81"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="82"/>
       <c r="I31" s="41"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
@@ -11912,11 +12055,11 @@
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="48"/>
       <c r="D32" t="s">
-        <v>425</v>
-      </c>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="81"/>
+        <v>424</v>
+      </c>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="82"/>
       <c r="I32" s="41"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
@@ -11926,14 +12069,14 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D33" t="s">
-        <v>424</v>
-      </c>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="81"/>
+        <v>423</v>
+      </c>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="82"/>
       <c r="I33" s="41"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
@@ -11943,11 +12086,11 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>413</v>
-      </c>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="81"/>
+        <v>412</v>
+      </c>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="82"/>
       <c r="I34" s="41"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
@@ -11957,14 +12100,14 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>413</v>
+      </c>
+      <c r="D35" t="s">
         <v>414</v>
       </c>
-      <c r="D35" t="s">
-        <v>415</v>
-      </c>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="81"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="82"/>
       <c r="I35" s="41"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -11974,11 +12117,11 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>421</v>
-      </c>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="81"/>
+        <v>420</v>
+      </c>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="82"/>
       <c r="I36" s="41"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
@@ -11988,14 +12131,14 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
+        <v>415</v>
+      </c>
+      <c r="D37" t="s">
         <v>416</v>
       </c>
-      <c r="D37" t="s">
-        <v>417</v>
-      </c>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="81"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="82"/>
       <c r="I37" s="41"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
@@ -12005,11 +12148,11 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>418</v>
-      </c>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="81"/>
+        <v>417</v>
+      </c>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="82"/>
       <c r="I38" s="41"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -12019,14 +12162,14 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
+        <v>418</v>
+      </c>
+      <c r="D39" t="s">
         <v>419</v>
       </c>
-      <c r="D39" t="s">
-        <v>420</v>
-      </c>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="81"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="82"/>
       <c r="I39" s="41"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
@@ -12036,11 +12179,11 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>421</v>
-      </c>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="82"/>
+        <v>420</v>
+      </c>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="83"/>
       <c r="I40" s="41"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
@@ -12050,10 +12193,10 @@
     </row>
     <row r="41" spans="2:14" ht="150" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>390</v>
+      </c>
+      <c r="C41" t="s">
         <v>391</v>
-      </c>
-      <c r="C41" t="s">
-        <v>392</v>
       </c>
       <c r="F41" s="3">
         <v>4</v>
@@ -12075,21 +12218,21 @@
     </row>
     <row r="42" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>392</v>
+      </c>
+      <c r="C42" t="s">
         <v>393</v>
       </c>
-      <c r="C42" t="s">
-        <v>394</v>
-      </c>
-      <c r="F42" s="73">
+      <c r="F42" s="74">
         <v>5</v>
       </c>
-      <c r="G42" s="73" t="s">
+      <c r="G42" s="74" t="s">
         <v>206</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I42" s="77" t="s">
+      <c r="I42" s="78" t="s">
         <v>202</v>
       </c>
       <c r="J42" s="14"/>
@@ -12100,20 +12243,20 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D43" t="s">
+        <v>396</v>
+      </c>
+      <c r="E43" t="s">
         <v>397</v>
       </c>
-      <c r="E43" t="s">
-        <v>398</v>
-      </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
       <c r="H43" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I43" s="78"/>
+      <c r="I43" s="79"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
@@ -12122,17 +12265,17 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E44" t="s">
-        <v>399</v>
-      </c>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
+        <v>398</v>
+      </c>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
       <c r="H44" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I44" s="79"/>
+      <c r="I44" s="80"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
@@ -12219,7 +12362,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -12232,7 +12375,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B1" t="s">
         <v>354</v>
@@ -12243,302 +12386,302 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" t="s">
         <v>432</v>
-      </c>
-      <c r="B2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" t="s">
         <v>435</v>
-      </c>
-      <c r="C4" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" t="s">
         <v>437</v>
-      </c>
-      <c r="C5" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M6" t="s">
+        <v>664</v>
+      </c>
+      <c r="N6" t="s">
         <v>665</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>666</v>
       </c>
-      <c r="O6" t="s">
-        <v>667</v>
-      </c>
       <c r="P6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="s">
         <v>439</v>
       </c>
-      <c r="E7" t="s">
-        <v>440</v>
-      </c>
       <c r="O7" t="s">
+        <v>667</v>
+      </c>
+      <c r="P7" t="s">
         <v>668</v>
-      </c>
-      <c r="P7" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E8" t="s">
         <v>444</v>
-      </c>
-      <c r="E8" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" t="s">
         <v>446</v>
-      </c>
-      <c r="C12" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" t="s">
         <v>448</v>
-      </c>
-      <c r="C13" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="48" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" t="s">
         <v>450</v>
-      </c>
-      <c r="C16" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C19" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="D21" t="s">
         <v>682</v>
-      </c>
-      <c r="D21" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" s="48"/>
       <c r="D22" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="48"/>
       <c r="D23" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C24" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" s="48" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D25" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26" s="48"/>
       <c r="D26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" s="48"/>
       <c r="D27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C31" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C33" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M33" s="52" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>471</v>
+      </c>
+      <c r="B44" t="s">
         <v>472</v>
-      </c>
-      <c r="B44" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
